--- a/time_tracker.xlsx
+++ b/time_tracker.xlsx
@@ -2,10 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B44BAF69-220E-4E34-9664-C1196981665B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr filterPrivacy="true"/>
   <bookViews>
-    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13667" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13667" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="2025-03-23" sheetId="2" r:id="rId1"/>
@@ -14,13 +13,15 @@
     <sheet name="2025-03-26" sheetId="5" r:id="rId4"/>
     <sheet name="2025-03-27" sheetId="6" r:id="rId5"/>
     <sheet name="2025-03-28" sheetId="7" r:id="rId6"/>
+    <sheet name="2025-03-29" sheetId="8" r:id="rId10"/>
+    <sheet name="2025-03-30" sheetId="9" r:id="rId11"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Timestamp</t>
   </si>
@@ -83,13 +84,55 @@
   </si>
   <si>
     <t>Making Standalone p2p</t>
+  </si>
+  <si>
+    <t>setting up client</t>
+  </si>
+  <si>
+    <t>51.6 minutes</t>
+  </si>
+  <si>
+    <t>Cleaning up Server Code</t>
+  </si>
+  <si>
+    <t>Cleaning up Client</t>
+  </si>
+  <si>
+    <t>changing client to accept mic input</t>
+  </si>
+  <si>
+    <t>testing if client works as intended</t>
+  </si>
+  <si>
+    <t>200.8 minutes</t>
+  </si>
+  <si>
+    <t>debugging client code</t>
+  </si>
+  <si>
+    <t>fixing doublicate offerings</t>
+  </si>
+  <si>
+    <t>removing douplicate connections</t>
+  </si>
+  <si>
+    <t>candidate handling</t>
+  </si>
+  <si>
+    <t>fixed?</t>
+  </si>
+  <si>
+    <t>fixed message relay</t>
+  </si>
+  <si>
+    <t>relaying audio through track instead of webrtc messages</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,13 +162,13 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -138,7 +181,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1349,16 +1392,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{596D1CF3-20E2-4545-B72A-D68B9650BAFC}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="true" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.05"/>
   <cols>
-    <col min="1" max="1" width="18.5546875" customWidth="1"/>
+    <col customWidth="true" max="1" min="1" width="18.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1372,7 +1415,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>45744.057800925926</v>
       </c>
@@ -1383,7 +1426,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>45744.064745370371</v>
       </c>
@@ -1394,7 +1437,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>45744.136018518519</v>
       </c>
@@ -1405,7 +1448,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>45744.142523148148</v>
       </c>
@@ -1416,7 +1459,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>45744.157337962963</v>
       </c>
@@ -1424,7 +1467,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>45744.187314814815</v>
       </c>
@@ -1432,12 +1475,596 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>45744.20584490741</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>45744.638074993694</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>45744.67411145267</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>45744.67413884898</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>45744.674150005994</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>45744.68908312113</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>45744.6893142482</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>45744.696091830134</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1">
+        <v>45744.7024373233</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1">
+        <v>45744.7336251985</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1">
+        <v>45744.83071876901</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1">
+        <v>45744.84210321038</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1">
+        <v>45744.84223766083</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1">
+        <v>45744.88149036274</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1">
+        <v>45744.89243711462</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1">
+        <v>45744.89251622875</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1">
+        <v>45744.89262058788</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1">
+        <v>45744.92068306718</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1">
+        <v>45744.98683565355</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1">
+        <v>45744.99464004342</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1">
+        <v>45744.996212382735</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1">
+        <v>45744.998895252946</v>
+      </c>
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1">
+        <v>45744.99904822115</v>
+      </c>
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>45745.01224035646</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>45745.01298861631</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>45745.09366693716</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>45745.60808934357</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>45745.65338504206</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>45745.712469725324</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>45745.71653145084</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>45745.75418654514</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>45745.77698727838</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>45745.81824113425</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>45745.849566754005</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>45745.850345880965</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>45745.85589102113</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>45745.949275470695</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1">
+        <v>45745.963818100776</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1">
+        <v>45745.968921494925</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1">
+        <v>45745.979717021255</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1">
+        <v>45745.9805906755</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>45746.07166126658</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>45746.07379243403</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>45746.089129825275</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>45746.08914352225</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>45746.11303664665</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>45746.121478966874</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>45746.12152989634</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>45746.12179726052</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
 </file>
--- a/time_tracker.xlsx
+++ b/time_tracker.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Timestamp</t>
   </si>
@@ -126,6 +126,15 @@
   </si>
   <si>
     <t>relaying audio through track instead of webrtc messages</t>
+  </si>
+  <si>
+    <t>debugging audio relay</t>
+  </si>
+  <si>
+    <t>uploading</t>
+  </si>
+  <si>
+    <t>489.8 minutes</t>
   </si>
 </sst>
 </file>
@@ -2065,6 +2074,119 @@
         <v>34</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>45746.133023722636</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>45746.14434104651</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>45746.1521672488</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>45746.152173801274</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>45746.160441355525</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>45746.17795254131</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1">
+        <v>45746.21819308954</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1">
+        <v>45746.21825791271</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1">
+        <v>45746.22831615693</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1">
+        <v>45746.22833756836</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/time_tracker.xlsx
+++ b/time_tracker.xlsx
@@ -2,9 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
-  <workbookPr filterPrivacy="true"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E16D3A-4A99-428B-A589-E156D0A56B81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13667" activeTab="5"/>
+    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13667" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2025-03-23" sheetId="2" r:id="rId1"/>
@@ -13,15 +14,28 @@
     <sheet name="2025-03-26" sheetId="5" r:id="rId4"/>
     <sheet name="2025-03-27" sheetId="6" r:id="rId5"/>
     <sheet name="2025-03-28" sheetId="7" r:id="rId6"/>
-    <sheet name="2025-03-29" sheetId="8" r:id="rId10"/>
-    <sheet name="2025-03-30" sheetId="9" r:id="rId11"/>
+    <sheet name="2025-03-29" sheetId="8" r:id="rId7"/>
+    <sheet name="2025-03-30" sheetId="9" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="39">
   <si>
     <t>Timestamp</t>
   </si>
@@ -135,13 +149,16 @@
   </si>
   <si>
     <t>489.8 minutes</t>
+  </si>
+  <si>
+    <t>261 minutes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,13 +188,13 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -190,7 +207,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1399,18 +1416,19 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{596D1CF3-20E2-4545-B72A-D68B9650BAFC}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col customWidth="true" max="1" min="1" width="18.5546875"/>
+    <col min="1" max="1" width="18.5546875" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1424,7 +1442,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>45744.057800925926</v>
       </c>
@@ -1435,7 +1453,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>45744.064745370371</v>
       </c>
@@ -1446,7 +1464,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>45744.136018518519</v>
       </c>
@@ -1457,7 +1475,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>45744.142523148148</v>
       </c>
@@ -1468,28 +1486,43 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>45744.157337962963</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>45744.187314814815</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>45744.20584490741</v>
       </c>
-    </row>
-    <row r="9">
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>45744.638074993694</v>
       </c>
@@ -1500,9 +1533,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>45744.67411145267</v>
+        <v>45744.674111452667</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
@@ -1511,9 +1544,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>45744.67413884898</v>
+        <v>45744.674138848983</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
@@ -1525,7 +1558,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>45744.674150005994</v>
       </c>
@@ -1536,9 +1569,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>45744.68908312113</v>
+        <v>45744.689083121128</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
@@ -1547,7 +1580,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>45744.6893142482</v>
       </c>
@@ -1558,7 +1591,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>45744.696091830134</v>
       </c>
@@ -1569,7 +1602,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>45744.7024373233</v>
       </c>
@@ -1580,9 +1613,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>45744.7336251985</v>
+        <v>45744.733625198503</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
@@ -1591,9 +1624,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>45744.83071876901</v>
+        <v>45744.830718769008</v>
       </c>
       <c r="B18" t="s">
         <v>9</v>
@@ -1602,7 +1635,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>45744.84210321038</v>
       </c>
@@ -1613,9 +1646,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>45744.84223766083</v>
+        <v>45744.842237660829</v>
       </c>
       <c r="B20" t="s">
         <v>9</v>
@@ -1624,9 +1657,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>45744.88149036274</v>
+        <v>45744.881490362743</v>
       </c>
       <c r="B21" t="s">
         <v>8</v>
@@ -1635,7 +1668,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>45744.89243711462</v>
       </c>
@@ -1646,9 +1679,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>45744.89251622875</v>
+        <v>45744.892516228749</v>
       </c>
       <c r="B23" t="s">
         <v>8</v>
@@ -1657,9 +1690,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>45744.89262058788</v>
+        <v>45744.892620587882</v>
       </c>
       <c r="B24" t="s">
         <v>9</v>
@@ -1668,9 +1701,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>45744.92068306718</v>
+        <v>45744.920683067183</v>
       </c>
       <c r="B25" t="s">
         <v>8</v>
@@ -1679,9 +1712,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>45744.98683565355</v>
+        <v>45744.986835653552</v>
       </c>
       <c r="B26" t="s">
         <v>9</v>
@@ -1690,7 +1723,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>45744.99464004342</v>
       </c>
@@ -1701,7 +1734,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>45744.996212382735</v>
       </c>
@@ -1712,7 +1745,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>45744.998895252946</v>
       </c>
@@ -1723,15 +1756,243 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>45744.99904822115</v>
+        <v>45744.999048221151</v>
       </c>
       <c r="B30" t="s">
         <v>9</v>
       </c>
       <c r="C30" t="s">
         <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>45745.01224035646</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>45745.012988616312</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>45745.093666937159</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>45745.608089343572</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>45745.65338504206</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>45745.712469725324</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>45745.716531450838</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>45745.754186545142</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>45745.776987278383</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>45745.81824113425</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>45745.849566754005</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>45745.850345880965</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>45745.855891021129</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>45745.949275470695</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>45745.963818100776</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>45745.968921494925</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>45745.979717021255</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>45745.980590675499</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1740,13 +2001,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1760,235 +2022,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>45745.01224035646</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1">
-        <v>45745.01298861631</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1">
-        <v>45745.09366693716</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1">
-        <v>45745.60808934357</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1">
-        <v>45745.65338504206</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1">
-        <v>45745.712469725324</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1">
-        <v>45745.71653145084</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1">
-        <v>45745.75418654514</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1">
-        <v>45745.77698727838</v>
-      </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1">
-        <v>45745.81824113425</v>
-      </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1">
-        <v>45745.849566754005</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1">
-        <v>45745.850345880965</v>
-      </c>
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1">
-        <v>45745.85589102113</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1">
-        <v>45745.949275470695</v>
-      </c>
-      <c r="B15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1">
-        <v>45745.963818100776</v>
-      </c>
-      <c r="B16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1">
-        <v>45745.968921494925</v>
-      </c>
-      <c r="B17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1">
-        <v>45745.979717021255</v>
-      </c>
-      <c r="B18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1">
-        <v>45745.9805906755</v>
-      </c>
-      <c r="B19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-  </sheetData>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1">
-        <v>45746.07166126658</v>
+        <v>45746.071661266578</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -1997,9 +2033,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>45746.07379243403</v>
+        <v>45746.073792434028</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -2008,7 +2044,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>45746.089129825275</v>
       </c>
@@ -2019,9 +2055,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>45746.08914352225</v>
+        <v>45746.089143522251</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
@@ -2030,9 +2066,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>45746.11303664665</v>
+        <v>45746.113036646653</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -2041,7 +2077,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>45746.121478966874</v>
       </c>
@@ -2052,9 +2088,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>45746.12152989634</v>
+        <v>45746.121529896343</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -2063,9 +2099,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>45746.12179726052</v>
+        <v>45746.121797260523</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
@@ -2074,7 +2110,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>45746.133023722636</v>
       </c>
@@ -2085,9 +2121,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>45746.14434104651</v>
+        <v>45746.144341046507</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
@@ -2096,9 +2132,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>45746.1521672488</v>
+        <v>45746.152167248802</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
@@ -2107,7 +2143,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>45746.152173801274</v>
       </c>
@@ -2118,7 +2154,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>45746.160441355525</v>
       </c>
@@ -2129,9 +2165,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>45746.17795254131</v>
+        <v>45746.177952541308</v>
       </c>
       <c r="B15" t="s">
         <v>9</v>
@@ -2140,9 +2176,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>45746.21819308954</v>
+        <v>45746.218193089539</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
@@ -2151,9 +2187,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>45746.21825791271</v>
+        <v>45746.218257912711</v>
       </c>
       <c r="B17" t="s">
         <v>9</v>
@@ -2162,9 +2198,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>45746.22831615693</v>
+        <v>45746.228316156928</v>
       </c>
       <c r="B18" t="s">
         <v>8</v>
@@ -2173,9 +2209,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>45746.22833756836</v>
+        <v>45746.228337568362</v>
       </c>
       <c r="B19" t="s">
         <v>10</v>
@@ -2187,6 +2223,18 @@
         <v>37</v>
       </c>
     </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>45746.243036124106</v>
+      </c>
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/time_tracker.xlsx
+++ b/time_tracker.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E16D3A-4A99-428B-A589-E156D0A56B81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27F379EF-DD94-48E8-A8D8-2B5B73E55FED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13667" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13667" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2025-03-23" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="41">
   <si>
     <t>Timestamp</t>
   </si>
@@ -152,6 +152,12 @@
   </si>
   <si>
     <t>261 minutes</t>
+  </si>
+  <si>
+    <t>184 minutes</t>
+  </si>
+  <si>
+    <t>estimation due to data loss</t>
   </si>
 </sst>
 </file>
@@ -516,15 +522,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:B25"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23.33203125" customWidth="1"/>
+    <col min="3" max="3" width="26.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -709,7 +716,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>45740.627371679526</v>
       </c>
@@ -720,7 +727,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>45740.646376308403</v>
       </c>
@@ -731,7 +738,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>45740.653353161615</v>
       </c>
@@ -742,7 +749,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>45740.663743590536</v>
       </c>
@@ -753,7 +760,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>45740.663994558417</v>
       </c>
@@ -764,7 +771,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>45740.720342545887</v>
       </c>
@@ -775,7 +782,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>45740.734726947798</v>
       </c>
@@ -786,7 +793,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>45740.735707078456</v>
       </c>
@@ -797,7 +804,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>45740.750782052666</v>
       </c>
@@ -807,8 +814,14 @@
       <c r="C25" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D25" t="s">
+        <v>39</v>
+      </c>
+      <c r="F25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>45740.942445779052</v>
       </c>
@@ -819,7 +832,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>45740.942557845578</v>
       </c>
@@ -830,7 +843,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>45740.942748058922</v>
       </c>
@@ -841,7 +854,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>45740.961865332705</v>
       </c>
@@ -1418,7 +1431,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{596D1CF3-20E2-4545-B72A-D68B9650BAFC}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>

--- a/time_tracker.xlsx
+++ b/time_tracker.xlsx
@@ -2,10 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27F379EF-DD94-48E8-A8D8-2B5B73E55FED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr filterPrivacy="true"/>
   <bookViews>
-    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13667" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13667" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2025-03-23" sheetId="2" r:id="rId1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Timestamp</t>
   </si>
@@ -158,13 +157,19 @@
   </si>
   <si>
     <t>estimation due to data loss</t>
+  </si>
+  <si>
+    <t>ensuring proper functionality</t>
+  </si>
+  <si>
+    <t>96.4 minutes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,13 +199,13 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -213,7 +218,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2019,9 +2024,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.05"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2035,7 +2040,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>45746.071661266578</v>
       </c>
@@ -2046,7 +2051,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>45746.073792434028</v>
       </c>
@@ -2057,7 +2062,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>45746.089129825275</v>
       </c>
@@ -2068,7 +2073,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>45746.089143522251</v>
       </c>
@@ -2079,7 +2084,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>45746.113036646653</v>
       </c>
@@ -2090,7 +2095,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>45746.121478966874</v>
       </c>
@@ -2101,7 +2106,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>45746.121529896343</v>
       </c>
@@ -2112,7 +2117,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4">
       <c r="A9" s="1">
         <v>45746.121797260523</v>
       </c>
@@ -2123,7 +2128,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4">
       <c r="A10" s="1">
         <v>45746.133023722636</v>
       </c>
@@ -2134,7 +2139,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4">
       <c r="A11" s="1">
         <v>45746.144341046507</v>
       </c>
@@ -2145,7 +2150,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4">
       <c r="A12" s="1">
         <v>45746.152167248802</v>
       </c>
@@ -2156,7 +2161,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4">
       <c r="A13" s="1">
         <v>45746.152173801274</v>
       </c>
@@ -2167,7 +2172,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4">
       <c r="A14" s="1">
         <v>45746.160441355525</v>
       </c>
@@ -2178,7 +2183,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4">
       <c r="A15" s="1">
         <v>45746.177952541308</v>
       </c>
@@ -2189,7 +2194,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4">
       <c r="A16" s="1">
         <v>45746.218193089539</v>
       </c>
@@ -2200,7 +2205,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4">
       <c r="A17" s="1">
         <v>45746.218257912711</v>
       </c>
@@ -2211,7 +2216,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4">
       <c r="A18" s="1">
         <v>45746.228316156928</v>
       </c>
@@ -2222,7 +2227,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4">
       <c r="A19" s="1">
         <v>45746.228337568362</v>
       </c>
@@ -2236,7 +2241,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4">
       <c r="A20" s="1">
         <v>45746.243036124106</v>
       </c>
@@ -2245,6 +2250,97 @@
       </c>
       <c r="C20" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1">
+        <v>45746.613413481755</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1">
+        <v>45746.67286370907</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1">
+        <v>45746.67909132854</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1">
+        <v>45746.684894376456</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1">
+        <v>45746.68936351511</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1">
+        <v>45746.69141077649</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1">
+        <v>45746.73729946967</v>
+      </c>
+      <c r="B27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1">
+        <v>45746.73734234193</v>
+      </c>
+      <c r="B28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/time_tracker.xlsx
+++ b/time_tracker.xlsx
@@ -2,9 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
-  <workbookPr filterPrivacy="true"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{610CDA65-BF9F-419D-B116-291F58239EF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13667" activeTab="1"/>
+    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13667" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2025-03-23" sheetId="2" r:id="rId1"/>
@@ -15,6 +16,7 @@
     <sheet name="2025-03-28" sheetId="7" r:id="rId6"/>
     <sheet name="2025-03-29" sheetId="8" r:id="rId7"/>
     <sheet name="2025-03-30" sheetId="9" r:id="rId8"/>
+    <sheet name="2025-03-31" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="43">
   <si>
     <t>Timestamp</t>
   </si>
@@ -168,8 +170,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,13 +201,13 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -218,7 +220,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -529,7 +531,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -2020,13 +2022,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2040,7 +2042,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>45746.071661266578</v>
       </c>
@@ -2051,7 +2053,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>45746.073792434028</v>
       </c>
@@ -2062,7 +2064,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>45746.089129825275</v>
       </c>
@@ -2073,7 +2075,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>45746.089143522251</v>
       </c>
@@ -2084,7 +2086,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>45746.113036646653</v>
       </c>
@@ -2095,7 +2097,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>45746.121478966874</v>
       </c>
@@ -2106,7 +2108,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>45746.121529896343</v>
       </c>
@@ -2117,7 +2119,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>45746.121797260523</v>
       </c>
@@ -2128,7 +2130,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>45746.133023722636</v>
       </c>
@@ -2139,7 +2141,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>45746.144341046507</v>
       </c>
@@ -2150,7 +2152,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>45746.152167248802</v>
       </c>
@@ -2161,7 +2163,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>45746.152173801274</v>
       </c>
@@ -2172,7 +2174,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>45746.160441355525</v>
       </c>
@@ -2183,7 +2185,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>45746.177952541308</v>
       </c>
@@ -2194,7 +2196,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>45746.218193089539</v>
       </c>
@@ -2205,7 +2207,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>45746.218257912711</v>
       </c>
@@ -2216,7 +2218,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>45746.228316156928</v>
       </c>
@@ -2227,7 +2229,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>45746.228337568362</v>
       </c>
@@ -2241,7 +2243,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>45746.243036124106</v>
       </c>
@@ -2252,7 +2254,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>45746.613413481755</v>
       </c>
@@ -2263,9 +2265,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>45746.67286370907</v>
+        <v>45746.672863709071</v>
       </c>
       <c r="B22" t="s">
         <v>8</v>
@@ -2274,9 +2276,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>45746.67909132854</v>
+        <v>45746.679091328537</v>
       </c>
       <c r="B23" t="s">
         <v>9</v>
@@ -2285,7 +2287,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>45746.684894376456</v>
       </c>
@@ -2296,9 +2298,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>45746.68936351511</v>
+        <v>45746.689363515106</v>
       </c>
       <c r="B25" t="s">
         <v>9</v>
@@ -2307,7 +2309,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>45746.69141077649</v>
       </c>
@@ -2318,9 +2320,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>45746.73729946967</v>
+        <v>45746.737299469671</v>
       </c>
       <c r="B27" t="s">
         <v>10</v>
@@ -2332,9 +2334,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>45746.73734234193</v>
+        <v>45746.737342341927</v>
       </c>
       <c r="B28" t="s">
         <v>4</v>
@@ -2342,6 +2344,41 @@
       <c r="C28" t="s">
         <v>41</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="A2:C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/time_tracker.xlsx
+++ b/time_tracker.xlsx
@@ -2,10 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{610CDA65-BF9F-419D-B116-291F58239EF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr filterPrivacy="true"/>
   <bookViews>
-    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13667" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13667" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="2025-03-23" sheetId="2" r:id="rId1"/>
@@ -17,6 +16,8 @@
     <sheet name="2025-03-29" sheetId="8" r:id="rId7"/>
     <sheet name="2025-03-30" sheetId="9" r:id="rId8"/>
     <sheet name="2025-03-31" sheetId="10" r:id="rId9"/>
+    <sheet name="2025-04-01" sheetId="11" r:id="rId13"/>
+    <sheet name="2025-04-02" sheetId="12" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>Timestamp</t>
   </si>
@@ -165,13 +166,19 @@
   </si>
   <si>
     <t>96.4 minutes</t>
+  </si>
+  <si>
+    <t>hlsl</t>
+  </si>
+  <si>
+    <t>hlsl, redoing map to be more interactable</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,15 +206,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="false">
+      <alignment/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -220,7 +230,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -527,6 +537,213 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2">
+        <v>45748.804172661105</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2">
+        <v>45748.84681213179</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2">
+        <v>45748.88721337298</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2">
+        <v>45748.89652836046</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2">
+        <v>45748.898932487515</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2">
+        <v>45748.93874615091</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2">
+        <v>45748.96755505677</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>45749.00062835692</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>45749.00386234484</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>45749.0355351931</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>45749.07815362967</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>45749.09197500347</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>45749.09199236061</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>45749.092083589145</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F29"/>

--- a/time_tracker.xlsx
+++ b/time_tracker.xlsx
@@ -18,6 +18,7 @@
     <sheet name="2025-03-31" sheetId="10" r:id="rId9"/>
     <sheet name="2025-04-01" sheetId="11" r:id="rId13"/>
     <sheet name="2025-04-02" sheetId="12" r:id="rId14"/>
+    <sheet name="2025-04-03" sheetId="13" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>Timestamp</t>
   </si>
@@ -172,6 +173,21 @@
   </si>
   <si>
     <t>hlsl, redoing map to be more interactable</t>
+  </si>
+  <si>
+    <t>researching</t>
+  </si>
+  <si>
+    <t>researching hlsl</t>
+  </si>
+  <si>
+    <t>researching hlsl1</t>
+  </si>
+  <si>
+    <t>refactoring map gen into compute shader</t>
+  </si>
+  <si>
+    <t>241.0 minutes</t>
   </si>
 </sst>
 </file>
@@ -740,6 +756,298 @@
         <v>44</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>45749.64768604947</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>45749.64789989734</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>45749.65407119383</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>45749.711895267326</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>45749.71221837881</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>45749.71222956598</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>45749.715417644686</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1">
+        <v>45749.75355865271</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1">
+        <v>45749.800413401266</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1">
+        <v>45749.817296117566</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1">
+        <v>45749.82408933051</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1">
+        <v>45749.837042278035</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1">
+        <v>45749.84673093179</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1">
+        <v>45749.86785977283</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1">
+        <v>45749.88494348798</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1">
+        <v>45749.90002489471</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1">
+        <v>45749.90425869278</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1">
+        <v>45749.92553956229</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1">
+        <v>45749.951577354856</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1">
+        <v>45749.98059971139</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>45750.00168422224</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>45750.0030291035</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>45750.029520239106</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>45750.02957231783</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>

--- a/time_tracker.xlsx
+++ b/time_tracker.xlsx
@@ -19,6 +19,8 @@
     <sheet name="2025-04-01" sheetId="11" r:id="rId13"/>
     <sheet name="2025-04-02" sheetId="12" r:id="rId14"/>
     <sheet name="2025-04-03" sheetId="13" r:id="rId15"/>
+    <sheet name="2025-04-04" sheetId="14" r:id="rId16"/>
+    <sheet name="2025-04-05" sheetId="15" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>Timestamp</t>
   </si>
@@ -188,6 +190,30 @@
   </si>
   <si>
     <t>241.0 minutes</t>
+  </si>
+  <si>
+    <t>fixing the sfu (media server)</t>
+  </si>
+  <si>
+    <t>making APK from P2P</t>
+  </si>
+  <si>
+    <t>researching golang apk making</t>
+  </si>
+  <si>
+    <t>trying to build the apk</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sdk/ndk/studio</t>
+  </si>
+  <si>
+    <t>307.9 minutes</t>
+  </si>
+  <si>
+    <t>apk build</t>
+  </si>
+  <si>
+    <t>287.4 minutes</t>
   </si>
 </sst>
 </file>
@@ -1048,6 +1074,370 @@
         <v>49</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>45750.06546300731</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>45750.56975615938</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>45750.58242147613</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>45750.71529878632</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>45750.742593540366</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>45750.75550750139</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>45750.771631551666</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>45750.77952312341</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>45750.781097968356</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>45750.800874785025</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1">
+        <v>45750.83400325268</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1">
+        <v>45750.90597624498</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1">
+        <v>45750.93115505942</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1">
+        <v>45750.93125788376</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1">
+        <v>45750.94643998478</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>45751.047934789436</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>45751.13186917831</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>45751.131882098234</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>45751.13191068102</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>45752.50288801971</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>45752.53793258368</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>45752.55964361543</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>45752.56014361434</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>45752.60091522073</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>45752.66160773235</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>45752.855371614525</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>45752.960040396414</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>45752.96005912689</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" t="s">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>

--- a/time_tracker.xlsx
+++ b/time_tracker.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
-  <workbookPr filterPrivacy="true"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF63DBF2-40D7-4E26-84CD-9126F3E390C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13667" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13667" firstSheet="7" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2025-03-23" sheetId="2" r:id="rId1"/>
@@ -16,11 +17,12 @@
     <sheet name="2025-03-29" sheetId="8" r:id="rId7"/>
     <sheet name="2025-03-30" sheetId="9" r:id="rId8"/>
     <sheet name="2025-03-31" sheetId="10" r:id="rId9"/>
-    <sheet name="2025-04-01" sheetId="11" r:id="rId13"/>
-    <sheet name="2025-04-02" sheetId="12" r:id="rId14"/>
-    <sheet name="2025-04-03" sheetId="13" r:id="rId15"/>
-    <sheet name="2025-04-04" sheetId="14" r:id="rId16"/>
-    <sheet name="2025-04-05" sheetId="15" r:id="rId17"/>
+    <sheet name="2025-04-01" sheetId="11" r:id="rId10"/>
+    <sheet name="2025-04-02" sheetId="12" r:id="rId11"/>
+    <sheet name="2025-04-03" sheetId="13" r:id="rId12"/>
+    <sheet name="2025-04-04" sheetId="14" r:id="rId13"/>
+    <sheet name="2025-04-05" sheetId="15" r:id="rId14"/>
+    <sheet name="2025-04-06" sheetId="16" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="63">
   <si>
     <t>Timestamp</t>
   </si>
@@ -214,13 +216,28 @@
   </si>
   <si>
     <t>287.4 minutes</t>
+  </si>
+  <si>
+    <t>trying to get  apk build</t>
+  </si>
+  <si>
+    <t>switching to linux for the build</t>
+  </si>
+  <si>
+    <t>2.5 minutes</t>
+  </si>
+  <si>
+    <t>writing gaant</t>
+  </si>
+  <si>
+    <t>meeting</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -250,16 +267,14 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="false">
-      <alignment/>
-    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -272,7 +287,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -579,14 +594,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -600,7 +616,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>45748.804172661105</v>
       </c>
@@ -611,9 +627,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
-        <v>45748.84681213179</v>
+        <v>45748.846812131793</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -622,9 +638,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
-        <v>45748.88721337298</v>
+        <v>45748.887213372982</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -633,9 +649,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
-        <v>45748.89652836046</v>
+        <v>45748.896528360463</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -644,7 +660,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>45748.898932487515</v>
       </c>
@@ -655,7 +671,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>45748.93874615091</v>
       </c>
@@ -666,7 +682,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>45748.96755505677</v>
       </c>
@@ -678,17 +694,346 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:D28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>45749.000628356916</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>45749.003862344842</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>45749.035535193099</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>45749.078153629671</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>45749.091975003474</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>45749.091992360612</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>45749.092083589145</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>45749.647686049473</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>45749.64789989734</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>45749.654071193829</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>45749.711895267326</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>45749.712218378809</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>45749.712229565979</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>45749.715417644686</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>45749.753558652708</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>45749.800413401266</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>45749.817296117566</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>45749.824089330512</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>45749.837042278035</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>45749.846730931793</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>45749.867859772829</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>45749.884943487981</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>45749.900024894712</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>45749.904258692783</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>45749.925539562289</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>45749.951577354856</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>45749.980599711387</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -702,318 +1047,232 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>45749.00062835692</v>
+        <v>45750.001684222239</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>45749.00386234484</v>
+        <v>45750.0030291035</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>45749.0355351931</v>
+        <v>45750.029520239106</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>45749.07815362967</v>
+        <v>45750.029572317828</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>48</v>
+      </c>
+      <c r="D5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>45749.09197500347</v>
+        <v>45750.065463007311</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>45749.09199236061</v>
+        <v>45750.569756159377</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>45749.092083589145</v>
+        <v>45750.582421476131</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>45749.64768604947</v>
+        <v>45750.715298786323</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>45749.64789989734</v>
+        <v>45750.742593540366</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>45749.65407119383</v>
+        <v>45750.755507501388</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>45749.711895267326</v>
+        <v>45750.771631551666</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>45749.71221837881</v>
+        <v>45750.779523123412</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>45749.71222956598</v>
+        <v>45750.781097968356</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>45749.715417644686</v>
+        <v>45750.800874785025</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>45749.75355865271</v>
+        <v>45750.834003252683</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>45749.800413401266</v>
+        <v>45750.905976244983</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>45749.817296117566</v>
+        <v>45750.931155059421</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>45749.82408933051</v>
+        <v>45750.931257883763</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>45749.837042278035</v>
+        <v>45750.946439984778</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1">
-        <v>45749.84673093179</v>
-      </c>
-      <c r="B21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1">
-        <v>45749.86785977283</v>
-      </c>
-      <c r="B22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1">
-        <v>45749.88494348798</v>
-      </c>
-      <c r="B23" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1">
-        <v>45749.90002489471</v>
-      </c>
-      <c r="B24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1">
-        <v>45749.90425869278</v>
-      </c>
-      <c r="B25" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1">
-        <v>45749.92553956229</v>
-      </c>
-      <c r="B26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1">
-        <v>45749.951577354856</v>
-      </c>
-      <c r="B27" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1">
-        <v>45749.98059971139</v>
-      </c>
-      <c r="B28" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1027,230 +1286,67 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>45750.00168422224</v>
+        <v>45751.047934789436</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>45750.0030291035</v>
+        <v>45751.131869178309</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>45750.029520239106</v>
+        <v>45751.131882098234</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>54</v>
+      </c>
+      <c r="D4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>45750.02957231783</v>
+        <v>45751.131910681019</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1">
-        <v>45750.06546300731</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1">
-        <v>45750.56975615938</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1">
-        <v>45750.58242147613</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1">
-        <v>45750.71529878632</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1">
-        <v>45750.742593540366</v>
-      </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1">
-        <v>45750.75550750139</v>
-      </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1">
-        <v>45750.771631551666</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1">
-        <v>45750.77952312341</v>
-      </c>
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1">
-        <v>45750.781097968356</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1">
-        <v>45750.800874785025</v>
-      </c>
-      <c r="B15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1">
-        <v>45750.83400325268</v>
-      </c>
-      <c r="B16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1">
-        <v>45750.90597624498</v>
-      </c>
-      <c r="B17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1">
-        <v>45750.93115505942</v>
-      </c>
-      <c r="B18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1">
-        <v>45750.93125788376</v>
-      </c>
-      <c r="B19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1">
-        <v>45750.94643998478</v>
-      </c>
-      <c r="B20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1264,65 +1360,138 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>45751.047934789436</v>
+        <v>45752.502888019713</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>45751.13186917831</v>
+        <v>45752.537932583677</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>45751.131882098234</v>
+        <v>45752.55964361543</v>
       </c>
       <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>45752.560143614341</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>45752.600915220733</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>45752.661607732349</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>45752.855371614525</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>45752.960040396414</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>45752.96005912689</v>
+      </c>
+      <c r="B10" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1">
-        <v>45751.13191068102</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>45752.968756013521</v>
+      </c>
+      <c r="B11" t="s">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
-        <v>54</v>
+      <c r="C11" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="27.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1336,109 +1505,121 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>45752.50288801971</v>
+        <v>45753.360506167082</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>45752.53793258368</v>
+        <v>45753.360679974117</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>45752.55964361543</v>
+        <v>45753.361743455229</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>45752.56014361434</v>
+        <v>45753.363277589226</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>45752.60091522073</v>
+        <v>45753.363419756497</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>45752.66160773235</v>
+        <v>45753.363428631965</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>45752.855371614525</v>
+        <v>45753.363441558795</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>59</v>
+      </c>
+      <c r="D8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>45752.960040396414</v>
+        <v>45753.36346064815</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>45752.96005912689</v>
+        <v>45753.364849537036</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" t="s">
-        <v>57</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>45753.435321013982</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -3269,7 +3450,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="A2:C4"/>
     </sheetView>
   </sheetViews>

--- a/time_tracker.xlsx
+++ b/time_tracker.xlsx
@@ -2,10 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF63DBF2-40D7-4E26-84CD-9126F3E390C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr filterPrivacy="true"/>
   <bookViews>
-    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13667" firstSheet="7" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13667" firstSheet="7" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="2025-03-23" sheetId="2" r:id="rId1"/>
@@ -236,8 +235,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -267,14 +266,14 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -287,7 +286,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1482,16 +1481,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="true" workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.05"/>
   <cols>
-    <col min="1" max="1" width="27.77734375" customWidth="1"/>
+    <col customWidth="true" max="1" min="1" width="27.77734375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1505,7 +1504,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>45753.360506167082</v>
       </c>
@@ -1516,7 +1515,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>45753.360679974117</v>
       </c>
@@ -1527,7 +1526,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>45753.361743455229</v>
       </c>
@@ -1538,7 +1537,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>45753.363277589226</v>
       </c>
@@ -1549,7 +1548,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>45753.363419756497</v>
       </c>
@@ -1560,7 +1559,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>45753.363428631965</v>
       </c>
@@ -1571,7 +1570,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>45753.363441558795</v>
       </c>
@@ -1585,7 +1584,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4">
       <c r="A9" s="1">
         <v>45753.36346064815</v>
       </c>
@@ -1596,7 +1595,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4">
       <c r="A10" s="1">
         <v>45753.364849537036</v>
       </c>
@@ -1607,7 +1606,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4">
       <c r="A11" s="1">
         <v>45753.435321013982</v>
       </c>
@@ -1615,6 +1614,72 @@
         <v>8</v>
       </c>
       <c r="C11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>45753.43721202576</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>45753.5230613874</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>45753.54179749197</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>45753.55763215617</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1">
+        <v>45753.55795142056</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1">
+        <v>45753.572443304874</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
         <v>61</v>
       </c>
     </row>

--- a/time_tracker.xlsx
+++ b/time_tracker.xlsx
@@ -2,9 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
-  <workbookPr filterPrivacy="true"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67ACEC45-CE1A-448F-B578-819E9A06E0C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13667" firstSheet="7" activeTab="14"/>
+    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13667" firstSheet="7" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2025-03-23" sheetId="2" r:id="rId1"/>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="64">
   <si>
     <t>Timestamp</t>
   </si>
@@ -230,13 +231,16 @@
   </si>
   <si>
     <t>meeting</t>
+  </si>
+  <si>
+    <t>270.9 minutes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -266,14 +270,14 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -286,7 +290,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1479,18 +1483,18 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col customWidth="true" max="1" min="1" width="27.77734375"/>
+    <col min="1" max="1" width="27.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1504,7 +1508,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>45753.360506167082</v>
       </c>
@@ -1515,7 +1519,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>45753.360679974117</v>
       </c>
@@ -1526,7 +1530,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>45753.361743455229</v>
       </c>
@@ -1537,7 +1541,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>45753.363277589226</v>
       </c>
@@ -1548,7 +1552,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>45753.363419756497</v>
       </c>
@@ -1559,7 +1563,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>45753.363428631965</v>
       </c>
@@ -1570,7 +1574,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>45753.363441558795</v>
       </c>
@@ -1584,7 +1588,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>45753.36346064815</v>
       </c>
@@ -1595,7 +1599,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>45753.364849537036</v>
       </c>
@@ -1606,7 +1610,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>45753.435321013982</v>
       </c>
@@ -1617,9 +1621,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>45753.43721202576</v>
+        <v>45753.437212025761</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
@@ -1628,9 +1632,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>45753.5230613874</v>
+        <v>45753.523061387401</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
@@ -1639,9 +1643,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>45753.54179749197</v>
+        <v>45753.541797491969</v>
       </c>
       <c r="B14" t="s">
         <v>9</v>
@@ -1650,9 +1654,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>45753.55763215617</v>
+        <v>45753.557632156168</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
@@ -1661,7 +1665,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>45753.55795142056</v>
       </c>
@@ -1672,7 +1676,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>45753.572443304874</v>
       </c>
@@ -1681,6 +1685,20 @@
       </c>
       <c r="C17" t="s">
         <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>45753.575136973224</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/time_tracker.xlsx
+++ b/time_tracker.xlsx
@@ -2,10 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67ACEC45-CE1A-448F-B578-819E9A06E0C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr filterPrivacy="true"/>
   <bookViews>
-    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13667" firstSheet="7" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13667" firstSheet="7" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="2025-03-23" sheetId="2" r:id="rId1"/>
@@ -42,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>Timestamp</t>
   </si>
@@ -234,13 +233,19 @@
   </si>
   <si>
     <t>270.9 minutes</t>
+  </si>
+  <si>
+    <t>gaant done</t>
+  </si>
+  <si>
+    <t>111.3 minutes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -270,14 +275,14 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -290,7 +295,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1485,16 +1490,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="true" workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.05"/>
   <cols>
-    <col min="1" max="1" width="27.77734375" customWidth="1"/>
+    <col customWidth="true" max="1" min="1" width="27.77734375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1508,7 +1513,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>45753.360506167082</v>
       </c>
@@ -1519,7 +1524,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>45753.360679974117</v>
       </c>
@@ -1530,7 +1535,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>45753.361743455229</v>
       </c>
@@ -1541,7 +1546,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>45753.363277589226</v>
       </c>
@@ -1552,7 +1557,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>45753.363419756497</v>
       </c>
@@ -1563,7 +1568,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>45753.363428631965</v>
       </c>
@@ -1574,7 +1579,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>45753.363441558795</v>
       </c>
@@ -1588,7 +1593,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4">
       <c r="A9" s="1">
         <v>45753.36346064815</v>
       </c>
@@ -1599,7 +1604,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4">
       <c r="A10" s="1">
         <v>45753.364849537036</v>
       </c>
@@ -1610,7 +1615,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4">
       <c r="A11" s="1">
         <v>45753.435321013982</v>
       </c>
@@ -1621,7 +1626,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4">
       <c r="A12" s="1">
         <v>45753.437212025761</v>
       </c>
@@ -1632,7 +1637,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4">
       <c r="A13" s="1">
         <v>45753.523061387401</v>
       </c>
@@ -1643,7 +1648,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4">
       <c r="A14" s="1">
         <v>45753.541797491969</v>
       </c>
@@ -1654,7 +1659,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4">
       <c r="A15" s="1">
         <v>45753.557632156168</v>
       </c>
@@ -1665,7 +1670,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4">
       <c r="A16" s="1">
         <v>45753.55795142056</v>
       </c>
@@ -1676,7 +1681,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4">
       <c r="A17" s="1">
         <v>45753.572443304874</v>
       </c>
@@ -1687,7 +1692,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4">
       <c r="A18" s="1">
         <v>45753.575136973224</v>
       </c>
@@ -1699,6 +1704,97 @@
       </c>
       <c r="D18" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1">
+        <v>45753.578553449304</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1">
+        <v>45753.592879836484</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1">
+        <v>45753.59622031255</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1">
+        <v>45753.60704746556</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1">
+        <v>45753.60833238511</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1">
+        <v>45753.66097609911</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1">
+        <v>45753.66106271303</v>
+      </c>
+      <c r="B25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1">
+        <v>45753.661078050965</v>
+      </c>
+      <c r="B26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/time_tracker.xlsx
+++ b/time_tracker.xlsx
@@ -22,6 +22,10 @@
     <sheet name="2025-04-04" sheetId="14" r:id="rId13"/>
     <sheet name="2025-04-05" sheetId="15" r:id="rId14"/>
     <sheet name="2025-04-06" sheetId="16" r:id="rId15"/>
+    <sheet name="2025-04-07" sheetId="17" r:id="rId19"/>
+    <sheet name="2025-04-08" sheetId="18" r:id="rId20"/>
+    <sheet name="2025-04-09" sheetId="19" r:id="rId21"/>
+    <sheet name="2025-04-10" sheetId="20" r:id="rId22"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <si>
     <t>Timestamp</t>
   </si>
@@ -239,6 +243,36 @@
   </si>
   <si>
     <t>111.3 minutes</t>
+  </si>
+  <si>
+    <t>Meeting</t>
+  </si>
+  <si>
+    <t>40.7 minutes</t>
+  </si>
+  <si>
+    <t>porting p2p to C#</t>
+  </si>
+  <si>
+    <t>Fixing Call UI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fixing Call UI </t>
+  </si>
+  <si>
+    <t>Checking Code Base</t>
+  </si>
+  <si>
+    <t>297.1 minutes</t>
+  </si>
+  <si>
+    <t>porting into unity</t>
+  </si>
+  <si>
+    <t>working on apk build</t>
+  </si>
+  <si>
+    <t>140.7 minutes</t>
   </si>
 </sst>
 </file>
@@ -1802,6 +1836,450 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>45754.8728715242</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>45754.87425130789</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>45754.902654852754</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>45755.101366847564</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>45755.101385102025</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>45755.66292231899</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>45755.733445128906</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>45755.77638644531</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>45755.77656449073</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>45755.77657143633</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>45755.7828004045</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>45755.900862124385</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>45755.908144534595</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>45755.913048083275</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>45755.94088992994</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>45756.43145376303</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>45756.48389123542</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>45756.60115299306</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>45756.62450291785</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>45756.78252509603</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>45756.78255229666</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>45756.78270160045</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>45756.78614623032</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>45756.816257537794</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>45756.8184442685</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>45756.82553261856</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>45756.83988369787</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>45756.865662633245</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>45756.86567477184</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1">
+        <v>45756.912601289034</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1">
+        <v>45756.950037819006</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1">
+        <v>45756.9502930248</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1">
+        <v>45756.96279900348</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F29"/>
@@ -2149,6 +2627,100 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>45757.02750465141</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>45757.02768056422</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>45757.07496972514</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>45757.123257144034</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>45757.12326389384</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>45757.12327407615</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
 </worksheet>
 </file>
 

--- a/time_tracker.xlsx
+++ b/time_tracker.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr filterPrivacy="true"/>
   <bookViews>
-    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13667" firstSheet="7" activeTab="14"/>
+    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13667" firstSheet="13" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="2025-03-23" sheetId="2" r:id="rId1"/>
@@ -22,10 +22,11 @@
     <sheet name="2025-04-04" sheetId="14" r:id="rId13"/>
     <sheet name="2025-04-05" sheetId="15" r:id="rId14"/>
     <sheet name="2025-04-06" sheetId="16" r:id="rId15"/>
-    <sheet name="2025-04-07" sheetId="17" r:id="rId19"/>
-    <sheet name="2025-04-08" sheetId="18" r:id="rId20"/>
-    <sheet name="2025-04-09" sheetId="19" r:id="rId21"/>
-    <sheet name="2025-04-10" sheetId="20" r:id="rId22"/>
+    <sheet name="2025-04-07" sheetId="17" r:id="rId16"/>
+    <sheet name="2025-04-08" sheetId="18" r:id="rId17"/>
+    <sheet name="2025-04-09" sheetId="19" r:id="rId18"/>
+    <sheet name="2025-04-10" sheetId="20" r:id="rId19"/>
+    <sheet name="2025-04-11" sheetId="21" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
   <si>
     <t>Timestamp</t>
   </si>
@@ -273,6 +274,21 @@
   </si>
   <si>
     <t>140.7 minutes</t>
+  </si>
+  <si>
+    <t>form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">switching webrtc modules </t>
+  </si>
+  <si>
+    <t>Integrating into Unity</t>
+  </si>
+  <si>
+    <t>378.8 minutes</t>
+  </si>
+  <si>
+    <t>sending mic data</t>
   </si>
 </sst>
 </file>
@@ -1522,18 +1538,18 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col customWidth="true" max="1" min="1" width="27.77734375"/>
+    <col min="1" max="1" width="27.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1547,7 +1563,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>45753.360506167082</v>
       </c>
@@ -1558,7 +1574,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>45753.360679974117</v>
       </c>
@@ -1569,7 +1585,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>45753.361743455229</v>
       </c>
@@ -1580,7 +1596,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>45753.363277589226</v>
       </c>
@@ -1591,7 +1607,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>45753.363419756497</v>
       </c>
@@ -1602,7 +1618,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>45753.363428631965</v>
       </c>
@@ -1613,7 +1629,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>45753.363441558795</v>
       </c>
@@ -1627,7 +1643,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>45753.36346064815</v>
       </c>
@@ -1638,7 +1654,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>45753.364849537036</v>
       </c>
@@ -1649,7 +1665,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>45753.435321013982</v>
       </c>
@@ -1660,7 +1676,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>45753.437212025761</v>
       </c>
@@ -1671,7 +1687,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>45753.523061387401</v>
       </c>
@@ -1682,7 +1698,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>45753.541797491969</v>
       </c>
@@ -1693,7 +1709,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>45753.557632156168</v>
       </c>
@@ -1704,7 +1720,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>45753.55795142056</v>
       </c>
@@ -1715,7 +1731,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>45753.572443304874</v>
       </c>
@@ -1726,7 +1742,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>45753.575136973224</v>
       </c>
@@ -1740,7 +1756,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>45753.578553449304</v>
       </c>
@@ -1751,7 +1767,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>45753.592879836484</v>
       </c>
@@ -1762,9 +1778,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>45753.59622031255</v>
+        <v>45753.596220312553</v>
       </c>
       <c r="B21" t="s">
         <v>9</v>
@@ -1773,9 +1789,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>45753.60704746556</v>
+        <v>45753.607047465557</v>
       </c>
       <c r="B22" t="s">
         <v>8</v>
@@ -1784,9 +1800,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>45753.60833238511</v>
+        <v>45753.608332385113</v>
       </c>
       <c r="B23" t="s">
         <v>9</v>
@@ -1795,9 +1811,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>45753.66097609911</v>
+        <v>45753.660976099112</v>
       </c>
       <c r="B24" t="s">
         <v>8</v>
@@ -1806,9 +1822,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>45753.66106271303</v>
+        <v>45753.661062713029</v>
       </c>
       <c r="B25" t="s">
         <v>10</v>
@@ -1820,7 +1836,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>45753.661078050965</v>
       </c>
@@ -1829,6 +1845,66 @@
       </c>
       <c r="C26" t="s">
         <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>45754.872871524203</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>45754.874251307891</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>45754.902654852754</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1837,13 +1913,14 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1857,51 +1934,155 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>45754.8728715242</v>
+        <v>45755.101366847564</v>
       </c>
       <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>45755.101385102025</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1">
-        <v>45754.87425130789</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
       </c>
       <c r="C3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>45754.902654852754</v>
+        <v>45755.662922318988</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>45755.733445128906</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>45755.776386445308</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>45755.776564490727</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>45755.776571436327</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>45755.7828004045</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>45755.900862124385</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>45755.908144534595</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>45755.913048083275</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>45755.940889929938</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1915,153 +2096,221 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>45755.101366847564</v>
+        <v>45756.431453763027</v>
       </c>
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>45756.483891235417</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>45756.601152993062</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>45756.624502917854</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>45756.78252509603</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>45756.78255229666</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>45756.782701600452</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>45756.786146230319</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>45756.816257537794</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>45756.818444268501</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>45756.825532618561</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>45756.839883697867</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>45756.865662633245</v>
+      </c>
+      <c r="B14" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1">
-        <v>45755.101385102025</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>45756.865674771841</v>
+      </c>
+      <c r="B15" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1">
-        <v>45755.66292231899</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>45756.912601289034</v>
+      </c>
+      <c r="B16" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1">
-        <v>45755.733445128906</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1">
-        <v>45755.77638644531</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1">
-        <v>45755.77656449073</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1">
-        <v>45755.77657143633</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1">
-        <v>45755.7828004045</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1">
-        <v>45755.900862124385</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1">
-        <v>45755.908144534595</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1">
-        <v>45755.913048083275</v>
-      </c>
-      <c r="B12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1">
-        <v>45755.94088992994</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>68</v>
+      <c r="C16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>45756.950037819006</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>45756.950293024798</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>45756.962799003479</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2075,208 +2324,352 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>45756.43145376303</v>
+        <v>45757.027504651407</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>45756.48389123542</v>
+        <v>45757.027680564221</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>45756.60115299306</v>
+        <v>45757.074969725138</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>45756.62450291785</v>
+        <v>45757.123257144034</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>45756.78252509603</v>
+        <v>45757.123263893838</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>74</v>
+      </c>
+      <c r="D6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>45756.78255229666</v>
+        <v>45757.123274076148</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>45756.78270160045</v>
+        <v>45757.453332821657</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>45756.78614623032</v>
+        <v>45757.466771293024</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>45756.816257537794</v>
+        <v>45757.466939498518</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>45756.8184442685</v>
+        <v>45757.479290192838</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>45756.82553261856</v>
+        <v>45757.566372363093</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>45756.83988369787</v>
+        <v>45757.575774565543</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>45756.865662633245</v>
+        <v>45757.583112334658</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>71</v>
-      </c>
-      <c r="D14" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>45756.86567477184</v>
+        <v>45757.606776881454</v>
       </c>
       <c r="B15" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>45756.912601289034</v>
+        <v>45757.700347276477</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>45756.950037819006</v>
+        <v>45757.736751225857</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>45756.9502930248</v>
+        <v>45757.74827204764</v>
       </c>
       <c r="B18" t="s">
         <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>45756.96279900348</v>
+        <v>45757.749735606965</v>
       </c>
       <c r="B19" t="s">
         <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>74</v>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>45757.750395317365</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>45757.767648979992</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>45757.769409777822</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>45757.789711283214</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>45757.86384283923</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>45757.863874090421</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>45757.864026678479</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>45757.870457614656</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>45757.876096145366</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>45757.943857684957</v>
+      </c>
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>45757.965265482206</v>
+      </c>
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>45757.968761432683</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>45757.992131224353</v>
+      </c>
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -2631,13 +3024,19 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="true" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05"/>
+  <cols>
+    <col customWidth="true" max="1" min="1" width="28.21875"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2651,76 +3050,88 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>45757.02750465141</v>
+        <v>45758.032212049118</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
-        <v>45757.02768056422</v>
+        <v>45758.100126596968</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
-        <v>45757.07496972514</v>
+        <v>45758.112013737351</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
-        <v>45757.123257144034</v>
+        <v>45759.112013715276</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>74</v>
+        <v>78</v>
+      </c>
+      <c r="D5" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1">
-        <v>45757.12326389384</v>
+        <v>45758.11287160968</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D6" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1">
-        <v>45757.12327407615</v>
+        <v>45758.479532698526</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>74</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>45758.521814925916</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/time_tracker.xlsx
+++ b/time_tracker.xlsx
@@ -27,6 +27,7 @@
     <sheet name="2025-04-09" sheetId="19" r:id="rId18"/>
     <sheet name="2025-04-10" sheetId="20" r:id="rId19"/>
     <sheet name="2025-04-11" sheetId="21" r:id="rId20"/>
+    <sheet name="2025-04-12" sheetId="22" r:id="rId24"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <si>
     <t>Timestamp</t>
   </si>
@@ -289,6 +290,18 @@
   </si>
   <si>
     <t>sending mic data</t>
+  </si>
+  <si>
+    <t>Setting up UI buttons</t>
+  </si>
+  <si>
+    <t>fixing misplaced scripts</t>
+  </si>
+  <si>
+    <t>Set Up Done. Debugging Remain</t>
+  </si>
+  <si>
+    <t>340.5 minutes</t>
   </si>
 </sst>
 </file>
@@ -3130,8 +3143,311 @@
         <v>80</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>45758.57593990698</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>45758.59317639609</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>45758.61565286033</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>45758.66253403636</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>45758.70666465727</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>45758.73413665291</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>45758.769007406336</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1">
+        <v>45758.77858018625</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1">
+        <v>45758.783745641296</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1">
+        <v>45758.811517830465</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1">
+        <v>45758.843064695815</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1">
+        <v>45758.8603615703</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1">
+        <v>45758.86154269952</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1">
+        <v>45758.864084956746</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1">
+        <v>45758.869403629134</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1">
+        <v>45758.88663820435</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>82</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>45759.03728460474</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>45759.03923810786</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>45759.05565130055</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>45759.05575684192</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>45759.09399273257</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>45759.1132882583</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>45759.11329944639</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>45759.12090149262</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>45759.12092039754</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
 </worksheet>
 </file>
 

--- a/time_tracker.xlsx
+++ b/time_tracker.xlsx
@@ -28,6 +28,7 @@
     <sheet name="2025-04-10" sheetId="20" r:id="rId19"/>
     <sheet name="2025-04-11" sheetId="21" r:id="rId20"/>
     <sheet name="2025-04-12" sheetId="22" r:id="rId24"/>
+    <sheet name="2025-04-13" sheetId="23" r:id="rId25"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <si>
     <t>Timestamp</t>
   </si>
@@ -302,6 +303,18 @@
   </si>
   <si>
     <t>340.5 minutes</t>
+  </si>
+  <si>
+    <t>testing + debugging</t>
+  </si>
+  <si>
+    <t>testing + debugging =&gt; got gathering compleme</t>
+  </si>
+  <si>
+    <t>Checking Mic Functionality</t>
+  </si>
+  <si>
+    <t>464.6 minutes</t>
   </si>
 </sst>
 </file>
@@ -3447,6 +3460,463 @@
         <v>84</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>45759.498368212124</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>45759.51890971091</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>45759.53149610004</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>45759.534308224924</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>45759.58183598869</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1">
+        <v>45759.622846025224</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1">
+        <v>45759.64500729683</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1">
+        <v>45759.6451423173</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1">
+        <v>45759.684582710135</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1">
+        <v>45759.70287786082</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1">
+        <v>45759.71284466406</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1">
+        <v>45759.74417317987</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1">
+        <v>45759.744909479916</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1">
+        <v>45759.758663914516</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1">
+        <v>45759.78622526959</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1">
+        <v>45759.80034755375</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1">
+        <v>45759.81021795696</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1">
+        <v>45759.819653881874</v>
+      </c>
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1">
+        <v>45759.92767838847</v>
+      </c>
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1">
+        <v>45759.94842414665</v>
+      </c>
+      <c r="B30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1">
+        <v>45759.976801653946</v>
+      </c>
+      <c r="B31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>45760.01233154591</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>45760.01962630647</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>45760.02371464284</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>45760.060651364256</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>45760.07393395921</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>45760.08822023133</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>45760.09513130392</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>45760.105761523046</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>45760.150287165176</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>45760.16638380426</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>45760.1690990869</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>45760.16915193711</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>45760.20122118782</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>45760.20123468831</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1">
+        <v>45760.21271193471</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1">
+        <v>45760.21690483321</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1">
+        <v>45760.217891521694</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1">
+        <v>45760.2180703441</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>87</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>

--- a/time_tracker.xlsx
+++ b/time_tracker.xlsx
@@ -29,6 +29,7 @@
     <sheet name="2025-04-11" sheetId="21" r:id="rId20"/>
     <sheet name="2025-04-12" sheetId="22" r:id="rId24"/>
     <sheet name="2025-04-13" sheetId="23" r:id="rId25"/>
+    <sheet name="2025-04-14" sheetId="24" r:id="rId26"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
   <si>
     <t>Timestamp</t>
   </si>
@@ -315,6 +316,18 @@
   </si>
   <si>
     <t>464.6 minutes</t>
+  </si>
+  <si>
+    <t>working on audio Streaming</t>
+  </si>
+  <si>
+    <t>65.6 minutes</t>
+  </si>
+  <si>
+    <t>Asynchronizing awaitable tasks</t>
+  </si>
+  <si>
+    <t>Debugging Connection Setting</t>
   </si>
 </sst>
 </file>
@@ -3917,6 +3930,320 @@
         <v>87</v>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" s="1">
+        <v>45760.54219481756</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1">
+        <v>45760.57266395664</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1">
+        <v>45760.58700229948</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1">
+        <v>45760.602424946585</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1">
+        <v>45760.60245522981</v>
+      </c>
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" t="s">
+        <v>89</v>
+      </c>
+      <c r="D24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1">
+        <v>45760.60247640747</v>
+      </c>
+      <c r="B25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1">
+        <v>45760.73587207375</v>
+      </c>
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1">
+        <v>45760.754307639596</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1">
+        <v>45760.761577698955</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1">
+        <v>45760.77433310086</v>
+      </c>
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1">
+        <v>45760.78109081698</v>
+      </c>
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1">
+        <v>45760.7828628025</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1">
+        <v>45760.80481457968</v>
+      </c>
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1">
+        <v>45760.82944247177</v>
+      </c>
+      <c r="B33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1">
+        <v>45760.847391161115</v>
+      </c>
+      <c r="B34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1">
+        <v>45760.86880300587</v>
+      </c>
+      <c r="B35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1">
+        <v>45760.868963306304</v>
+      </c>
+      <c r="B36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1">
+        <v>45760.88854258424</v>
+      </c>
+      <c r="B37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1">
+        <v>45760.91959351146</v>
+      </c>
+      <c r="B38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1">
+        <v>45760.921627654374</v>
+      </c>
+      <c r="B39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1">
+        <v>45760.924567852955</v>
+      </c>
+      <c r="B40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1">
+        <v>45760.93425033686</v>
+      </c>
+      <c r="B41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1">
+        <v>45760.958720826144</v>
+      </c>
+      <c r="B42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1">
+        <v>45760.966902737455</v>
+      </c>
+      <c r="B43" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1">
+        <v>45760.982739347935</v>
+      </c>
+      <c r="B44" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>45761.00153158647</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>92</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>

--- a/time_tracker.xlsx
+++ b/time_tracker.xlsx
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
   <si>
     <t>Timestamp</t>
   </si>
@@ -328,6 +328,9 @@
   </si>
   <si>
     <t>Debugging Connection Setting</t>
+  </si>
+  <si>
+    <t>196.9 minutes</t>
   </si>
 </sst>
 </file>
@@ -4244,6 +4247,20 @@
         <v>92</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>45761.128090606486</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" t="s">
+        <v>93</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>

--- a/time_tracker.xlsx
+++ b/time_tracker.xlsx
@@ -30,6 +30,7 @@
     <sheet name="2025-04-12" sheetId="22" r:id="rId24"/>
     <sheet name="2025-04-13" sheetId="23" r:id="rId25"/>
     <sheet name="2025-04-14" sheetId="24" r:id="rId26"/>
+    <sheet name="2025-04-15" sheetId="25" r:id="rId27"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
   <si>
     <t>Timestamp</t>
   </si>
@@ -331,6 +332,18 @@
   </si>
   <si>
     <t>196.9 minutes</t>
+  </si>
+  <si>
+    <t>Connection QA</t>
+  </si>
+  <si>
+    <t>Voice Debugging</t>
+  </si>
+  <si>
+    <t>Connection Debugging</t>
+  </si>
+  <si>
+    <t>282.5 minutes</t>
   </si>
 </sst>
 </file>
@@ -4261,6 +4274,430 @@
         <v>93</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>45761.657880477826</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>45761.66130505672</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>45761.66150740248</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>45761.67407240567</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>45761.786633758275</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>45761.7996360739</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>45761.80138182198</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>45761.80927726376</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>45761.838492156894</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>45761.85455813294</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>45761.86536311575</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>45761.880489663046</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1">
+        <v>45761.88355098615</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1">
+        <v>45761.88660443009</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1">
+        <v>45761.89100411599</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1">
+        <v>45761.90964571024</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1">
+        <v>45761.92113317266</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1">
+        <v>45761.92133282725</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1">
+        <v>45761.944264726524</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1">
+        <v>45761.97429134736</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1">
+        <v>45761.98809786605</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>45762.002685823485</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>45762.027745813015</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>45762.03556700193</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>45762.03823752478</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>45762.04299639809</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>45762.05583377497</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>45762.076392224626</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>45762.104178893125</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>45762.10496245851</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>45762.146704720544</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>45762.146758545445</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>45762.14685210408</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>45762.17532181089</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>45762.17534785151</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>96</v>
+      </c>
+      <c r="D15" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1">
+        <v>45762.17535911042</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>96</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>

--- a/time_tracker.xlsx
+++ b/time_tracker.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
   <si>
     <t>Timestamp</t>
   </si>
@@ -344,6 +344,18 @@
   </si>
   <si>
     <t>282.5 minutes</t>
+  </si>
+  <si>
+    <t>Ice candidate problem solving</t>
+  </si>
+  <si>
+    <t>Connections fixed?!</t>
+  </si>
+  <si>
+    <t>checking audio transmittion</t>
+  </si>
+  <si>
+    <t>262.3 minutes</t>
   </si>
 </sst>
 </file>
@@ -4698,6 +4710,174 @@
         <v>96</v>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" s="1">
+        <v>45762.67231233469</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1">
+        <v>45762.73844698944</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1">
+        <v>45762.744605144995</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1">
+        <v>45762.75838757662</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1">
+        <v>45762.75856213724</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1">
+        <v>45762.78049133853</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1">
+        <v>45762.83562752508</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1">
+        <v>45762.841886585404</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1">
+        <v>45762.84687250085</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1">
+        <v>45762.84819715819</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1">
+        <v>45762.87990606681</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1">
+        <v>45762.88817940601</v>
+      </c>
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1">
+        <v>45762.889342216055</v>
+      </c>
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1">
+        <v>45762.95610152337</v>
+      </c>
+      <c r="B30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1">
+        <v>45762.95611691254</v>
+      </c>
+      <c r="B31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" t="s">
+        <v>100</v>
+      </c>
+      <c r="D31" t="s">
+        <v>101</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>

--- a/time_tracker.xlsx
+++ b/time_tracker.xlsx
@@ -31,6 +31,7 @@
     <sheet name="2025-04-13" sheetId="23" r:id="rId25"/>
     <sheet name="2025-04-14" sheetId="24" r:id="rId26"/>
     <sheet name="2025-04-15" sheetId="25" r:id="rId27"/>
+    <sheet name="2025-04-16" sheetId="26" r:id="rId28"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
   <si>
     <t>Timestamp</t>
   </si>
@@ -356,6 +357,15 @@
   </si>
   <si>
     <t>262.3 minutes</t>
+  </si>
+  <si>
+    <t>Mobile Build</t>
+  </si>
+  <si>
+    <t>Mobile Build-</t>
+  </si>
+  <si>
+    <t>31.6 minutes</t>
   </si>
 </sst>
 </file>
@@ -4878,6 +4888,122 @@
         <v>101</v>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" s="1">
+        <v>45762.95812757083</v>
+      </c>
+      <c r="B32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1">
+        <v>45762.96356815354</v>
+      </c>
+      <c r="B33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1">
+        <v>45762.97460750749</v>
+      </c>
+      <c r="B34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1">
+        <v>45762.98755947443</v>
+      </c>
+      <c r="B35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1">
+        <v>45762.99223713765</v>
+      </c>
+      <c r="B36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1">
+        <v>45762.99593931869</v>
+      </c>
+      <c r="B37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>45763.01198751395</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>45763.01199927461</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>102</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>

--- a/time_tracker.xlsx
+++ b/time_tracker.xlsx
@@ -32,6 +32,7 @@
     <sheet name="2025-04-14" sheetId="24" r:id="rId26"/>
     <sheet name="2025-04-15" sheetId="25" r:id="rId27"/>
     <sheet name="2025-04-16" sheetId="26" r:id="rId28"/>
+    <sheet name="2025-04-17" sheetId="27" r:id="rId29"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Timestamp</t>
   </si>
@@ -366,6 +367,15 @@
   </si>
   <si>
     <t>31.6 minutes</t>
+  </si>
+  <si>
+    <t>Preping report</t>
+  </si>
+  <si>
+    <t>building for mobile</t>
+  </si>
+  <si>
+    <t>274.1 minutes</t>
   </si>
 </sst>
 </file>
@@ -5004,6 +5014,320 @@
         <v>102</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>45763.63620752929</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>45763.66176521054</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>45763.66677214675</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>45763.68499553135</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>45763.69314040313</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>45763.702868019944</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>45763.719154480066</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>45763.749173967255</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>45763.75143553784</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>45763.7561938261</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>45763.76016508118</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>45763.769719871336</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1">
+        <v>45763.83449494238</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1">
+        <v>45763.86921658563</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1">
+        <v>45763.87107113635</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1">
+        <v>45763.871119190575</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1">
+        <v>45763.87135529167</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1">
+        <v>45763.886612225026</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>45764.14513343717</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>45764.15219960437</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>45764.15326499139</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>45764.15544650988</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>45764.15554492115</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>45764.189999557486</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>45764.19001481302</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>45764.190026475495</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>106</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>

--- a/time_tracker.xlsx
+++ b/time_tracker.xlsx
@@ -33,6 +33,7 @@
     <sheet name="2025-04-15" sheetId="25" r:id="rId27"/>
     <sheet name="2025-04-16" sheetId="26" r:id="rId28"/>
     <sheet name="2025-04-17" sheetId="27" r:id="rId29"/>
+    <sheet name="2025-04-18" sheetId="28" r:id="rId30"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>Timestamp</t>
   </si>
@@ -376,6 +377,12 @@
   </si>
   <si>
     <t>274.1 minutes</t>
+  </si>
+  <si>
+    <t>building to android</t>
+  </si>
+  <si>
+    <t>309.6 minutes</t>
   </si>
 </sst>
 </file>
@@ -5328,6 +5335,342 @@
         <v>106</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>45764.61463194864</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>45764.62367187982</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>45764.6397395831</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>45764.64415470232</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>45764.64779320402</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>45764.64900867239</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1">
+        <v>45764.719975531996</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1">
+        <v>45764.72185762965</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1">
+        <v>45764.72530555033</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1">
+        <v>45764.770670751226</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1">
+        <v>45764.773622113535</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1">
+        <v>45764.7920995283</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1">
+        <v>45764.79831674585</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1">
+        <v>45764.86783527441</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1">
+        <v>45764.92681943227</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1">
+        <v>45764.929330820065</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1">
+        <v>45764.931646982775</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1">
+        <v>45764.93586707879</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1">
+        <v>45764.944402954316</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1">
+        <v>45764.960861295105</v>
+      </c>
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1">
+        <v>45764.9710848581</v>
+      </c>
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1">
+        <v>45764.97701503294</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" t="s">
+        <v>108</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>45765.210163749485</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>45765.2195725001</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>45765.22400326544</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>45765.253620918134</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>45765.312947693936</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>45765.31295806019</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>108</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>

--- a/time_tracker.xlsx
+++ b/time_tracker.xlsx
@@ -2,9 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
-  <workbookPr filterPrivacy="true"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B738577-E809-4AD0-B05E-FB10E796DDDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13667" firstSheet="13" activeTab="19"/>
+    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13667" firstSheet="21" activeTab="27" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2025-03-23" sheetId="2" r:id="rId1"/>
@@ -27,13 +28,14 @@
     <sheet name="2025-04-09" sheetId="19" r:id="rId18"/>
     <sheet name="2025-04-10" sheetId="20" r:id="rId19"/>
     <sheet name="2025-04-11" sheetId="21" r:id="rId20"/>
-    <sheet name="2025-04-12" sheetId="22" r:id="rId24"/>
-    <sheet name="2025-04-13" sheetId="23" r:id="rId25"/>
-    <sheet name="2025-04-14" sheetId="24" r:id="rId26"/>
-    <sheet name="2025-04-15" sheetId="25" r:id="rId27"/>
-    <sheet name="2025-04-16" sheetId="26" r:id="rId28"/>
-    <sheet name="2025-04-17" sheetId="27" r:id="rId29"/>
-    <sheet name="2025-04-18" sheetId="28" r:id="rId30"/>
+    <sheet name="2025-04-12" sheetId="22" r:id="rId21"/>
+    <sheet name="2025-04-13" sheetId="23" r:id="rId22"/>
+    <sheet name="2025-04-14" sheetId="24" r:id="rId23"/>
+    <sheet name="2025-04-15" sheetId="25" r:id="rId24"/>
+    <sheet name="2025-04-16" sheetId="26" r:id="rId25"/>
+    <sheet name="2025-04-17" sheetId="27" r:id="rId26"/>
+    <sheet name="2025-04-18" sheetId="28" r:id="rId27"/>
+    <sheet name="2025-04-19" sheetId="29" r:id="rId28"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -53,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="114">
   <si>
     <t>Timestamp</t>
   </si>
@@ -383,13 +385,25 @@
   </si>
   <si>
     <t>309.6 minutes</t>
+  </si>
+  <si>
+    <t>gozaresh kar</t>
+  </si>
+  <si>
+    <t>debugging mic</t>
+  </si>
+  <si>
+    <t>mic config</t>
+  </si>
+  <si>
+    <t>207 minutes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -419,14 +433,14 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -439,7 +453,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3119,18 +3133,18 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col customWidth="true" max="1" min="1" width="28.21875"/>
+    <col min="1" max="1" width="28.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3144,7 +3158,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>45758.032212049118</v>
       </c>
@@ -3155,7 +3169,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>45758.100126596968</v>
       </c>
@@ -3166,7 +3180,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>45758.112013737351</v>
       </c>
@@ -3177,7 +3191,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>45759.112013715276</v>
       </c>
@@ -3191,9 +3205,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>45758.11287160968</v>
+        <v>45758.112871609679</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -3202,7 +3216,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>45758.479532698526</v>
       </c>
@@ -3213,7 +3227,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>45758.521814925916</v>
       </c>
@@ -3224,9 +3238,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>45758.57593990698</v>
+        <v>45758.575939906979</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
@@ -3235,9 +3249,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>45758.59317639609</v>
+        <v>45758.593176396091</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
@@ -3246,9 +3260,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>45758.61565286033</v>
+        <v>45758.615652860331</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
@@ -3257,9 +3271,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>45758.66253403636</v>
+        <v>45758.662534036361</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
@@ -3268,9 +3282,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>45758.70666465727</v>
+        <v>45758.706664657271</v>
       </c>
       <c r="B13" t="s">
         <v>9</v>
@@ -3279,9 +3293,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>45758.73413665291</v>
+        <v>45758.734136652907</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
@@ -3290,7 +3304,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>45758.769007406336</v>
       </c>
@@ -3301,9 +3315,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>45758.77858018625</v>
+        <v>45758.778580186248</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
@@ -3312,7 +3326,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>45758.783745641296</v>
       </c>
@@ -3323,7 +3337,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>45758.811517830465</v>
       </c>
@@ -3334,7 +3348,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>45758.843064695815</v>
       </c>
@@ -3345,9 +3359,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>45758.8603615703</v>
+        <v>45758.860361570303</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
@@ -3356,9 +3370,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>45758.86154269952</v>
+        <v>45758.861542699517</v>
       </c>
       <c r="B21" t="s">
         <v>9</v>
@@ -3367,7 +3381,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>45758.864084956746</v>
       </c>
@@ -3378,7 +3392,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>45758.869403629134</v>
       </c>
@@ -3389,15 +3403,375 @@
         <v>82</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>45758.88663820435</v>
+        <v>45758.886638204349</v>
       </c>
       <c r="B24" t="s">
         <v>8</v>
       </c>
       <c r="C24" t="s">
         <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+  <dimension ref="A1:D31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>45759.037284604739</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>45759.039238107856</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>45759.05565130055</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>45759.055756841917</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>45759.093992732567</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>45759.113288258297</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>45759.113299446391</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>45759.120901492621</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>45759.120920397538</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>45759.498368212124</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>45759.518909710911</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>45759.53149610004</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>45759.534308224924</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>45759.581835988691</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>45759.622846025224</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>45759.645007296829</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>45759.645142317298</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>45759.684582710135</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>45759.702877860822</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>45759.712844664064</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>45759.744173179868</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>45759.744909479916</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>45759.758663914516</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>45759.786225269592</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>45759.800347553748</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>45759.810217956961</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>45759.819653881874</v>
+      </c>
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>45759.927678388471</v>
+      </c>
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>45759.948424146649</v>
+      </c>
+      <c r="B30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>45759.976801653946</v>
+      </c>
+      <c r="B31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -3406,13 +3780,14 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+  <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3426,133 +3801,130 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>45759.03728460474</v>
+        <v>45760.012331545913</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>45759.03923810786</v>
+        <v>45760.019626306472</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>45759.05565130055</v>
+        <v>45760.023714642841</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>45759.05575684192</v>
+        <v>45760.060651364256</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>45759.09399273257</v>
+        <v>45760.073933959211</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>45759.1132882583</v>
+        <v>45760.08822023133</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>45759.11329944639</v>
+        <v>45760.095131303919</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>45759.12090149262</v>
+        <v>45760.105761523046</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>45759.12092039754</v>
+        <v>45760.150287165176</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>83</v>
-      </c>
-      <c r="D10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>45759.498368212124</v>
+        <v>45760.166383804259</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>45759.51890971091</v>
+        <v>45760.169099086903</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>45759.53149610004</v>
+        <v>45760.169151937109</v>
       </c>
       <c r="B13" t="s">
         <v>9</v>
@@ -3561,216 +3933,367 @@
         <v>85</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>45759.534308224924</v>
+        <v>45760.201221187817</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>45759.58183598869</v>
+        <v>45760.201234688313</v>
       </c>
       <c r="B15" t="s">
         <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>45759.622846025224</v>
+        <v>45760.212711934713</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>45759.64500729683</v>
+        <v>45760.216904833207</v>
       </c>
       <c r="B17" t="s">
         <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>45759.6451423173</v>
+        <v>45760.217891521694</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>87</v>
+      </c>
+      <c r="D18" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>45759.684582710135</v>
+        <v>45760.218070344097</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>45759.70287786082</v>
+        <v>45760.542194817557</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>45759.71284466406</v>
+        <v>45760.572663956642</v>
       </c>
       <c r="B21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>45759.74417317987</v>
+        <v>45760.587002299479</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>45759.744909479916</v>
+        <v>45760.602424946585</v>
       </c>
       <c r="B23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>45759.758663914516</v>
+        <v>45760.602455229811</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C24" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>89</v>
+      </c>
+      <c r="D24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>45759.78622526959</v>
+        <v>45760.602476407468</v>
       </c>
       <c r="B25" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>45759.80034755375</v>
+        <v>45760.735872073747</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>45759.81021795696</v>
+        <v>45760.754307639596</v>
       </c>
       <c r="B27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>45759.819653881874</v>
+        <v>45760.761577698955</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>45759.92767838847</v>
+        <v>45760.774333100861</v>
       </c>
       <c r="B29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>45759.94842414665</v>
+        <v>45760.781090816978</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <v>45759.976801653946</v>
+        <v>45760.782862802502</v>
       </c>
       <c r="B31" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>85</v>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>45760.804814579678</v>
+      </c>
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>45760.829442471768</v>
+      </c>
+      <c r="B33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>45760.847391161115</v>
+      </c>
+      <c r="B34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>45760.868803005869</v>
+      </c>
+      <c r="B35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>45760.868963306304</v>
+      </c>
+      <c r="B36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>45760.888542584238</v>
+      </c>
+      <c r="B37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>45760.919593511462</v>
+      </c>
+      <c r="B38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>45760.921627654374</v>
+      </c>
+      <c r="B39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>45760.924567852955</v>
+      </c>
+      <c r="B40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>45760.934250336861</v>
+      </c>
+      <c r="B41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>45760.958720826144</v>
+      </c>
+      <c r="B42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>45760.966902737455</v>
+      </c>
+      <c r="B43" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>45760.982739347935</v>
+      </c>
+      <c r="B44" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3784,497 +4307,276 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>45760.01233154591</v>
+        <v>45761.001531586473</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>45760.01962630647</v>
+        <v>45761.128090606486</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>92</v>
+      </c>
+      <c r="D3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>45760.02371464284</v>
+        <v>45761.657880477826</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>45760.060651364256</v>
+        <v>45761.661305056718</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>45760.07393395921</v>
+        <v>45761.661507402481</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>45760.08822023133</v>
+        <v>45761.674072405673</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>45760.09513130392</v>
+        <v>45761.786633758275</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>45760.105761523046</v>
+        <v>45761.799636073898</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>45760.150287165176</v>
+        <v>45761.801381821977</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>45760.16638380426</v>
+        <v>45761.809277263761</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>45760.1690990869</v>
+        <v>45761.838492156894</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>45760.16915193711</v>
+        <v>45761.854558132938</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>45760.20122118782</v>
+        <v>45761.86536311575</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>45760.20123468831</v>
+        <v>45761.880489663046</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>45760.21271193471</v>
+        <v>45761.883550986153</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>45760.21690483321</v>
+        <v>45761.886604430088</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>45760.217891521694</v>
+        <v>45761.891004115991</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>87</v>
-      </c>
-      <c r="D18" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>45760.2180703441</v>
+        <v>45761.909645710242</v>
       </c>
       <c r="B19" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>45760.54219481756</v>
+        <v>45761.921133172662</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>45760.57266395664</v>
+        <v>45761.921332827253</v>
       </c>
       <c r="B21" t="s">
         <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>45760.58700229948</v>
+        <v>45761.944264726524</v>
       </c>
       <c r="B22" t="s">
         <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>45760.602424946585</v>
+        <v>45761.97429134736</v>
       </c>
       <c r="B23" t="s">
         <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>45760.60245522981</v>
+        <v>45761.988097866051</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>89</v>
-      </c>
-      <c r="D24" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1">
-        <v>45760.60247640747</v>
-      </c>
-      <c r="B25" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1">
-        <v>45760.73587207375</v>
-      </c>
-      <c r="B26" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1">
-        <v>45760.754307639596</v>
-      </c>
-      <c r="B27" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1">
-        <v>45760.761577698955</v>
-      </c>
-      <c r="B28" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1">
-        <v>45760.77433310086</v>
-      </c>
-      <c r="B29" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1">
-        <v>45760.78109081698</v>
-      </c>
-      <c r="B30" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1">
-        <v>45760.7828628025</v>
-      </c>
-      <c r="B31" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1">
-        <v>45760.80481457968</v>
-      </c>
-      <c r="B32" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1">
-        <v>45760.82944247177</v>
-      </c>
-      <c r="B33" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1">
-        <v>45760.847391161115</v>
-      </c>
-      <c r="B34" t="s">
-        <v>9</v>
-      </c>
-      <c r="C34" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1">
-        <v>45760.86880300587</v>
-      </c>
-      <c r="B35" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1">
-        <v>45760.868963306304</v>
-      </c>
-      <c r="B36" t="s">
-        <v>9</v>
-      </c>
-      <c r="C36" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1">
-        <v>45760.88854258424</v>
-      </c>
-      <c r="B37" t="s">
-        <v>8</v>
-      </c>
-      <c r="C37" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1">
-        <v>45760.91959351146</v>
-      </c>
-      <c r="B38" t="s">
-        <v>9</v>
-      </c>
-      <c r="C38" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1">
-        <v>45760.921627654374</v>
-      </c>
-      <c r="B39" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1">
-        <v>45760.924567852955</v>
-      </c>
-      <c r="B40" t="s">
-        <v>9</v>
-      </c>
-      <c r="C40" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1">
-        <v>45760.93425033686</v>
-      </c>
-      <c r="B41" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1">
-        <v>45760.958720826144</v>
-      </c>
-      <c r="B42" t="s">
-        <v>9</v>
-      </c>
-      <c r="C42" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1">
-        <v>45760.966902737455</v>
-      </c>
-      <c r="B43" t="s">
-        <v>8</v>
-      </c>
-      <c r="C43" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1">
-        <v>45760.982739347935</v>
-      </c>
-      <c r="B44" t="s">
-        <v>9</v>
-      </c>
-      <c r="C44" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4288,274 +4590,422 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>45761.00153158647</v>
+        <v>45762.002685823485</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>45761.128090606486</v>
+        <v>45762.027745813015</v>
       </c>
       <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>45762.035567001927</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>45762.038237524779</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>45762.042996398093</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>45762.055833774968</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>45762.076392224626</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>45762.104178893125</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>45762.104962458507</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>45762.146704720544</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>45762.146758545445</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>45762.146852104081</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>45762.175321810893</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>45762.175347851509</v>
+      </c>
+      <c r="B15" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1">
-        <v>45761.657880477826</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C15" t="s">
+        <v>96</v>
+      </c>
+      <c r="D15" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>45762.175359110421</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>45762.672312334689</v>
+      </c>
+      <c r="B17" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1">
-        <v>45761.66130505672</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1">
-        <v>45761.66150740248</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1">
-        <v>45761.67407240567</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1">
-        <v>45761.786633758275</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1">
-        <v>45761.7996360739</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1">
-        <v>45761.80138182198</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1">
-        <v>45761.80927726376</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1">
-        <v>45761.838492156894</v>
-      </c>
-      <c r="B12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1">
-        <v>45761.85455813294</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1">
-        <v>45761.86536311575</v>
-      </c>
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1">
-        <v>45761.880489663046</v>
-      </c>
-      <c r="B15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1">
-        <v>45761.88355098615</v>
-      </c>
-      <c r="B16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1">
-        <v>45761.88660443009</v>
-      </c>
-      <c r="B17" t="s">
-        <v>8</v>
-      </c>
       <c r="C17" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>45761.89100411599</v>
+        <v>45762.738446989439</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>45761.90964571024</v>
+        <v>45762.744605144995</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>45761.92113317266</v>
+        <v>45762.758387576621</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>45761.92133282725</v>
+        <v>45762.758562137242</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>45761.944264726524</v>
+        <v>45762.780491338533</v>
       </c>
       <c r="B22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>45761.97429134736</v>
+        <v>45762.835627525077</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>45761.98809786605</v>
+        <v>45762.841886585404</v>
       </c>
       <c r="B24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>95</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>45762.84687250085</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>45762.848197158193</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>45762.87990606681</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>45762.888179406007</v>
+      </c>
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>45762.889342216055</v>
+      </c>
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>45762.95610152337</v>
+      </c>
+      <c r="B30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>45762.956116912537</v>
+      </c>
+      <c r="B31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" t="s">
+        <v>100</v>
+      </c>
+      <c r="D31" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>45762.958127570833</v>
+      </c>
+      <c r="B32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>45762.963568153536</v>
+      </c>
+      <c r="B33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>45762.974607507487</v>
+      </c>
+      <c r="B34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>45762.98755947443</v>
+      </c>
+      <c r="B35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>45762.992237137652</v>
+      </c>
+      <c r="B36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>45762.995939318687</v>
+      </c>
+      <c r="B37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4569,420 +5019,243 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>45762.002685823485</v>
+        <v>45763.01198751395</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>102</v>
+      </c>
+      <c r="D2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>45762.027745813015</v>
+        <v>45763.011999274611</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>45762.03556700193</v>
+        <v>45763.636207529293</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>45762.03823752478</v>
+        <v>45763.661765210541</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>45762.04299639809</v>
+        <v>45763.666772146753</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>45762.05583377497</v>
+        <v>45763.684995531352</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>45762.076392224626</v>
+        <v>45763.693140403127</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>45762.104178893125</v>
+        <v>45763.702868019944</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>45762.10496245851</v>
+        <v>45763.719154480066</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>45762.146704720544</v>
+        <v>45763.749173967255</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>45762.146758545445</v>
+        <v>45763.751435537837</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>45762.14685210408</v>
+        <v>45763.756193826099</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>45762.17532181089</v>
+        <v>45763.760165081178</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>45762.17534785151</v>
+        <v>45763.769719871336</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>96</v>
-      </c>
-      <c r="D15" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>45762.17535911042</v>
+        <v>45763.834494942377</v>
       </c>
       <c r="B16" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>45762.67231233469</v>
+        <v>45763.869216585626</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>45762.73844698944</v>
+        <v>45763.871071136353</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>45762.744605144995</v>
+        <v>45763.871119190575</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>45762.75838757662</v>
+        <v>45763.871355291667</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>45762.75856213724</v>
+        <v>45763.886612225026</v>
       </c>
       <c r="B21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1">
-        <v>45762.78049133853</v>
-      </c>
-      <c r="B22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1">
-        <v>45762.83562752508</v>
-      </c>
-      <c r="B23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1">
-        <v>45762.841886585404</v>
-      </c>
-      <c r="B24" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1">
-        <v>45762.84687250085</v>
-      </c>
-      <c r="B25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1">
-        <v>45762.84819715819</v>
-      </c>
-      <c r="B26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1">
-        <v>45762.87990606681</v>
-      </c>
-      <c r="B27" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1">
-        <v>45762.88817940601</v>
-      </c>
-      <c r="B28" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1">
-        <v>45762.889342216055</v>
-      </c>
-      <c r="B29" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1">
-        <v>45762.95610152337</v>
-      </c>
-      <c r="B30" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1">
-        <v>45762.95611691254</v>
-      </c>
-      <c r="B31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31" t="s">
-        <v>100</v>
-      </c>
-      <c r="D31" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1">
-        <v>45762.95812757083</v>
-      </c>
-      <c r="B32" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1">
-        <v>45762.96356815354</v>
-      </c>
-      <c r="B33" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1">
-        <v>45762.97460750749</v>
-      </c>
-      <c r="B34" t="s">
-        <v>9</v>
-      </c>
-      <c r="C34" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1">
-        <v>45762.98755947443</v>
-      </c>
-      <c r="B35" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1">
-        <v>45762.99223713765</v>
-      </c>
-      <c r="B36" t="s">
-        <v>9</v>
-      </c>
-      <c r="C36" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1">
-        <v>45762.99593931869</v>
-      </c>
-      <c r="B37" t="s">
-        <v>8</v>
-      </c>
-      <c r="C37" t="s">
-        <v>102</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4996,241 +5269,355 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>45763.01198751395</v>
+        <v>45764.145133437167</v>
       </c>
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>45764.152199604367</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>45764.153264991393</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>45764.155446509882</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>45764.155544921152</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>45764.189999557486</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>45764.190014813023</v>
+      </c>
+      <c r="B8" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1">
-        <v>45763.01199927461</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>45764.190026475495</v>
+      </c>
+      <c r="B9" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1">
-        <v>45763.63620752929</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>45764.614631948643</v>
+      </c>
+      <c r="B10" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1">
-        <v>45763.66176521054</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1">
-        <v>45763.66677214675</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1">
-        <v>45763.68499553135</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1">
-        <v>45763.69314040313</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1">
-        <v>45763.702868019944</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1">
-        <v>45763.719154480066</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
       <c r="C10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>45763.749173967255</v>
+        <v>45764.623671879817</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>45763.75143553784</v>
+        <v>45764.639739583101</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>45763.7561938261</v>
+        <v>45764.644154702321</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>45763.76016508118</v>
+        <v>45764.647793204022</v>
       </c>
       <c r="B14" t="s">
         <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>45763.769719871336</v>
+        <v>45764.649008672393</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>45763.83449494238</v>
+        <v>45764.719975531996</v>
       </c>
       <c r="B16" t="s">
         <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>45763.86921658563</v>
+        <v>45764.721857629651</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>45763.87107113635</v>
+        <v>45764.725305550332</v>
       </c>
       <c r="B18" t="s">
         <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>45763.871119190575</v>
+        <v>45764.770670751226</v>
       </c>
       <c r="B19" t="s">
         <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>45763.87135529167</v>
+        <v>45764.773622113535</v>
       </c>
       <c r="B20" t="s">
         <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>45763.886612225026</v>
+        <v>45764.792099528298</v>
       </c>
       <c r="B21" t="s">
         <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>66</v>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>45764.798316745851</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>45764.86783527441</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>45764.926819432272</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>45764.929330820065</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>45764.931646982775</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>45764.935867078791</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>45764.944402954316</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>45764.960861295105</v>
+      </c>
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>45764.971084858102</v>
+      </c>
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>45764.977015032942</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:B31"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5244,351 +5631,358 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>45764.14513343717</v>
+        <v>45765.210163749485</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>45764.15219960437</v>
+        <v>45765.2195725001</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>45764.15326499139</v>
+        <v>45765.224003265437</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>45764.15544650988</v>
+        <v>45765.253620918134</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>45764.15554492115</v>
+        <v>45765.312947693936</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>108</v>
+      </c>
+      <c r="D6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>45764.189999557486</v>
+        <v>45765.312958060189</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>45764.19001481302</v>
+        <v>45765.663119152283</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>106</v>
-      </c>
-      <c r="D8" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>45764.190026475495</v>
+        <v>45765.685766709343</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>45764.61463194864</v>
+        <v>45765.688979857543</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>45764.62367187982</v>
+        <v>45765.699621835403</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>45764.6397395831</v>
+        <v>45765.703742793616</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>45764.64415470232</v>
+        <v>45765.706519017076</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>45764.64779320402</v>
+        <v>45765.718268644108</v>
       </c>
       <c r="B14" t="s">
         <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>45764.64900867239</v>
+        <v>45765.723802973327</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>45764.719975531996</v>
+        <v>45765.731138038376</v>
       </c>
       <c r="B16" t="s">
         <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>45764.72185762965</v>
+        <v>45765.734403282127</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>45764.72530555033</v>
+        <v>45765.750136124145</v>
       </c>
       <c r="B18" t="s">
         <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>45764.770670751226</v>
+        <v>45765.751476004654</v>
       </c>
       <c r="B19" t="s">
         <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>45764.773622113535</v>
+        <v>45765.752105078907</v>
       </c>
       <c r="B20" t="s">
         <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>45764.7920995283</v>
+        <v>45765.7521195175</v>
       </c>
       <c r="B21" t="s">
         <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>45764.79831674585</v>
+        <v>45765.820383212653</v>
       </c>
       <c r="B22" t="s">
         <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>45764.86783527441</v>
+        <v>45765.863422395654</v>
       </c>
       <c r="B23" t="s">
         <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>45764.92681943227</v>
+        <v>45765.86711759126</v>
       </c>
       <c r="B24" t="s">
         <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>45764.929330820065</v>
+        <v>45765.867156554421</v>
       </c>
       <c r="B25" t="s">
         <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>45764.931646982775</v>
+        <v>45765.871853123484</v>
       </c>
       <c r="B26" t="s">
         <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>45764.93586707879</v>
+        <v>45765.880390951024</v>
       </c>
       <c r="B27" t="s">
         <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>45764.944402954316</v>
+        <v>45765.884713455001</v>
       </c>
       <c r="B28" t="s">
         <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>45764.960861295105</v>
+        <v>45765.904346948519</v>
       </c>
       <c r="B29" t="s">
         <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>45764.9710848581</v>
+        <v>45765.90441639378</v>
       </c>
       <c r="B30" t="s">
         <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <v>45764.97701503294</v>
+        <v>45765.910397112515</v>
       </c>
       <c r="B31" t="s">
         <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5602,76 +5996,140 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>45765.210163749485</v>
+        <v>45766.025353687786</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>45765.2195725001</v>
+        <v>45766.028698402093</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>45765.22400326544</v>
+        <v>45766.029621261405</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>45765.253620918134</v>
+        <v>45765.045691608793</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>45765.312947693936</v>
+        <v>45766.045691658117</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>108</v>
-      </c>
-      <c r="D6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>45765.31295806019</v>
+        <v>45766.045799729211</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>108</v>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>45766.076493986533</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>45766.089538185544</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>45766.173147723013</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>45766.18173318277</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>45766.19046291813</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>45766.191796256484</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/time_tracker.xlsx
+++ b/time_tracker.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B738577-E809-4AD0-B05E-FB10E796DDDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C46D3156-0B5C-4829-A274-F922B2F45B82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13667" firstSheet="21" activeTab="27" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="115">
   <si>
     <t>Timestamp</t>
   </si>
@@ -397,6 +397,9 @@
   </si>
   <si>
     <t>207 minutes</t>
+  </si>
+  <si>
+    <t>56.7 minutes</t>
   </si>
 </sst>
 </file>
@@ -5971,10 +5974,10 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="A7" sqref="A7:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -6126,6 +6129,20 @@
       </c>
       <c r="C13" t="s">
         <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>45766.254240112641</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D14" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/time_tracker.xlsx
+++ b/time_tracker.xlsx
@@ -2,10 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C46D3156-0B5C-4829-A274-F922B2F45B82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr filterPrivacy="true"/>
   <bookViews>
-    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13667" firstSheet="21" activeTab="27" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13667" firstSheet="21" activeTab="27"/>
   </bookViews>
   <sheets>
     <sheet name="2025-03-23" sheetId="2" r:id="rId1"/>
@@ -36,6 +35,7 @@
     <sheet name="2025-04-17" sheetId="27" r:id="rId26"/>
     <sheet name="2025-04-18" sheetId="28" r:id="rId27"/>
     <sheet name="2025-04-19" sheetId="29" r:id="rId28"/>
+    <sheet name="2025-04-20" sheetId="30" r:id="rId32"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
   <si>
     <t>Timestamp</t>
   </si>
@@ -400,13 +400,19 @@
   </si>
   <si>
     <t>56.7 minutes</t>
+  </si>
+  <si>
+    <t>mic streaming problem</t>
+  </si>
+  <si>
+    <t>252.9 minutes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -436,14 +442,14 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -456,7 +462,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -5976,16 +5982,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="true" workbookViewId="0">
       <selection activeCell="A7" sqref="A7:E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.05"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" customWidth="1"/>
+    <col customWidth="true" max="1" min="1" width="19.33203125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5999,7 +6005,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>45766.025353687786</v>
       </c>
@@ -6010,7 +6016,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>45766.028698402093</v>
       </c>
@@ -6021,7 +6027,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>45766.029621261405</v>
       </c>
@@ -6032,7 +6038,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>45765.045691608793</v>
       </c>
@@ -6043,7 +6049,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>45766.045691658117</v>
       </c>
@@ -6054,7 +6060,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>45766.045799729211</v>
       </c>
@@ -6065,7 +6071,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>45766.076493986533</v>
       </c>
@@ -6076,7 +6082,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4">
       <c r="A9" s="1">
         <v>45766.089538185544</v>
       </c>
@@ -6087,7 +6093,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4">
       <c r="A10" s="1">
         <v>45766.173147723013</v>
       </c>
@@ -6098,7 +6104,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4">
       <c r="A11" s="1">
         <v>45766.18173318277</v>
       </c>
@@ -6109,7 +6115,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4">
       <c r="A12" s="1">
         <v>45766.19046291813</v>
       </c>
@@ -6120,7 +6126,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4">
       <c r="A13" s="1">
         <v>45766.191796256484</v>
       </c>
@@ -6131,7 +6137,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4">
       <c r="A14" s="1">
         <v>45766.254240112641</v>
       </c>
@@ -6143,6 +6149,204 @@
       </c>
       <c r="D14" t="s">
         <v>114</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>45766.5640999374</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1">
+        <v>45766.580335482904</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1">
+        <v>45766.59770681642</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1">
+        <v>45766.626438862215</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1">
+        <v>45766.67536691902</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1">
+        <v>45766.70362675004</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1">
+        <v>45766.714814054816</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1">
+        <v>45766.718355921534</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1">
+        <v>45766.720820226285</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1">
+        <v>45766.72190355946</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1">
+        <v>45766.7320877847</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1">
+        <v>45766.74717439334</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1">
+        <v>45766.75248882684</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1">
+        <v>45766.78376563323</v>
+      </c>
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1">
+        <v>45766.84939679973</v>
+      </c>
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1">
+        <v>45766.860707970256</v>
+      </c>
+      <c r="B30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1">
+        <v>45766.87466012548</v>
+      </c>
+      <c r="B31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1">
+        <v>45766.91547012408</v>
+      </c>
+      <c r="B32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -6314,6 +6518,45 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>45767.201186146005</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+  </sheetData>
 </worksheet>
 </file>
 

--- a/time_tracker.xlsx
+++ b/time_tracker.xlsx
@@ -36,6 +36,7 @@
     <sheet name="2025-04-18" sheetId="28" r:id="rId27"/>
     <sheet name="2025-04-19" sheetId="29" r:id="rId28"/>
     <sheet name="2025-04-20" sheetId="30" r:id="rId32"/>
+    <sheet name="2025-04-21" sheetId="31" r:id="rId33"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -55,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
   <si>
     <t>Timestamp</t>
   </si>
@@ -406,6 +407,15 @@
   </si>
   <si>
     <t>252.9 minutes</t>
+  </si>
+  <si>
+    <t>trying to findout why the mic isn't streaming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">making all async methods into </t>
+  </si>
+  <si>
+    <t>163.2 minutes</t>
   </si>
 </sst>
 </file>
@@ -6556,6 +6566,287 @@
         <v>116</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>45767.74797726048</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>45767.75645101791</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>45767.75901756986</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>45767.77994564018</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>45767.79044408057</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>45767.812145080024</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>45767.84725098292</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>45767.85824558337</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>45767.872355339015</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>45767.87862944679</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>45767.90333141784</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>45767.90587231716</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>45767.91300310052</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1">
+        <v>45767.9304436867</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1">
+        <v>45767.96234762187</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1">
+        <v>45767.96237444394</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1">
+        <v>45767.97442690138</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1">
+        <v>45767.98133604525</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>118</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>45768.025131177375</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>45768.030472614104</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>45768.139014478096</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>45768.152728981935</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>45768.266731677475</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6" t="s">
+        <v>119</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>

--- a/time_tracker.xlsx
+++ b/time_tracker.xlsx
@@ -2,9 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
-  <workbookPr filterPrivacy="true"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C014989-E012-4985-841F-DD76CB9EBD01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13667" firstSheet="21" activeTab="27"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="16783" windowHeight="13536" firstSheet="27" activeTab="30" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2025-03-23" sheetId="2" r:id="rId1"/>
@@ -35,8 +36,9 @@
     <sheet name="2025-04-17" sheetId="27" r:id="rId26"/>
     <sheet name="2025-04-18" sheetId="28" r:id="rId27"/>
     <sheet name="2025-04-19" sheetId="29" r:id="rId28"/>
-    <sheet name="2025-04-20" sheetId="30" r:id="rId32"/>
-    <sheet name="2025-04-21" sheetId="31" r:id="rId33"/>
+    <sheet name="2025-04-20" sheetId="30" r:id="rId29"/>
+    <sheet name="2025-04-21" sheetId="31" r:id="rId30"/>
+    <sheet name="2025-04-22" sheetId="32" r:id="rId31"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -56,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="122">
   <si>
     <t>Timestamp</t>
   </si>
@@ -416,13 +418,19 @@
   </si>
   <si>
     <t>163.2 minutes</t>
+  </si>
+  <si>
+    <t>converting to single thread</t>
+  </si>
+  <si>
+    <t>258.9 minutes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -452,14 +460,14 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -472,7 +480,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1527,7 +1535,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -2433,7 +2443,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -3442,7 +3454,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -3802,7 +3814,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A25" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -4591,7 +4603,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -5270,7 +5284,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A13" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -5630,8 +5644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:B31"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -5990,18 +6004,18 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:E15"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col customWidth="true" max="1" min="1" width="19.33203125"/>
+    <col min="1" max="1" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6015,7 +6029,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>45766.025353687786</v>
       </c>
@@ -6026,7 +6040,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>45766.028698402093</v>
       </c>
@@ -6037,7 +6051,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>45766.029621261405</v>
       </c>
@@ -6048,7 +6062,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>45765.045691608793</v>
       </c>
@@ -6056,10 +6070,13 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>45766.045691658117</v>
       </c>
@@ -6070,7 +6087,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>45766.045799729211</v>
       </c>
@@ -6081,7 +6098,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>45766.076493986533</v>
       </c>
@@ -6092,7 +6109,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>45766.089538185544</v>
       </c>
@@ -6103,7 +6120,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>45766.173147723013</v>
       </c>
@@ -6114,7 +6131,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>45766.18173318277</v>
       </c>
@@ -6125,7 +6142,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>45766.19046291813</v>
       </c>
@@ -6136,7 +6153,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>45766.191796256484</v>
       </c>
@@ -6147,7 +6164,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>45766.254240112641</v>
       </c>
@@ -6161,9 +6178,9 @@
         <v>114</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>45766.5640999374</v>
+        <v>45766.564099937401</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
@@ -6172,7 +6189,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>45766.580335482904</v>
       </c>
@@ -6183,9 +6200,9 @@
         <v>115</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>45766.59770681642</v>
+        <v>45766.597706816421</v>
       </c>
       <c r="B17" t="s">
         <v>9</v>
@@ -6194,7 +6211,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>45766.626438862215</v>
       </c>
@@ -6205,9 +6222,9 @@
         <v>115</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>45766.67536691902</v>
+        <v>45766.675366919022</v>
       </c>
       <c r="B19" t="s">
         <v>9</v>
@@ -6216,9 +6233,9 @@
         <v>115</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>45766.70362675004</v>
+        <v>45766.703626750037</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
@@ -6227,7 +6244,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>45766.714814054816</v>
       </c>
@@ -6238,7 +6255,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>45766.718355921534</v>
       </c>
@@ -6249,7 +6266,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>45766.720820226285</v>
       </c>
@@ -6260,9 +6277,9 @@
         <v>115</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>45766.72190355946</v>
+        <v>45766.721903559461</v>
       </c>
       <c r="B24" t="s">
         <v>8</v>
@@ -6271,9 +6288,9 @@
         <v>115</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>45766.7320877847</v>
+        <v>45766.732087784701</v>
       </c>
       <c r="B25" t="s">
         <v>9</v>
@@ -6282,9 +6299,9 @@
         <v>115</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>45766.74717439334</v>
+        <v>45766.747174393342</v>
       </c>
       <c r="B26" t="s">
         <v>8</v>
@@ -6293,9 +6310,9 @@
         <v>115</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>45766.75248882684</v>
+        <v>45766.752488826838</v>
       </c>
       <c r="B27" t="s">
         <v>9</v>
@@ -6304,9 +6321,9 @@
         <v>115</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>45766.78376563323</v>
+        <v>45766.783765633227</v>
       </c>
       <c r="B28" t="s">
         <v>8</v>
@@ -6315,9 +6332,9 @@
         <v>115</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>45766.84939679973</v>
+        <v>45766.849396799727</v>
       </c>
       <c r="B29" t="s">
         <v>9</v>
@@ -6326,7 +6343,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>45766.860707970256</v>
       </c>
@@ -6337,9 +6354,9 @@
         <v>115</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <v>45766.87466012548</v>
+        <v>45766.874660125482</v>
       </c>
       <c r="B31" t="s">
         <v>9</v>
@@ -6348,15 +6365,259 @@
         <v>62</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <v>45766.91547012408</v>
+        <v>45766.915470124077</v>
       </c>
       <c r="B32" t="s">
         <v>8</v>
       </c>
       <c r="C32" t="s">
         <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>45767.201186146005</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>45767.747977260478</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>45767.756451017907</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>45767.759017569857</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>45767.779945640177</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>45767.790444080572</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>45767.812145080024</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>45767.847250982923</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>45767.858245583368</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>45767.872355339015</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>45767.878629446786</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>45767.903331417838</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>45767.905872317162</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>45767.913003100519</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>45767.930443686702</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>45767.962347621869</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>45767.962374443938</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>45767.974426901383</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>45767.981336045254</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -6532,13 +6793,19 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A2:B6"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6552,230 +6819,83 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>45767.201186146005</v>
+        <v>45768.025131177375</v>
       </c>
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>45768.030472614104</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>45768.139014478096</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>45768.152728981935</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>45768.266731677475</v>
+      </c>
+      <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1">
-        <v>45767.74797726048</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1">
-        <v>45767.75645101791</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1">
-        <v>45767.75901756986</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1">
-        <v>45767.77994564018</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
       <c r="C6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1">
-        <v>45767.79044408057</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1">
-        <v>45767.812145080024</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1">
-        <v>45767.84725098292</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1">
-        <v>45767.85824558337</v>
-      </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1">
-        <v>45767.872355339015</v>
-      </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1">
-        <v>45767.87862944679</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1">
-        <v>45767.90333141784</v>
-      </c>
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1">
-        <v>45767.90587231716</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1">
-        <v>45767.91300310052</v>
-      </c>
-      <c r="B15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1">
-        <v>45767.9304436867</v>
-      </c>
-      <c r="B16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1">
-        <v>45767.96234762187</v>
-      </c>
-      <c r="B17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1">
-        <v>45767.96237444394</v>
-      </c>
-      <c r="B18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1">
-        <v>45767.97442690138</v>
-      </c>
-      <c r="B19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1">
-        <v>45767.98133604525</v>
-      </c>
-      <c r="B20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" t="s">
-        <v>118</v>
+      <c r="D6" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.21875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6789,65 +6909,132 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>45768.025131177375</v>
+        <v>45769.076851851853</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>45768.030472614104</v>
+        <v>45770.076851851853</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>45768.139014478096</v>
+        <v>45771.076851851853</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>45768.152728981935</v>
+        <v>45769.115298541234</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>45768.266731677475</v>
+        <v>45769.121362377184</v>
       </c>
       <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>45769.185682870368</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>45769.189212962963</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>45769.215057411442</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>45769.220125683212</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>45769.285011574073</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>45770.2851041088</v>
+      </c>
+      <c r="B12" t="s">
         <v>10</v>
       </c>
-      <c r="C6" t="s">
-        <v>118</v>
-      </c>
-      <c r="D6" t="s">
-        <v>119</v>
+      <c r="C12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D12" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -7831,9 +8018,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">

--- a/time_tracker.xlsx
+++ b/time_tracker.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C014989-E012-4985-841F-DD76CB9EBD01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A470717-6883-4130-9A58-76DD477A7513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="16783" windowHeight="13536" firstSheet="27" activeTab="30" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13667" firstSheet="27" activeTab="30" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2025-03-23" sheetId="2" r:id="rId1"/>
@@ -423,27 +423,39 @@
     <t>converting to single thread</t>
   </si>
   <si>
-    <t>258.9 minutes</t>
+    <t>280 minutes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -458,10 +470,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6884,10 +6897,10 @@
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -6895,7 +6908,7 @@
     <col min="1" max="1" width="24.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6909,9 +6922,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>45769.076851851853</v>
+        <v>45769.073379629626</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -6920,9 +6933,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>45770.076851851853</v>
+        <v>45770.073379629626</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -6931,9 +6944,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>45771.076851851853</v>
+        <v>45771.073379629626</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -6942,7 +6955,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>45769.115298541234</v>
       </c>
@@ -6953,7 +6966,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>45769.121362377184</v>
       </c>
@@ -6964,7 +6977,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>45769.185682870368</v>
       </c>
@@ -6975,7 +6988,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>45769.189212962963</v>
       </c>
@@ -6986,7 +6999,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>45769.215057411442</v>
       </c>
@@ -6997,7 +7010,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>45769.220125683212</v>
       </c>
@@ -7008,9 +7021,9 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>45769.285011574073</v>
+        <v>45769.281539351854</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
@@ -7019,9 +7032,9 @@
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>45770.2851041088</v>
+        <v>45770.281631944446</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
@@ -7033,8 +7046,19 @@
         <v>121</v>
       </c>
     </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/time_tracker.xlsx
+++ b/time_tracker.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A470717-6883-4130-9A58-76DD477A7513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{071032E1-F73B-45AD-9C0D-CD8B051C6C51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13667" firstSheet="27" activeTab="30" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13667" firstSheet="28" activeTab="32" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2025-03-23" sheetId="2" r:id="rId1"/>
@@ -39,6 +39,9 @@
     <sheet name="2025-04-20" sheetId="30" r:id="rId29"/>
     <sheet name="2025-04-21" sheetId="31" r:id="rId30"/>
     <sheet name="2025-04-22" sheetId="32" r:id="rId31"/>
+    <sheet name="2025-04-23" sheetId="33" r:id="rId32"/>
+    <sheet name="2025-04-24" sheetId="34" r:id="rId33"/>
+    <sheet name="2025-04-25" sheetId="35" r:id="rId34"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -58,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1536" uniqueCount="129">
   <si>
     <t>Timestamp</t>
   </si>
@@ -424,13 +427,34 @@
   </si>
   <si>
     <t>280 minutes</t>
+  </si>
+  <si>
+    <t>Finishing up the refactor and debugging</t>
+  </si>
+  <si>
+    <t>refactoring mic script</t>
+  </si>
+  <si>
+    <t>refactoring OnTrack</t>
+  </si>
+  <si>
+    <t>247 minutes</t>
+  </si>
+  <si>
+    <t>477.8 minutes</t>
+  </si>
+  <si>
+    <t>validating playback</t>
+  </si>
+  <si>
+    <t>242 minutes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -443,8 +467,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -455,6 +485,11 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF548235"/>
       </patternFill>
     </fill>
   </fills>
@@ -470,11 +505,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="22" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1690,7 +1727,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
@@ -2456,7 +2493,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
@@ -3179,7 +3216,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -3467,7 +3504,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -3827,7 +3864,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -5297,7 +5334,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A31" sqref="A13:B31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -5657,11 +5696,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -6897,10 +6939,10 @@
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -7047,18 +7089,988 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
+      <c r="A13" s="4">
+        <v>45769.299940630779</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>120</v>
+      </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
     </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>45769.932893354198</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>45769.933048430888</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>45769.938017568085</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>122</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
+  <dimension ref="A1:D36"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.5546875" customWidth="1"/>
+    <col min="3" max="3" width="52.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>45770.028308071931</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>45770.044644515983</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>45770.091461233285</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>45770.106960863697</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>45770.109611691834</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>45770.12743731145</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>45770.135282410942</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>45770.13934510362</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>45770.14191493496</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>45770.180850309043</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>45770.204640435804</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>45770.291087382262</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>45771.29108732639</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>45770.533388890588</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>45770.540289350181</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>45770.557184793928</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>45770.572065001361</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>45770.580492087443</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>45770.617750953039</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>45770.731698483694</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>45770.731749790757</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>45770.731815373947</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>45770.776639864809</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>45770.790216032998</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>45770.835694450405</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>45770.839616895464</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>45770.859900270727</v>
+      </c>
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>45770.877659506747</v>
+      </c>
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>45770.899687284596</v>
+      </c>
+      <c r="B30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>45770.944918969966</v>
+      </c>
+      <c r="B31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>45770.959377509607</v>
+      </c>
+      <c r="B32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>45770.961218725803</v>
+      </c>
+      <c r="B33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>45770.965349897007</v>
+      </c>
+      <c r="B34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>45770.98274612079</v>
+      </c>
+      <c r="B35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>45770.997517913667</v>
+      </c>
+      <c r="B36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" t="s">
+        <v>124</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2000-000000000000}">
+  <dimension ref="A1:D31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:B31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.88671875" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>45771.009107417769</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>45771.016765598572</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>45771.050782187769</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>45771.098360137985</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>45771.102443448915</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>45771.106386929743</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>45771.139906426753</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>45771.144725088736</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>45771.168474505146</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>45771.211909120197</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>45771.21375767752</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>45771.214518291075</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>45771.214552051308</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>124</v>
+      </c>
+      <c r="D14" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>45771.214565162118</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>45771.738067678103</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>45771.738076572379</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>45771.738260775135</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>45771.753695405765</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>45771.757237238009</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>45771.759629980392</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>45771.761662604054</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>45771.792006524993</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>45771.797358376411</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>45771.824401007121</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>45771.919788353291</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>45771.942776226293</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>45771.971973913562</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>45771.981195950284</v>
+      </c>
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>45771.992057251366</v>
+      </c>
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>45771.993080783424</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" t="s">
+        <v>127</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.5546875" customWidth="1"/>
+    <col min="3" max="3" width="20.77734375" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>45772.085856629805</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>45772.116398679049</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>45772.129261338981</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>45772.151868779642</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>45772.160457150268</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>45772.167725841864</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>45772.204002269333</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>45772.204004629632</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>45772.204004629632</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>45772.204004629632</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/time_tracker.xlsx
+++ b/time_tracker.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{071032E1-F73B-45AD-9C0D-CD8B051C6C51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A22B1073-AEB9-4474-BFF4-B5C54CA7E352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13667" firstSheet="28" activeTab="32" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13667" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2025-03-23" sheetId="2" r:id="rId1"/>
@@ -42,6 +42,7 @@
     <sheet name="2025-04-23" sheetId="33" r:id="rId32"/>
     <sheet name="2025-04-24" sheetId="34" r:id="rId33"/>
     <sheet name="2025-04-25" sheetId="35" r:id="rId34"/>
+    <sheet name="2025-04-26" sheetId="36" r:id="rId35"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -61,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1536" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1589" uniqueCount="131">
   <si>
     <t>Timestamp</t>
   </si>
@@ -448,6 +449,12 @@
   </si>
   <si>
     <t>242 minutes</t>
+  </si>
+  <si>
+    <t>hopefully will be finished soon</t>
+  </si>
+  <si>
+    <t>361.4 minutes</t>
   </si>
 </sst>
 </file>
@@ -841,9 +848,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -945,9 +957,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="54.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -6061,7 +6076,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -7147,7 +7162,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -7565,7 +7580,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2000-000000000000}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A16" sqref="A16:B31"/>
     </sheetView>
   </sheetViews>
@@ -7929,7 +7944,7 @@
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
@@ -8067,6 +8082,300 @@
       </c>
       <c r="C11" t="s">
         <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>45772.57794093831</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>45772.599312655111</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>45772.616753027978</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>45772.618060898138</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>45772.634485862509</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>45772.686999373625</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>45772.737088289839</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>45772.737483927296</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>45772.742858935533</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>45772.776208296593</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>45772.797528482755</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>45772.803230068239</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>45772.823123984344</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>45772.879860307425</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>45772.987388818285</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>45772.990318410957</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" t="s">
+        <v>129</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2200-000000000000}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>45773.007470613251</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>45773.023633826466</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>45773.035797970886</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>45773.073878398456</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>45773.156741818188</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>45773.181226581721</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>45773.181266711603</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>45773.181296365539</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -9060,7 +9369,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" customWidth="1"/>
+    <col min="1" max="1" width="17.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">

--- a/time_tracker.xlsx
+++ b/time_tracker.xlsx
@@ -2,10 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A22B1073-AEB9-4474-BFF4-B5C54CA7E352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr filterPrivacy="true"/>
   <bookViews>
-    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13667" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13667" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="2025-03-23" sheetId="2" r:id="rId1"/>
@@ -43,6 +42,8 @@
     <sheet name="2025-04-24" sheetId="34" r:id="rId33"/>
     <sheet name="2025-04-25" sheetId="35" r:id="rId34"/>
     <sheet name="2025-04-26" sheetId="36" r:id="rId35"/>
+    <sheet name="2025-04-27" sheetId="37" r:id="rId39"/>
+    <sheet name="2025-04-28" sheetId="38" r:id="rId40"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -62,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1589" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="140">
   <si>
     <t>Timestamp</t>
   </si>
@@ -455,13 +456,40 @@
   </si>
   <si>
     <t>361.4 minutes</t>
+  </si>
+  <si>
+    <t>trying to fix transceivers</t>
+  </si>
+  <si>
+    <t>trying to fix transceivers (unity webrtc bugs......)</t>
+  </si>
+  <si>
+    <t>293.6 minutes</t>
+  </si>
+  <si>
+    <t>fixing the timings reported</t>
+  </si>
+  <si>
+    <t>Automating reports pipeline</t>
+  </si>
+  <si>
+    <t>Automation Done, Cleaning up</t>
+  </si>
+  <si>
+    <t>Double checking hours written</t>
+  </si>
+  <si>
+    <t>uploading the work report</t>
+  </si>
+  <si>
+    <t>408.8 minutes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -514,17 +542,17 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="22" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="22" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -537,7 +565,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -957,7 +985,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1290,6 +1318,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="31.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -1529,6 +1560,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="54.109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -1749,6 +1783,7 @@
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27.77734375" customWidth="1"/>
+    <col min="3" max="3" width="29.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -2058,7 +2093,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -2283,6 +2320,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="26.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -2513,6 +2553,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="35.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -3231,13 +3274,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="28.21875" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" customWidth="1"/>
+    <col min="3" max="3" width="31.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -3522,6 +3567,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="30.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -3879,9 +3927,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="33.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -4388,6 +4439,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="37.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -4668,11 +4722,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="30.21875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -5102,6 +5159,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="26" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -5349,11 +5409,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A31" sqref="A13:B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="22.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -5711,13 +5774,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.44140625" customWidth="1"/>
+    <col min="3" max="3" width="22.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -6076,13 +6140,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.33203125" customWidth="1"/>
+    <col min="3" max="3" width="29.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -6462,6 +6527,7 @@
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.109375" customWidth="1"/>
+    <col min="3" max="3" width="45.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -6873,6 +6939,7 @@
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.77734375" customWidth="1"/>
+    <col min="3" max="3" width="33.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -6956,7 +7023,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
@@ -8271,9 +8338,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.05"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8287,7 +8354,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>45773.007470613251</v>
       </c>
@@ -8298,7 +8365,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>45773.023633826466</v>
       </c>
@@ -8309,7 +8376,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>45773.035797970886</v>
       </c>
@@ -8320,7 +8387,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>45773.073878398456</v>
       </c>
@@ -8331,7 +8398,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>45773.156741818188</v>
       </c>
@@ -8342,7 +8409,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>45773.181226581721</v>
       </c>
@@ -8353,7 +8420,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>45773.181266711603</v>
       </c>
@@ -8367,7 +8434,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4">
       <c r="A9" s="1">
         <v>45773.181296365539</v>
       </c>
@@ -8378,8 +8445,581 @@
         <v>129</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>45773.75295417733</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>45773.76604001165</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>45773.79402168028</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>45773.798103667046</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>45773.816446836994</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>45773.89391348546</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1">
+        <v>45773.91507993459</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1">
+        <v>45773.92074582967</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1">
+        <v>45773.95689246577</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1">
+        <v>45773.96319509922</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1">
+        <v>45773.96943526972</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1">
+        <v>45773.994140501134</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1">
+        <v>45773.994251421485</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1">
+        <v>45773.998291354495</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>132</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>45774.01186755144</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>45774.04965015805</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>45774.06489361855</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>45774.09771981367</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>45774.505183726054</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>45774.50752609547</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>45774.52873598408</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>45774.542574508574</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>45774.606626786066</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>45774.6094450667</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>45774.62513392071</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>45774.674485000396</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>45774.675938128996</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>45774.67618233805</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1">
+        <v>45774.68118947493</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1">
+        <v>45774.69793813299</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1">
+        <v>45774.75108318091</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1">
+        <v>45774.75123538679</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1">
+        <v>45774.78422439749</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1">
+        <v>45774.92976469829</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1">
+        <v>45774.93862891661</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1">
+        <v>45774.948953545296</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1">
+        <v>45774.96405079789</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>136</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>45775.06606870123</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>45775.07549231148</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>45775.08561055842</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>45775.1262342084</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>45775.1264857755</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>45775.14375716462</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>45775.14393771623</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>45775.14395221375</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>45775.143965691685</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>138</v>
+      </c>
+      <c r="D10" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>45775.14398086495</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+  </sheetData>
 </worksheet>
 </file>
 
@@ -8777,7 +9417,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{596D1CF3-20E2-4545-B72A-D68B9650BAFC}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -9135,7 +9775,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <sheetData>

--- a/time_tracker.xlsx
+++ b/time_tracker.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
-  <workbookPr filterPrivacy="true"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E8BA3BD-922D-451A-AEFD-7F87B0C275C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13667" activeTab="6"/>
+    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13667" firstSheet="39" activeTab="42" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2025-03-23" sheetId="2" r:id="rId1"/>
@@ -42,8 +43,18 @@
     <sheet name="2025-04-24" sheetId="34" r:id="rId33"/>
     <sheet name="2025-04-25" sheetId="35" r:id="rId34"/>
     <sheet name="2025-04-26" sheetId="36" r:id="rId35"/>
-    <sheet name="2025-04-27" sheetId="37" r:id="rId39"/>
-    <sheet name="2025-04-28" sheetId="38" r:id="rId40"/>
+    <sheet name="2025-04-27" sheetId="37" r:id="rId36"/>
+    <sheet name="2025-04-28" sheetId="38" r:id="rId37"/>
+    <sheet name="2025-04-29" sheetId="39" r:id="rId38"/>
+    <sheet name="2025-04-30" sheetId="40" r:id="rId39"/>
+    <sheet name="2025-05-01" sheetId="41" r:id="rId40"/>
+    <sheet name="2025-05-02" sheetId="42" r:id="rId41"/>
+    <sheet name="2025-05-03" sheetId="43" r:id="rId42"/>
+    <sheet name="2025-05-04" sheetId="44" r:id="rId43"/>
+    <sheet name="2025-05-05" sheetId="45" r:id="rId44"/>
+    <sheet name="2025-05-06" sheetId="46" r:id="rId45"/>
+    <sheet name="2025-05-07" sheetId="47" r:id="rId46"/>
+    <sheet name="2025-05-08" sheetId="48" r:id="rId47"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -63,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2126" uniqueCount="182">
   <si>
     <t>Timestamp</t>
   </si>
@@ -483,13 +494,139 @@
   </si>
   <si>
     <t>408.8 minutes</t>
+  </si>
+  <si>
+    <t>Working on audio receiving and playing</t>
+  </si>
+  <si>
+    <t>22.8 minutes</t>
+  </si>
+  <si>
+    <t>15.2 minutes</t>
+  </si>
+  <si>
+    <t>200.2 minutes</t>
+  </si>
+  <si>
+    <t>Asset Handling</t>
+  </si>
+  <si>
+    <t>Setting up WebTransport Server</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Setting up WebSocket Server </t>
+  </si>
+  <si>
+    <t>226.0 minutes</t>
+  </si>
+  <si>
+    <t>setting up the overarching server</t>
+  </si>
+  <si>
+    <t>Working on Server</t>
+  </si>
+  <si>
+    <t>Added Firewall Handling</t>
+  </si>
+  <si>
+    <t>Added Subserver handling</t>
+  </si>
+  <si>
+    <t>Testing subserver handling</t>
+  </si>
+  <si>
+    <t>365.3 minutes</t>
+  </si>
+  <si>
+    <t>Developing websockets</t>
+  </si>
+  <si>
+    <t>server appropriation, selective activation and health monitoring done</t>
+  </si>
+  <si>
+    <t>Improved health check to show active sockets and ongoing requests</t>
+  </si>
+  <si>
+    <t>152.6 minutes</t>
+  </si>
+  <si>
+    <t>adding player sync code</t>
+  </si>
+  <si>
+    <t>setting up data structures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">setting up data structures </t>
+  </si>
+  <si>
+    <t>118.6 minutes</t>
+  </si>
+  <si>
+    <t>Websocket stablishment and data transmittion</t>
+  </si>
+  <si>
+    <t>67.6 minutes</t>
+  </si>
+  <si>
+    <t>writing unit test</t>
+  </si>
+  <si>
+    <t>23.8 minutes</t>
+  </si>
+  <si>
+    <t>Unit testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Writing Unit Test </t>
+  </si>
+  <si>
+    <t>working on netcode server</t>
+  </si>
+  <si>
+    <t>61.8 minutes</t>
+  </si>
+  <si>
+    <t>Working on netcode server</t>
+  </si>
+  <si>
+    <t>253.6 minutes</t>
+  </si>
+  <si>
+    <t>Working on client side sync</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Working on client side sync </t>
+  </si>
+  <si>
+    <t>65.3 minutes</t>
+  </si>
+  <si>
+    <t>167.6 minutes</t>
+  </si>
+  <si>
+    <t>Client side data streaming</t>
+  </si>
+  <si>
+    <t>Server side Authority</t>
+  </si>
+  <si>
+    <t>Data streaming</t>
+  </si>
+  <si>
+    <t>313.9 minutes</t>
+  </si>
+  <si>
+    <t>Data Stream from client to server</t>
+  </si>
+  <si>
+    <t>139 minutes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -542,17 +679,17 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
-    <xf numFmtId="22" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="22" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -565,7 +702,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -8334,13 +8471,13 @@
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2200-000000000000}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8354,7 +8491,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>45773.007470613251</v>
       </c>
@@ -8365,7 +8502,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>45773.023633826466</v>
       </c>
@@ -8376,7 +8513,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>45773.035797970886</v>
       </c>
@@ -8387,7 +8524,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>45773.073878398456</v>
       </c>
@@ -8398,7 +8535,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>45773.156741818188</v>
       </c>
@@ -8409,7 +8546,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>45773.181226581721</v>
       </c>
@@ -8420,7 +8557,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>45773.181266711603</v>
       </c>
@@ -8434,7 +8571,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>45773.181296365539</v>
       </c>
@@ -8445,9 +8582,9 @@
         <v>129</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>45773.75295417733</v>
+        <v>45773.752954177333</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
@@ -8456,9 +8593,9 @@
         <v>131</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>45773.76604001165</v>
+        <v>45773.766040011651</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
@@ -8467,9 +8604,9 @@
         <v>131</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>45773.79402168028</v>
+        <v>45773.794021680282</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
@@ -8478,7 +8615,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>45773.798103667046</v>
       </c>
@@ -8489,7 +8626,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>45773.816446836994</v>
       </c>
@@ -8500,9 +8637,9 @@
         <v>131</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>45773.89391348546</v>
+        <v>45773.893913485459</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
@@ -8511,9 +8648,9 @@
         <v>131</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>45773.91507993459</v>
+        <v>45773.915079934588</v>
       </c>
       <c r="B16" t="s">
         <v>9</v>
@@ -8522,9 +8659,9 @@
         <v>131</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>45773.92074582967</v>
+        <v>45773.920745829673</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
@@ -8533,9 +8670,9 @@
         <v>131</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>45773.95689246577</v>
+        <v>45773.956892465772</v>
       </c>
       <c r="B18" t="s">
         <v>9</v>
@@ -8544,9 +8681,9 @@
         <v>131</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>45773.96319509922</v>
+        <v>45773.963195099219</v>
       </c>
       <c r="B19" t="s">
         <v>8</v>
@@ -8555,9 +8692,9 @@
         <v>131</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>45773.96943526972</v>
+        <v>45773.969435269719</v>
       </c>
       <c r="B20" t="s">
         <v>9</v>
@@ -8566,7 +8703,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>45773.994140501134</v>
       </c>
@@ -8577,7 +8714,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>45773.994251421485</v>
       </c>
@@ -8588,7 +8725,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>45773.998291354495</v>
       </c>
@@ -8597,6 +8734,289 @@
       </c>
       <c r="C23" t="s">
         <v>132</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2300-000000000000}">
+  <dimension ref="A1:D24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>45774.011867551439</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>45774.049650158049</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>45774.064893618553</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>45774.097719813668</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>45774.505183726054</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>45774.507526095469</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>45774.52873598408</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>45774.542574508574</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>45774.606626786066</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>45774.609445066701</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>45774.625133920708</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>45774.674485000396</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>45774.675938128996</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>45774.676182338051</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>45774.681189474933</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>45774.697938132987</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>45774.751083180912</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>45774.751235386793</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>45774.784224397488</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>45774.929764698289</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>45774.938628916607</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>45774.948953545296</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>45774.964050797891</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -8605,13 +9025,14 @@
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2400-000000000000}">
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8625,274 +9046,133 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>45774.01186755144</v>
+        <v>45775.066068701228</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>45774.04965015805</v>
+        <v>45775.07549231148</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>45774.06489361855</v>
+        <v>45775.085610558417</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>45774.09771981367</v>
+        <v>45775.126234208401</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>45774.505183726054</v>
+        <v>45775.126485775501</v>
       </c>
       <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>45775.143757164617</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>45775.143937716231</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>45775.143952213752</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>45775.143965691685</v>
+      </c>
+      <c r="B10" t="s">
         <v>10</v>
       </c>
-      <c r="C6" t="s">
-        <v>132</v>
-      </c>
-      <c r="D6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1">
-        <v>45774.50752609547</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1">
-        <v>45774.52873598408</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1">
-        <v>45774.542574508574</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1">
-        <v>45774.606626786066</v>
-      </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
       <c r="C10" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>138</v>
+      </c>
+      <c r="D10" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>45774.6094450667</v>
+        <v>45775.143980864952</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1">
-        <v>45774.62513392071</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1">
-        <v>45774.674485000396</v>
-      </c>
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1">
-        <v>45774.675938128996</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1">
-        <v>45774.67618233805</v>
-      </c>
-      <c r="B15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1">
-        <v>45774.68118947493</v>
-      </c>
-      <c r="B16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1">
-        <v>45774.69793813299</v>
-      </c>
-      <c r="B17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1">
-        <v>45774.75108318091</v>
-      </c>
-      <c r="B18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1">
-        <v>45774.75123538679</v>
-      </c>
-      <c r="B19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1">
-        <v>45774.78422439749</v>
-      </c>
-      <c r="B20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1">
-        <v>45774.92976469829</v>
-      </c>
-      <c r="B21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1">
-        <v>45774.93862891661</v>
-      </c>
-      <c r="B22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1">
-        <v>45774.948953545296</v>
-      </c>
-      <c r="B23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1">
-        <v>45774.96405079789</v>
-      </c>
-      <c r="B24" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2500-000000000000}">
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8906,120 +9186,399 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>45775.06606870123</v>
+        <v>45776.140920772283</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>45775.07549231148</v>
+        <v>45776.156857132351</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>45775.08561055842</v>
+        <v>45776.156996773978</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>140</v>
+      </c>
+      <c r="D4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>45775.1262342084</v>
+        <v>45776.157005257905</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>45775.1264857755</v>
+        <v>45776.584798769232</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>45775.14375716462</v>
+        <v>45776.595404871056</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>45775.14393771623</v>
+        <v>45776.595419331614</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>140</v>
+      </c>
+      <c r="D8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>45775.14395221375</v>
+        <v>45776.595427983972</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>45775.143965691685</v>
+        <v>45776.856006501279</v>
       </c>
       <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>45776.915555307765</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>45776.986186855189</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2600-000000000000}">
+  <dimension ref="A1:D22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>45777.066143254313</v>
+      </c>
+      <c r="B2" t="s">
         <v>10</v>
       </c>
+      <c r="C2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>45777.066167372817</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>45777.452209190655</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>45777.481584776324</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>45777.502176779919</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>45777.50219665905</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>45777.502338047598</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>45777.502483879711</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>45777.561939515494</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
       <c r="C10" t="s">
-        <v>138</v>
-      </c>
-      <c r="D10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>45775.14398086495</v>
+        <v>45777.588727898452</v>
       </c>
       <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>45777.681938741589</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>45777.691311997231</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>45777.696300819291</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>45777.721916743976</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>45777.749152273042</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>45777.758321642832</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>45777.785874878216</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>45777.815684318608</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>45777.957045007744</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>45777.984699915934</v>
+      </c>
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" t="s">
+        <v>146</v>
+      </c>
+      <c r="D21" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>45777.984723630994</v>
+      </c>
+      <c r="B22" t="s">
         <v>4</v>
       </c>
-      <c r="C11" t="s">
-        <v>138</v>
+      <c r="C22" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -9327,6 +9886,1984 @@
       </c>
       <c r="C26" t="s">
         <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2700-000000000000}">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>45778.590802897779</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>45778.716550963807</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>45778.717355747809</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>45778.718973033552</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>45778.719141252048</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>45778.735218206981</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>45778.904762564802</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>45778.934789386418</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>45778.934902614441</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>45778.935069478313</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>45778.935084517347</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>45778.935252153293</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>45778.935262763531</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>45778.954690615414</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>45778.972832782762</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>45778.98621993971</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2800-000000000000}">
+  <dimension ref="A1:D26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>45779.003522015577</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>45779.025571585247</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>45779.047363831582</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>45779.060225915229</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>45779.4909394348</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>45779.504185769169</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>45779.504212010361</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>45779.50433507689</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>45779.514421504551</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>45779.525621732129</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>45779.532540714841</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>45779.545001931205</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>45779.618438848287</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>45779.618441170387</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>45779.63445968365</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>45779.634691553147</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>45779.634718953646</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>45779.634750775505</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" t="s">
+        <v>156</v>
+      </c>
+      <c r="D19" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>45779.634824625682</v>
+      </c>
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>45779.876925825862</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>45779.879861974543</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>45779.908777866724</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>45779.929551592017</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>45779.931215360339</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>45779.953123357242</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" t="s">
+        <v>159</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2900-000000000000}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>45780.166873533526</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>45780.203953005774</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>45780.203967277776</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>160</v>
+      </c>
+      <c r="D4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>45780.203978331912</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>45780.699771775639</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>45780.713848738837</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>45780.761855099619</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>45780.782466790275</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>162</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2A00-000000000000}">
+  <dimension ref="A1:D26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="Q19" sqref="Q19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>45781.089951918082</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>45781.102435527479</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>45781.102448269798</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>45781.102459268317</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>45781.60415840878</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>45781.612259296671</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>45781.652915539227</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>45781.661450839914</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>45781.661454504552</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>164</v>
+      </c>
+      <c r="D10" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>45781.751583488141</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>45781.751691758422</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>45781.755426516043</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>45781.783823312457</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>45781.819252318404</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>45781.835908784298</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>45781.844390634848</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>45781.849713372729</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>45781.895800742437</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>45781.901773155645</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>45781.903939051132</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>45781.977653365066</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>45781.978546880091</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>45781.980414734971</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>45781.980451776311</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>45781.980451776311</v>
+      </c>
+      <c r="B26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" t="s">
+        <v>166</v>
+      </c>
+      <c r="D26" t="s">
+        <v>181</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2B00-000000000000}">
+  <dimension ref="A1:D29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>45782.071860192831</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>45782.086869064588</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>45782.12729074918</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>45782.142406683597</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>45782.190989625713</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>45782.203929052841</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>45782.203943723027</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>168</v>
+      </c>
+      <c r="D8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>45782.20395263649</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>45782.544282508148</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>45782.583742763978</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>45782.642756655208</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>45782.646008395102</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>45782.665055657926</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>45782.707345582174</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>45782.711253176436</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>45782.715628757782</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>45782.716373741241</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>45782.723535193654</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>45782.765947428779</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>45782.77136717875</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>45782.936833804451</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>45782.939900157471</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>45782.943527475611</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>45782.944322610732</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>45782.947428513718</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>45782.954813353848</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>45782.974095953832</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>45782.993175624193</v>
+      </c>
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" t="s">
+        <v>170</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2C00-000000000000}">
+  <dimension ref="A1:D23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>45783.090218443613</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>45783.121098068921</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>45783.146073614407</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>45783.159624299769</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>45783.159638388825</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>45783.159663378116</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>45783.515861645625</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>45783.525244942772</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>45783.525406009154</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>45783.532604313834</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>45783.637432439406</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>45783.657579438703</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>45783.696863179088</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>45783.70571156533</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>45783.774829802984</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
+        <v>173</v>
+      </c>
+      <c r="D16" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>45783.923142708307</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>45783.957981605694</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>45783.969881103461</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>45783.977900013939</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>45783.985525204123</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>45783.987199586263</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>45783.994459050882</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>173</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2D00-000000000000}">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>45784.030109895015</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>45784.033025211131</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>45784.069781950777</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>45784.069885920042</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>45784.48562254123</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>45784.521874706406</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>45784.542295955369</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>45784.547358258438</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>45784.57580192871</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>45784.612780713527</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>45784.62697245153</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>45784.639991936041</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>45784.669809068706</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>45784.684664770823</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>45784.806627353799</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>45784.812009863577</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>45784.83232467818</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>45784.90345758677</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>45784.903585673608</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>45784.91126374295</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>177</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2E00-000000000000}">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>45785.168663023993</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>45785.183424221555</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>45785.183529143316</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>45785.19723362213</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>45785.19726238367</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>178</v>
+      </c>
+      <c r="D6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>45785.19728081936</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>45785.491040176945</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>45785.496282844011</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>45785.499130453398</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>45785.548555026879</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>45785.590580503631</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>45785.593709539695</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>45785.615572428833</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -9775,7 +12312,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <sheetData>

--- a/time_tracker.xlsx
+++ b/time_tracker.xlsx
@@ -2,10 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E8BA3BD-922D-451A-AEFD-7F87B0C275C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr filterPrivacy="true"/>
   <bookViews>
-    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13667" firstSheet="39" activeTab="42" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13667" firstSheet="41" activeTab="48"/>
   </bookViews>
   <sheets>
     <sheet name="2025-03-23" sheetId="2" r:id="rId1"/>
@@ -55,6 +54,12 @@
     <sheet name="2025-05-06" sheetId="46" r:id="rId45"/>
     <sheet name="2025-05-07" sheetId="47" r:id="rId46"/>
     <sheet name="2025-05-08" sheetId="48" r:id="rId47"/>
+    <sheet name="2025-05-09" sheetId="49" r:id="rId48"/>
+    <sheet name="2025-05-10" sheetId="50" r:id="rId49"/>
+    <sheet name="2025-05-11" sheetId="51" r:id="rId53"/>
+    <sheet name="2025-05-12" sheetId="52" r:id="rId54"/>
+    <sheet name="2025-05-13" sheetId="53" r:id="rId55"/>
+    <sheet name="2025-05-14" sheetId="54" r:id="rId56"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -74,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2126" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="202">
   <si>
     <t>Timestamp</t>
   </si>
@@ -620,13 +625,73 @@
   </si>
   <si>
     <t>139 minutes</t>
+  </si>
+  <si>
+    <t>debugging netcode server</t>
+  </si>
+  <si>
+    <t>37.4 minutes</t>
+  </si>
+  <si>
+    <t>Fixing Delta Streaming</t>
+  </si>
+  <si>
+    <t>Walking system</t>
+  </si>
+  <si>
+    <t>voice call (base import)</t>
+  </si>
+  <si>
+    <t>89.0 minutes</t>
+  </si>
+  <si>
+    <t>voice call</t>
+  </si>
+  <si>
+    <t>125.6 minutes</t>
+  </si>
+  <si>
+    <t>Voice call code revamp</t>
+  </si>
+  <si>
+    <t>132.4 minutes</t>
+  </si>
+  <si>
+    <t>Fixing voice call communication discrepencies</t>
+  </si>
+  <si>
+    <t>cleaning up webrtc code and working on connection issues</t>
+  </si>
+  <si>
+    <t>Testing Changes</t>
+  </si>
+  <si>
+    <t>revamping the entire system</t>
+  </si>
+  <si>
+    <t>320.2 minutes</t>
+  </si>
+  <si>
+    <t>Revamping p2p system</t>
+  </si>
+  <si>
+    <t>340.1 minutes</t>
+  </si>
+  <si>
+    <t>Testing new p2p</t>
+  </si>
+  <si>
+    <t>94.8 minutes</t>
+  </si>
+  <si>
+    <t>Testing new p2p connection</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -679,17 +744,17 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="22" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="22" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -702,7 +767,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -10526,7 +10591,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2A00-000000000000}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
@@ -11700,7 +11765,7 @@
 
 <file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2E00-000000000000}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -11864,6 +11929,976 @@
       </c>
       <c r="C14" t="s">
         <v>180</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>45785.642293057826</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>45785.648115404561</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>45785.682501412513</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>45785.707280523508</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>45785.73211984925</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>45785.755481719258</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>45785.807479226882</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>180</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2F00-000000000000}">
+  <dimension ref="A1:D34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>45786.148885041679</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>45786.159689252927</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>45786.20905980713</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>45786.22435783784</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>45786.225886774533</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>45786.225898544311</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>45786.225905101666</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>182</v>
+      </c>
+      <c r="D8" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>45786.225913506161</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>45786.515601975239</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>45786.52433828076</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>45786.55652404861</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>45786.557113557741</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>45786.57972195949</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>45786.587475244582</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>45786.598407917343</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>45786.625103136321</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>45786.625320925203</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>45786.628569180139</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>45786.631652526572</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>45786.635764592684</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>45786.636074581045</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>45786.646993566064</v>
+      </c>
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" t="s">
+        <v>186</v>
+      </c>
+      <c r="D23" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>45786.647001823956</v>
+      </c>
+      <c r="B24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>45786.653465104428</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>45786.676238871492</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>45786.683168226366</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>45786.707970305841</v>
+      </c>
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>45786.708217799809</v>
+      </c>
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>45786.708236709288</v>
+      </c>
+      <c r="B30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>45786.734651824314</v>
+      </c>
+      <c r="B31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>45786.775040139881</v>
+      </c>
+      <c r="B32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>45786.775073511264</v>
+      </c>
+      <c r="B33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" t="s">
+        <v>188</v>
+      </c>
+      <c r="D33" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>45786.775083477522</v>
+      </c>
+      <c r="B34" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" t="s">
+        <v>188</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3000-000000000000}">
+  <dimension ref="A1:D43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:B43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>45787.031093233934</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>45787.03198850865</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>45787.033771091999</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>45787.035676960921</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>45787.038001993846</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>45787.039461486136</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>45787.123145700898</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>45787.128838785575</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>45787.13148327246</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>45787.154034008752</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>45787.155165373428</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>45787.182721508449</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>45787.204384319062</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>45787.208980569558</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>45787.214353886695</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>45787.223849203823</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>45787.241701635707</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>45787.244416140893</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>45787.262648012314</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>45787.278319111705</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>45787.306868496955</v>
+      </c>
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" t="s">
+        <v>190</v>
+      </c>
+      <c r="D22" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>45787.306893986206</v>
+      </c>
+      <c r="B23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>45787.76866294253</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>45787.791198508341</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>45787.805693638948</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>45787.807726061306</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>45787.812401008043</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>45787.818905826542</v>
+      </c>
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>45787.825204254841</v>
+      </c>
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>45787.831657778494</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>45787.839230483929</v>
+      </c>
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>45787.842602585049</v>
+      </c>
+      <c r="B33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>45787.849702322332</v>
+      </c>
+      <c r="B34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>45787.858274271959</v>
+      </c>
+      <c r="B35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>45787.868374194331</v>
+      </c>
+      <c r="B36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>45787.871039125726</v>
+      </c>
+      <c r="B37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>45787.936028511722</v>
+      </c>
+      <c r="B38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>45787.956475080813</v>
+      </c>
+      <c r="B39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>45787.956998798771</v>
+      </c>
+      <c r="B40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>45787.964410869339</v>
+      </c>
+      <c r="B41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>45787.969062293996</v>
+      </c>
+      <c r="B42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>45787.976373835809</v>
+      </c>
+      <c r="B43" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" t="s">
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -11950,6 +12985,924 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>45788.17967360639</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>45788.196299182804</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>45788.71816460436</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>45788.74429404546</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>45788.7554172962</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>45788.80819237823</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>45788.822574131766</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>45788.82260249465</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>45788.82270240372</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>45788.870774026414</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>45788.954718407134</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>45788.95697689641</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>45788.95749348713</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>45788.959423848784</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>194</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>45789.024215130994</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>45789.05888835096</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>45789.064384297395</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>45789.06974695336</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>45789.12613719553</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>45789.14096705102</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>45789.14894833717</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>45789.17425351127</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>45789.1968987646</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>45789.21008511156</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>45789.21010613187</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>195</v>
+      </c>
+      <c r="D12" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>45789.21011771683</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>45789.73877436774</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>45789.74965190628</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1">
+        <v>45789.761732720755</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1">
+        <v>45789.78595339856</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1">
+        <v>45789.793925789796</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1">
+        <v>45789.82774007194</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1">
+        <v>45789.828863677554</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1">
+        <v>45789.847261051356</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1">
+        <v>45789.86250275954</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1">
+        <v>45789.88690343474</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1">
+        <v>45789.89396475371</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1">
+        <v>45789.89901317286</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1">
+        <v>45789.905557153375</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1">
+        <v>45789.91499949057</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" t="s">
+        <v>197</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>45790.029551172374</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>45790.054990218836</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>45790.061783032135</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>45790.09538587215</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>45790.11261752815</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>45790.122483463216</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>45790.16106177101</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>45790.1800295728</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>45790.18704981308</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>45790.2099844272</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>45790.209992323806</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>197</v>
+      </c>
+      <c r="D12" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>45790.21001232545</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>45790.64197131632</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>45790.68464185669</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1">
+        <v>45790.68799947466</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1">
+        <v>45790.69543738793</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1">
+        <v>45790.70178072628</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1">
+        <v>45790.71782470962</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1">
+        <v>45790.73594661949</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" t="s">
+        <v>199</v>
+      </c>
+      <c r="D20" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1">
+        <v>45790.736019322845</v>
+      </c>
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1">
+        <v>45790.88757507384</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1">
+        <v>45790.93709050905</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1">
+        <v>45790.94388023569</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1">
+        <v>45790.95502396753</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>201</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>45791.02420180887</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>45791.03664722884</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>45791.04092690595</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>45791.050688316376</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>45791.05181329227</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>45791.10823923029</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>45791.148914942765</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>45791.19847110592</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>201</v>
+      </c>
+      <c r="D9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>45791.19928192853</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{596D1CF3-20E2-4545-B72A-D68B9650BAFC}">
   <dimension ref="A1:D30"/>

--- a/time_tracker.xlsx
+++ b/time_tracker.xlsx
@@ -60,6 +60,7 @@
     <sheet name="2025-05-12" sheetId="52" r:id="rId54"/>
     <sheet name="2025-05-13" sheetId="53" r:id="rId55"/>
     <sheet name="2025-05-14" sheetId="54" r:id="rId56"/>
+    <sheet name="2025-05-15" sheetId="55" r:id="rId57"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -79,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="204">
   <si>
     <t>Timestamp</t>
   </si>
@@ -685,6 +686,12 @@
   </si>
   <si>
     <t>Testing new p2p connection</t>
+  </si>
+  <si>
+    <t>building into mobile and debugging</t>
+  </si>
+  <si>
+    <t>432.2 minutes</t>
   </si>
 </sst>
 </file>
@@ -13899,6 +13906,342 @@
         <v>201</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>45791.50717105936</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>45791.51431534715</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>45791.52626152232</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>45791.5961347959</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>45791.603419702245</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1">
+        <v>45791.616189953755</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1">
+        <v>45791.62616120737</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1">
+        <v>45791.64970386547</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1">
+        <v>45791.65148605387</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1">
+        <v>45791.67705551865</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1">
+        <v>45791.71586801138</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1">
+        <v>45791.71777329194</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1">
+        <v>45791.7257013322</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1">
+        <v>45791.75998222093</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1">
+        <v>45791.76527540751</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1">
+        <v>45791.77984679722</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1">
+        <v>45791.791631118496</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1">
+        <v>45791.8029409248</v>
+      </c>
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1">
+        <v>45791.842459264415</v>
+      </c>
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1">
+        <v>45791.90849438378</v>
+      </c>
+      <c r="B30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1">
+        <v>45791.912424518356</v>
+      </c>
+      <c r="B31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1">
+        <v>45791.92854841824</v>
+      </c>
+      <c r="B32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1">
+        <v>45791.93703718725</v>
+      </c>
+      <c r="B33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1">
+        <v>45791.94129545483</v>
+      </c>
+      <c r="B34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" t="s">
+        <v>202</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>45792.14211740218</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>45792.15617359818</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>45792.15621484091</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>45792.15623999474</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>202</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>

--- a/time_tracker.xlsx
+++ b/time_tracker.xlsx
@@ -61,6 +61,7 @@
     <sheet name="2025-05-13" sheetId="53" r:id="rId55"/>
     <sheet name="2025-05-14" sheetId="54" r:id="rId56"/>
     <sheet name="2025-05-15" sheetId="55" r:id="rId57"/>
+    <sheet name="2025-05-16" sheetId="56" r:id="rId58"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -80,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="211">
   <si>
     <t>Timestamp</t>
   </si>
@@ -692,6 +693,27 @@
   </si>
   <si>
     <t>432.2 minutes</t>
+  </si>
+  <si>
+    <t>Changing Signaling Server Protocol</t>
+  </si>
+  <si>
+    <t>174.1 minutes</t>
+  </si>
+  <si>
+    <t>Debugging p2p audio stream</t>
+  </si>
+  <si>
+    <t>Building to mobile (webrtc finished)</t>
+  </si>
+  <si>
+    <t>Working on NetCode</t>
+  </si>
+  <si>
+    <t>307.1 minutes</t>
+  </si>
+  <si>
+    <t>Working on NetCode Server</t>
   </si>
 </sst>
 </file>
@@ -14242,6 +14264,532 @@
         <v>202</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>45792.52675310519</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>45792.537417445536</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>45792.54819889834</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>45792.56490068706</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>45792.57399807778</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>45792.57660728061</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>45792.58404803823</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>45792.60030500176</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>45792.60361459614</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>45792.61397244956</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1">
+        <v>45792.61837057688</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1">
+        <v>45792.62953205504</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1">
+        <v>45792.63119406173</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1">
+        <v>45792.63384858082</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1">
+        <v>45792.667224931785</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1">
+        <v>45792.67062250782</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1">
+        <v>45792.677358413566</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1">
+        <v>45792.70453860127</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1">
+        <v>45792.71634953461</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1">
+        <v>45792.736643145625</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1">
+        <v>45792.7367615724</v>
+      </c>
+      <c r="B26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" t="s">
+        <v>204</v>
+      </c>
+      <c r="D26" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1">
+        <v>45792.73677258295</v>
+      </c>
+      <c r="B27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1">
+        <v>45792.74920481195</v>
+      </c>
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1">
+        <v>45792.755881898396</v>
+      </c>
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1">
+        <v>45792.76255742942</v>
+      </c>
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1">
+        <v>45792.78716160146</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1">
+        <v>45792.80688323791</v>
+      </c>
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1">
+        <v>45792.84847584524</v>
+      </c>
+      <c r="B33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1">
+        <v>45792.854807239484</v>
+      </c>
+      <c r="B34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1">
+        <v>45792.94518032618</v>
+      </c>
+      <c r="B35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1">
+        <v>45792.94537918494</v>
+      </c>
+      <c r="B36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1">
+        <v>45792.95144517926</v>
+      </c>
+      <c r="B37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" t="s">
+        <v>207</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>45793.07092780347</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>45793.07785699449</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>45793.077863166516</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>45793.08063187852</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>45793.090826131454</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>45793.097073814824</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>45793.12193106452</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>45793.12765309699</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>45793.14332343164</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>45793.16644515124</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>45793.16649260137</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>208</v>
+      </c>
+      <c r="D12" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>45793.1665110547</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>45793.5638037727</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>210</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>

--- a/time_tracker.xlsx
+++ b/time_tracker.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr filterPrivacy="true"/>
   <bookViews>
-    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13667" firstSheet="41" activeTab="48"/>
+    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13667" firstSheet="34" activeTab="35"/>
   </bookViews>
   <sheets>
     <sheet name="2025-03-23" sheetId="2" r:id="rId1"/>
@@ -56,12 +56,13 @@
     <sheet name="2025-05-08" sheetId="48" r:id="rId47"/>
     <sheet name="2025-05-09" sheetId="49" r:id="rId48"/>
     <sheet name="2025-05-10" sheetId="50" r:id="rId49"/>
-    <sheet name="2025-05-11" sheetId="51" r:id="rId53"/>
-    <sheet name="2025-05-12" sheetId="52" r:id="rId54"/>
-    <sheet name="2025-05-13" sheetId="53" r:id="rId55"/>
-    <sheet name="2025-05-14" sheetId="54" r:id="rId56"/>
-    <sheet name="2025-05-15" sheetId="55" r:id="rId57"/>
-    <sheet name="2025-05-16" sheetId="56" r:id="rId58"/>
+    <sheet name="2025-05-11" sheetId="51" r:id="rId50"/>
+    <sheet name="2025-05-12" sheetId="52" r:id="rId51"/>
+    <sheet name="2025-05-13" sheetId="53" r:id="rId52"/>
+    <sheet name="2025-05-14" sheetId="54" r:id="rId53"/>
+    <sheet name="2025-05-15" sheetId="55" r:id="rId54"/>
+    <sheet name="2025-05-16" sheetId="56" r:id="rId55"/>
+    <sheet name="2025-05-17" sheetId="57" r:id="rId56"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -81,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="214">
   <si>
     <t>Timestamp</t>
   </si>
@@ -714,13 +715,22 @@
   </si>
   <si>
     <t>Working on NetCode Server</t>
+  </si>
+  <si>
+    <t>426.2 minutes</t>
+  </si>
+  <si>
+    <t>Client side netcode</t>
+  </si>
+  <si>
+    <t>Client side Netcode</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -739,8 +749,15 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -758,6 +775,11 @@
         <fgColor rgb="FF548235"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -768,18 +790,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
     <xf numFmtId="22" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="22" fontId="3" fillId="4" borderId="0" xfId="1" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -8837,13 +8863,18 @@
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2300-000000000000}">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8857,7 +8888,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>45774.011867551439</v>
       </c>
@@ -8868,7 +8899,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>45774.049650158049</v>
       </c>
@@ -8879,7 +8910,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>45774.064893618553</v>
       </c>
@@ -8890,7 +8921,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>45774.097719813668</v>
       </c>
@@ -8901,21 +8932,23 @@
         <v>132</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
         <v>45774.505183726054</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="7" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>45774.507526095469</v>
       </c>
@@ -8926,7 +8959,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>45774.52873598408</v>
       </c>
@@ -8937,7 +8970,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>45774.542574508574</v>
       </c>
@@ -8948,7 +8981,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>45774.606626786066</v>
       </c>
@@ -8959,7 +8992,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>45774.609445066701</v>
       </c>
@@ -8970,7 +9003,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>45774.625133920708</v>
       </c>
@@ -8981,7 +9014,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>45774.674485000396</v>
       </c>
@@ -8992,7 +9025,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>45774.675938128996</v>
       </c>
@@ -9003,7 +9036,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>45774.676182338051</v>
       </c>
@@ -9014,7 +9047,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>45774.681189474933</v>
       </c>
@@ -12445,7 +12478,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3000-000000000000}">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="A24" sqref="A24:B43"/>
     </sheetView>
   </sheetViews>
@@ -13014,14 +13047,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3100-000000000000}">
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -13035,9 +13069,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>45788.17967360639</v>
+        <v>45788.179673606392</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -13046,7 +13080,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>45788.196299182804</v>
       </c>
@@ -13060,9 +13094,9 @@
         <v>165</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>45788.71816460436</v>
+        <v>45788.718164604361</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -13071,9 +13105,9 @@
         <v>193</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>45788.74429404546</v>
+        <v>45788.744294045457</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -13082,9 +13116,9 @@
         <v>193</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>45788.7554172962</v>
+        <v>45788.755417296197</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
@@ -13093,7 +13127,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>45788.80819237823</v>
       </c>
@@ -13104,7 +13138,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>45788.822574131766</v>
       </c>
@@ -13115,9 +13149,9 @@
         <v>193</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>45788.82260249465</v>
+        <v>45788.822602494649</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
@@ -13126,9 +13160,9 @@
         <v>193</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>45788.82270240372</v>
+        <v>45788.822702403719</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
@@ -13137,7 +13171,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>45788.870774026414</v>
       </c>
@@ -13148,7 +13182,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>45788.954718407134</v>
       </c>
@@ -13159,9 +13193,9 @@
         <v>194</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>45788.95697689641</v>
+        <v>45788.956976896407</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
@@ -13170,9 +13204,9 @@
         <v>194</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>45788.95749348713</v>
+        <v>45788.957493487127</v>
       </c>
       <c r="B14" t="s">
         <v>9</v>
@@ -13181,7 +13215,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>45788.959423848784</v>
       </c>
@@ -13193,17 +13227,335 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3200-000000000000}">
+  <dimension ref="A1:D27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>45789.024215130994</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>45789.058888350963</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>45789.064384297395</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>45789.069746953362</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>45789.126137195533</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>45789.140967051018</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>45789.14894833717</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>45789.174253511272</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>45789.196898764603</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>45789.210085111561</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>45789.210106131868</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>195</v>
+      </c>
+      <c r="D12" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>45789.21011771683</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>45789.738774367739</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>45789.749651906277</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>45789.761732720755</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>45789.785953398561</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>45789.793925789796</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>45789.827740071938</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>45789.828863677554</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>45789.847261051356</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>45789.862502759541</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>45789.886903434737</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>45789.893964753712</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>45789.899013172857</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>45789.905557153375</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>45789.914999490567</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" t="s">
+        <v>197</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3300-000000000000}">
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -13217,307 +13569,290 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>45789.024215130994</v>
+        <v>45790.029551172374</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>45789.05888835096</v>
+        <v>45790.054990218836</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>45789.064384297395</v>
+        <v>45790.061783032135</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>45789.06974695336</v>
+        <v>45790.095385872148</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>45789.12613719553</v>
+        <v>45790.112617528153</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>45789.14096705102</v>
+        <v>45790.122483463216</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>45789.14894833717</v>
+        <v>45790.16106177101</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>45789.17425351127</v>
+        <v>45790.180029572803</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>45789.1968987646</v>
+        <v>45790.187049813081</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>45789.21008511156</v>
+        <v>45790.209984427202</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>45789.21010613187</v>
+        <v>45790.209992323806</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D12" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>45789.21011771683</v>
+        <v>45790.210012325449</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>45789.73877436774</v>
+        <v>45790.64197131632</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>45789.74965190628</v>
+        <v>45790.684641856693</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>45789.761732720755</v>
+        <v>45790.687999474663</v>
       </c>
       <c r="B16" t="s">
         <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>45789.78595339856</v>
+        <v>45790.695437387927</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>45789.793925789796</v>
+        <v>45790.701780726282</v>
       </c>
       <c r="B18" t="s">
         <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>45789.82774007194</v>
+        <v>45790.717824709624</v>
       </c>
       <c r="B19" t="s">
         <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>45789.828863677554</v>
+        <v>45790.73594661949</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>199</v>
+      </c>
+      <c r="D20" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>45789.847261051356</v>
+        <v>45790.736019322845</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>45789.86250275954</v>
+        <v>45790.887575073837</v>
       </c>
       <c r="B22" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>45789.88690343474</v>
+        <v>45790.937090509047</v>
       </c>
       <c r="B23" t="s">
         <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>45789.89396475371</v>
+        <v>45790.943880235689</v>
       </c>
       <c r="B24" t="s">
         <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>45789.89901317286</v>
+        <v>45790.95502396753</v>
       </c>
       <c r="B25" t="s">
         <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1">
-        <v>45789.905557153375</v>
-      </c>
-      <c r="B26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1">
-        <v>45789.91499949057</v>
-      </c>
-      <c r="B27" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3400-000000000000}">
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -13531,288 +13866,386 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>45790.029551172374</v>
+        <v>45791.024201808868</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>45790.054990218836</v>
+        <v>45791.036647228837</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>45790.061783032135</v>
+        <v>45791.040926905953</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>45790.09538587215</v>
+        <v>45791.050688316376</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>45790.11261752815</v>
+        <v>45791.051813292273</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>45790.122483463216</v>
+        <v>45791.108239230292</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>45790.16106177101</v>
+        <v>45791.148914942765</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>45790.1800295728</v>
+        <v>45791.198471105919</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>201</v>
+      </c>
+      <c r="D9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>45790.18704981308</v>
+        <v>45791.19928192853</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>45790.2099844272</v>
+        <v>45791.507171059362</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>45790.209992323806</v>
+        <v>45791.514315347151</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>197</v>
-      </c>
-      <c r="D12" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>45790.21001232545</v>
+        <v>45791.526261522318</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>45790.64197131632</v>
+        <v>45791.596134795902</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>45790.68464185669</v>
+        <v>45791.603419702245</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>45790.68799947466</v>
+        <v>45791.616189953755</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>45790.69543738793</v>
+        <v>45791.626161207372</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>45790.70178072628</v>
+        <v>45791.649703865471</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>45790.71782470962</v>
+        <v>45791.651486053866</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>45790.73594661949</v>
+        <v>45791.677055518652</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>199</v>
-      </c>
-      <c r="D20" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>45790.736019322845</v>
+        <v>45791.715868011379</v>
       </c>
       <c r="B21" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>45790.88757507384</v>
+        <v>45791.717773291937</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>45790.93709050905</v>
+        <v>45791.725701332201</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>45790.94388023569</v>
+        <v>45791.75998222093</v>
       </c>
       <c r="B24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>45790.95502396753</v>
+        <v>45791.76527540751</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>45791.779846797217</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>45791.791631118496</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>45791.802940924797</v>
+      </c>
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>45791.842459264415</v>
+      </c>
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>45791.908494383781</v>
+      </c>
+      <c r="B30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>45791.912424518356</v>
+      </c>
+      <c r="B31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>45791.92854841824</v>
+      </c>
+      <c r="B32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>45791.93703718725</v>
+      </c>
+      <c r="B33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>45791.941295454832</v>
+      </c>
+      <c r="B34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3500-000000000000}">
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -13826,384 +14259,422 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>45791.02420180887</v>
+        <v>45792.142117402182</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>45791.03664722884</v>
+        <v>45792.156173598181</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>45791.04092690595</v>
+        <v>45792.156214840907</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>202</v>
+      </c>
+      <c r="D4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>45791.050688316376</v>
+        <v>45792.156239994743</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>45791.05181329227</v>
+        <v>45792.526753105187</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>45791.10823923029</v>
+        <v>45792.537417445536</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>45791.148914942765</v>
+        <v>45792.548198898337</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>45791.19847110592</v>
+        <v>45792.564900687059</v>
       </c>
       <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>45792.57399807778</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>45792.576607280607</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>45792.584048038232</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>45792.600305001761</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>45792.603614596141</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>45792.613972449559</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>45792.618370576878</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>45792.629532055042</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>45792.631194061731</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>45792.633848580823</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>45792.667224931785</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>45792.670622507823</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>45792.677358413566</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>45792.704538601269</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>45792.71634953461</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>45792.736643145625</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>45792.7367615724</v>
+      </c>
+      <c r="B26" t="s">
         <v>10</v>
       </c>
-      <c r="C9" t="s">
-        <v>201</v>
-      </c>
-      <c r="D9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1">
-        <v>45791.19928192853</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="C26" t="s">
+        <v>204</v>
+      </c>
+      <c r="D26" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>45792.736772582954</v>
+      </c>
+      <c r="B27" t="s">
         <v>4</v>
       </c>
-      <c r="C10" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1">
-        <v>45791.50717105936</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="C27" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>45792.749204811953</v>
+      </c>
+      <c r="B28" t="s">
         <v>6</v>
       </c>
-      <c r="C11" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1">
-        <v>45791.51431534715</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1">
-        <v>45791.52626152232</v>
-      </c>
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1">
-        <v>45791.5961347959</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1">
-        <v>45791.603419702245</v>
-      </c>
-      <c r="B15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1">
-        <v>45791.616189953755</v>
-      </c>
-      <c r="B16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1">
-        <v>45791.62616120737</v>
-      </c>
-      <c r="B17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1">
-        <v>45791.64970386547</v>
-      </c>
-      <c r="B18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1">
-        <v>45791.65148605387</v>
-      </c>
-      <c r="B19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1">
-        <v>45791.67705551865</v>
-      </c>
-      <c r="B20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1">
-        <v>45791.71586801138</v>
-      </c>
-      <c r="B21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1">
-        <v>45791.71777329194</v>
-      </c>
-      <c r="B22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1">
-        <v>45791.7257013322</v>
-      </c>
-      <c r="B23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1">
-        <v>45791.75998222093</v>
-      </c>
-      <c r="B24" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1">
-        <v>45791.76527540751</v>
-      </c>
-      <c r="B25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1">
-        <v>45791.77984679722</v>
-      </c>
-      <c r="B26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1">
-        <v>45791.791631118496</v>
-      </c>
-      <c r="B27" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1">
-        <v>45791.8029409248</v>
-      </c>
-      <c r="B28" t="s">
-        <v>8</v>
-      </c>
       <c r="C28" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>45791.842459264415</v>
+        <v>45792.755881898396</v>
       </c>
       <c r="B29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>45791.90849438378</v>
+        <v>45792.762557429422</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <v>45791.912424518356</v>
+        <v>45792.78716160146</v>
       </c>
       <c r="B31" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <v>45791.92854841824</v>
+        <v>45792.806883237907</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <v>45791.93703718725</v>
+        <v>45792.84847584524</v>
       </c>
       <c r="B33" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="34">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
-        <v>45791.94129545483</v>
+        <v>45792.854807239484</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>202</v>
+        <v>206</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>45792.945180326184</v>
+      </c>
+      <c r="B35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>45792.945379184937</v>
+      </c>
+      <c r="B36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>45792.951445179257</v>
+      </c>
+      <c r="B37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" t="s">
+        <v>207</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3600-000000000000}">
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -14217,420 +14688,309 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>45792.14211740218</v>
+        <v>45793.07092780347</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>45792.15617359818</v>
+        <v>45793.077856994489</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>45792.15621484091</v>
+        <v>45793.077863166516</v>
       </c>
       <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>45793.080631878518</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>45793.090826131454</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>45793.097073814824</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>45793.121931064517</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>45793.127653096992</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>45793.143323431643</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>45793.166445151241</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>45793.166492601369</v>
+      </c>
+      <c r="B12" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
-        <v>202</v>
-      </c>
-      <c r="D4" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1">
-        <v>45792.15623999474</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C12" t="s">
+        <v>208</v>
+      </c>
+      <c r="D12" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>45793.166511054696</v>
+      </c>
+      <c r="B13" t="s">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1">
-        <v>45792.52675310519</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C13" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>45793.563803772697</v>
+      </c>
+      <c r="B14" t="s">
         <v>6</v>
       </c>
-      <c r="C6" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1">
-        <v>45792.537417445536</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1">
-        <v>45792.54819889834</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1">
-        <v>45792.56490068706</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1">
-        <v>45792.57399807778</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1">
-        <v>45792.57660728061</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1">
-        <v>45792.58404803823</v>
-      </c>
-      <c r="B12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1">
-        <v>45792.60030500176</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1">
-        <v>45792.60361459614</v>
-      </c>
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
       <c r="C14" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>45792.61397244956</v>
+        <v>45793.566426840567</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>45792.61837057688</v>
+        <v>45793.59373008414</v>
       </c>
       <c r="B16" t="s">
         <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>45792.62953205504</v>
+        <v>45793.643761520048</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>45792.63119406173</v>
+        <v>45793.671189760513</v>
       </c>
       <c r="B18" t="s">
         <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>45792.63384858082</v>
+        <v>45793.698519813057</v>
       </c>
       <c r="B19" t="s">
         <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>45792.667224931785</v>
+        <v>45793.756629386851</v>
       </c>
       <c r="B20" t="s">
         <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>45792.67062250782</v>
+        <v>45793.765862595217</v>
       </c>
       <c r="B21" t="s">
         <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>45792.677358413566</v>
+        <v>45793.772354685934</v>
       </c>
       <c r="B22" t="s">
         <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>45792.70453860127</v>
+        <v>45793.78843570828</v>
       </c>
       <c r="B23" t="s">
         <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>45792.71634953461</v>
+        <v>45793.792447858585</v>
       </c>
       <c r="B24" t="s">
         <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>45792.736643145625</v>
+        <v>45793.84078678683</v>
       </c>
       <c r="B25" t="s">
         <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>45792.7367615724</v>
+        <v>45793.885003244803</v>
       </c>
       <c r="B26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>204</v>
-      </c>
-      <c r="D26" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>45792.73677258295</v>
+        <v>45793.933710004829</v>
       </c>
       <c r="B27" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1">
-        <v>45792.74920481195</v>
-      </c>
-      <c r="B28" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1">
-        <v>45792.755881898396</v>
-      </c>
-      <c r="B29" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1">
-        <v>45792.76255742942</v>
-      </c>
-      <c r="B30" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1">
-        <v>45792.78716160146</v>
-      </c>
-      <c r="B31" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1">
-        <v>45792.80688323791</v>
-      </c>
-      <c r="B32" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1">
-        <v>45792.84847584524</v>
-      </c>
-      <c r="B33" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1">
-        <v>45792.854807239484</v>
-      </c>
-      <c r="B34" t="s">
-        <v>9</v>
-      </c>
-      <c r="C34" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1">
-        <v>45792.94518032618</v>
-      </c>
-      <c r="B35" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1">
-        <v>45792.94537918494</v>
-      </c>
-      <c r="B36" t="s">
-        <v>9</v>
-      </c>
-      <c r="C36" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1">
-        <v>45792.95144517926</v>
-      </c>
-      <c r="B37" t="s">
-        <v>8</v>
-      </c>
-      <c r="C37" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3700-000000000000}">
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -14644,153 +15004,198 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>45793.07092780347</v>
+        <v>45794.022983541588</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
-        <v>45793.07785699449</v>
+        <v>45794.023304328664</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
-        <v>45793.077863166516</v>
+        <v>45794.09975070558</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
-        <v>45793.08063187852</v>
+        <v>45794.102313390867</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
-        <v>45793.090826131454</v>
+        <v>45794.12875263446</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1">
-        <v>45793.097073814824</v>
+        <v>45794.18740502771</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1">
-        <v>45793.12193106452</v>
+        <v>45794.214656763725</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1">
-        <v>45793.12765309699</v>
+        <v>45794.247807041706</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1">
-        <v>45793.14332343164</v>
+        <v>45794.2478143558</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>208</v>
+        <v>210</v>
+      </c>
+      <c r="D10" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1">
-        <v>45793.16644515124</v>
+        <v>45794.24782458311</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1">
-        <v>45793.16649260137</v>
+        <v>45794.554047139885</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>208</v>
-      </c>
-      <c r="D12" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1">
-        <v>45793.1665110547</v>
+        <v>45794.56039379252</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1">
-        <v>45793.5638037727</v>
+        <v>45794.57168400961</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>210</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>45794.57454990196</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1">
+        <v>45794.580815913614</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1">
+        <v>45794.58085487879</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1">
+        <v>45794.581001286635</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>213</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/time_tracker.xlsx
+++ b/time_tracker.xlsx
@@ -63,6 +63,8 @@
     <sheet name="2025-05-15" sheetId="55" r:id="rId54"/>
     <sheet name="2025-05-16" sheetId="56" r:id="rId55"/>
     <sheet name="2025-05-17" sheetId="57" r:id="rId56"/>
+    <sheet name="2025-05-18" sheetId="58" r:id="rId60"/>
+    <sheet name="2025-05-19" sheetId="59" r:id="rId61"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -82,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="218">
   <si>
     <t>Timestamp</t>
   </si>
@@ -724,6 +726,18 @@
   </si>
   <si>
     <t>Client side Netcode</t>
+  </si>
+  <si>
+    <t>358.3 minutes</t>
+  </si>
+  <si>
+    <t>netcode bug fixes</t>
+  </si>
+  <si>
+    <t>354.3 minutes</t>
+  </si>
+  <si>
+    <t>finishing up state and delta application</t>
   </si>
 </sst>
 </file>
@@ -15194,8 +15208,724 @@
         <v>213</v>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" s="1">
+        <v>45794.66774821031</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1">
+        <v>45794.67334176551</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1">
+        <v>45794.696906970545</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1">
+        <v>45794.714114135764</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1">
+        <v>45794.77033771428</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1">
+        <v>45794.823090978316</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1">
+        <v>45794.83084910134</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1">
+        <v>45794.83826652614</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1">
+        <v>45794.85872815437</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1">
+        <v>45794.8694333752</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1">
+        <v>45794.8734764016</v>
+      </c>
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1">
+        <v>45794.87821617298</v>
+      </c>
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1">
+        <v>45794.90325265652</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1">
+        <v>45794.91406962812</v>
+      </c>
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1">
+        <v>45794.93710140033</v>
+      </c>
+      <c r="B33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" t="s">
+        <v>213</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>45795.218009004355</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>45795.21802274699</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>45795.58774182236</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>45795.5921957166</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>45795.63118876977</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>45795.64062009178</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>45795.65655973155</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>45795.687432594794</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>45795.7054669401</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>45795.709945325165</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>45795.7191617621</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>45795.723416583605</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>45795.80581514031</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>45795.81632246508</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1">
+        <v>45795.82024798647</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1">
+        <v>45795.82131222292</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1">
+        <v>45795.83910702186</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1">
+        <v>45795.89105916632</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1">
+        <v>45795.90012182379</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1">
+        <v>45795.900843112795</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>215</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>45796.01471826781</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>45796.0920556983</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>45796.10680738523</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>45796.122846541875</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>45796.13139515387</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>45796.160784476626</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>45796.176310858755</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>45796.18270533758</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>45796.18447944547</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>215</v>
+      </c>
+      <c r="D10" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>45796.18449567871</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>45796.53301210747</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>45796.54056363182</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>45796.58249609203</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>45796.60076943357</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1">
+        <v>45796.60163806764</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1">
+        <v>45796.603144431676</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1">
+        <v>45796.60394400933</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1">
+        <v>45796.67098107898</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1">
+        <v>45796.67782325043</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1">
+        <v>45796.68596158232</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1">
+        <v>45796.690362023866</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1">
+        <v>45796.693843139896</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1">
+        <v>45796.69509446616</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1">
+        <v>45796.7155597558</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1">
+        <v>45796.71846830786</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>217</v>
+      </c>
+    </row>
+  </sheetData>
 </worksheet>
 </file>
 

--- a/time_tracker.xlsx
+++ b/time_tracker.xlsx
@@ -65,6 +65,7 @@
     <sheet name="2025-05-17" sheetId="57" r:id="rId56"/>
     <sheet name="2025-05-18" sheetId="58" r:id="rId60"/>
     <sheet name="2025-05-19" sheetId="59" r:id="rId61"/>
+    <sheet name="2025-05-20" sheetId="60" r:id="rId62"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -84,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="222">
   <si>
     <t>Timestamp</t>
   </si>
@@ -738,6 +739,18 @@
   </si>
   <si>
     <t>finishing up state and delta application</t>
+  </si>
+  <si>
+    <t>working on "delta" application</t>
+  </si>
+  <si>
+    <t>fixing deadlocks</t>
+  </si>
+  <si>
+    <t>working on "streaming delta"</t>
+  </si>
+  <si>
+    <t>Writing report</t>
   </si>
 </sst>
 </file>
@@ -15925,6 +15938,215 @@
         <v>217</v>
       </c>
     </row>
+    <row r="27">
+      <c r="A27" s="1">
+        <v>45796.73288709929</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1">
+        <v>45796.79574801244</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1">
+        <v>45796.795791608936</v>
+      </c>
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1">
+        <v>45796.79603023137</v>
+      </c>
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1">
+        <v>45796.81148935867</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1">
+        <v>45796.81700804595</v>
+      </c>
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1">
+        <v>45796.823063601165</v>
+      </c>
+      <c r="B33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1">
+        <v>45796.82508539779</v>
+      </c>
+      <c r="B34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1">
+        <v>45796.83113303986</v>
+      </c>
+      <c r="B35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1">
+        <v>45796.83787939267</v>
+      </c>
+      <c r="B36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1">
+        <v>45796.85778851788</v>
+      </c>
+      <c r="B37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1">
+        <v>45796.86018551106</v>
+      </c>
+      <c r="B38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1">
+        <v>45796.88032075118</v>
+      </c>
+      <c r="B39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1">
+        <v>45796.888031184964</v>
+      </c>
+      <c r="B40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1">
+        <v>45796.8964137085</v>
+      </c>
+      <c r="B41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1">
+        <v>45796.90297968397</v>
+      </c>
+      <c r="B42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1">
+        <v>45796.909241257046</v>
+      </c>
+      <c r="B43" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1">
+        <v>45796.911061860264</v>
+      </c>
+      <c r="B44" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1">
+        <v>45796.94391063355</v>
+      </c>
+      <c r="B45" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" t="s">
+        <v>219</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
@@ -16287,6 +16509,152 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>45797.021592910496</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>45797.02294958861</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>45797.05122909712</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>45797.08090116887</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>45797.081479486755</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>45797.104716362235</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>45797.105080755355</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>45797.105745491084</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>45797.12889325544</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>45797.154329031895</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>45797.154409654555</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>221</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D19"/>

--- a/time_tracker.xlsx
+++ b/time_tracker.xlsx
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="223">
   <si>
     <t>Timestamp</t>
   </si>
@@ -751,6 +751,9 @@
   </si>
   <si>
     <t>Writing report</t>
+  </si>
+  <si>
+    <t>633.4 minutes</t>
   </si>
 </sst>
 </file>
@@ -16651,6 +16654,75 @@
         <v>221</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>45797.16207130712</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>45797.23554795849</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>45797.33074743499</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1">
+        <v>45797.330787538376</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1">
+        <v>45797.332776546384</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" t="s">
+        <v>221</v>
+      </c>
+      <c r="D17" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1">
+        <v>45797.33279436781</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>221</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>

--- a/time_tracker.xlsx
+++ b/time_tracker.xlsx
@@ -2,9 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
-  <workbookPr filterPrivacy="true"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3311E4CD-6292-4107-A6F8-45F9C659F140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13667" firstSheet="34" activeTab="35"/>
+    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13667" firstSheet="56" activeTab="61" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2025-03-23" sheetId="2" r:id="rId1"/>
@@ -63,9 +64,12 @@
     <sheet name="2025-05-15" sheetId="55" r:id="rId54"/>
     <sheet name="2025-05-16" sheetId="56" r:id="rId55"/>
     <sheet name="2025-05-17" sheetId="57" r:id="rId56"/>
-    <sheet name="2025-05-18" sheetId="58" r:id="rId60"/>
-    <sheet name="2025-05-19" sheetId="59" r:id="rId61"/>
-    <sheet name="2025-05-20" sheetId="60" r:id="rId62"/>
+    <sheet name="2025-05-18" sheetId="58" r:id="rId57"/>
+    <sheet name="2025-05-19" sheetId="59" r:id="rId58"/>
+    <sheet name="2025-05-20" sheetId="60" r:id="rId59"/>
+    <sheet name="2025-05-21" sheetId="61" r:id="rId60"/>
+    <sheet name="2025-05-22" sheetId="62" r:id="rId61"/>
+    <sheet name="2025-05-23" sheetId="63" r:id="rId62"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -85,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3085" uniqueCount="234">
   <si>
     <t>Timestamp</t>
   </si>
@@ -754,13 +758,46 @@
   </si>
   <si>
     <t>633.4 minutes</t>
+  </si>
+  <si>
+    <t>working on streaming soft delta</t>
+  </si>
+  <si>
+    <t>184.1 minutes</t>
+  </si>
+  <si>
+    <t>Testing Netcode</t>
+  </si>
+  <si>
+    <t>refactoring netcodestream code on client side</t>
+  </si>
+  <si>
+    <t>Checking the new changes</t>
+  </si>
+  <si>
+    <t>318.9 minutes</t>
+  </si>
+  <si>
+    <t>debugging server changes</t>
+  </si>
+  <si>
+    <t>making charts and report</t>
+  </si>
+  <si>
+    <t>debugging server sending invalid data</t>
+  </si>
+  <si>
+    <t>Preping for showcase</t>
+  </si>
+  <si>
+    <t>363.0 minutes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -822,16 +859,16 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
-    <xf numFmtId="22" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="22" fontId="3" fillId="4" borderId="0" xfId="1" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="22" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="22" fontId="3" fillId="4" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -839,7 +876,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -852,7 +889,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -8895,7 +8932,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2300-000000000000}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
@@ -15014,13 +15051,13 @@
 
 <file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3700-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -15034,7 +15071,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>45794.022983541588</v>
       </c>
@@ -15045,7 +15082,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>45794.023304328664</v>
       </c>
@@ -15056,7 +15093,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>45794.09975070558</v>
       </c>
@@ -15067,7 +15104,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>45794.102313390867</v>
       </c>
@@ -15078,7 +15115,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>45794.12875263446</v>
       </c>
@@ -15089,9 +15126,9 @@
         <v>210</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>45794.18740502771</v>
+        <v>45794.187405027711</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -15100,7 +15137,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>45794.214656763725</v>
       </c>
@@ -15111,7 +15148,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>45794.247807041706</v>
       </c>
@@ -15122,9 +15159,9 @@
         <v>210</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>45794.2478143558</v>
+        <v>45794.247814355796</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
@@ -15136,9 +15173,9 @@
         <v>211</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>45794.24782458311</v>
+        <v>45794.247824583108</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
@@ -15147,7 +15184,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>45794.554047139885</v>
       </c>
@@ -15158,9 +15195,9 @@
         <v>212</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>45794.56039379252</v>
+        <v>45794.560393792519</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
@@ -15169,9 +15206,9 @@
         <v>212</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>45794.57168400961</v>
+        <v>45794.571684009607</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
@@ -15180,9 +15217,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>45794.57454990196</v>
+        <v>45794.574549901961</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
@@ -15191,7 +15228,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>45794.580815913614</v>
       </c>
@@ -15202,7 +15239,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>45794.58085487879</v>
       </c>
@@ -15213,7 +15250,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>45794.581001286635</v>
       </c>
@@ -15224,9 +15261,9 @@
         <v>213</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>45794.66774821031</v>
+        <v>45794.667748210311</v>
       </c>
       <c r="B19" t="s">
         <v>8</v>
@@ -15235,9 +15272,9 @@
         <v>213</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>45794.67334176551</v>
+        <v>45794.673341765512</v>
       </c>
       <c r="B20" t="s">
         <v>9</v>
@@ -15246,7 +15283,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>45794.696906970545</v>
       </c>
@@ -15257,7 +15294,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>45794.714114135764</v>
       </c>
@@ -15268,9 +15305,9 @@
         <v>213</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>45794.77033771428</v>
+        <v>45794.770337714283</v>
       </c>
       <c r="B23" t="s">
         <v>8</v>
@@ -15279,7 +15316,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>45794.823090978316</v>
       </c>
@@ -15290,9 +15327,9 @@
         <v>213</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>45794.83084910134</v>
+        <v>45794.830849101338</v>
       </c>
       <c r="B25" t="s">
         <v>8</v>
@@ -15301,9 +15338,9 @@
         <v>213</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>45794.83826652614</v>
+        <v>45794.838266526138</v>
       </c>
       <c r="B26" t="s">
         <v>9</v>
@@ -15312,9 +15349,9 @@
         <v>213</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>45794.85872815437</v>
+        <v>45794.858728154373</v>
       </c>
       <c r="B27" t="s">
         <v>8</v>
@@ -15323,9 +15360,9 @@
         <v>213</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>45794.8694333752</v>
+        <v>45794.869433375199</v>
       </c>
       <c r="B28" t="s">
         <v>9</v>
@@ -15334,9 +15371,9 @@
         <v>213</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>45794.8734764016</v>
+        <v>45794.873476401597</v>
       </c>
       <c r="B29" t="s">
         <v>8</v>
@@ -15345,9 +15382,9 @@
         <v>213</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>45794.87821617298</v>
+        <v>45794.878216172983</v>
       </c>
       <c r="B30" t="s">
         <v>9</v>
@@ -15356,9 +15393,9 @@
         <v>213</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <v>45794.90325265652</v>
+        <v>45794.903252656521</v>
       </c>
       <c r="B31" t="s">
         <v>8</v>
@@ -15367,9 +15404,9 @@
         <v>213</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <v>45794.91406962812</v>
+        <v>45794.914069628117</v>
       </c>
       <c r="B32" t="s">
         <v>9</v>
@@ -15378,15 +15415,265 @@
         <v>213</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <v>45794.93710140033</v>
+        <v>45794.937101400334</v>
       </c>
       <c r="B33" t="s">
         <v>8</v>
       </c>
       <c r="C33" t="s">
         <v>213</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3800-000000000000}">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>45795.218009004355</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>45795.218022746987</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>45795.587741822361</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>45795.592195716599</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>45795.631188769767</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>45795.640620091777</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>45795.656559731549</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>45795.687432594794</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>45795.705466940097</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>45795.709945325165</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>45795.719161762099</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>45795.723416583605</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>45795.805815140309</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>45795.816322465078</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>45795.82024798647</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>45795.821312222921</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>45795.839107021857</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>45795.891059166323</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>45795.90012182379</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>45795.900843112795</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -15395,13 +15682,14 @@
 </file>
 
 <file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3900-000000000000}">
+  <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -15415,45 +15703,42 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>45795.218009004355</v>
+        <v>45796.014718267812</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>213</v>
-      </c>
-      <c r="D2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>45795.21802274699</v>
+        <v>45796.092055698296</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>45795.58774182236</v>
+        <v>45796.106807385229</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>45795.5921957166</v>
+        <v>45796.122846541875</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -15462,9 +15747,9 @@
         <v>215</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>45795.63118876977</v>
+        <v>45796.131395153869</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
@@ -15473,9 +15758,9 @@
         <v>215</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>45795.64062009178</v>
+        <v>45796.160784476626</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -15484,9 +15769,9 @@
         <v>215</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>45795.65655973155</v>
+        <v>45796.176310858755</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
@@ -15495,9 +15780,9 @@
         <v>215</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>45795.687432594794</v>
+        <v>45796.182705337582</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
@@ -15506,150 +15791,419 @@
         <v>215</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>45795.7054669401</v>
+        <v>45796.184479445466</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="11">
+      <c r="D10" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>45795.709945325165</v>
+        <v>45796.18449567871</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C11" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>45795.7191617621</v>
+        <v>45796.533012107473</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>45795.723416583605</v>
+        <v>45796.540563631817</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>45795.80581514031</v>
+        <v>45796.582496092029</v>
       </c>
       <c r="B14" t="s">
         <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>45795.81632246508</v>
+        <v>45796.600769433571</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>45795.82024798647</v>
+        <v>45796.601638067637</v>
       </c>
       <c r="B16" t="s">
         <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>45795.82131222292</v>
+        <v>45796.603144431676</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>45795.83910702186</v>
+        <v>45796.60394400933</v>
       </c>
       <c r="B18" t="s">
         <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>45795.89105916632</v>
+        <v>45796.670981078983</v>
       </c>
       <c r="B19" t="s">
         <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>45795.90012182379</v>
+        <v>45796.677823250429</v>
       </c>
       <c r="B20" t="s">
         <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>45795.900843112795</v>
+        <v>45796.68596158232</v>
       </c>
       <c r="B21" t="s">
         <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>215</v>
+        <v>217</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>45796.690362023866</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>45796.693843139896</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>45796.695094466158</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>45796.715559755801</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>45796.718468307859</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>45796.732887099293</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>45796.795748012439</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>45796.795791608936</v>
+      </c>
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>45796.796030231373</v>
+      </c>
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>45796.811489358668</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>45796.817008045953</v>
+      </c>
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>45796.823063601165</v>
+      </c>
+      <c r="B33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>45796.825085397788</v>
+      </c>
+      <c r="B34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>45796.831133039857</v>
+      </c>
+      <c r="B35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>45796.837879392668</v>
+      </c>
+      <c r="B36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>45796.857788517882</v>
+      </c>
+      <c r="B37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>45796.860185511061</v>
+      </c>
+      <c r="B38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>45796.880320751181</v>
+      </c>
+      <c r="B39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>45796.888031184964</v>
+      </c>
+      <c r="B40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>45796.896413708499</v>
+      </c>
+      <c r="B41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>45796.902979683968</v>
+      </c>
+      <c r="B42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>45796.909241257046</v>
+      </c>
+      <c r="B43" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>45796.911061860264</v>
+      </c>
+      <c r="B44" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>45796.943910633549</v>
+      </c>
+      <c r="B45" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" t="s">
+        <v>219</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3A00-000000000000}">
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -15663,494 +16217,330 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>45796.01471826781</v>
+        <v>45797.021592910496</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>45796.0920556983</v>
+        <v>45797.022949588609</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>45796.10680738523</v>
+        <v>45797.051229097116</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>45796.122846541875</v>
+        <v>45797.080901168869</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>45796.13139515387</v>
+        <v>45797.081479486755</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>45796.160784476626</v>
+        <v>45797.104716362235</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>45796.176310858755</v>
+        <v>45797.105080755355</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>45796.18270533758</v>
+        <v>45797.105745491084</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>45796.18447944547</v>
+        <v>45797.128893255438</v>
       </c>
       <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>45797.154329031895</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>45797.154409654555</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>45797.162071307117</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>45797.235547958488</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>45797.330747434993</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>45797.330787538376</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>45797.332776546384</v>
+      </c>
+      <c r="B17" t="s">
         <v>10</v>
       </c>
-      <c r="C10" t="s">
-        <v>215</v>
-      </c>
-      <c r="D10" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1">
-        <v>45796.18449567871</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="C17" t="s">
+        <v>221</v>
+      </c>
+      <c r="D17" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>45797.332794367809</v>
+      </c>
+      <c r="B18" t="s">
         <v>4</v>
       </c>
-      <c r="C11" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1">
-        <v>45796.53301210747</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="C18" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>45797.65089285095</v>
+      </c>
+      <c r="B19" t="s">
         <v>6</v>
       </c>
-      <c r="C12" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1">
-        <v>45796.54056363182</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1">
-        <v>45796.58249609203</v>
-      </c>
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1">
-        <v>45796.60076943357</v>
-      </c>
-      <c r="B15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1">
-        <v>45796.60163806764</v>
-      </c>
-      <c r="B16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1">
-        <v>45796.603144431676</v>
-      </c>
-      <c r="B17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1">
-        <v>45796.60394400933</v>
-      </c>
-      <c r="B18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1">
-        <v>45796.67098107898</v>
-      </c>
-      <c r="B19" t="s">
-        <v>8</v>
-      </c>
       <c r="C19" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>45796.67782325043</v>
+        <v>45797.656284241697</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>45796.68596158232</v>
+        <v>45797.746265345704</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>45796.690362023866</v>
+        <v>45797.789488170689</v>
       </c>
       <c r="B22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>45796.693843139896</v>
+        <v>45797.813389567906</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>45796.69509446616</v>
+        <v>45797.825706117204</v>
       </c>
       <c r="B24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>45796.7155597558</v>
+        <v>45797.825726370087</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>45796.71846830786</v>
+        <v>45797.840901147123</v>
       </c>
       <c r="B26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>45796.73288709929</v>
+        <v>45797.842933931061</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>45796.79574801244</v>
+        <v>45797.849975024743</v>
       </c>
       <c r="B28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>45796.795791608936</v>
+        <v>45797.940499899509</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>45796.79603023137</v>
+        <v>45797.958465806514</v>
       </c>
       <c r="B30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1">
-        <v>45796.81148935867</v>
-      </c>
-      <c r="B31" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1">
-        <v>45796.81700804595</v>
-      </c>
-      <c r="B32" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1">
-        <v>45796.823063601165</v>
-      </c>
-      <c r="B33" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1">
-        <v>45796.82508539779</v>
-      </c>
-      <c r="B34" t="s">
-        <v>9</v>
-      </c>
-      <c r="C34" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1">
-        <v>45796.83113303986</v>
-      </c>
-      <c r="B35" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1">
-        <v>45796.83787939267</v>
-      </c>
-      <c r="B36" t="s">
-        <v>9</v>
-      </c>
-      <c r="C36" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1">
-        <v>45796.85778851788</v>
-      </c>
-      <c r="B37" t="s">
-        <v>8</v>
-      </c>
-      <c r="C37" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1">
-        <v>45796.86018551106</v>
-      </c>
-      <c r="B38" t="s">
-        <v>9</v>
-      </c>
-      <c r="C38" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1">
-        <v>45796.88032075118</v>
-      </c>
-      <c r="B39" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1">
-        <v>45796.888031184964</v>
-      </c>
-      <c r="B40" t="s">
-        <v>9</v>
-      </c>
-      <c r="C40" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1">
-        <v>45796.8964137085</v>
-      </c>
-      <c r="B41" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1">
-        <v>45796.90297968397</v>
-      </c>
-      <c r="B42" t="s">
-        <v>9</v>
-      </c>
-      <c r="C42" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1">
-        <v>45796.909241257046</v>
-      </c>
-      <c r="B43" t="s">
-        <v>8</v>
-      </c>
-      <c r="C43" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1">
-        <v>45796.911061860264</v>
-      </c>
-      <c r="B44" t="s">
-        <v>9</v>
-      </c>
-      <c r="C44" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1">
-        <v>45796.94391063355</v>
-      </c>
-      <c r="B45" t="s">
-        <v>8</v>
-      </c>
-      <c r="C45" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -16513,13 +16903,14 @@
 </file>
 
 <file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3B00-000000000000}">
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -16533,197 +16924,892 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>45797.021592910496</v>
+        <v>45798.003858885553</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>45797.02294958861</v>
+        <v>45798.014085384995</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>45797.05122909712</v>
+        <v>45798.01792910308</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>45797.08090116887</v>
+        <v>45798.034873798286</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>45797.081479486755</v>
+        <v>45798.034885504501</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>223</v>
+      </c>
+      <c r="D6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>45797.104716362235</v>
+        <v>45798.034914183067</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>45797.105080755355</v>
+        <v>45798.625546085823</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>45797.105745491084</v>
+        <v>45798.651660876676</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>45797.12889325544</v>
+        <v>45798.663129598419</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>45797.154329031895</v>
+        <v>45798.678304385983</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>45797.154409654555</v>
+        <v>45798.700441137385</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>45797.16207130712</v>
+        <v>45798.723849926166</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>45797.23554795849</v>
+        <v>45798.724034306237</v>
       </c>
       <c r="B14" t="s">
         <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>45797.33074743499</v>
+        <v>45798.728893482985</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>45797.330787538376</v>
+        <v>45798.735311118035</v>
       </c>
       <c r="B16" t="s">
         <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>45797.332776546384</v>
+        <v>45798.763263090776</v>
       </c>
       <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>45798.76723647461</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>45798.769354715274</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>45798.771776006019</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>45798.788691708054</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>45798.803156427944</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>45798.810823301923</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>45798.812972783686</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>45798.819316128065</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>45798.826777940652</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>45798.851495554678</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>45798.869847584865</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>45798.886011924238</v>
+      </c>
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>45798.891111844445</v>
+      </c>
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>45798.897809009206</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>45798.91286203549</v>
+      </c>
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>45798.922093323206</v>
+      </c>
+      <c r="B33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>45798.927436118953</v>
+      </c>
+      <c r="B34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>45798.929347188263</v>
+      </c>
+      <c r="B35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" t="s">
+        <v>226</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3C00-000000000000}">
+  <dimension ref="A1:D33"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:B33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>45799.036126889208</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>45799.040551270671</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>45799.054816117983</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>45799.054976817308</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>45799.055100270314</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>45799.061510954227</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>45799.070252469792</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>45799.092069213206</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>45799.092077147005</v>
+      </c>
+      <c r="B10" t="s">
         <v>10</v>
       </c>
+      <c r="C10" t="s">
+        <v>227</v>
+      </c>
+      <c r="D10" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>45799.092101311289</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>45799.516020580711</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>45799.533092935635</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>45799.549629942514</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>45799.557962962965</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>45799.561365740738</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>45799.605537355346</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
       <c r="C17" t="s">
-        <v>221</v>
-      </c>
-      <c r="D17" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>45797.33279436781</v>
+        <v>45799.652036779131</v>
       </c>
       <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>45799.701273097009</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>45799.719635339308</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>45799.721852361414</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>45799.770172572549</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>45799.795375138798</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>45799.795633230438</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>45799.802775971562</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>45799.825381284056</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>45799.847313018246</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>45799.847457478085</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>45799.8753853569</v>
+      </c>
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>45799.875532517173</v>
+      </c>
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>45799.894739719974</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>45799.902390152565</v>
+      </c>
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>45799.909226574709</v>
+      </c>
+      <c r="B33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" t="s">
+        <v>232</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3D00-000000000000}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>45800.08418913999</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>45800.091801221883</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>45800.140659047851</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>45800.151547357716</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>45800.157867958063</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>45800.162307592815</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>45800.16233825653</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>232</v>
+      </c>
+      <c r="D8" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>45800.162349145183</v>
+      </c>
+      <c r="B9" t="s">
         <v>4</v>
       </c>
-      <c r="C18" t="s">
-        <v>221</v>
+      <c r="C9" t="s">
+        <v>232</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/time_tracker.xlsx
+++ b/time_tracker.xlsx
@@ -2,10 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3311E4CD-6292-4107-A6F8-45F9C659F140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr filterPrivacy="true"/>
   <bookViews>
-    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13667" firstSheet="56" activeTab="61" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13667" firstSheet="57" activeTab="64"/>
   </bookViews>
   <sheets>
     <sheet name="2025-03-23" sheetId="2" r:id="rId1"/>
@@ -70,6 +69,11 @@
     <sheet name="2025-05-21" sheetId="61" r:id="rId60"/>
     <sheet name="2025-05-22" sheetId="62" r:id="rId61"/>
     <sheet name="2025-05-23" sheetId="63" r:id="rId62"/>
+    <sheet name="2025-05-24" sheetId="64" r:id="rId63"/>
+    <sheet name="2025-05-25" sheetId="65" r:id="rId64"/>
+    <sheet name="2025-05-26" sheetId="66" r:id="rId65"/>
+    <sheet name="2025-05-27" sheetId="67" r:id="rId69"/>
+    <sheet name="2025-05-28" sheetId="68" r:id="rId70"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -89,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3085" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="260">
   <si>
     <t>Timestamp</t>
   </si>
@@ -791,13 +795,91 @@
   </si>
   <si>
     <t>363.0 minutes</t>
+  </si>
+  <si>
+    <t>testing and enhancing netcode</t>
+  </si>
+  <si>
+    <t>cleaning up old code</t>
+  </si>
+  <si>
+    <t>315.9 minutes</t>
+  </si>
+  <si>
+    <t>two way data streaming</t>
+  </si>
+  <si>
+    <t>meeting with semantic map group</t>
+  </si>
+  <si>
+    <t>321.9 minutes</t>
+  </si>
+  <si>
+    <t>fixing jittering and ironing out the movement</t>
+  </si>
+  <si>
+    <t>133.8 minutes</t>
+  </si>
+  <si>
+    <t>writing progress report</t>
+  </si>
+  <si>
+    <t>227.2 minutes</t>
+  </si>
+  <si>
+    <t>26.3 minutes</t>
+  </si>
+  <si>
+    <t>61.6 minutes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">preparing </t>
+  </si>
+  <si>
+    <t>preparing the presentation and progress report</t>
+  </si>
+  <si>
+    <t>building to apk and debugging</t>
+  </si>
+  <si>
+    <t>preparing presentation</t>
+  </si>
+  <si>
+    <t>407.1 minutes</t>
+  </si>
+  <si>
+    <t>building into vr</t>
+  </si>
+  <si>
+    <t>309.5 minutes</t>
+  </si>
+  <si>
+    <t>adding body rig</t>
+  </si>
+  <si>
+    <t>351.7 minutes</t>
+  </si>
+  <si>
+    <t>building to apk</t>
+  </si>
+  <si>
+    <t>139.1 minutes</t>
+  </si>
+  <si>
+    <t>fixing blackscreen issue</t>
+  </si>
+  <si>
+    <t>3 monthly report presentation</t>
+  </si>
+  <si>
+    <t>319.8 minutes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -824,7 +906,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -847,6 +929,7 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
+    <fill/>
   </fills>
   <borders count="1">
     <border>
@@ -859,24 +942,30 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="22" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="22" fontId="3" fillId="4" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="22" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="22" fontId="3" fillId="4" borderId="0" xfId="1" applyNumberFormat="true"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1"/>
+    <xf numFmtId="22" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyAlignment="false">
+      <alignment/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyAlignment="false">
+      <alignment/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -889,7 +978,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -17695,9 +17784,9 @@
 
 <file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3D00-000000000000}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -17808,8 +17897,1871 @@
         <v>232</v>
       </c>
     </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>45800.469888332133</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>45800.473372897926</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>45800.544844158416</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>45800.57755595848</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>45800.594454883882</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>45800.601154530523</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>45800.601877905749</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>45800.615547098954</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>45800.629375588702</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>45800.659423256962</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>45800.672934420923</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>45800.700444309907</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>45800.742669002211</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>45800.782554239369</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>45800.843066749054</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>45800.863873666291</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>45800.863980324262</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>45800.86566569862</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>45800.866360145665</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>45800.869638498414</v>
+      </c>
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" t="s">
+        <v>235</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3E00-000000000000}">
+  <dimension ref="A1:D35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>45801.0037143062</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>45801.032848203591</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>45801.036339694292</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>45801.047766030919</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>45801.051796288346</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>45801.051811368859</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>45801.051815386636</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>235</v>
+      </c>
+      <c r="D8" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>45801.051825045695</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>45801.472419527039</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>45801.47695771078</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>45801.487944788867</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>45801.525531618528</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>45801.527967941205</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>45801.539683215247</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>45801.557411995382</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>45801.565304752978</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>45801.570192854619</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>45801.581775412014</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>45801.586885170691</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>45801.591748221348</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>45801.645320936193</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>45801.666482401772</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>45801.672037949109</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>45801.680827128104</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>45801.688558010806</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>45801.691488180353</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>45801.70265041048</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>45801.721425701297</v>
+      </c>
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>45801.735249366167</v>
+      </c>
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>45801.782484134026</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>45801.853847161758</v>
+      </c>
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>45801.886968905244</v>
+      </c>
+      <c r="B33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>45801.887118765066</v>
+      </c>
+      <c r="B34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>45801.90132095023</v>
+      </c>
+      <c r="B35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" t="s">
+        <v>238</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3F00-000000000000}">
+  <dimension ref="A1:D38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>45802.028223896727</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>45802.028234138292</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>45802.08936188247</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>45802.106017588354</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>45802.117395840396</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>45802.193944471328</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>45802.193963150457</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>240</v>
+      </c>
+      <c r="D8" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>45802.193979006763</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>45802.519730305517</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>45802.523199250798</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>45802.534816915853</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>45802.538366876652</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>45802.542630186574</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>45802.544930145654</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>45802.564023704435</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>45802.568204259725</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>45802.59061725856</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>45802.604286052709</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>45802.708847395887</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>45802.720750362249</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>45802.726656610008</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>45802.793431129539</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>45802.815826937185</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>45802.83217723987</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>45802.836238582691</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>45802.838671067948</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>45802.839430133361</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>45802.851184181811</v>
+      </c>
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>45802.856804747535</v>
+      </c>
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>45802.878793370161</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>45802.897051471315</v>
+      </c>
+      <c r="B32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" t="s">
+        <v>242</v>
+      </c>
+      <c r="D32" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>45802.897076033347</v>
+      </c>
+      <c r="B33" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>45802.91075591612</v>
+      </c>
+      <c r="B34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>45802.929064173863</v>
+      </c>
+      <c r="B35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>45802.929072469939</v>
+      </c>
+      <c r="B36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" t="s">
+        <v>242</v>
+      </c>
+      <c r="D36" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>45802.929082133247</v>
+      </c>
+      <c r="B37" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>45802.963201902217</v>
+      </c>
+      <c r="B38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" t="s">
+        <v>242</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4000-000000000000}">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView tabSelected="true" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05"/>
+  <cols>
+    <col bestFit="true" customWidth="true" max="1" min="1" width="14.6640625"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
+        <v>45803.007075720139</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>45803.007273531948</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>45803.303136574075</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1">
+        <v>45803.324190454594</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1">
+        <v>45803.32429674275</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1">
+        <v>45803.370612045517</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1">
+        <v>45803.370756332719</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1">
+        <v>45803.406030744722</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1">
+        <v>45803.40603515962</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1">
+        <v>45803.422627314816</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1">
+        <v>45803.425362310598</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1">
+        <v>45803.525892428319</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1">
+        <v>45803.526024344574</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="8">
+        <v>45803.6189599635</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="9">
+        <v>45803.61907604002</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1">
+        <v>45803.619093212525</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1">
+        <v>45803.6191101863</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s">
+        <v>249</v>
+      </c>
+      <c r="D18" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1">
+        <v>45803.619127644575</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>249</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>45804.44177325255</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>45804.66456377603</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>45804.66458188053</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>251</v>
+      </c>
+      <c r="D4" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>45804.664620192394</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>45804.80956847782</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>45804.84302142942</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>45804.847814244415</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>45804.84989196683</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>45804.85463523164</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>45804.85479166424</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>45804.85970505484</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>45804.85974555418</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>45804.87546797619</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>45804.87826080086</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1">
+        <v>45804.88340142221</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1">
+        <v>45804.8915426308</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1">
+        <v>45804.90030670784</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1">
+        <v>45804.909471250176</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1">
+        <v>45804.91197530537</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1">
+        <v>45804.92537653204</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1">
+        <v>45804.92639640046</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1">
+        <v>45804.94572747704</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1">
+        <v>45804.958030312184</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1">
+        <v>45804.982343603646</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1">
+        <v>45804.99150056791</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>253</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>45805.02089024495</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>45805.036291115764</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>45805.103138146194</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>45805.107034511035</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>45805.12702490295</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>45805.20264281151</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>45805.220671176605</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>45805.22069250849</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>253</v>
+      </c>
+      <c r="D9" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>45805.22071901874</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>45805.30610493202</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>45805.403682480435</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>255</v>
+      </c>
+      <c r="D12" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>45805.403708110476</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>45805.40610676677</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>45805.53707572438</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1">
+        <v>45805.53852728459</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1">
+        <v>45805.631137624376</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1">
+        <v>45805.631559493195</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1">
+        <v>45805.631579948946</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1">
+        <v>45805.63167986804</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" t="s">
+        <v>258</v>
+      </c>
+      <c r="D20" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1">
+        <v>45805.631699298065</v>
+      </c>
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" t="s">
+        <v>258</v>
+      </c>
+    </row>
+  </sheetData>
 </worksheet>
 </file>
 

--- a/time_tracker.xlsx
+++ b/time_tracker.xlsx
@@ -74,6 +74,10 @@
     <sheet name="2025-05-26" sheetId="66" r:id="rId65"/>
     <sheet name="2025-05-27" sheetId="67" r:id="rId69"/>
     <sheet name="2025-05-28" sheetId="68" r:id="rId70"/>
+    <sheet name="2025-05-29" sheetId="69" r:id="rId71"/>
+    <sheet name="2025-05-30" sheetId="70" r:id="rId72"/>
+    <sheet name="2025-05-31" sheetId="71" r:id="rId73"/>
+    <sheet name="2025-06-01" sheetId="72" r:id="rId74"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -93,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="267">
   <si>
     <t>Timestamp</t>
   </si>
@@ -873,6 +877,27 @@
   </si>
   <si>
     <t>319.8 minutes</t>
+  </si>
+  <si>
+    <t>Bug Fixes: interaction system</t>
+  </si>
+  <si>
+    <t>75.4 minutes</t>
+  </si>
+  <si>
+    <t>Bug Fix: interaction system</t>
+  </si>
+  <si>
+    <t>Refactoring: interaction system</t>
+  </si>
+  <si>
+    <t>234.9 minutes</t>
+  </si>
+  <si>
+    <t>Writing Flow Charts</t>
+  </si>
+  <si>
+    <t>Refactoring done. testing</t>
   </si>
 </sst>
 </file>
@@ -19765,6 +19790,97 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>45806.8076153948</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>45806.81459783518</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>45806.82877183916</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>45806.84063892446</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>45806.905216661515</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>45806.92966537539</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>260</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D19"/>
@@ -19990,6 +20106,494 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>45807.08632912998</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>45807.09557144321</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>45807.0955968589</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>260</v>
+      </c>
+      <c r="D4" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>45807.09560752824</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>45807.5214877127</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>45807.52636252386</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>45807.61996764488</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>45807.62674465804</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>45807.68299022354</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>45807.69477688707</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>45807.697315443525</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>45807.77214030478</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>45807.833138166425</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>45807.84679923911</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1">
+        <v>45807.849644524526</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1">
+        <v>45807.87546553966</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>262</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>45808.18532140248</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>45808.21193833472</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>45808.21196299498</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>263</v>
+      </c>
+      <c r="D4" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>45808.21197173243</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>45808.55179548154</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>45808.58925381744</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>45808.63173954641</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>45808.64050342951</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>45808.64064444</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>45808.65276481423</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>45808.668338694566</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>45808.67208811164</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>45808.71953833742</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>45808.7388147629</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1">
+        <v>45808.831090030544</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1">
+        <v>45808.83123470842</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1">
+        <v>45808.945263642505</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1">
+        <v>45808.95767627745</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1">
+        <v>45808.98373585982</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>266</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2">
+        <v>45809.065110103045</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2">
+        <v>45809.07483866926</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+  </sheetData>
 </worksheet>
 </file>
 

--- a/time_tracker.xlsx
+++ b/time_tracker.xlsx
@@ -78,6 +78,10 @@
     <sheet name="2025-05-30" sheetId="70" r:id="rId72"/>
     <sheet name="2025-05-31" sheetId="71" r:id="rId73"/>
     <sheet name="2025-06-01" sheetId="72" r:id="rId74"/>
+    <sheet name="2025-06-02" sheetId="73" r:id="rId75"/>
+    <sheet name="2025-06-03" sheetId="74" r:id="rId76"/>
+    <sheet name="2025-06-04" sheetId="75" r:id="rId77"/>
+    <sheet name="2025-06-05" sheetId="76" r:id="rId78"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -97,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="285">
   <si>
     <t>Timestamp</t>
   </si>
@@ -898,6 +902,60 @@
   </si>
   <si>
     <t>Refactoring done. testing</t>
+  </si>
+  <si>
+    <t>259.1 minutes</t>
+  </si>
+  <si>
+    <t>Procuring screenshots and adding new models for showcase</t>
+  </si>
+  <si>
+    <t>Interaction StackOverflow Bug Fix</t>
+  </si>
+  <si>
+    <t>Interaction: movement and rotation not working bug</t>
+  </si>
+  <si>
+    <t>343.5 minutes</t>
+  </si>
+  <si>
+    <t>Bug Fix: Movement and rotation not working</t>
+  </si>
+  <si>
+    <t>adding control simulation support and updating functionalities to suit the control schema</t>
+  </si>
+  <si>
+    <t>Testing On Mobile</t>
+  </si>
+  <si>
+    <t>everything almost works on mobile. debugging the remaining issues</t>
+  </si>
+  <si>
+    <t>Adding WebPage Support To Unity</t>
+  </si>
+  <si>
+    <t>322.4 minutes</t>
+  </si>
+  <si>
+    <t>working on Webview support</t>
+  </si>
+  <si>
+    <t>351.2 minutes</t>
+  </si>
+  <si>
+    <t>Implementing additional functionalitie into the webview</t>
+  </si>
+  <si>
+    <t>working on crash happening when the program is on idle while using webview</t>
+  </si>
+  <si>
+    <t>360.7 minutes</t>
+  </si>
+  <si>
+    <t>Working on button functionality for the browser</t>
+  </si>
+  <si>
+    <t>Converging the projects together</t>
   </si>
 </sst>
 </file>
@@ -20593,6 +20651,1309 @@
         <v>266</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="2">
+        <v>45809.08007362684</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2">
+        <v>45809.080104106564</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>266</v>
+      </c>
+      <c r="D5" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2">
+        <v>45809.08011772264</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2">
+        <v>45809.48508350633</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2">
+        <v>45809.54705632245</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2">
+        <v>45809.54865179144</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2">
+        <v>45809.55015332572</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2">
+        <v>45809.55991375169</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2">
+        <v>45809.57654185598</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2">
+        <v>45809.62950982956</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2">
+        <v>45809.62952234213</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2">
+        <v>45809.629712740774</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2">
+        <v>45809.64295947893</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2">
+        <v>45809.667566521035</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2">
+        <v>45809.67027909952</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2">
+        <v>45809.6740400842</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2">
+        <v>45809.676303396365</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2">
+        <v>45809.687231256285</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2">
+        <v>45809.74629474638</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2">
+        <v>45809.783473725554</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2">
+        <v>45809.78349495187</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2">
+        <v>45809.85078142002</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2">
+        <v>45809.88284913866</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2">
+        <v>45809.896673574585</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2">
+        <v>45809.90567494182</v>
+      </c>
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2">
+        <v>45809.93697875514</v>
+      </c>
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2">
+        <v>45809.95205030692</v>
+      </c>
+      <c r="B30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2">
+        <v>45809.95801925233</v>
+      </c>
+      <c r="B31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2">
+        <v>45809.98260607181</v>
+      </c>
+      <c r="B32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2">
+        <v>45809.98282133163</v>
+      </c>
+      <c r="B33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2">
+        <v>45809.98462978012</v>
+      </c>
+      <c r="B34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" t="s">
+        <v>270</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>45810.15557945155</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>45810.155609249174</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>45810.65839990769</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>45810.6828838878</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>45810.68329573602</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>45810.71849075852</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>45810.71861015891</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>45810.78243579598</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>45810.78272088728</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>45810.78672396754</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>45810.8238715311</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>45810.82847319466</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>45810.87315548019</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>45810.873168211525</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1">
+        <v>45810.873210072656</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1">
+        <v>45810.93524442309</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1">
+        <v>45810.97019966376</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1">
+        <v>45810.979576775644</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1">
+        <v>45810.99022551157</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1">
+        <v>45810.99658101862</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>276</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>45811.005191750446</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>45811.01422279884</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>45811.089389679495</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>45811.09562133849</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>45811.09565740358</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>276</v>
+      </c>
+      <c r="D6" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>45811.56461062569</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>45811.585774044695</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>45811.77667892592</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>45811.808549475194</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>45811.81962412783</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>45811.820689135966</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>45811.830084958296</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>45811.83141521827</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>45811.8328799076</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1">
+        <v>45811.928255295774</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1">
+        <v>45811.93771015012</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1">
+        <v>45811.978335364875</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>278</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>45812.026109465434</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>45812.08455606819</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>278</v>
+      </c>
+      <c r="D3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>45812.084651467645</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>45812.57869574829</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>45812.58428025223</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>45812.59639080049</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>45812.60924476734</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>45812.614895206694</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>45812.649720287554</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>45812.650669699</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>45812.66407461444</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>45812.68085046838</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>45812.734022959754</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>45812.73929510351</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1">
+        <v>45812.75015044202</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1">
+        <v>45812.79148856994</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1">
+        <v>45812.79613016198</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1">
+        <v>45812.81564119451</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1">
+        <v>45812.83544036612</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1">
+        <v>45812.835442276715</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1">
+        <v>45812.857431878605</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1">
+        <v>45812.892521176174</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1">
+        <v>45812.90799628649</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1">
+        <v>45812.94819515199</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1">
+        <v>45812.95794438727</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1">
+        <v>45812.97212590036</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1">
+        <v>45812.99587187536</v>
+      </c>
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1">
+        <v>45812.996854696925</v>
+      </c>
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" t="s">
+        <v>281</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>45813.016137859675</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>45813.03731687292</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>45813.04356727491</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>45813.043664863355</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>281</v>
+      </c>
+      <c r="D5" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>45813.043679380455</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>45813.47827080141</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>45813.4797524635</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>45813.4798784345</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>45813.482763469285</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>45813.490916040944</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>45813.50788288722</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>45813.5333873065</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>284</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>

--- a/time_tracker.xlsx
+++ b/time_tracker.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr filterPrivacy="true"/>
   <bookViews>
-    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13667" firstSheet="57" activeTab="64"/>
+    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13667" firstSheet="67" activeTab="74"/>
   </bookViews>
   <sheets>
     <sheet name="2025-03-23" sheetId="2" r:id="rId1"/>
@@ -72,16 +72,22 @@
     <sheet name="2025-05-24" sheetId="64" r:id="rId63"/>
     <sheet name="2025-05-25" sheetId="65" r:id="rId64"/>
     <sheet name="2025-05-26" sheetId="66" r:id="rId65"/>
-    <sheet name="2025-05-27" sheetId="67" r:id="rId69"/>
-    <sheet name="2025-05-28" sheetId="68" r:id="rId70"/>
-    <sheet name="2025-05-29" sheetId="69" r:id="rId71"/>
-    <sheet name="2025-05-30" sheetId="70" r:id="rId72"/>
-    <sheet name="2025-05-31" sheetId="71" r:id="rId73"/>
-    <sheet name="2025-06-01" sheetId="72" r:id="rId74"/>
-    <sheet name="2025-06-02" sheetId="73" r:id="rId75"/>
-    <sheet name="2025-06-03" sheetId="74" r:id="rId76"/>
-    <sheet name="2025-06-04" sheetId="75" r:id="rId77"/>
-    <sheet name="2025-06-05" sheetId="76" r:id="rId78"/>
+    <sheet name="2025-05-27" sheetId="67" r:id="rId66"/>
+    <sheet name="2025-05-28" sheetId="68" r:id="rId67"/>
+    <sheet name="2025-05-29" sheetId="69" r:id="rId68"/>
+    <sheet name="2025-05-30" sheetId="70" r:id="rId69"/>
+    <sheet name="2025-05-31" sheetId="71" r:id="rId70"/>
+    <sheet name="2025-06-01" sheetId="72" r:id="rId71"/>
+    <sheet name="2025-06-02" sheetId="73" r:id="rId72"/>
+    <sheet name="2025-06-03" sheetId="74" r:id="rId73"/>
+    <sheet name="2025-06-04" sheetId="75" r:id="rId74"/>
+    <sheet name="2025-06-05" sheetId="76" r:id="rId75"/>
+    <sheet name="2025-06-06" sheetId="77" r:id="rId79"/>
+    <sheet name="2025-06-07" sheetId="78" r:id="rId80"/>
+    <sheet name="2025-06-08" sheetId="79" r:id="rId81"/>
+    <sheet name="2025-06-09" sheetId="80" r:id="rId82"/>
+    <sheet name="2025-06-10" sheetId="81" r:id="rId83"/>
+    <sheet name="2025-06-11" sheetId="82" r:id="rId84"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -101,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="311">
   <si>
     <t>Timestamp</t>
   </si>
@@ -956,6 +962,84 @@
   </si>
   <si>
     <t>Converging the projects together</t>
+  </si>
+  <si>
+    <t>Turning Map Into Cachable Array</t>
+  </si>
+  <si>
+    <t>Working on Map Control Panel</t>
+  </si>
+  <si>
+    <t>315.7 minutes</t>
+  </si>
+  <si>
+    <t>Improving map control panel</t>
+  </si>
+  <si>
+    <t>Movement Rig</t>
+  </si>
+  <si>
+    <t>282.0 minutes</t>
+  </si>
+  <si>
+    <t>Refining netcode for units</t>
+  </si>
+  <si>
+    <t>Coord System</t>
+  </si>
+  <si>
+    <t>Refining the OverArching Server</t>
+  </si>
+  <si>
+    <t>312.2 minutes</t>
+  </si>
+  <si>
+    <t>Standalone Signaling Server</t>
+  </si>
+  <si>
+    <t>32.4 minutes</t>
+  </si>
+  <si>
+    <t>Stanalone Signaling Server</t>
+  </si>
+  <si>
+    <t>Setting Up OverArching Server</t>
+  </si>
+  <si>
+    <t>83.8 minutes</t>
+  </si>
+  <si>
+    <t>working on overarching server</t>
+  </si>
+  <si>
+    <t>181.8 minutes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">working on overarching server </t>
+  </si>
+  <si>
+    <t>Client side rtc reconfiguring</t>
+  </si>
+  <si>
+    <t>weekly progress report</t>
+  </si>
+  <si>
+    <t>debugging vr controls</t>
+  </si>
+  <si>
+    <t>changing UI elements to world space</t>
+  </si>
+  <si>
+    <t>518.7 minutes</t>
+  </si>
+  <si>
+    <t>working on VR controls</t>
+  </si>
+  <si>
+    <t>Reworking UI</t>
+  </si>
+  <si>
+    <t>362.9 minutes</t>
   </si>
 </sst>
 </file>
@@ -1012,7 +1096,12 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
-    <fill/>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor auto="true"/>
+        <bgColor auto="true"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1027,7 +1116,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
@@ -1036,12 +1125,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="22" fontId="3" fillId="4" borderId="0" xfId="1" applyNumberFormat="true"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1"/>
-    <xf numFmtId="22" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyAlignment="false">
-      <alignment/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyAlignment="false">
-      <alignment/>
-    </xf>
+    <xf numFmtId="22" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -19057,18 +19141,18 @@
 
 <file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4000-000000000000}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col bestFit="true" customWidth="true" max="1" min="1" width="14.6640625"/>
+    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -19082,7 +19166,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>45803.007075720139</v>
       </c>
@@ -19096,7 +19180,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>45803.007273531948</v>
       </c>
@@ -19107,7 +19191,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>45803.303136574075</v>
       </c>
@@ -19118,7 +19202,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>45803.324190454594</v>
       </c>
@@ -19129,7 +19213,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>45803.32429674275</v>
       </c>
@@ -19140,7 +19224,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>45803.370612045517</v>
       </c>
@@ -19151,7 +19235,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>45803.370756332719</v>
       </c>
@@ -19162,7 +19246,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>45803.406030744722</v>
       </c>
@@ -19173,7 +19257,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>45803.40603515962</v>
       </c>
@@ -19184,7 +19268,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>45803.422627314816</v>
       </c>
@@ -19195,7 +19279,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>45803.425362310598</v>
       </c>
@@ -19206,7 +19290,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>45803.525892428319</v>
       </c>
@@ -19217,7 +19301,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>45803.526024344574</v>
       </c>
@@ -19228,9 +19312,9 @@
         <v>249</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
-        <v>45803.6189599635</v>
+        <v>45803.618959963504</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
@@ -19239,8 +19323,8 @@
         <v>249</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="9">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="8">
         <v>45803.61907604002</v>
       </c>
       <c r="B16" t="s">
@@ -19250,7 +19334,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>45803.619093212525</v>
       </c>
@@ -19261,9 +19345,9 @@
         <v>249</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>45803.6191101863</v>
+        <v>45803.619110186301</v>
       </c>
       <c r="B18" t="s">
         <v>10</v>
@@ -19275,7 +19359,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>45803.619127644575</v>
       </c>
@@ -19284,6 +19368,311 @@
       </c>
       <c r="C19" t="s">
         <v>249</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4100-000000000000}">
+  <dimension ref="A1:D26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>45804.441773252547</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>45804.66456377603</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>45804.664581880526</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>251</v>
+      </c>
+      <c r="D4" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>45804.664620192394</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>45804.809568477824</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>45804.84302142942</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>45804.847814244415</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>45804.849891966827</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>45804.854635231641</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>45804.854791664242</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>45804.859705054841</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>45804.859745554182</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>45804.875467976191</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>45804.878260800862</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>45804.883401422208</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>45804.891542630801</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>45804.900306707837</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>45804.909471250176</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>45804.911975305367</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>45804.925376532039</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>45804.926396400457</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>45804.945727477039</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>45804.958030312184</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>45804.982343603646</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>45804.991500567907</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -19292,13 +19681,14 @@
 </file>
 
 <file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4200-000000000000}">
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -19312,296 +19702,249 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>45804.44177325255</v>
+        <v>45805.020890244952</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>45804.66456377603</v>
+        <v>45805.036291115764</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>45804.66458188053</v>
+        <v>45805.103138146194</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>251</v>
-      </c>
-      <c r="D4" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>45804.664620192394</v>
+        <v>45805.107034511035</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>45804.80956847782</v>
+        <v>45805.127024902948</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>45804.84302142942</v>
+        <v>45805.202642811513</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>45804.847814244415</v>
+        <v>45805.220671176605</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>45804.84989196683</v>
+        <v>45805.22069250849</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="10">
+      <c r="D9" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>45804.85463523164</v>
+        <v>45805.22071901874</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>45804.85479166424</v>
+        <v>45805.306104932017</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>45804.85970505484</v>
+        <v>45805.403682480435</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>255</v>
+      </c>
+      <c r="D12" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>45804.85974555418</v>
+        <v>45805.403708110476</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>45804.87546797619</v>
+        <v>45805.406106766772</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>45804.87826080086</v>
+        <v>45805.53707572438</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>45804.88340142221</v>
+        <v>45805.538527284589</v>
       </c>
       <c r="B16" t="s">
         <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>45804.8915426308</v>
+        <v>45805.631137624376</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>45804.90030670784</v>
+        <v>45805.631559493195</v>
       </c>
       <c r="B18" t="s">
         <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>45804.909471250176</v>
+        <v>45805.631579948946</v>
       </c>
       <c r="B19" t="s">
         <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>45804.91197530537</v>
+        <v>45805.631679868042</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>258</v>
+      </c>
+      <c r="D20" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>45804.92537653204</v>
+        <v>45805.631699298065</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1">
-        <v>45804.92639640046</v>
-      </c>
-      <c r="B22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1">
-        <v>45804.94572747704</v>
-      </c>
-      <c r="B23" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1">
-        <v>45804.958030312184</v>
-      </c>
-      <c r="B24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1">
-        <v>45804.982343603646</v>
-      </c>
-      <c r="B25" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1">
-        <v>45804.99150056791</v>
-      </c>
-      <c r="B26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4300-000000000000}">
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -19615,247 +19958,86 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>45805.02089024495</v>
+        <v>45806.807615394799</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>45805.036291115764</v>
+        <v>45806.814597835182</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>45805.103138146194</v>
+        <v>45806.828771839158</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>45805.107034511035</v>
+        <v>45806.840638924463</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>45805.12702490295</v>
+        <v>45806.905216661515</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>45805.20264281151</v>
+        <v>45806.929665375392</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1">
-        <v>45805.220671176605</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1">
-        <v>45805.22069250849</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
-        <v>253</v>
-      </c>
-      <c r="D9" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1">
-        <v>45805.22071901874</v>
-      </c>
-      <c r="B10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1">
-        <v>45805.30610493202</v>
-      </c>
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1">
-        <v>45805.403682480435</v>
-      </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" t="s">
-        <v>255</v>
-      </c>
-      <c r="D12" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1">
-        <v>45805.403708110476</v>
-      </c>
-      <c r="B13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1">
-        <v>45805.40610676677</v>
-      </c>
-      <c r="B14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1">
-        <v>45805.53707572438</v>
-      </c>
-      <c r="B15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1">
-        <v>45805.53852728459</v>
-      </c>
-      <c r="B16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1">
-        <v>45805.631137624376</v>
-      </c>
-      <c r="B17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1">
-        <v>45805.631559493195</v>
-      </c>
-      <c r="B18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1">
-        <v>45805.631579948946</v>
-      </c>
-      <c r="B19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1">
-        <v>45805.63167986804</v>
-      </c>
-      <c r="B20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" t="s">
-        <v>258</v>
-      </c>
-      <c r="D20" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1">
-        <v>45805.631699298065</v>
-      </c>
-      <c r="B21" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4400-000000000000}">
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -19869,20 +20051,20 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>45806.8076153948</v>
+        <v>45807.086329129983</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>45806.81459783518</v>
+        <v>45807.095571443213</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -19891,51 +20073,165 @@
         <v>260</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>45806.82877183916</v>
+        <v>45807.095596858897</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="5">
+      <c r="D4" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>45806.84063892446</v>
+        <v>45807.095607528237</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>45806.905216661515</v>
+        <v>45807.5214877127</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>45806.92966537539</v>
+        <v>45807.526362523859</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>260</v>
+        <v>262</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>45807.619967644881</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>45807.626744658039</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>45807.68299022354</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>45807.694776887067</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>45807.697315443525</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>45807.772140304784</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>45807.833138166425</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>45807.846799239109</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>45807.849644524526</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>45807.875465539662</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>262</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -20168,6 +20464,1888 @@
 </file>
 
 <file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4500-000000000000}">
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>45808.185321402481</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>45808.211938334724</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>45808.211962994981</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>263</v>
+      </c>
+      <c r="D4" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>45808.211971732431</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>45808.551795481537</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>45808.589253817438</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>45808.631739546407</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>45808.640503429509</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>45808.640644439998</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>45808.652764814229</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>45808.668338694566</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>45808.672088111642</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>45808.71953833742</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>45808.738814762903</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>45808.831090030544</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>45808.831234708421</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>45808.945263642505</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>45808.957676277452</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>45808.983735859823</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>266</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4600-000000000000}">
+  <dimension ref="A1:D34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>45809.065110103045</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>45809.074838669258</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>45809.080073626843</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>45809.080104106564</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>266</v>
+      </c>
+      <c r="D5" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>45809.080117722639</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>45809.485083506333</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>45809.547056322452</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>45809.54865179144</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>45809.550153325719</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>45809.559913751691</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>45809.576541855982</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>45809.62950982956</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>45809.629522342133</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>45809.629712740774</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>45809.64295947893</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>45809.667566521035</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>45809.670279099519</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>45809.674040084203</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>45809.676303396365</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>45809.687231256285</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>45809.746294746379</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>45809.783473725554</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>45809.783494951873</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>45809.85078142002</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>45809.882849138659</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>45809.896673574585</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>45809.905674941823</v>
+      </c>
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>45809.93697875514</v>
+      </c>
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>45809.952050306922</v>
+      </c>
+      <c r="B30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>45809.958019252328</v>
+      </c>
+      <c r="B31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>45809.982606071811</v>
+      </c>
+      <c r="B32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>45809.982821331629</v>
+      </c>
+      <c r="B33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>45809.98462978012</v>
+      </c>
+      <c r="B34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" t="s">
+        <v>270</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4700-000000000000}">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>45810.155579451552</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>45810.155609249174</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>45810.65839990769</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>45810.682883887799</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>45810.683295736017</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>45810.718490758518</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>45810.71861015891</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>45810.782435795983</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>45810.782720887277</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>45810.78672396754</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>45810.823871531102</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>45810.828473194662</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>45810.873155480193</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>45810.873168211525</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>45810.873210072656</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>45810.93524442309</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>45810.97019966376</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>45810.979576775644</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>45810.990225511567</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>45810.996581018619</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>276</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4800-000000000000}">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>45811.005191750446</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>45811.01422279884</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>45811.089389679495</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>45811.095621338492</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>45811.095657403581</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>276</v>
+      </c>
+      <c r="D6" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>45811.56461062569</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>45811.585774044695</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>45811.776678925919</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>45811.808549475194</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>45811.819624127827</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>45811.820689135966</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>45811.830084958296</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>45811.831415218272</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>45811.832879907597</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>45811.928255295774</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>45811.937710150123</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>45811.978335364875</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>278</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4900-000000000000}">
+  <dimension ref="A1:D29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>45812.026109465434</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>45812.084556068192</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>278</v>
+      </c>
+      <c r="D3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>45812.084651467645</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>45812.578695748292</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>45812.584280252231</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>45812.596390800492</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>45812.609244767344</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>45812.614895206694</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>45812.649720287554</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>45812.650669699004</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>45812.66407461444</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>45812.68085046838</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>45812.734022959754</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>45812.739295103507</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>45812.750150442022</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>45812.791488569943</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>45812.79613016198</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>45812.815641194509</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>45812.835440366121</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>45812.835442276715</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>45812.857431878605</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>45812.892521176174</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>45812.907996286493</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>45812.948195151992</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>45812.957944387272</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>45812.972125900364</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>45812.995871875362</v>
+      </c>
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>45812.996854696925</v>
+      </c>
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" t="s">
+        <v>281</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4A00-000000000000}">
+  <dimension ref="A1:D38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>45813.016137859675</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>45813.03731687292</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>45813.043567274908</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>45813.043664863355</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>281</v>
+      </c>
+      <c r="D5" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>45813.043679380455</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>45813.47827080141</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>45813.4797524635</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>45813.479878434497</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>45813.482763469285</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>45813.490916040944</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>45813.507882887221</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>45813.533387306503</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>45813.565753053706</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>45813.575057250615</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>45813.577302810401</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>45813.586533329777</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>45813.588194395641</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>45813.588423754285</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>45813.649235311765</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>45813.662451333534</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>45813.681089101774</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>45813.681904664685</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>45813.684324413036</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>45813.695123017147</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>45813.705812638837</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>45813.756806096251</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>45813.777417594487</v>
+      </c>
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>45813.783866848622</v>
+      </c>
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>45813.796515781098</v>
+      </c>
+      <c r="B30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>45813.831368579158</v>
+      </c>
+      <c r="B31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>45813.845861827234</v>
+      </c>
+      <c r="B32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>45813.846030430665</v>
+      </c>
+      <c r="B33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>45813.851372634374</v>
+      </c>
+      <c r="B34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>45813.859094265594</v>
+      </c>
+      <c r="B35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>45813.868806287959</v>
+      </c>
+      <c r="B36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>45813.875775462962</v>
+      </c>
+      <c r="B37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" t="s">
+        <v>286</v>
+      </c>
+      <c r="D37" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>45813.875775462962</v>
+      </c>
+      <c r="B38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" t="s">
+        <v>286</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
@@ -20190,188 +22368,174 @@
     </row>
     <row r="2">
       <c r="A2" s="1">
-        <v>45807.08632912998</v>
+        <v>45814.69518162884</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>260</v>
+        <v>288</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1">
-        <v>45807.09557144321</v>
+        <v>45814.70492198496</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>260</v>
+        <v>288</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1">
-        <v>45807.0955968589</v>
+        <v>45814.71957747554</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>260</v>
-      </c>
-      <c r="D4" t="s">
-        <v>261</v>
+        <v>288</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1">
-        <v>45807.09560752824</v>
+        <v>45814.76985429948</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>260</v>
+        <v>288</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1">
-        <v>45807.5214877127</v>
+        <v>45814.77136584298</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>262</v>
+        <v>288</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1">
-        <v>45807.52636252386</v>
+        <v>45814.79038130319</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>262</v>
+        <v>288</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1">
-        <v>45807.61996764488</v>
+        <v>45814.79058787795</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>262</v>
+        <v>288</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1">
-        <v>45807.62674465804</v>
+        <v>45814.79414844724</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>262</v>
+        <v>288</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1">
-        <v>45807.68299022354</v>
+        <v>45814.87117258536</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>262</v>
+        <v>288</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1">
-        <v>45807.69477688707</v>
+        <v>45814.906098116975</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>262</v>
+        <v>288</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1">
-        <v>45807.697315443525</v>
+        <v>45814.90984192221</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>262</v>
+        <v>288</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1">
-        <v>45807.77214030478</v>
+        <v>45814.937806433445</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>262</v>
+        <v>288</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1">
-        <v>45807.833138166425</v>
+        <v>45814.945596550286</v>
       </c>
       <c r="B14" t="s">
         <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>262</v>
+        <v>288</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1">
-        <v>45807.84679923911</v>
+        <v>45814.985024605856</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>262</v>
+        <v>288</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1">
-        <v>45807.849644524526</v>
+        <v>45814.991060670676</v>
       </c>
       <c r="B16" t="s">
         <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1">
-        <v>45807.87546553966</v>
-      </c>
-      <c r="B17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" t="s">
-        <v>262</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
@@ -20394,221 +22558,276 @@
     </row>
     <row r="2">
       <c r="A2" s="1">
-        <v>45808.18532140248</v>
+        <v>45815.0022559581</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>262</v>
+        <v>289</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1">
-        <v>45808.21193833472</v>
+        <v>45815.00256240075</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>263</v>
+        <v>289</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1">
-        <v>45808.21196299498</v>
+        <v>45815.00642640835</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>263</v>
-      </c>
-      <c r="D4" t="s">
-        <v>264</v>
+        <v>289</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1">
-        <v>45808.21197173243</v>
+        <v>45815.064323225124</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>263</v>
+        <v>289</v>
+      </c>
+      <c r="D5" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1">
-        <v>45808.55179548154</v>
+        <v>45815.06433795231</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>265</v>
+        <v>289</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1">
-        <v>45808.58925381744</v>
+        <v>45815.59924546028</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>265</v>
+        <v>291</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1">
-        <v>45808.63173954641</v>
+        <v>45815.623623363135</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>265</v>
+        <v>291</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1">
-        <v>45808.64050342951</v>
+        <v>45815.64160464396</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>265</v>
+        <v>291</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1">
-        <v>45808.64064444</v>
+        <v>45815.68380045633</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>266</v>
+        <v>291</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1">
-        <v>45808.65276481423</v>
+        <v>45815.710418488365</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>266</v>
+        <v>291</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1">
-        <v>45808.668338694566</v>
+        <v>45815.710453215725</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>266</v>
+        <v>291</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1">
-        <v>45808.67208811164</v>
+        <v>45815.71056373875</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>266</v>
+        <v>292</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1">
-        <v>45808.71953833742</v>
+        <v>45815.721094412955</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>266</v>
+        <v>292</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1">
-        <v>45808.7388147629</v>
+        <v>45815.72242928874</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>266</v>
+        <v>292</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1">
-        <v>45808.831090030544</v>
+        <v>45815.744154616346</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>266</v>
+        <v>292</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1">
-        <v>45808.83123470842</v>
+        <v>45815.756399778766</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>266</v>
+        <v>292</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1">
-        <v>45808.945263642505</v>
+        <v>45815.76142950833</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>266</v>
+        <v>292</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1">
-        <v>45808.95767627745</v>
+        <v>45815.89179521447</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>266</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1">
-        <v>45808.98373585982</v>
+        <v>45815.936377778</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>266</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1">
+        <v>45815.96862912353</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1">
+        <v>45815.96864590872</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1">
+        <v>45815.96874853681</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1">
+        <v>45815.9888847282</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1">
+        <v>45815.99760288961</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>292</v>
       </c>
     </row>
   </sheetData>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
@@ -20630,1328 +22849,584 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2">
-        <v>45809.065110103045</v>
+      <c r="A2" s="1">
+        <v>45816.007172338184</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2">
-        <v>45809.07483866926</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2">
-        <v>45809.08007362684</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2">
-        <v>45809.080104106564</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>266</v>
-      </c>
-      <c r="D5" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2">
-        <v>45809.08011772264</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2">
-        <v>45809.48508350633</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2">
-        <v>45809.54705632245</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2">
-        <v>45809.54865179144</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2">
-        <v>45809.55015332572</v>
-      </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2">
-        <v>45809.55991375169</v>
-      </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2">
-        <v>45809.57654185598</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2">
-        <v>45809.62950982956</v>
-      </c>
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2">
-        <v>45809.62952234213</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2">
-        <v>45809.629712740774</v>
-      </c>
-      <c r="B15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2">
-        <v>45809.64295947893</v>
-      </c>
-      <c r="B16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2">
-        <v>45809.667566521035</v>
-      </c>
-      <c r="B17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2">
-        <v>45809.67027909952</v>
-      </c>
-      <c r="B18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2">
-        <v>45809.6740400842</v>
-      </c>
-      <c r="B19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2">
-        <v>45809.676303396365</v>
-      </c>
-      <c r="B20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2">
-        <v>45809.687231256285</v>
-      </c>
-      <c r="B21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2">
-        <v>45809.74629474638</v>
-      </c>
-      <c r="B22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2">
-        <v>45809.783473725554</v>
-      </c>
-      <c r="B23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2">
-        <v>45809.78349495187</v>
-      </c>
-      <c r="B24" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2">
-        <v>45809.85078142002</v>
-      </c>
-      <c r="B25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2">
-        <v>45809.88284913866</v>
-      </c>
-      <c r="B26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2">
-        <v>45809.896673574585</v>
-      </c>
-      <c r="B27" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2">
-        <v>45809.90567494182</v>
-      </c>
-      <c r="B28" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2">
-        <v>45809.93697875514</v>
-      </c>
-      <c r="B29" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2">
-        <v>45809.95205030692</v>
-      </c>
-      <c r="B30" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2">
-        <v>45809.95801925233</v>
-      </c>
-      <c r="B31" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2">
-        <v>45809.98260607181</v>
-      </c>
-      <c r="B32" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2">
-        <v>45809.98282133163</v>
-      </c>
-      <c r="B33" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2">
-        <v>45809.98462978012</v>
-      </c>
-      <c r="B34" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" t="s">
-        <v>270</v>
-      </c>
-    </row>
-  </sheetData>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1">
-        <v>45810.15557945155</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>270</v>
-      </c>
-      <c r="D2" t="s">
-        <v>271</v>
+        <v>293</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1">
-        <v>45810.155609249174</v>
+        <v>45816.007176766696</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>270</v>
+        <v>293</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1">
-        <v>45810.65839990769</v>
+        <v>45816.00728229028</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>272</v>
+        <v>293</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1">
-        <v>45810.6828838878</v>
+        <v>45816.01447519549</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>272</v>
+        <v>293</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1">
-        <v>45810.68329573602</v>
+        <v>45816.01449488399</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1">
-        <v>45810.71849075852</v>
+        <v>45816.014579352995</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1">
-        <v>45810.71861015891</v>
+        <v>45816.03236427803</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1">
-        <v>45810.78243579598</v>
+        <v>45816.033635521424</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1">
-        <v>45810.78272088728</v>
+        <v>45816.03605447511</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>275</v>
+        <v>293</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1">
-        <v>45810.78672396754</v>
+        <v>45816.04732087984</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>275</v>
+        <v>293</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1">
-        <v>45810.8238715311</v>
+        <v>45816.067288092956</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>275</v>
+        <v>293</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1">
-        <v>45810.82847319466</v>
+        <v>45816.06735655923</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>275</v>
+        <v>293</v>
+      </c>
+      <c r="D13" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1">
-        <v>45810.87315548019</v>
+        <v>45816.067373097474</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>275</v>
+        <v>293</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1">
-        <v>45810.873168211525</v>
+        <v>45816.493963256464</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1">
-        <v>45810.873210072656</v>
+        <v>45816.50406473713</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>62</v>
+        <v>295</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1">
-        <v>45810.93524442309</v>
+        <v>45816.608368945075</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>62</v>
+        <v>295</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1">
-        <v>45810.97019966376</v>
+        <v>45816.62096730476</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>276</v>
+        <v>295</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1">
-        <v>45810.979576775644</v>
+        <v>45816.6209738618</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>276</v>
+        <v>295</v>
+      </c>
+      <c r="D19" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1">
-        <v>45810.99022551157</v>
+        <v>45816.622671093435</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>276</v>
+        <v>297</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1">
-        <v>45810.99658101862</v>
+        <v>45816.64657986714</v>
       </c>
       <c r="B21" t="s">
         <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>276</v>
-      </c>
-    </row>
-  </sheetData>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1">
-        <v>45811.005191750446</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1">
-        <v>45811.01422279884</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1">
-        <v>45811.089389679495</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1">
-        <v>45811.09562133849</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1">
-        <v>45811.09565740358</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>276</v>
-      </c>
-      <c r="D6" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1">
-        <v>45811.56461062569</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1">
-        <v>45811.585774044695</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1">
-        <v>45811.77667892592</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1">
-        <v>45811.808549475194</v>
-      </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1">
-        <v>45811.81962412783</v>
-      </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1">
-        <v>45811.820689135966</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1">
-        <v>45811.830084958296</v>
-      </c>
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1">
-        <v>45811.83141521827</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1">
-        <v>45811.8328799076</v>
-      </c>
-      <c r="B15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1">
-        <v>45811.928255295774</v>
-      </c>
-      <c r="B16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1">
-        <v>45811.93771015012</v>
-      </c>
-      <c r="B17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1">
-        <v>45811.978335364875</v>
-      </c>
-      <c r="B18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" t="s">
-        <v>278</v>
-      </c>
-    </row>
-  </sheetData>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1">
-        <v>45812.026109465434</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1">
-        <v>45812.08455606819</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>278</v>
-      </c>
-      <c r="D3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1">
-        <v>45812.084651467645</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1">
-        <v>45812.57869574829</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1">
-        <v>45812.58428025223</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1">
-        <v>45812.59639080049</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1">
-        <v>45812.60924476734</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1">
-        <v>45812.614895206694</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1">
-        <v>45812.649720287554</v>
-      </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1">
-        <v>45812.650669699</v>
-      </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1">
-        <v>45812.66407461444</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1">
-        <v>45812.68085046838</v>
-      </c>
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1">
-        <v>45812.734022959754</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1">
-        <v>45812.73929510351</v>
-      </c>
-      <c r="B15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1">
-        <v>45812.75015044202</v>
-      </c>
-      <c r="B16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1">
-        <v>45812.79148856994</v>
-      </c>
-      <c r="B17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1">
-        <v>45812.79613016198</v>
-      </c>
-      <c r="B18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1">
-        <v>45812.81564119451</v>
-      </c>
-      <c r="B19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1">
-        <v>45812.83544036612</v>
-      </c>
-      <c r="B20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1">
-        <v>45812.835442276715</v>
-      </c>
-      <c r="B21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1">
-        <v>45812.857431878605</v>
+        <v>45816.64662286621</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1">
-        <v>45812.892521176174</v>
+        <v>45816.655228965516</v>
       </c>
       <c r="B23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1">
-        <v>45812.90799628649</v>
+        <v>45816.65542168609</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>281</v>
+        <v>298</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1">
-        <v>45812.94819515199</v>
+        <v>45816.658224911065</v>
       </c>
       <c r="B25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>281</v>
+        <v>298</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1">
-        <v>45812.95794438727</v>
+        <v>45816.65824593806</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>281</v>
+        <v>298</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1">
-        <v>45812.97212590036</v>
+        <v>45816.66805709148</v>
       </c>
       <c r="B27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>281</v>
+        <v>298</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1">
-        <v>45812.99587187536</v>
+        <v>45816.69887017896</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>281</v>
+        <v>298</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1">
-        <v>45812.996854696925</v>
+        <v>45816.70174786581</v>
       </c>
       <c r="B29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>281</v>
-      </c>
-    </row>
-  </sheetData>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1">
-        <v>45813.016137859675</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1">
-        <v>45813.03731687292</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1">
-        <v>45813.04356727491</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1">
-        <v>45813.043664863355</v>
-      </c>
-      <c r="B5" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1">
+        <v>45816.705938840416</v>
+      </c>
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1">
+        <v>45816.717626149875</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1">
+        <v>45816.717633666995</v>
+      </c>
+      <c r="B32" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
-        <v>281</v>
-      </c>
-      <c r="D5" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1">
-        <v>45813.043679380455</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C32" t="s">
+        <v>298</v>
+      </c>
+      <c r="D32" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1">
+        <v>45816.71764585482</v>
+      </c>
+      <c r="B33" t="s">
         <v>4</v>
       </c>
-      <c r="C6" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1">
-        <v>45813.47827080141</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="C33" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1">
+        <v>45816.719337318405</v>
+      </c>
+      <c r="B34" t="s">
         <v>6</v>
       </c>
-      <c r="C7" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1">
-        <v>45813.4797524635</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1">
-        <v>45813.4798784345</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1">
-        <v>45813.482763469285</v>
-      </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1">
-        <v>45813.490916040944</v>
-      </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1">
-        <v>45813.50788288722</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1">
-        <v>45813.5333873065</v>
-      </c>
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" t="s">
-        <v>284</v>
+      <c r="C34" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1">
+        <v>45816.72867180959</v>
+      </c>
+      <c r="B35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1">
+        <v>45816.745427210015</v>
+      </c>
+      <c r="B36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1">
+        <v>45816.768993179736</v>
+      </c>
+      <c r="B37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1">
+        <v>45816.84382458039</v>
+      </c>
+      <c r="B38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1">
+        <v>45816.849832490574</v>
+      </c>
+      <c r="B39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1">
+        <v>45816.849869341066</v>
+      </c>
+      <c r="B40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1">
+        <v>45816.850459035704</v>
+      </c>
+      <c r="B41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1">
+        <v>45816.88055104542</v>
+      </c>
+      <c r="B42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1">
+        <v>45816.8822460713</v>
+      </c>
+      <c r="B43" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1">
+        <v>45816.906779826706</v>
+      </c>
+      <c r="B44" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1">
+        <v>45816.91305066486</v>
+      </c>
+      <c r="B45" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1">
+        <v>45816.92798219291</v>
+      </c>
+      <c r="B46" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1">
+        <v>45816.944573083536</v>
+      </c>
+      <c r="B47" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1">
+        <v>45816.96205972717</v>
+      </c>
+      <c r="B48" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1">
+        <v>45816.967252635266</v>
+      </c>
+      <c r="B49" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1">
+        <v>45816.97627774175</v>
+      </c>
+      <c r="B50" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1">
+        <v>45816.99409445613</v>
+      </c>
+      <c r="B51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1">
+        <v>45816.99851093936</v>
+      </c>
+      <c r="B52" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1">
+        <v>45816.99853059524</v>
+      </c>
+      <c r="B53" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" t="s">
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -22293,6 +23768,1003 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet80.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>45817.01554433892</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>45817.02709155547</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>45817.05019865502</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>45817.05022870054</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>300</v>
+      </c>
+      <c r="D5" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>45817.05024996955</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>45817.56927798207</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>45817.597611920246</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>45817.599323890725</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>45817.604898851154</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>45817.61827952658</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>45817.628326033555</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>45817.63613087341</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>45817.66579655723</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>45817.67295487103</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1">
+        <v>45817.68713870245</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1">
+        <v>45817.68718267439</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1">
+        <v>45817.71280558829</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1">
+        <v>45817.71301331607</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1">
+        <v>45817.72162771133</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1">
+        <v>45817.72441532123</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1">
+        <v>45817.73315536779</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1">
+        <v>45817.741038410866</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1">
+        <v>45817.74312172305</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1">
+        <v>45817.75713872019</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1">
+        <v>45817.75717476989</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1">
+        <v>45817.767412229754</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1">
+        <v>45817.82796490559</v>
+      </c>
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1">
+        <v>45817.839802088994</v>
+      </c>
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1">
+        <v>45817.846347821716</v>
+      </c>
+      <c r="B30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1">
+        <v>45817.86238714734</v>
+      </c>
+      <c r="B31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1">
+        <v>45817.89467344586</v>
+      </c>
+      <c r="B32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1">
+        <v>45817.894680551915</v>
+      </c>
+      <c r="B33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1">
+        <v>45817.95941339731</v>
+      </c>
+      <c r="B34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1">
+        <v>45817.96204455325</v>
+      </c>
+      <c r="B35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1">
+        <v>45817.9667802794</v>
+      </c>
+      <c r="B36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" t="s">
+        <v>304</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>45818.04977507645</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>45818.08764601697</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>45818.08776079215</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>45818.118373055535</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>45818.11844560008</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>306</v>
+      </c>
+      <c r="D6" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>45818.1184594482</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>45818.55386652524</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>45818.57083529102</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>45818.587805378425</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>45818.5941846277</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>45818.59423149785</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>45818.59800290262</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>45818.64137327192</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>45818.646770850246</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1">
+        <v>45818.66343674151</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1">
+        <v>45818.6769531314</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1">
+        <v>45818.68324942846</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1">
+        <v>45818.69684995285</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1">
+        <v>45818.6968564868</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1">
+        <v>45818.735528370744</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1">
+        <v>45818.75031810165</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1">
+        <v>45818.761795745144</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1">
+        <v>45818.78553054901</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1">
+        <v>45818.78563483735</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1">
+        <v>45818.80724749323</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1">
+        <v>45818.816390634616</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1">
+        <v>45818.8580009653</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1">
+        <v>45818.867717816036</v>
+      </c>
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1">
+        <v>45818.87435165927</v>
+      </c>
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1">
+        <v>45818.88916686985</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1">
+        <v>45818.895734948856</v>
+      </c>
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1">
+        <v>45818.901533563294</v>
+      </c>
+      <c r="B33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1">
+        <v>45818.93531443327</v>
+      </c>
+      <c r="B34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1">
+        <v>45818.956493258775</v>
+      </c>
+      <c r="B35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1">
+        <v>45818.96064216878</v>
+      </c>
+      <c r="B36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1">
+        <v>45818.9627499971</v>
+      </c>
+      <c r="B37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1">
+        <v>45818.9683574424</v>
+      </c>
+      <c r="B38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1">
+        <v>45818.969846069995</v>
+      </c>
+      <c r="B39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1">
+        <v>45818.972106487694</v>
+      </c>
+      <c r="B40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1">
+        <v>45818.99663920711</v>
+      </c>
+      <c r="B41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1">
+        <v>45818.99976799029</v>
+      </c>
+      <c r="B42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" t="s">
+        <v>309</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>45819.014385636234</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>45819.03015203281</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>45819.06796141869</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>45819.07628356866</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>45819.08238178221</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>45819.08239543918</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>309</v>
+      </c>
+      <c r="D7" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>45819.08241305476</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>309</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D3"/>

--- a/time_tracker.xlsx
+++ b/time_tracker.xlsx
@@ -88,6 +88,7 @@
     <sheet name="2025-06-09" sheetId="80" r:id="rId82"/>
     <sheet name="2025-06-10" sheetId="81" r:id="rId83"/>
     <sheet name="2025-06-11" sheetId="82" r:id="rId84"/>
+    <sheet name="2025-06-12" sheetId="83" r:id="rId85"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -107,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="315">
   <si>
     <t>Timestamp</t>
   </si>
@@ -1040,6 +1041,18 @@
   </si>
   <si>
     <t>362.9 minutes</t>
+  </si>
+  <si>
+    <t>reworking UI</t>
+  </si>
+  <si>
+    <t>351.5 minutes</t>
+  </si>
+  <si>
+    <t>Integrating old UI into the new one</t>
+  </si>
+  <si>
+    <t>323.9 minutes</t>
   </si>
 </sst>
 </file>
@@ -24761,6 +24774,521 @@
         <v>309</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>45819.588692130375</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>45819.63448670753</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>45819.64798302913</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>45819.68663755883</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>45819.70452161726</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>45819.725905112944</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>45819.74342399452</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1">
+        <v>45819.74788117104</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1">
+        <v>45819.75087306642</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1">
+        <v>45819.759563536914</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1">
+        <v>45819.76274807093</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1">
+        <v>45819.79218789147</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1">
+        <v>45819.821558245516</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1">
+        <v>45819.854716254486</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1">
+        <v>45819.86552892924</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1">
+        <v>45819.880624031895</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1">
+        <v>45819.89529743968</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1">
+        <v>45819.91113878563</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1">
+        <v>45819.92320658295</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1">
+        <v>45819.92411569693</v>
+      </c>
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1">
+        <v>45819.979779502224</v>
+      </c>
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" t="s">
+        <v>311</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>45820.01681888991</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>45820.01701155358</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>311</v>
+      </c>
+      <c r="D3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>45820.017090300535</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>45820.56882174954</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>45820.64127218042</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>45820.64979146573</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>45820.65270952542</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>45820.665720476536</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>45820.66578798617</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>45820.68288810296</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>45820.71208739178</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>45820.723156623484</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>45820.781206807325</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>45820.80923127748</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1">
+        <v>45820.84070930672</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1">
+        <v>45820.84754743818</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1">
+        <v>45820.86687037618</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1">
+        <v>45820.87202659966</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1">
+        <v>45820.87292763682</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1">
+        <v>45820.8785813811</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1">
+        <v>45820.88972085766</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1">
+        <v>45820.91743593153</v>
+      </c>
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" t="s">
+        <v>313</v>
+      </c>
+      <c r="D23" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1">
+        <v>45820.91745257569</v>
+      </c>
+      <c r="B24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" t="s">
+        <v>313</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>

--- a/time_tracker.xlsx
+++ b/time_tracker.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr filterPrivacy="true"/>
   <bookViews>
-    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13667" firstSheet="67" activeTab="74"/>
+    <workbookView xWindow="6284" yWindow="2003" windowWidth="18851" windowHeight="9766" firstSheet="86" activeTab="90"/>
   </bookViews>
   <sheets>
     <sheet name="2025-03-23" sheetId="2" r:id="rId1"/>
@@ -82,13 +82,27 @@
     <sheet name="2025-06-03" sheetId="74" r:id="rId73"/>
     <sheet name="2025-06-04" sheetId="75" r:id="rId74"/>
     <sheet name="2025-06-05" sheetId="76" r:id="rId75"/>
-    <sheet name="2025-06-06" sheetId="77" r:id="rId79"/>
-    <sheet name="2025-06-07" sheetId="78" r:id="rId80"/>
-    <sheet name="2025-06-08" sheetId="79" r:id="rId81"/>
-    <sheet name="2025-06-09" sheetId="80" r:id="rId82"/>
-    <sheet name="2025-06-10" sheetId="81" r:id="rId83"/>
-    <sheet name="2025-06-11" sheetId="82" r:id="rId84"/>
-    <sheet name="2025-06-12" sheetId="83" r:id="rId85"/>
+    <sheet name="2025-06-06" sheetId="77" r:id="rId76"/>
+    <sheet name="2025-06-07" sheetId="78" r:id="rId77"/>
+    <sheet name="2025-06-08" sheetId="79" r:id="rId78"/>
+    <sheet name="2025-06-09" sheetId="80" r:id="rId79"/>
+    <sheet name="2025-06-10" sheetId="81" r:id="rId80"/>
+    <sheet name="2025-06-11" sheetId="82" r:id="rId81"/>
+    <sheet name="2025-06-12" sheetId="83" r:id="rId82"/>
+    <sheet name="2025-06-13" sheetId="84" r:id="rId83"/>
+    <sheet name="2025-06-14" sheetId="85" r:id="rId84"/>
+    <sheet name="2025-06-15" sheetId="86" r:id="rId85"/>
+    <sheet name="2025-06-16" sheetId="87" r:id="rId86"/>
+    <sheet name="2025-06-17" sheetId="88" r:id="rId87"/>
+    <sheet name="2025-06-18" sheetId="89" r:id="rId88"/>
+    <sheet name="2025-06-19" sheetId="90" r:id="rId89"/>
+    <sheet name="2025-06-20" sheetId="91" r:id="rId90"/>
+    <sheet name="2025-06-21" sheetId="92" r:id="rId91"/>
+    <sheet name="2025-06-22" sheetId="93" r:id="rId95"/>
+    <sheet name="2025-06-23" sheetId="94" r:id="rId96"/>
+    <sheet name="2025-06-24" sheetId="95" r:id="rId97"/>
+    <sheet name="2025-06-25" sheetId="96" r:id="rId98"/>
+    <sheet name="2025-06-26" sheetId="97" r:id="rId99"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -108,7 +122,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="352">
   <si>
     <t>Timestamp</t>
   </si>
@@ -1053,6 +1067,117 @@
   </si>
   <si>
     <t>323.9 minutes</t>
+  </si>
+  <si>
+    <t>Integrating the old UI into the new one</t>
+  </si>
+  <si>
+    <t>171.3 minutes</t>
+  </si>
+  <si>
+    <t>documenting</t>
+  </si>
+  <si>
+    <t>251.5 minutes</t>
+  </si>
+  <si>
+    <t>Documenting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">networking structural issue </t>
+  </si>
+  <si>
+    <t>199.3 minutes</t>
+  </si>
+  <si>
+    <t>Fixing server integration issue</t>
+  </si>
+  <si>
+    <t>Testing Changes Made</t>
+  </si>
+  <si>
+    <t>270.2 minutes</t>
+  </si>
+  <si>
+    <t>Debugging Server shutdown mishanlde</t>
+  </si>
+  <si>
+    <t>Fixed Restart Functionalities</t>
+  </si>
+  <si>
+    <t>Line Creation Logic Remake</t>
+  </si>
+  <si>
+    <t>Shared Unit Creation System</t>
+  </si>
+  <si>
+    <t>158.1 minutes</t>
+  </si>
+  <si>
+    <t>Shared Unit control</t>
+  </si>
+  <si>
+    <t>netcode for Unit management</t>
+  </si>
+  <si>
+    <t>301.0 minutes</t>
+  </si>
+  <si>
+    <t>Netcode Unit stream</t>
+  </si>
+  <si>
+    <t>Progress report</t>
+  </si>
+  <si>
+    <t>progress report</t>
+  </si>
+  <si>
+    <t>200.0 minutes</t>
+  </si>
+  <si>
+    <t>46.4 minutes</t>
+  </si>
+  <si>
+    <t>Debugging and enhancing stabilty for unit netcode stream</t>
+  </si>
+  <si>
+    <t>Month Start</t>
+  </si>
+  <si>
+    <t>1.7 minutes</t>
+  </si>
+  <si>
+    <t>81.9 minutes</t>
+  </si>
+  <si>
+    <t>161.2 minutes</t>
+  </si>
+  <si>
+    <t>cleaning up unit initiation</t>
+  </si>
+  <si>
+    <t>111.2 minutes</t>
+  </si>
+  <si>
+    <t>150.5 minutes</t>
+  </si>
+  <si>
+    <t>Configuring netcode server to properly handle new data model</t>
+  </si>
+  <si>
+    <t>Working On Server Data Stream Issue</t>
+  </si>
+  <si>
+    <t>Working On Server Data Stream</t>
+  </si>
+  <si>
+    <t>387.0 minutes</t>
+  </si>
+  <si>
+    <t>QoL Improvements</t>
+  </si>
+  <si>
+    <t>Pointer Initiation continuation</t>
   </si>
 </sst>
 </file>
@@ -1086,7 +1211,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1115,6 +1240,18 @@
         <bgColor auto="true"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor auto="true"/>
+        <bgColor auto="true"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1129,7 +1266,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
@@ -1139,6 +1276,8 @@
     <xf numFmtId="22" fontId="3" fillId="4" borderId="0" xfId="1" applyNumberFormat="true"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1"/>
     <xf numFmtId="22" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true"/>
+    <xf numFmtId="22" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -21917,7 +22056,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4A00-000000000000}">
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
@@ -22358,14 +22497,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4B00-000000000000}">
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -22379,9 +22519,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>45814.69518162884</v>
+        <v>45814.695181628842</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -22390,9 +22530,9 @@
         <v>288</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>45814.70492198496</v>
+        <v>45814.704921984958</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -22401,9 +22541,9 @@
         <v>288</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>45814.71957747554</v>
+        <v>45814.719577475538</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -22412,9 +22552,9 @@
         <v>288</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>45814.76985429948</v>
+        <v>45814.769854299477</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -22423,9 +22563,9 @@
         <v>288</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>45814.77136584298</v>
+        <v>45814.771365842978</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
@@ -22434,9 +22574,9 @@
         <v>288</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>45814.79038130319</v>
+        <v>45814.790381303188</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -22445,9 +22585,9 @@
         <v>288</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>45814.79058787795</v>
+        <v>45814.790587877949</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
@@ -22456,9 +22596,9 @@
         <v>288</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>45814.79414844724</v>
+        <v>45814.794148447239</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
@@ -22467,9 +22607,9 @@
         <v>288</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>45814.87117258536</v>
+        <v>45814.871172585357</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
@@ -22478,7 +22618,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>45814.906098116975</v>
       </c>
@@ -22489,9 +22629,9 @@
         <v>288</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>45814.90984192221</v>
+        <v>45814.909841922206</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
@@ -22500,7 +22640,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>45814.937806433445</v>
       </c>
@@ -22511,7 +22651,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>45814.945596550286</v>
       </c>
@@ -22522,7 +22662,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>45814.985024605856</v>
       </c>
@@ -22533,7 +22673,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>45814.991060670676</v>
       </c>
@@ -22545,17 +22685,313 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4C00-000000000000}">
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>45815.002255958098</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>45815.002562400747</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>45815.006426408348</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>45815.064323225124</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>289</v>
+      </c>
+      <c r="D5" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>45815.06433795231</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>45815.599245460282</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>45815.623623363135</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>45815.641604643963</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>45815.683800456332</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>45815.710418488365</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>45815.710453215725</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>45815.71056373875</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>45815.721094412955</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>45815.72242928874</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>45815.744154616346</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>45815.756399778766</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>45815.761429508333</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>45815.891795214469</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>45815.936377778002</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>45815.968629123527</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>45815.968645908717</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>45815.968748536812</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>45815.988884728198</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>45815.997602889613</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>292</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4D00-000000000000}">
+  <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -22569,285 +23005,601 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>45815.0022559581</v>
+        <v>45816.007172338184</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>45815.00256240075</v>
+        <v>45816.007176766696</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>45815.00642640835</v>
+        <v>45816.00728229028</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>45815.064323225124</v>
+        <v>45816.014475195487</v>
       </c>
       <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>45816.014494883988</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>45816.014579352995</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>45816.032364278028</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>45816.033635521424</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>45816.036054475109</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>45816.047320879843</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>45816.067288092956</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>45816.06735655923</v>
+      </c>
+      <c r="B13" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
-        <v>289</v>
-      </c>
-      <c r="D5" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1">
-        <v>45815.06433795231</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C13" t="s">
+        <v>293</v>
+      </c>
+      <c r="D13" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>45816.067373097474</v>
+      </c>
+      <c r="B14" t="s">
         <v>4</v>
       </c>
-      <c r="C6" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1">
-        <v>45815.59924546028</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="C14" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>45816.493963256464</v>
+      </c>
+      <c r="B15" t="s">
         <v>6</v>
       </c>
-      <c r="C7" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1">
-        <v>45815.623623363135</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1">
-        <v>45815.64160464396</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1">
-        <v>45815.68380045633</v>
-      </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1">
-        <v>45815.710418488365</v>
-      </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1">
-        <v>45815.710453215725</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1">
-        <v>45815.71056373875</v>
-      </c>
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1">
-        <v>45815.721094412955</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1">
-        <v>45815.72242928874</v>
-      </c>
-      <c r="B15" t="s">
-        <v>9</v>
-      </c>
       <c r="C15" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>45815.744154616346</v>
+        <v>45816.504064737128</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>45815.756399778766</v>
+        <v>45816.608368945075</v>
       </c>
       <c r="B17" t="s">
         <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>45815.76142950833</v>
+        <v>45816.620967304763</v>
       </c>
       <c r="B18" t="s">
         <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>45815.89179521447</v>
+        <v>45816.620973861798</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>295</v>
+      </c>
+      <c r="D19" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>45815.936377778</v>
+        <v>45816.622671093435</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>45815.96862912353</v>
+        <v>45816.646579867142</v>
       </c>
       <c r="B21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>45815.96864590872</v>
+        <v>45816.64662286621</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>45815.96874853681</v>
+        <v>45816.655228965516</v>
       </c>
       <c r="B23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>45815.9888847282</v>
+        <v>45816.65542168609</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>45815.99760288961</v>
+        <v>45816.658224911065</v>
       </c>
       <c r="B25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>292</v>
+        <v>298</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>45816.658245938059</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>45816.668057091483</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>45816.69887017896</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>45816.701747865809</v>
+      </c>
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>45816.705938840416</v>
+      </c>
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>45816.717626149875</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>45816.717633666995</v>
+      </c>
+      <c r="B32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" t="s">
+        <v>298</v>
+      </c>
+      <c r="D32" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>45816.71764585482</v>
+      </c>
+      <c r="B33" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>45816.719337318405</v>
+      </c>
+      <c r="B34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>45816.728671809593</v>
+      </c>
+      <c r="B35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>45816.745427210015</v>
+      </c>
+      <c r="B36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>45816.768993179736</v>
+      </c>
+      <c r="B37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>45816.843824580392</v>
+      </c>
+      <c r="B38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>45816.849832490574</v>
+      </c>
+      <c r="B39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>45816.849869341066</v>
+      </c>
+      <c r="B40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>45816.850459035704</v>
+      </c>
+      <c r="B41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>45816.880551045419</v>
+      </c>
+      <c r="B42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>45816.882246071298</v>
+      </c>
+      <c r="B43" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>45816.906779826706</v>
+      </c>
+      <c r="B44" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>45816.913050664858</v>
+      </c>
+      <c r="B45" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>45816.927982192909</v>
+      </c>
+      <c r="B46" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>45816.944573083536</v>
+      </c>
+      <c r="B47" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>45816.962059727171</v>
+      </c>
+      <c r="B48" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>45816.967252635266</v>
+      </c>
+      <c r="B49" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>45816.976277741749</v>
+      </c>
+      <c r="B50" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>45816.994094456131</v>
+      </c>
+      <c r="B51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>45816.99851093936</v>
+      </c>
+      <c r="B52" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>45816.998530595243</v>
+      </c>
+      <c r="B53" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" t="s">
+        <v>300</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4E00-000000000000}">
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -22861,588 +23613,396 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>45816.007172338184</v>
+        <v>45817.015544338923</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>45816.007176766696</v>
+        <v>45817.027091555472</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>45816.00728229028</v>
+        <v>45817.050198655023</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>45816.01447519549</v>
+        <v>45817.050228700537</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>300</v>
+      </c>
+      <c r="D5" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>45816.01449488399</v>
+        <v>45817.05024996955</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>45816.014579352995</v>
+        <v>45817.569277982067</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>45816.03236427803</v>
+        <v>45817.597611920246</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>45816.033635521424</v>
+        <v>45817.599323890725</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>45816.03605447511</v>
+        <v>45817.604898851154</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>45816.04732087984</v>
+        <v>45817.618279526578</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>45816.067288092956</v>
+        <v>45817.628326033555</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>45816.06735655923</v>
+        <v>45817.636130873412</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>293</v>
-      </c>
-      <c r="D13" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>45816.067373097474</v>
+        <v>45817.66579655723</v>
       </c>
       <c r="B14" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>45816.493963256464</v>
+        <v>45817.672954871028</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>45816.50406473713</v>
+        <v>45817.687138702451</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>45816.608368945075</v>
+        <v>45817.687182674388</v>
       </c>
       <c r="B17" t="s">
         <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>45816.62096730476</v>
+        <v>45817.712805588293</v>
       </c>
       <c r="B18" t="s">
         <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>45816.6209738618</v>
+        <v>45817.713013316068</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>295</v>
-      </c>
-      <c r="D19" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>45816.622671093435</v>
+        <v>45817.721627711333</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>45816.64657986714</v>
+        <v>45817.72441532123</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>45816.64662286621</v>
+        <v>45817.733155367787</v>
       </c>
       <c r="B22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>45816.655228965516</v>
+        <v>45817.741038410866</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>45816.65542168609</v>
+        <v>45817.743121723048</v>
       </c>
       <c r="B24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>45816.658224911065</v>
+        <v>45817.75713872019</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>45816.65824593806</v>
+        <v>45817.757174769889</v>
       </c>
       <c r="B26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>45816.66805709148</v>
+        <v>45817.767412229754</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>45816.69887017896</v>
+        <v>45817.827964905591</v>
       </c>
       <c r="B28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>45816.70174786581</v>
+        <v>45817.839802088994</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>45816.705938840416</v>
+        <v>45817.846347821716</v>
       </c>
       <c r="B30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <v>45816.717626149875</v>
+        <v>45817.862387147339</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <v>45816.717633666995</v>
+        <v>45817.894673445859</v>
       </c>
       <c r="B32" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>298</v>
-      </c>
-      <c r="D32" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <v>45816.71764585482</v>
+        <v>45817.894680551915</v>
       </c>
       <c r="B33" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="34">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
-        <v>45816.719337318405</v>
+        <v>45817.959413397308</v>
       </c>
       <c r="B34" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="35">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
-        <v>45816.72867180959</v>
+        <v>45817.962044553249</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="36">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
-        <v>45816.745427210015</v>
+        <v>45817.966780279399</v>
       </c>
       <c r="B36" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1">
-        <v>45816.768993179736</v>
-      </c>
-      <c r="B37" t="s">
-        <v>8</v>
-      </c>
-      <c r="C37" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1">
-        <v>45816.84382458039</v>
-      </c>
-      <c r="B38" t="s">
-        <v>9</v>
-      </c>
-      <c r="C38" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1">
-        <v>45816.849832490574</v>
-      </c>
-      <c r="B39" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1">
-        <v>45816.849869341066</v>
-      </c>
-      <c r="B40" t="s">
-        <v>9</v>
-      </c>
-      <c r="C40" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1">
-        <v>45816.850459035704</v>
-      </c>
-      <c r="B41" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1">
-        <v>45816.88055104542</v>
-      </c>
-      <c r="B42" t="s">
-        <v>9</v>
-      </c>
-      <c r="C42" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1">
-        <v>45816.8822460713</v>
-      </c>
-      <c r="B43" t="s">
-        <v>8</v>
-      </c>
-      <c r="C43" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1">
-        <v>45816.906779826706</v>
-      </c>
-      <c r="B44" t="s">
-        <v>9</v>
-      </c>
-      <c r="C44" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1">
-        <v>45816.91305066486</v>
-      </c>
-      <c r="B45" t="s">
-        <v>8</v>
-      </c>
-      <c r="C45" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1">
-        <v>45816.92798219291</v>
-      </c>
-      <c r="B46" t="s">
-        <v>9</v>
-      </c>
-      <c r="C46" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1">
-        <v>45816.944573083536</v>
-      </c>
-      <c r="B47" t="s">
-        <v>8</v>
-      </c>
-      <c r="C47" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1">
-        <v>45816.96205972717</v>
-      </c>
-      <c r="B48" t="s">
-        <v>9</v>
-      </c>
-      <c r="C48" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1">
-        <v>45816.967252635266</v>
-      </c>
-      <c r="B49" t="s">
-        <v>8</v>
-      </c>
-      <c r="C49" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1">
-        <v>45816.97627774175</v>
-      </c>
-      <c r="B50" t="s">
-        <v>9</v>
-      </c>
-      <c r="C50" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1">
-        <v>45816.99409445613</v>
-      </c>
-      <c r="B51" t="s">
-        <v>8</v>
-      </c>
-      <c r="C51" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1">
-        <v>45816.99851093936</v>
-      </c>
-      <c r="B52" t="s">
-        <v>8</v>
-      </c>
-      <c r="C52" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1">
-        <v>45816.99853059524</v>
-      </c>
-      <c r="B53" t="s">
-        <v>9</v>
-      </c>
-      <c r="C53" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -23782,13 +24342,14 @@
 </file>
 
 <file path=xl/worksheets/sheet80.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4F00-000000000000}">
+  <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -23802,406 +24363,474 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>45817.01554433892</v>
+        <v>45818.049775076448</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>45817.02709155547</v>
+        <v>45818.087646016967</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>45817.05019865502</v>
+        <v>45818.08776079215</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>45817.05022870054</v>
+        <v>45818.118373055535</v>
       </c>
       <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>45818.118445600077</v>
+      </c>
+      <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
-        <v>300</v>
-      </c>
-      <c r="D5" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1">
-        <v>45817.05024996955</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
+        <v>306</v>
+      </c>
+      <c r="D6" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>45818.118459448197</v>
+      </c>
+      <c r="B7" t="s">
         <v>4</v>
       </c>
-      <c r="C6" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1">
-        <v>45817.56927798207</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>45818.553866525239</v>
+      </c>
+      <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="C7" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1">
-        <v>45817.597611920246</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
       <c r="C8" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>45817.599323890725</v>
+        <v>45818.570835291022</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>45817.604898851154</v>
+        <v>45818.587805378425</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>45817.61827952658</v>
+        <v>45818.594184627698</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>45817.628326033555</v>
+        <v>45818.594231497853</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>45817.63613087341</v>
+        <v>45818.598002902618</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>45817.66579655723</v>
+        <v>45818.641373271923</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>45817.67295487103</v>
+        <v>45818.646770850246</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>45817.68713870245</v>
+        <v>45818.66343674151</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>45817.68718267439</v>
+        <v>45818.676953131398</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>45817.71280558829</v>
+        <v>45818.683249428461</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>45817.71301331607</v>
+        <v>45818.696849952852</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>45817.72162771133</v>
+        <v>45818.6968564868</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>45817.72441532123</v>
+        <v>45818.735528370744</v>
       </c>
       <c r="B21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>45817.73315536779</v>
+        <v>45818.750318101651</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>45817.741038410866</v>
+        <v>45818.761795745144</v>
       </c>
       <c r="B23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>45817.74312172305</v>
+        <v>45818.785530549008</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>45817.75713872019</v>
+        <v>45818.785634837353</v>
       </c>
       <c r="B25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>45817.75717476989</v>
+        <v>45818.807247493227</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>45817.767412229754</v>
+        <v>45818.816390634616</v>
       </c>
       <c r="B27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>45817.82796490559</v>
+        <v>45818.858000965301</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>45817.839802088994</v>
+        <v>45818.867717816036</v>
       </c>
       <c r="B29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>45817.846347821716</v>
+        <v>45818.874351659273</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <v>45817.86238714734</v>
+        <v>45818.889166869849</v>
       </c>
       <c r="B31" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <v>45817.89467344586</v>
+        <v>45818.895734948856</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <v>45817.894680551915</v>
+        <v>45818.901533563294</v>
       </c>
       <c r="B33" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="34">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
-        <v>45817.95941339731</v>
+        <v>45818.935314433271</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="35">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
-        <v>45817.96204455325</v>
+        <v>45818.956493258775</v>
       </c>
       <c r="B35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="36">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
-        <v>45817.9667802794</v>
+        <v>45818.960642168779</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>304</v>
+        <v>309</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>45818.962749997103</v>
+      </c>
+      <c r="B37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>45818.968357442398</v>
+      </c>
+      <c r="B38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>45818.969846069995</v>
+      </c>
+      <c r="B39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>45818.972106487694</v>
+      </c>
+      <c r="B40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>45818.996639207107</v>
+      </c>
+      <c r="B41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>45818.999767990288</v>
+      </c>
+      <c r="B42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" t="s">
+        <v>309</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5000-000000000000}">
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -24215,472 +24844,331 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>45818.04977507645</v>
+        <v>45819.014385636234</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>45818.08764601697</v>
+        <v>45819.030152032807</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>45818.08776079215</v>
+        <v>45819.067961418688</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>45818.118373055535</v>
+        <v>45819.076283568662</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>45818.11844560008</v>
+        <v>45819.082381782209</v>
       </c>
       <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>45819.082395439182</v>
+      </c>
+      <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="C6" t="s">
-        <v>306</v>
-      </c>
-      <c r="D6" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1">
-        <v>45818.1184594482</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
+        <v>309</v>
+      </c>
+      <c r="D7" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>45819.082413054763</v>
+      </c>
+      <c r="B8" t="s">
         <v>4</v>
       </c>
-      <c r="C7" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1">
-        <v>45818.55386652524</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>45819.588692130375</v>
+      </c>
+      <c r="B9" t="s">
         <v>6</v>
       </c>
-      <c r="C8" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1">
-        <v>45818.57083529102</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
       <c r="C9" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>45818.587805378425</v>
+        <v>45819.634486707531</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>45818.5941846277</v>
+        <v>45819.647983029128</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>45818.59423149785</v>
+        <v>45819.686637558829</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>45818.59800290262</v>
+        <v>45819.704521617263</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>45818.64137327192</v>
+        <v>45819.725905112944</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>45818.646770850246</v>
+        <v>45819.743423994521</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>45818.66343674151</v>
+        <v>45819.747881171039</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>45818.6769531314</v>
+        <v>45819.750873066419</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>45818.68324942846</v>
+        <v>45819.759563536914</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>45818.69684995285</v>
+        <v>45819.762748070927</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>45818.6968564868</v>
+        <v>45819.792187891471</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>45818.735528370744</v>
+        <v>45819.821558245516</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>45818.75031810165</v>
+        <v>45819.854716254486</v>
       </c>
       <c r="B22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>45818.761795745144</v>
+        <v>45819.865528929236</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>45818.78553054901</v>
+        <v>45819.880624031895</v>
       </c>
       <c r="B24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>45818.78563483735</v>
+        <v>45819.895297439682</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>45818.80724749323</v>
+        <v>45819.911138785632</v>
       </c>
       <c r="B26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>45818.816390634616</v>
+        <v>45819.923206582949</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>45818.8580009653</v>
+        <v>45819.924115696929</v>
       </c>
       <c r="B28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>45818.867717816036</v>
+        <v>45819.979779502224</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1">
-        <v>45818.87435165927</v>
-      </c>
-      <c r="B30" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1">
-        <v>45818.88916686985</v>
-      </c>
-      <c r="B31" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1">
-        <v>45818.895734948856</v>
-      </c>
-      <c r="B32" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1">
-        <v>45818.901533563294</v>
-      </c>
-      <c r="B33" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1">
-        <v>45818.93531443327</v>
-      </c>
-      <c r="B34" t="s">
-        <v>9</v>
-      </c>
-      <c r="C34" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1">
-        <v>45818.956493258775</v>
-      </c>
-      <c r="B35" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1">
-        <v>45818.96064216878</v>
-      </c>
-      <c r="B36" t="s">
-        <v>9</v>
-      </c>
-      <c r="C36" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1">
-        <v>45818.9627499971</v>
-      </c>
-      <c r="B37" t="s">
-        <v>8</v>
-      </c>
-      <c r="C37" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1">
-        <v>45818.9683574424</v>
-      </c>
-      <c r="B38" t="s">
-        <v>9</v>
-      </c>
-      <c r="C38" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1">
-        <v>45818.969846069995</v>
-      </c>
-      <c r="B39" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1">
-        <v>45818.972106487694</v>
-      </c>
-      <c r="B40" t="s">
-        <v>9</v>
-      </c>
-      <c r="C40" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1">
-        <v>45818.99663920711</v>
-      </c>
-      <c r="B41" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1">
-        <v>45818.99976799029</v>
-      </c>
-      <c r="B42" t="s">
-        <v>9</v>
-      </c>
-      <c r="C42" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5100-000000000000}">
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -24694,329 +25182,279 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>45819.014385636234</v>
+        <v>45820.016818889912</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>45819.03015203281</v>
+        <v>45820.01701155358</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>311</v>
+      </c>
+      <c r="D3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>45819.06796141869</v>
+        <v>45820.017090300535</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>45819.07628356866</v>
+        <v>45820.568821749541</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>45819.08238178221</v>
+        <v>45820.641272180423</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>45819.08239543918</v>
+        <v>45820.64979146573</v>
       </c>
       <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>45820.652709525421</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>45820.665720476536</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>45820.665787986167</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>45820.682888102958</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>45820.712087391781</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>45820.723156623484</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>45820.781206807325</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>45820.809231277482</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>45820.840709306722</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>45820.847547438178</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>45820.86687037618</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>45820.87202659966</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>45820.872927636818</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>45820.878581381097</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>45820.88972085766</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>45820.917435931529</v>
+      </c>
+      <c r="B23" t="s">
         <v>10</v>
       </c>
-      <c r="C7" t="s">
-        <v>309</v>
-      </c>
-      <c r="D7" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1">
-        <v>45819.08241305476</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="C23" t="s">
+        <v>313</v>
+      </c>
+      <c r="D23" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>45820.91745257569</v>
+      </c>
+      <c r="B24" t="s">
         <v>4</v>
       </c>
-      <c r="C8" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1">
-        <v>45819.588692130375</v>
-      </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1">
-        <v>45819.63448670753</v>
-      </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1">
-        <v>45819.64798302913</v>
-      </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1">
-        <v>45819.68663755883</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1">
-        <v>45819.70452161726</v>
-      </c>
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1">
-        <v>45819.725905112944</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1">
-        <v>45819.74342399452</v>
-      </c>
-      <c r="B15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1">
-        <v>45819.74788117104</v>
-      </c>
-      <c r="B16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1">
-        <v>45819.75087306642</v>
-      </c>
-      <c r="B17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1">
-        <v>45819.759563536914</v>
-      </c>
-      <c r="B18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1">
-        <v>45819.76274807093</v>
-      </c>
-      <c r="B19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1">
-        <v>45819.79218789147</v>
-      </c>
-      <c r="B20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1">
-        <v>45819.821558245516</v>
-      </c>
-      <c r="B21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1">
-        <v>45819.854716254486</v>
-      </c>
-      <c r="B22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1">
-        <v>45819.86552892924</v>
-      </c>
-      <c r="B23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1">
-        <v>45819.880624031895</v>
-      </c>
-      <c r="B24" t="s">
-        <v>8</v>
-      </c>
       <c r="C24" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1">
-        <v>45819.89529743968</v>
-      </c>
-      <c r="B25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1">
-        <v>45819.91113878563</v>
-      </c>
-      <c r="B26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1">
-        <v>45819.92320658295</v>
-      </c>
-      <c r="B27" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1">
-        <v>45819.92411569693</v>
-      </c>
-      <c r="B28" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1">
-        <v>45819.979779502224</v>
-      </c>
-      <c r="B29" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5200-000000000000}">
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -25030,266 +25468,2333 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>45820.01681888991</v>
+        <v>45821.583538577535</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>45820.01701155358</v>
+        <v>45821.601614795378</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>45821.619213926468</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>45821.642853399237</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>45821.64427642271</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>45821.653238807863</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>45821.653246912654</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>45821.661832172656</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>45821.725619978955</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>45821.758982460735</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>45821.810787032802</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>45821.832338736283</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>45821.874689219047</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>45821.879683629901</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>315</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5300-000000000000}">
+  <dimension ref="A1:D28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>45822.123680533921</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>45822.123782985764</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="D3" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>45820.017090300535</v>
+        <v>45822.123795873013</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>45820.56882174954</v>
+        <v>45822.590940109338</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>45820.64127218042</v>
+        <v>45822.591843265596</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>45820.64979146573</v>
+        <v>45822.591927570887</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>45820.65270952542</v>
+        <v>45822.594374324741</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>45820.665720476536</v>
+        <v>45822.613563370498</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>45820.66578798617</v>
+        <v>45822.628820509963</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>45820.68288810296</v>
+        <v>45822.628855231364</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>45820.71208739178</v>
+        <v>45822.637704572917</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>45820.723156623484</v>
+        <v>45822.641950523008</v>
       </c>
       <c r="B13" t="s">
         <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>45820.781206807325</v>
+        <v>45822.653557002952</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>45820.80923127748</v>
+        <v>45822.662273637325</v>
       </c>
       <c r="B15" t="s">
         <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>45820.84070930672</v>
+        <v>45822.665201486241</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>45820.84754743818</v>
+        <v>45822.66789284331</v>
       </c>
       <c r="B17" t="s">
         <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>45820.86687037618</v>
+        <v>45822.718147469212</v>
       </c>
       <c r="B18" t="s">
         <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>45820.87202659966</v>
+        <v>45822.745136476697</v>
       </c>
       <c r="B19" t="s">
         <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>45820.87292763682</v>
+        <v>45822.754001051893</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>45820.8785813811</v>
+        <v>45822.762395547135</v>
       </c>
       <c r="B21" t="s">
         <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>45820.88972085766</v>
+        <v>45822.77088434789</v>
       </c>
       <c r="B22" t="s">
         <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>45820.91743593153</v>
+        <v>45822.815968289113</v>
       </c>
       <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>45822.881595582752</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>45822.893957845445</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>45822.893981377922</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>45822.924515328028</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>45822.924556218757</v>
+      </c>
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5400-000000000000}">
+  <dimension ref="A1:D33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>45823.191784043105</v>
+      </c>
+      <c r="B2" t="s">
         <v>10</v>
       </c>
+      <c r="C2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>45823.191798591593</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>45823.602588286049</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>45823.610983949904</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>45823.612073044074</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>45823.617375707661</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>45823.64269670847</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>45823.647706720491</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>45823.651187047391</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>45823.677326129691</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>45823.68465078585</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>45823.686402324965</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>45823.686420465827</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>45823.70343821001</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>45823.781042944676</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>45823.804323230237</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>45823.824801832372</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>45823.829446680553</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>45823.831397689406</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>45823.834654440449</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>45823.844745894246</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>45823.84998661287</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
       <c r="C23" t="s">
-        <v>313</v>
-      </c>
-      <c r="D23" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>45820.91745257569</v>
+        <v>45823.851849660678</v>
       </c>
       <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>45823.857706714363</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>45823.865469835924</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>45823.86581512307</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>45823.86741080237</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>45823.870679710664</v>
+      </c>
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>45823.876971569327</v>
+      </c>
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>45823.877370485898</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>45823.877857971813</v>
+      </c>
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>45823.884055285795</v>
+      </c>
+      <c r="B33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" t="s">
+        <v>319</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5500-000000000000}">
+  <dimension ref="A1:D51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>45824.096746056224</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>45824.102843298118</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>45824.103630503821</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>45824.107435868427</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>45824.181017656003</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>45824.181335377216</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>45824.181524800078</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>45824.182264570314</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>45824.183040419834</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>45824.183880694865</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>45824.193880310784</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>45824.197509750011</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>45824.207253572662</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>45824.208460758076</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>45824.217634571745</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>45824.220589228746</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>45824.230597327813</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>45824.233760135205</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>45824.233784628646</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" t="s">
+        <v>320</v>
+      </c>
+      <c r="D20" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>45824.233798236804</v>
+      </c>
+      <c r="B21" t="s">
         <v>4</v>
       </c>
+      <c r="C21" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>45824.527750543399</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>45824.540262322414</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>45824.626792971525</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
       <c r="C24" t="s">
-        <v>313</v>
+        <v>322</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>45824.670298559911</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>45824.678534674567</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>45824.679890576044</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>45824.695357586948</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>45824.698736843515</v>
+      </c>
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>45824.712439959709</v>
+      </c>
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>45824.722355854232</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>45824.732432248158</v>
+      </c>
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>45824.732734324934</v>
+      </c>
+      <c r="B33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>45824.735682240018</v>
+      </c>
+      <c r="B34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>45824.739471603621</v>
+      </c>
+      <c r="B35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>45824.740693812317</v>
+      </c>
+      <c r="B36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>45824.749435712183</v>
+      </c>
+      <c r="B37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>45824.754015571365</v>
+      </c>
+      <c r="B38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>45824.762687832786</v>
+      </c>
+      <c r="B39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>45824.765047018896</v>
+      </c>
+      <c r="B40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>45824.772969862563</v>
+      </c>
+      <c r="B41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>45824.806403878545</v>
+      </c>
+      <c r="B42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>45824.811047975294</v>
+      </c>
+      <c r="B43" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>45824.830796262904</v>
+      </c>
+      <c r="B44" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>45824.839107590386</v>
+      </c>
+      <c r="B45" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>45824.871285243447</v>
+      </c>
+      <c r="B46" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>45824.9022661493</v>
+      </c>
+      <c r="B47" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>45824.93937101966</v>
+      </c>
+      <c r="B48" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>45824.939386329243</v>
+      </c>
+      <c r="B49" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>45824.939520388412</v>
+      </c>
+      <c r="B50" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>45824.961406776587</v>
+      </c>
+      <c r="B51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" t="s">
+        <v>323</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5600-000000000000}">
+  <dimension ref="A1:D32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>45825.032350814028</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>45825.035484720407</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>45825.078325355877</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>45825.100823816785</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>45825.194717543338</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>323</v>
+      </c>
+      <c r="D6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>45825.194730467279</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>45825.601006818164</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>45825.622455531033</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>45825.622572795364</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>45825.63529732656</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>45825.643736755716</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>45825.66715284191</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>45825.688499293377</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>45825.707868505604</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>45825.708096902199</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>45825.709010886203</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>45825.74355716705</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>45825.743750829992</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>45825.744284017957</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>45825.761123341916</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>45825.761148988444</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>45825.774279390389</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>45825.804058521178</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>45825.810632204259</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>45825.865183916278</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>45825.901249287512</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>45825.901316610361</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>45825.909925399174</v>
+      </c>
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>45825.91513566803</v>
+      </c>
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>45825.925018383197</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>45825.96947806079</v>
+      </c>
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" t="s">
+        <v>319</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5700-000000000000}">
+  <dimension ref="A1:D23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>45826.022625821272</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>45826.02278207428</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>319</v>
+      </c>
+      <c r="D3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>45826.022792389515</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>45826.757447038508</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>45826.761367683801</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>45826.771715324714</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>45826.771722816913</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>45826.773153359871</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>45826.773255607812</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>45826.784500001078</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>45826.784515053427</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>45826.792289166893</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>45826.802364016403</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>45826.814795142338</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>45826.81669811398</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>45826.817655490973</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>45826.827252895811</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>45826.847518910865</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>45826.882746150048</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>45826.891518520359</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>45826.891650079975</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>45826.910498656587</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>327</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5800-000000000000}">
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>45827.021978211385</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>45827.02204803015</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>45827.022241334402</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>45827.040318684158</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>45827.040354546341</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>328</v>
+      </c>
+      <c r="D6" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>45827.49728507179</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>45827.529263867938</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>45827.621406982922</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>45827.650942475004</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>45827.66204702</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>45827.696724502573</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>45827.813247442078</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>45827.851805312792</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>45827.862654472534</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>45827.89341200747</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>45827.900168541011</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>45827.915796633206</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>45827.920161207643</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>45827.923602765019</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>330</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -25326,4 +27831,1372 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet90.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5900-000000000000}">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>45828.091395386902</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>45828.094484502697</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>45828.123190725557</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>45828.145468488488</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>45828.14549473019</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>331</v>
+      </c>
+      <c r="D6" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>45828.145511000155</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>45828.631829180827</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>45828.721699952839</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>45828.721913465452</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>45828.775189505272</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>45829.775189467589</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>334</v>
+      </c>
+      <c r="D12" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>45829.443101851852</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="9">
+        <v>45829.449280165849</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>45829.473919815122</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>45829.480055617249</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>45829.524191030214</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>45829.543627375562</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>45829.553305048365</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>45829.553870234864</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>45829.553877756844</v>
+      </c>
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" t="s">
+        <v>335</v>
+      </c>
+      <c r="D21" t="s">
+        <v>337</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5A00-000000000000}">
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView tabSelected="true" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05"/>
+  <cols>
+    <col customWidth="true" max="1" min="1" width="16.5546875"/>
+    <col customWidth="true" max="3" min="3" width="16.33203125"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="1">
+        <v>45829.554443154775</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>338</v>
+      </c>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="L2" s="10"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>45829.55565767413</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>338</v>
+      </c>
+      <c r="D3" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>45829.73329605836</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>45829.73817781939</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>45829.748791426544</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>45829.7775937219</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>338</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>45830.89473777974</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>45830.91268625251</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>45830.97859791164</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>45830.9894891254</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>45830.99638358664</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>338</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>45831.02669379928</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>45831.06318354623</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>338</v>
+      </c>
+      <c r="D3" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>45831.561022970236</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>45831.57899927146</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>45831.59738311441</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>45831.61392768773</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>45831.77222300659</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>45831.80122957794</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>45831.807833917876</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>45831.82225771967</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>45831.91323167419</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>45831.91617229577</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>45831.921217221316</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>45831.93301563491</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1">
+        <v>45831.972835473694</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1">
+        <v>45831.97496605458</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1">
+        <v>45831.97505093069</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1">
+        <v>45831.983636959136</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>319</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>45832.11580690103</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>45832.125253848266</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>45832.17170485021</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>319</v>
+      </c>
+      <c r="D4" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>45832.17171523614</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>45832.60357018194</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>45832.60907307489</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>45832.65928757388</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>45832.719436111445</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>45832.90308291509</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>45832.91657787961</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>45832.91658850314</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>343</v>
+      </c>
+      <c r="D12" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>45832.91947537044</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>45832.93062795401</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>45832.947650327136</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1">
+        <v>45832.96083488106</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1">
+        <v>45832.965245044135</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1">
+        <v>45832.9887904603</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1">
+        <v>45832.99622191872</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>45833.01545982098</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>45833.01766575976</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>45833.057122946826</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>45833.05724311224</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>45833.470737094765</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>45833.48174830594</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>45833.63272957913</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>45833.645528363435</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>45833.65511883693</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>45833.670186205854</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>45833.874464509354</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>45833.90002797664</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>45833.91759355542</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>45833.93260842999</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1">
+        <v>45833.93676967101</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1">
+        <v>45833.95973746633</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1">
+        <v>45833.96870234502</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1">
+        <v>45833.97110512557</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1">
+        <v>45833.973029700945</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1">
+        <v>45833.9878113434</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1">
+        <v>45833.991352616475</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>346</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>45834.03577136285</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>45834.04214757011</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>45834.04942710489</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>45834.04943980605</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>45834.05497472683</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>45834.0611516079</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>45834.0907214531</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>45834.295505381</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>45834.36294423511</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>45834.36299418952</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D11" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>45834.36302357652</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>45834.72327445225</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>45834.74816681068</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>45834.748172800355</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1">
+        <v>45834.751359912865</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1">
+        <v>45834.76964983108</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>351</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
 </file>
--- a/time_tracker.xlsx
+++ b/time_tracker.xlsx
@@ -103,6 +103,10 @@
     <sheet name="2025-06-24" sheetId="95" r:id="rId97"/>
     <sheet name="2025-06-25" sheetId="96" r:id="rId98"/>
     <sheet name="2025-06-26" sheetId="97" r:id="rId99"/>
+    <sheet name="2025-06-27" sheetId="98" r:id="rId100"/>
+    <sheet name="2025-06-28" sheetId="99" r:id="rId101"/>
+    <sheet name="2025-06-29" sheetId="100" r:id="rId102"/>
+    <sheet name="2025-06-30" sheetId="101" r:id="rId103"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -122,7 +126,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="364">
   <si>
     <t>Timestamp</t>
   </si>
@@ -1178,6 +1182,42 @@
   </si>
   <si>
     <t>Pointer Initiation continuation</t>
+  </si>
+  <si>
+    <t>242.1 minutes</t>
+  </si>
+  <si>
+    <t>Pointer and Object creation refinement</t>
+  </si>
+  <si>
+    <t>519.4 minutes</t>
+  </si>
+  <si>
+    <t>General Debugging and performance improvements</t>
+  </si>
+  <si>
+    <t>Map Scale Delta Streaming</t>
+  </si>
+  <si>
+    <t>Cleaning up and QOL Improvement</t>
+  </si>
+  <si>
+    <t>Unit Scale System Refinement</t>
+  </si>
+  <si>
+    <t>303.1 minutes</t>
+  </si>
+  <si>
+    <t>Clean up and performance improvement</t>
+  </si>
+  <si>
+    <t>Syncing Map Offset</t>
+  </si>
+  <si>
+    <t>Debugging Re-Scaler</t>
+  </si>
+  <si>
+    <t>276.3 minutes</t>
   </si>
 </sst>
 </file>
@@ -1713,6 +1753,447 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet100.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>45837.03834559139</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>45837.05684637483</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>45837.07501264055</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>45837.15320940284</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>45837.186022856746</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>45837.18957610884</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>45837.19404101848</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>45837.194063752584</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>358</v>
+      </c>
+      <c r="D9" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>45837.1940891919</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>45837.59207225857</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>45837.6326947678</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>45837.648536579625</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>45837.65044765345</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>45837.65190096456</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1">
+        <v>45837.65235447174</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1">
+        <v>45837.65243453051</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1">
+        <v>45837.66556261578</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1">
+        <v>45837.67227424076</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1">
+        <v>45837.73195807607</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1">
+        <v>45837.73560562568</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1">
+        <v>45837.760487601365</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1">
+        <v>45837.77124818026</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1">
+        <v>45837.77130180624</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1">
+        <v>45837.77145671042</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1">
+        <v>45837.77337975026</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1">
+        <v>45837.786575156926</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1">
+        <v>45837.798090604294</v>
+      </c>
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" t="s">
+        <v>362</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet101.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>45838.03227248247</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>45838.05443703533</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>45838.063181815196</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>45838.06546499131</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>45838.07044974784</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>45838.08436969501</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>45838.08438590288</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>362</v>
+      </c>
+      <c r="D8" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>45838.084410398085</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>362</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:D28"/>
@@ -29197,6 +29678,711 @@
         <v>351</v>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" s="1">
+        <v>45834.80916700271</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1">
+        <v>45834.81386935339</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1">
+        <v>45834.82907672714</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1">
+        <v>45834.85817436775</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1">
+        <v>45834.8646172632</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1">
+        <v>45834.86780434091</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1">
+        <v>45834.917465302045</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1">
+        <v>45834.96257923113</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1">
+        <v>45834.983943152605</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1">
+        <v>45834.99842471082</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>351</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet98.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>45835.0068732031</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>45835.00690097825</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>351</v>
+      </c>
+      <c r="D3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>45835.00691295213</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>45835.56971072384</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>45835.598962457225</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>45835.66020343686</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>45835.66483146766</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>45835.675775533244</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>45835.67777784644</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>45835.679873328045</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>45835.68894203817</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>45835.715744270005</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>45835.7354134659</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>45835.74340649742</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1">
+        <v>45835.79598387233</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1">
+        <v>45835.8126458925</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1">
+        <v>45835.83144218232</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1">
+        <v>45835.87340631792</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1">
+        <v>45835.88182432701</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1">
+        <v>45835.89479770005</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1">
+        <v>45835.90263334831</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1">
+        <v>45835.941829140254</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1">
+        <v>45835.95018948424</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1">
+        <v>45835.96541787236</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1">
+        <v>45835.97109592814</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1">
+        <v>45835.974896459076</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>353</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet99.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>45836.033684091795</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>45836.04251972141</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>45836.18104540012</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>45836.18707663265</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>353</v>
+      </c>
+      <c r="D5" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>45836.18710926336</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>45836.67053956633</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>45836.67840733426</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>45836.69378735937</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>45836.78603483417</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>45836.792709060865</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>45836.84187241668</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>45836.84406840363</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>45836.84407688294</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>45836.9152740536</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1">
+        <v>45836.91539748609</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1">
+        <v>45836.91577151852</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1">
+        <v>45836.91578097774</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1">
+        <v>45836.918414466134</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1">
+        <v>45836.92979196321</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1">
+        <v>45836.93747715146</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1">
+        <v>45836.9887184667</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1">
+        <v>45836.99546114216</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1">
+        <v>45836.99546789511</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>358</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/time_tracker.xlsx
+++ b/time_tracker.xlsx
@@ -126,7 +126,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="365">
   <si>
     <t>Timestamp</t>
   </si>
@@ -1218,6 +1218,10 @@
   </si>
   <si>
     <t>276.3 minutes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debugging Re-Scaler+ </t>
   </si>
 </sst>
 </file>
@@ -2190,6 +2194,28 @@
         <v>362</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>45838.59358622494</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>45838.64188177349</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>364</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>

--- a/time_tracker.xlsx
+++ b/time_tracker.xlsx
@@ -126,7 +126,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="366">
   <si>
     <t>Timestamp</t>
   </si>
@@ -1222,6 +1222,9 @@
   <si>
     <t xml:space="preserve">Debugging Re-Scaler  </t>
+  </si>
+  <si>
+    <t>68.9 minutes</t>
   </si>
 </sst>
 </file>
@@ -2216,6 +2219,20 @@
         <v>364</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>45838.6420412835</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>364</v>
+      </c>
+      <c r="D12" t="s">
+        <v>365</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>

--- a/time_tracker.xlsx
+++ b/time_tracker.xlsx
@@ -126,7 +126,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="369">
   <si>
     <t>Timestamp</t>
   </si>
@@ -1225,6 +1225,15 @@
   </si>
   <si>
     <t>68.9 minutes</t>
+  </si>
+  <si>
+    <t>upgrading project to unity 6.0.22</t>
+  </si>
+  <si>
+    <t>upgrading project to unity 6.1.9</t>
+  </si>
+  <si>
+    <t>===========&gt;&gt;&gt;&gt;&gt;&gt; 1h+ was done on another device which might not have been moved, keep in mind &lt;&lt;&lt;&lt;===========</t>
   </si>
 </sst>
 </file>
@@ -2233,6 +2242,105 @@
         <v>365</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>45838.64368445241</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>45838.64479511268</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>45838.654237824885</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1">
+        <v>45838.65425518545</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1">
+        <v>45838.7562829517</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1">
+        <v>45838.75628893694</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1">
+        <v>45838.78941162002</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1">
+        <v>45838.80210413415</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1">
+        <v>45838.80210837994</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>368</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>

--- a/time_tracker.xlsx
+++ b/time_tracker.xlsx
@@ -2,9 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
-  <workbookPr filterPrivacy="true"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B37CD75E-3F6C-4BBD-B21A-3E440FEB74D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6284" yWindow="2003" windowWidth="18851" windowHeight="9766" firstSheet="86" activeTab="90"/>
+    <workbookView xWindow="6284" yWindow="2003" windowWidth="18851" windowHeight="9766" firstSheet="95" activeTab="99" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2025-03-23" sheetId="2" r:id="rId1"/>
@@ -98,15 +99,15 @@
     <sheet name="2025-06-19" sheetId="90" r:id="rId89"/>
     <sheet name="2025-06-20" sheetId="91" r:id="rId90"/>
     <sheet name="2025-06-21" sheetId="92" r:id="rId91"/>
-    <sheet name="2025-06-22" sheetId="93" r:id="rId95"/>
-    <sheet name="2025-06-23" sheetId="94" r:id="rId96"/>
-    <sheet name="2025-06-24" sheetId="95" r:id="rId97"/>
-    <sheet name="2025-06-25" sheetId="96" r:id="rId98"/>
-    <sheet name="2025-06-26" sheetId="97" r:id="rId99"/>
-    <sheet name="2025-06-27" sheetId="98" r:id="rId100"/>
-    <sheet name="2025-06-28" sheetId="99" r:id="rId101"/>
-    <sheet name="2025-06-29" sheetId="100" r:id="rId102"/>
-    <sheet name="2025-06-30" sheetId="101" r:id="rId103"/>
+    <sheet name="2025-06-22" sheetId="93" r:id="rId92"/>
+    <sheet name="2025-06-23" sheetId="94" r:id="rId93"/>
+    <sheet name="2025-06-24" sheetId="95" r:id="rId94"/>
+    <sheet name="2025-06-25" sheetId="96" r:id="rId95"/>
+    <sheet name="2025-06-26" sheetId="97" r:id="rId96"/>
+    <sheet name="2025-06-27" sheetId="98" r:id="rId97"/>
+    <sheet name="2025-06-28" sheetId="99" r:id="rId98"/>
+    <sheet name="2025-06-29" sheetId="100" r:id="rId99"/>
+    <sheet name="2025-06-30" sheetId="101" r:id="rId100"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -126,7 +127,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5188" uniqueCount="368">
   <si>
     <t>Timestamp</t>
   </si>
@@ -1220,11 +1221,7 @@
     <t>276.3 minutes</t>
   </si>
   <si>
-    <t xml:space="preserve">Debugging Re-Scaler- </t>
-  </si>
-  <si>
-    <t>68.9 minutes</t>
+    <t xml:space="preserve">Debugging Re-Scaler_x000D_ </t>
   </si>
   <si>
     <t>upgrading project to unity 6.0.22</t>
@@ -1233,14 +1230,14 @@
     <t>upgrading project to unity 6.1.9</t>
   </si>
   <si>
-    <t>===========&gt;&gt;&gt;&gt;&gt;&gt; 1h+ was done on another device which might not have been moved, keep in mind &lt;&lt;&lt;&lt;===========</t>
+    <t>277 minutes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1292,14 +1289,14 @@
     </fill>
     <fill>
       <patternFill patternType="none">
-        <fgColor auto="true"/>
-        <bgColor auto="true"/>
+        <fgColor auto="1"/>
+        <bgColor auto="1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="none">
-        <fgColor auto="true"/>
-        <bgColor auto="true"/>
+        <fgColor auto="1"/>
+        <bgColor auto="1"/>
       </patternFill>
     </fill>
     <fill>
@@ -1320,27 +1317,27 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
-    <xf numFmtId="22" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="22" fontId="3" fillId="4" borderId="0" xfId="1" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="22" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="22" fontId="3" fillId="4" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1"/>
-    <xf numFmtId="22" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true"/>
-    <xf numFmtId="22" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="22" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="22" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1353,7 +1350,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1770,13 +1767,16 @@
 </file>
 
 <file path=xl/worksheets/sheet100.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-6300-000000000000}">
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1790,334 +1790,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>45837.03834559139</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1">
-        <v>45837.05684637483</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1">
-        <v>45837.07501264055</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1">
-        <v>45837.15320940284</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1">
-        <v>45837.186022856746</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1">
-        <v>45837.18957610884</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1">
-        <v>45837.19404101848</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1">
-        <v>45837.194063752584</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
-        <v>358</v>
-      </c>
-      <c r="D9" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1">
-        <v>45837.1940891919</v>
-      </c>
-      <c r="B10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1">
-        <v>45837.59207225857</v>
-      </c>
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1">
-        <v>45837.6326947678</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1">
-        <v>45837.648536579625</v>
-      </c>
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1">
-        <v>45837.65044765345</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1">
-        <v>45837.65190096456</v>
-      </c>
-      <c r="B15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1">
-        <v>45837.65235447174</v>
-      </c>
-      <c r="B16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1">
-        <v>45837.65243453051</v>
-      </c>
-      <c r="B17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1">
-        <v>45837.66556261578</v>
-      </c>
-      <c r="B18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1">
-        <v>45837.67227424076</v>
-      </c>
-      <c r="B19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1">
-        <v>45837.73195807607</v>
-      </c>
-      <c r="B20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1">
-        <v>45837.73560562568</v>
-      </c>
-      <c r="B21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1">
-        <v>45837.760487601365</v>
-      </c>
-      <c r="B22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1">
-        <v>45837.77124818026</v>
-      </c>
-      <c r="B23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1">
-        <v>45837.77130180624</v>
-      </c>
-      <c r="B24" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1">
-        <v>45837.77145671042</v>
-      </c>
-      <c r="B25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1">
-        <v>45837.77337975026</v>
-      </c>
-      <c r="B26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1">
-        <v>45837.786575156926</v>
-      </c>
-      <c r="B27" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1">
-        <v>45837.798090604294</v>
-      </c>
-      <c r="B28" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" t="s">
-        <v>362</v>
-      </c>
-    </row>
-  </sheetData>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet101.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1">
-        <v>45838.03227248247</v>
+        <v>45838.032272482473</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
@@ -2126,9 +1801,9 @@
         <v>362</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>45838.05443703533</v>
+        <v>45838.054437035331</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -2137,7 +1812,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>45838.063181815196</v>
       </c>
@@ -2148,9 +1823,9 @@
         <v>362</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>45838.06546499131</v>
+        <v>45838.065464991312</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -2159,9 +1834,9 @@
         <v>362</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>45838.07044974784</v>
+        <v>45838.070449747836</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
@@ -2170,9 +1845,9 @@
         <v>362</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>45838.08436969501</v>
+        <v>45838.084369695011</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -2181,9 +1856,9 @@
         <v>362</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>45838.08438590288</v>
+        <v>45838.084385902883</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
@@ -2195,7 +1870,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>45838.084410398085</v>
       </c>
@@ -2206,9 +1881,9 @@
         <v>362</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>45838.59358622494</v>
+        <v>45838.593586224939</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
@@ -2217,9 +1892,9 @@
         <v>364</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>45838.64188177349</v>
+        <v>45838.641881773488</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
@@ -2228,7 +1903,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>45838.6420412835</v>
       </c>
@@ -2238,13 +1913,10 @@
       <c r="C12" t="s">
         <v>364</v>
       </c>
-      <c r="D12" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="13">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>45838.64368445241</v>
+        <v>45838.643684452407</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
@@ -2253,9 +1925,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>45838.64479511268</v>
+        <v>45838.644795112683</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
@@ -2264,7 +1936,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>45838.654237824885</v>
       </c>
@@ -2272,76 +1944,64 @@
         <v>8</v>
       </c>
       <c r="C15" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>45838.654255185451</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>45838.756282951697</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1">
-        <v>45838.65425518545</v>
-      </c>
-      <c r="B16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>45838.756288936936</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1">
-        <v>45838.7562829517</v>
-      </c>
-      <c r="B17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>45838.789411620019</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>366</v>
+      </c>
+      <c r="D19" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1">
-        <v>45838.75628893694</v>
-      </c>
-      <c r="B18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1">
-        <v>45838.78941162002</v>
-      </c>
-      <c r="B19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1">
-        <v>45838.80210413415</v>
-      </c>
-      <c r="B20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1">
-        <v>45838.80210837994</v>
-      </c>
-      <c r="B21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" t="s">
-        <v>368</v>
-      </c>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -28725,19 +28385,19 @@
 
 <file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5A00-000000000000}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col customWidth="true" max="1" min="1" width="16.5546875"/>
-    <col customWidth="true" max="3" min="3" width="16.33203125"/>
+    <col min="1" max="1" width="16.5546875" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -28755,7 +28415,7 @@
       <c r="K1" s="10"/>
       <c r="L1" s="10"/>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>45829.554443154775</v>
       </c>
@@ -28772,9 +28432,9 @@
       </c>
       <c r="L2" s="10"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>45829.55565767413</v>
+        <v>45829.555657674129</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -28786,9 +28446,9 @@
         <v>340</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>45829.73329605836</v>
+        <v>45829.733296058359</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -28797,9 +28457,9 @@
         <v>338</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>45829.73817781939</v>
+        <v>45829.738177819389</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -28808,7 +28468,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>45829.748791426544</v>
       </c>
@@ -28819,14 +28479,96 @@
         <v>338</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>45829.7775937219</v>
+        <v>45829.777593721898</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
       <c r="C7" t="s">
+        <v>338</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5B00-000000000000}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>45830.894737779738</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>45830.912686252508</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>45830.978597911642</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>45830.989489125401</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>45830.996383586637</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
         <v>338</v>
       </c>
     </row>
@@ -28836,13 +28578,14 @@
 </file>
 
 <file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5C00-000000000000}">
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -28856,42 +28599,45 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>45830.89473777974</v>
+        <v>45831.026693799278</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>45830.91268625251</v>
+        <v>45831.063183546234</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="4">
+      <c r="D3" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>45830.97859791164</v>
+        <v>45831.561022970236</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>45830.9894891254</v>
+        <v>45831.578999271464</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -28900,9 +28646,9 @@
         <v>338</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>45830.99638358664</v>
+        <v>45831.597383114407</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
@@ -28911,18 +28657,163 @@
         <v>338</v>
       </c>
     </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>45831.613927687729</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>45831.772223006592</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>45831.801229577941</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>45831.807833917876</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>45831.822257719672</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>45831.913231674189</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>45831.916172295772</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>45831.921217221316</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>45831.93301563491</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>45831.972835473694</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>45831.974966054579</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>45831.97505093069</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>45831.983636959136</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>319</v>
+      </c>
+    </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5D00-000000000000}">
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -28936,219 +28827,224 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>45831.02669379928</v>
+        <v>45832.115806901027</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>45831.06318354623</v>
+        <v>45832.125253848266</v>
       </c>
       <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>45832.171704850211</v>
+      </c>
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
-        <v>338</v>
-      </c>
-      <c r="D3" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1">
-        <v>45831.561022970236</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>319</v>
+      </c>
+      <c r="D4" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>45832.171715236138</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>45832.603570181942</v>
+      </c>
+      <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1">
-        <v>45831.57899927146</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1">
-        <v>45831.59738311441</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
       <c r="C6" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>45831.61392768773</v>
+        <v>45832.609073074891</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>45831.77222300659</v>
+        <v>45832.659287573879</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>45831.80122957794</v>
+        <v>45832.719436111445</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>45831.807833917876</v>
+        <v>45832.903082915087</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>45831.82225771967</v>
+        <v>45832.916577879609</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>45831.91323167419</v>
+        <v>45832.91658850314</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>343</v>
+      </c>
+      <c r="D12" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>45831.91617229577</v>
+        <v>45832.919475370443</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>45831.921217221316</v>
+        <v>45832.930627954011</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>45831.93301563491</v>
+        <v>45832.947650327136</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>45831.972835473694</v>
+        <v>45832.960834881058</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>45831.97496605458</v>
+        <v>45832.965245044135</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>45831.97505093069</v>
+        <v>45832.988790460302</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>45831.983636959136</v>
+        <v>45832.996221918722</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>319</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5E00-000000000000}">
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -29162,222 +29058,254 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>45832.11580690103</v>
+        <v>45833.015459820977</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>45832.125253848266</v>
+        <v>45833.017665759762</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>45832.17170485021</v>
+        <v>45833.057122946826</v>
       </c>
       <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>45833.057243112242</v>
+      </c>
+      <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
-        <v>319</v>
-      </c>
-      <c r="D4" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1">
-        <v>45832.17171523614</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
       <c r="C5" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>45832.60357018194</v>
+        <v>45833.470737094765</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>45832.60907307489</v>
+        <v>45833.481748305938</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>45832.65928757388</v>
+        <v>45833.632729579127</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>45832.719436111445</v>
+        <v>45833.645528363435</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>45832.90308291509</v>
+        <v>45833.655118836927</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>45832.91657787961</v>
+        <v>45833.670186205854</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>45832.91658850314</v>
+        <v>45833.874464509354</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>343</v>
-      </c>
-      <c r="D12" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>45832.91947537044</v>
+        <v>45833.900027976641</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>45832.93062795401</v>
+        <v>45833.917593555423</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>45832.947650327136</v>
+        <v>45833.93260842999</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>45832.96083488106</v>
+        <v>45833.936769671011</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>45832.965245044135</v>
+        <v>45833.959737466328</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>45832.9887904603</v>
+        <v>45833.968702345017</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>45832.99622191872</v>
+        <v>45833.971105125573</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>5</v>
+        <v>346</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>45833.973029700945</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>45833.987811343402</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>45833.991352616475</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>346</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5F00-000000000000}">
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -29391,252 +29319,309 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>45833.01545982098</v>
+        <v>45834.035771362847</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>45833.01766575976</v>
+        <v>45834.042147570108</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>45833.057122946826</v>
+        <v>45834.049427104888</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>45833.05724311224</v>
+        <v>45834.049439806047</v>
       </c>
       <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>45834.054974726831</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>45834.061151607901</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>45834.090721453103</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>45834.295505381</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>45834.362944235108</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>45834.36299418952</v>
+      </c>
+      <c r="B11" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1">
-        <v>45833.470737094765</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D11" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>45834.363023576523</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>45834.723274452248</v>
+      </c>
+      <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="C6" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1">
-        <v>45833.48174830594</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1">
-        <v>45833.63272957913</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1">
-        <v>45833.645528363435</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1">
-        <v>45833.65511883693</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1">
-        <v>45833.670186205854</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1">
-        <v>45833.874464509354</v>
-      </c>
-      <c r="B12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1">
-        <v>45833.90002797664</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
       <c r="C13" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>45833.91759355542</v>
+        <v>45834.748166810678</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>45833.93260842999</v>
+        <v>45834.748172800355</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>45833.93676967101</v>
+        <v>45834.751359912865</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>45833.95973746633</v>
+        <v>45834.769649831083</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>45833.96870234502</v>
+        <v>45834.809167002713</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>45833.97110512557</v>
+        <v>45834.813869353391</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>45833.973029700945</v>
+        <v>45834.829076727139</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>45833.9878113434</v>
+        <v>45834.85817436775</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>45833.991352616475</v>
+        <v>45834.8646172632</v>
       </c>
       <c r="B22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>346</v>
+        <v>351</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>45834.867804340909</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>45834.917465302045</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>45834.962579231127</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>45834.983943152605</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>45834.998424710822</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>351</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-6000-000000000000}">
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -29650,307 +29635,309 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>45834.03577136285</v>
+        <v>45835.0068732031</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>45834.04214757011</v>
+        <v>45835.006900978253</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>351</v>
+      </c>
+      <c r="D3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>45834.04942710489</v>
+        <v>45835.006912952129</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>45834.04943980605</v>
+        <v>45835.569710723837</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>45834.05497472683</v>
+        <v>45835.598962457225</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>45834.0611516079</v>
+        <v>45835.660203436863</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>45834.0907214531</v>
+        <v>45835.664831467657</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>45834.295505381</v>
+        <v>45835.675775533244</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>45834.36294423511</v>
+        <v>45835.677777846438</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>45834.36299418952</v>
+        <v>45835.679873328045</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>348</v>
-      </c>
-      <c r="D11" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>45834.36302357652</v>
+        <v>45835.68894203817</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>45834.72327445225</v>
+        <v>45835.715744270005</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>45834.74816681068</v>
+        <v>45835.735413465904</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>45834.748172800355</v>
+        <v>45835.743406497422</v>
       </c>
       <c r="B15" t="s">
         <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>45834.751359912865</v>
+        <v>45835.795983872333</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>45834.76964983108</v>
+        <v>45835.812645892503</v>
       </c>
       <c r="B17" t="s">
         <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>45834.80916700271</v>
+        <v>45835.831442182323</v>
       </c>
       <c r="B18" t="s">
         <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>45834.81386935339</v>
+        <v>45835.873406317922</v>
       </c>
       <c r="B19" t="s">
         <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>45834.82907672714</v>
+        <v>45835.881824327007</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>45834.85817436775</v>
+        <v>45835.89479770005</v>
       </c>
       <c r="B21" t="s">
         <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>45834.8646172632</v>
+        <v>45835.902633348313</v>
       </c>
       <c r="B22" t="s">
         <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>45834.86780434091</v>
+        <v>45835.941829140254</v>
       </c>
       <c r="B23" t="s">
         <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>45834.917465302045</v>
+        <v>45835.95018948424</v>
       </c>
       <c r="B24" t="s">
         <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>45834.96257923113</v>
+        <v>45835.965417872358</v>
       </c>
       <c r="B25" t="s">
         <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>45834.983943152605</v>
+        <v>45835.971095928136</v>
       </c>
       <c r="B26" t="s">
         <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>45834.99842471082</v>
+        <v>45835.974896459076</v>
       </c>
       <c r="B27" t="s">
         <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet98.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-6100-000000000000}">
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -29964,307 +29951,276 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>45835.0068732031</v>
+        <v>45836.033684091795</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>45835.00690097825</v>
+        <v>45836.042519721414</v>
       </c>
       <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>45836.181045400117</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>45836.187076632646</v>
+      </c>
+      <c r="B5" t="s">
         <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>351</v>
-      </c>
-      <c r="D3" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1">
-        <v>45835.00691295213</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1">
-        <v>45835.56971072384</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
       </c>
       <c r="C5" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="6">
+      <c r="D5" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>45835.598962457225</v>
+        <v>45836.187109263359</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>45835.66020343686</v>
+        <v>45836.67053956633</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>45835.66483146766</v>
+        <v>45836.678407334257</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>45835.675775533244</v>
+        <v>45836.693787359371</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>45835.67777784644</v>
+        <v>45836.786034834171</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>45835.679873328045</v>
+        <v>45836.792709060865</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>45835.68894203817</v>
+        <v>45836.841872416677</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>45835.715744270005</v>
+        <v>45836.844068403632</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>45835.7354134659</v>
+        <v>45836.844076882939</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>45835.74340649742</v>
+        <v>45836.915274053601</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>45835.79598387233</v>
+        <v>45836.915397486089</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>45835.8126458925</v>
+        <v>45836.915771518521</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>45835.83144218232</v>
+        <v>45836.915780977739</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>45835.87340631792</v>
+        <v>45836.918414466134</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>45835.88182432701</v>
+        <v>45836.929791963208</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>45835.89479770005</v>
+        <v>45836.937477151463</v>
       </c>
       <c r="B21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>45835.90263334831</v>
+        <v>45836.988718466702</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>45835.941829140254</v>
+        <v>45836.995461142164</v>
       </c>
       <c r="B23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>45835.95018948424</v>
+        <v>45836.995467895111</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1">
-        <v>45835.96541787236</v>
-      </c>
-      <c r="B25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1">
-        <v>45835.97109592814</v>
-      </c>
-      <c r="B26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1">
-        <v>45835.974896459076</v>
-      </c>
-      <c r="B27" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet99.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-6200-000000000000}">
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -30278,262 +30234,307 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>45836.033684091795</v>
+        <v>45837.038345591391</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>45836.04251972141</v>
+        <v>45837.056846374828</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>45836.18104540012</v>
+        <v>45837.075012640547</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>45836.18707663265</v>
+        <v>45837.153209402837</v>
       </c>
       <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>45837.186022856746</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>45837.189576108838</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>45837.194041018483</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>45837.194063752584</v>
+      </c>
+      <c r="B9" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
-        <v>353</v>
-      </c>
-      <c r="D5" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1">
-        <v>45836.18710926336</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C9" t="s">
+        <v>358</v>
+      </c>
+      <c r="D9" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>45837.1940891919</v>
+      </c>
+      <c r="B10" t="s">
         <v>4</v>
       </c>
-      <c r="C6" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1">
-        <v>45836.67053956633</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="C10" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>45837.592072258572</v>
+      </c>
+      <c r="B11" t="s">
         <v>6</v>
       </c>
-      <c r="C7" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1">
-        <v>45836.67840733426</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1">
-        <v>45836.69378735937</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1">
-        <v>45836.78603483417</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1">
-        <v>45836.792709060865</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
       <c r="C11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>45836.84187241668</v>
+        <v>45837.632694767803</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>45836.84406840363</v>
+        <v>45837.648536579625</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>45836.84407688294</v>
+        <v>45837.650447653446</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>45836.9152740536</v>
+        <v>45837.651900964564</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>45836.91539748609</v>
+        <v>45837.652354471742</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>45836.91577151852</v>
+        <v>45837.652434530508</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>45836.91578097774</v>
+        <v>45837.665562615781</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>45836.918414466134</v>
+        <v>45837.672274240758</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>45836.92979196321</v>
+        <v>45837.731958076067</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>45836.93747715146</v>
+        <v>45837.735605625683</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>45836.9887184667</v>
+        <v>45837.760487601365</v>
       </c>
       <c r="B22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>45836.99546114216</v>
+        <v>45837.771248180259</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>45836.99546789511</v>
+        <v>45837.771301806242</v>
       </c>
       <c r="B24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>358</v>
+        <v>361</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>45837.771456710419</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>45837.773379750259</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>45837.786575156926</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>45837.798090604294</v>
+      </c>
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" t="s">
+        <v>362</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/time_tracker.xlsx
+++ b/time_tracker.xlsx
@@ -2,10 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B37CD75E-3F6C-4BBD-B21A-3E440FEB74D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr filterPrivacy="true"/>
   <bookViews>
-    <workbookView xWindow="6284" yWindow="2003" windowWidth="18851" windowHeight="9766" firstSheet="95" activeTab="99" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6284" yWindow="2003" windowWidth="18851" windowHeight="9766" firstSheet="95" activeTab="99"/>
   </bookViews>
   <sheets>
     <sheet name="2025-03-23" sheetId="2" r:id="rId1"/>
@@ -108,6 +107,9 @@
     <sheet name="2025-06-28" sheetId="99" r:id="rId98"/>
     <sheet name="2025-06-29" sheetId="100" r:id="rId99"/>
     <sheet name="2025-06-30" sheetId="101" r:id="rId100"/>
+    <sheet name="2025-07-01" sheetId="102" r:id="rId104"/>
+    <sheet name="2025-07-02" sheetId="103" r:id="rId105"/>
+    <sheet name="2025-07-03" sheetId="104" r:id="rId106"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -127,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5188" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="376">
   <si>
     <t>Timestamp</t>
   </si>
@@ -1231,13 +1233,37 @@
   </si>
   <si>
     <t>277 minutes</t>
+  </si>
+  <si>
+    <t>meeting with chatbot team</t>
+  </si>
+  <si>
+    <t>36.8 minutes</t>
+  </si>
+  <si>
+    <t>Netcode codebase cleanup</t>
+  </si>
+  <si>
+    <t>Coloring and postprocessing</t>
+  </si>
+  <si>
+    <t>Servercode cleanup</t>
+  </si>
+  <si>
+    <t>turning json to flatbuffer</t>
+  </si>
+  <si>
+    <t>299.5 minutes</t>
+  </si>
+  <si>
+    <t>unit handling and creation clean up and debug</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1264,7 +1290,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1289,14 +1315,14 @@
     </fill>
     <fill>
       <patternFill patternType="none">
-        <fgColor auto="1"/>
-        <bgColor auto="1"/>
+        <fgColor auto="true"/>
+        <bgColor auto="true"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="none">
-        <fgColor auto="1"/>
-        <bgColor auto="1"/>
+        <fgColor auto="true"/>
+        <bgColor auto="true"/>
       </patternFill>
     </fill>
     <fill>
@@ -1305,6 +1331,7 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill/>
   </fills>
   <borders count="1">
     <border>
@@ -1317,27 +1344,33 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="22" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="22" fontId="3" fillId="4" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="22" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="22" fontId="3" fillId="4" borderId="0" xfId="1" applyNumberFormat="true"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1"/>
-    <xf numFmtId="22" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="22" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="22" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true"/>
+    <xf numFmtId="22" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="22" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyAlignment="false">
+      <alignment/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyAlignment="false">
+      <alignment/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1350,7 +1383,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1770,13 +1803,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-6300-000000000000}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="true" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.05"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1790,7 +1823,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>45838.032272482473</v>
       </c>
@@ -1801,7 +1834,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>45838.054437035331</v>
       </c>
@@ -1812,7 +1845,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>45838.063181815196</v>
       </c>
@@ -1823,7 +1856,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>45838.065464991312</v>
       </c>
@@ -1834,7 +1867,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>45838.070449747836</v>
       </c>
@@ -1845,7 +1878,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>45838.084369695011</v>
       </c>
@@ -1856,7 +1889,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>45838.084385902883</v>
       </c>
@@ -1870,7 +1903,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4">
       <c r="A9" s="1">
         <v>45838.084410398085</v>
       </c>
@@ -1881,7 +1914,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4">
       <c r="A10" s="1">
         <v>45838.593586224939</v>
       </c>
@@ -1892,7 +1925,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4">
       <c r="A11" s="1">
         <v>45838.641881773488</v>
       </c>
@@ -1903,7 +1936,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4">
       <c r="A12" s="1">
         <v>45838.6420412835</v>
       </c>
@@ -1914,7 +1947,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4">
       <c r="A13" s="1">
         <v>45838.643684452407</v>
       </c>
@@ -1925,7 +1958,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4">
       <c r="A14" s="1">
         <v>45838.644795112683</v>
       </c>
@@ -1936,7 +1969,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4">
       <c r="A15" s="1">
         <v>45838.654237824885</v>
       </c>
@@ -1947,7 +1980,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4">
       <c r="A16" s="1">
         <v>45838.654255185451</v>
       </c>
@@ -1958,7 +1991,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4">
       <c r="A17" s="1">
         <v>45838.756282951697</v>
       </c>
@@ -1969,7 +2002,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4">
       <c r="A18" s="1">
         <v>45838.756288936936</v>
       </c>
@@ -1980,7 +2013,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4">
       <c r="A19" s="1">
         <v>45838.789411620019</v>
       </c>
@@ -1994,14 +2027,683 @@
         <v>367</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
+    <row r="20" spans="1:4">
+      <c r="A20" s="11">
+        <v>45838.874081081616</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="12">
+        <v>45838.89966267728</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1">
+        <v>45838.89977957948</v>
+      </c>
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" t="s">
+        <v>368</v>
+      </c>
+      <c r="D22" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1">
+        <v>45838.914431834106</v>
+      </c>
+      <c r="B23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" t="s">
+        <v>368</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet102.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2">
+        <v>45839.58744771925</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2">
+        <v>45839.60822086587</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2">
+        <v>45839.61438387246</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2">
+        <v>45839.61706115465</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2">
+        <v>45839.71259046358</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2">
+        <v>45839.72551214832</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2">
+        <v>45839.72755593316</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2">
+        <v>45839.73024632491</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2">
+        <v>45839.73025114748</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2">
+        <v>45839.76233552344</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2">
+        <v>45839.76234008725</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2">
+        <v>45839.80531711799</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2">
+        <v>45839.84429763493</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2">
+        <v>45839.85543131708</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2">
+        <v>45839.88924227031</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2">
+        <v>45839.89173571165</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2">
+        <v>45839.89690256942</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2">
+        <v>45839.89822452512</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2">
+        <v>45839.934313062935</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2">
+        <v>45839.94083197266</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2">
+        <v>45839.942591227504</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2">
+        <v>45839.956670313855</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2">
+        <v>45839.96916240955</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2">
+        <v>45839.99938424094</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>372</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet103.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>45840.00024342622</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>45840.00554300186</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>45840.02037574864</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>45840.02185433988</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>45840.024025829494</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>45840.03887363054</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>45840.04139754748</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>45840.04153508736</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>45840.041539523496</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>45840.04842455517</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>45840.21497219213</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>373</v>
+      </c>
+      <c r="D12" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>45840.21498300743</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>45840.78507861442</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>45840.78941870045</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1">
+        <v>45840.80330681898</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1">
+        <v>45840.80614111524</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1">
+        <v>45840.82226765763</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1">
+        <v>45840.87320592683</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1">
+        <v>45840.960742186675</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>375</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet104.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>45841.00065982205</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>45841.004577060856</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>45841.00571459865</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>45841.012068188116</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>45841.04320611284</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>45841.04860869652</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>45841.08648617336</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
 </worksheet>
 </file>
 

--- a/time_tracker.xlsx
+++ b/time_tracker.xlsx
@@ -2,9 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
-  <workbookPr filterPrivacy="true"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5C641A4-18A6-4A48-9367-1C66B6A50A32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6284" yWindow="2003" windowWidth="18851" windowHeight="9766" firstSheet="95" activeTab="99"/>
+    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13667" firstSheet="98" activeTab="102" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2025-03-23" sheetId="2" r:id="rId1"/>
@@ -107,9 +108,9 @@
     <sheet name="2025-06-28" sheetId="99" r:id="rId98"/>
     <sheet name="2025-06-29" sheetId="100" r:id="rId99"/>
     <sheet name="2025-06-30" sheetId="101" r:id="rId100"/>
-    <sheet name="2025-07-01" sheetId="102" r:id="rId104"/>
-    <sheet name="2025-07-02" sheetId="103" r:id="rId105"/>
-    <sheet name="2025-07-03" sheetId="104" r:id="rId106"/>
+    <sheet name="2025-07-01" sheetId="102" r:id="rId101"/>
+    <sheet name="2025-07-02" sheetId="103" r:id="rId102"/>
+    <sheet name="2025-07-03" sheetId="104" r:id="rId103"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -129,7 +130,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5310" uniqueCount="377">
   <si>
     <t>Timestamp</t>
   </si>
@@ -1257,13 +1258,16 @@
   </si>
   <si>
     <t>unit handling and creation clean up and debug</t>
+  </si>
+  <si>
+    <t>241 minutes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1315,14 +1319,14 @@
     </fill>
     <fill>
       <patternFill patternType="none">
-        <fgColor auto="true"/>
-        <bgColor auto="true"/>
+        <fgColor auto="1"/>
+        <bgColor auto="1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="none">
-        <fgColor auto="true"/>
-        <bgColor auto="true"/>
+        <fgColor auto="1"/>
+        <bgColor auto="1"/>
       </patternFill>
     </fill>
     <fill>
@@ -1331,7 +1335,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill/>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor auto="1"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1344,33 +1353,28 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
-    <xf numFmtId="22" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="22" fontId="3" fillId="4" borderId="0" xfId="1" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="22" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="22" fontId="3" fillId="4" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1"/>
-    <xf numFmtId="22" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true"/>
-    <xf numFmtId="22" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="22" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyAlignment="false">
-      <alignment/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyAlignment="false">
-      <alignment/>
-    </xf>
+    <xf numFmtId="22" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="22" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="22" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1383,7 +1387,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1801,15 +1805,15 @@
 
 <file path=xl/worksheets/sheet100.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-6300-000000000000}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="true" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1823,7 +1827,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>45838.032272482473</v>
       </c>
@@ -1834,7 +1838,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>45838.054437035331</v>
       </c>
@@ -1845,7 +1849,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>45838.063181815196</v>
       </c>
@@ -1856,7 +1860,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>45838.065464991312</v>
       </c>
@@ -1867,7 +1871,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>45838.070449747836</v>
       </c>
@@ -1878,7 +1882,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>45838.084369695011</v>
       </c>
@@ -1889,7 +1893,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>45838.084385902883</v>
       </c>
@@ -1903,7 +1907,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>45838.084410398085</v>
       </c>
@@ -1914,7 +1918,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>45838.593586224939</v>
       </c>
@@ -1925,7 +1929,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>45838.641881773488</v>
       </c>
@@ -1936,7 +1940,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>45838.6420412835</v>
       </c>
@@ -1947,7 +1951,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>45838.643684452407</v>
       </c>
@@ -1958,7 +1962,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>45838.644795112683</v>
       </c>
@@ -1969,7 +1973,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>45838.654237824885</v>
       </c>
@@ -1980,7 +1984,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>45838.654255185451</v>
       </c>
@@ -1991,7 +1995,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>45838.756282951697</v>
       </c>
@@ -2002,7 +2006,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>45838.756288936936</v>
       </c>
@@ -2013,7 +2017,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>45838.789411620019</v>
       </c>
@@ -2027,7 +2031,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="11">
         <v>45838.874081081616</v>
       </c>
@@ -2038,9 +2042,9 @@
         <v>368</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="12">
-        <v>45838.89966267728</v>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="11">
+        <v>45838.899662677279</v>
       </c>
       <c r="B21" t="s">
         <v>8</v>
@@ -2049,9 +2053,9 @@
         <v>368</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>45838.89977957948</v>
+        <v>45838.899779579478</v>
       </c>
       <c r="B22" t="s">
         <v>10</v>
@@ -2063,7 +2067,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>45838.914431834106</v>
       </c>
@@ -2072,6 +2076,297 @@
       </c>
       <c r="C23" t="s">
         <v>368</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet101.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-6400-000000000000}">
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>45839.587447719248</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>45839.60822086587</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>45839.61438387246</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>45839.617061154648</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>45839.712590463583</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>45839.725512148318</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>45839.727555933161</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>45839.730246324907</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>45839.730251147477</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>45839.762335523439</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>45839.762340087247</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>45839.805317117993</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>45839.844297634932</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>45839.855431317083</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>45839.889242270307</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>45839.891735711652</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>45839.896902569417</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>45839.898224525117</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>45839.934313062935</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>45839.940831972657</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>45839.942591227504</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>45839.956670313855</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>45839.96916240955</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>45839.999384240939</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>372</v>
       </c>
     </row>
   </sheetData>
@@ -2080,13 +2375,16 @@
 </file>
 
 <file path=xl/worksheets/sheet102.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-6500-000000000000}">
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:B20"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2100,282 +2398,234 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2">
-        <v>45839.58744771925</v>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>45840.000243426221</v>
       </c>
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>45840.005543001862</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>45840.020375748638</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>45840.021854339881</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>45840.024025829494</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>45840.038873630539</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>45840.04139754748</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>45840.041535087359</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>45840.041539523496</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>45840.048424555171</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>45840.214972192131</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>373</v>
+      </c>
+      <c r="D12" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>45840.214983007427</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>45840.785078614419</v>
+      </c>
+      <c r="B14" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2">
-        <v>45839.60822086587</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2">
-        <v>45839.61438387246</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2">
-        <v>45839.61706115465</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2">
-        <v>45839.71259046358</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2">
-        <v>45839.72551214832</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2">
-        <v>45839.72755593316</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2">
-        <v>45839.73024632491</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2">
-        <v>45839.73025114748</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2">
-        <v>45839.76233552344</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2">
-        <v>45839.76234008725</v>
-      </c>
-      <c r="B12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2">
-        <v>45839.80531711799</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2">
-        <v>45839.84429763493</v>
-      </c>
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
       <c r="C14" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2">
-        <v>45839.85543131708</v>
+        <v>375</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>45840.789418700449</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2">
-        <v>45839.88924227031</v>
+        <v>375</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>45840.803306818983</v>
       </c>
       <c r="B16" t="s">
         <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2">
-        <v>45839.89173571165</v>
+        <v>375</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>45840.806141115238</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2">
-        <v>45839.89690256942</v>
+        <v>375</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>45840.822267657633</v>
       </c>
       <c r="B18" t="s">
         <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2">
-        <v>45839.89822452512</v>
+        <v>375</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>45840.87320592683</v>
       </c>
       <c r="B19" t="s">
         <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2">
-        <v>45839.934313062935</v>
+        <v>375</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>45840.960742186675</v>
       </c>
       <c r="B20" t="s">
         <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2">
-        <v>45839.94083197266</v>
-      </c>
-      <c r="B21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2">
-        <v>45839.942591227504</v>
-      </c>
-      <c r="B22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2">
-        <v>45839.956670313855</v>
-      </c>
-      <c r="B23" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2">
-        <v>45839.96916240955</v>
-      </c>
-      <c r="B24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2">
-        <v>45839.99938424094</v>
-      </c>
-      <c r="B25" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet103.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-6600-000000000000}">
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2389,244 +2639,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1">
-        <v>45840.00024342622</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1">
-        <v>45840.00554300186</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1">
-        <v>45840.02037574864</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1">
-        <v>45840.02185433988</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1">
-        <v>45840.024025829494</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1">
-        <v>45840.03887363054</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1">
-        <v>45840.04139754748</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1">
-        <v>45840.04153508736</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1">
-        <v>45840.041539523496</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1">
-        <v>45840.04842455517</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1">
-        <v>45840.21497219213</v>
-      </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" t="s">
-        <v>373</v>
-      </c>
-      <c r="D12" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1">
-        <v>45840.21498300743</v>
-      </c>
-      <c r="B13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1">
-        <v>45840.78507861442</v>
-      </c>
-      <c r="B14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1">
-        <v>45840.78941870045</v>
-      </c>
-      <c r="B15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1">
-        <v>45840.80330681898</v>
-      </c>
-      <c r="B16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1">
-        <v>45840.80614111524</v>
-      </c>
-      <c r="B17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1">
-        <v>45840.82226765763</v>
-      </c>
-      <c r="B18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1">
-        <v>45840.87320592683</v>
-      </c>
-      <c r="B19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1">
-        <v>45840.960742186675</v>
-      </c>
-      <c r="B20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" t="s">
-        <v>375</v>
-      </c>
-    </row>
-  </sheetData>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet104.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>45841.00065982205</v>
       </c>
@@ -2637,7 +2650,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>45841.004577060856</v>
       </c>
@@ -2648,7 +2661,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>45841.00571459865</v>
       </c>
@@ -2659,7 +2672,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>45841.012068188116</v>
       </c>
@@ -2670,9 +2683,9 @@
         <v>375</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>45841.04320611284</v>
+        <v>45841.043206112838</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -2681,9 +2694,9 @@
         <v>375</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>45841.04860869652</v>
+        <v>45841.048608696517</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
@@ -2692,18 +2705,19 @@
         <v>375</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>45841.08648617336</v>
+        <v>45841.086486173357</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>376</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/time_tracker.xlsx
+++ b/time_tracker.xlsx
@@ -2,10 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5C641A4-18A6-4A48-9367-1C66B6A50A32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr filterPrivacy="true"/>
   <bookViews>
-    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13667" firstSheet="98" activeTab="102" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13667" firstSheet="98" activeTab="102"/>
   </bookViews>
   <sheets>
     <sheet name="2025-03-23" sheetId="2" r:id="rId1"/>
@@ -130,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5310" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="379">
   <si>
     <t>Timestamp</t>
   </si>
@@ -1261,13 +1260,19 @@
   </si>
   <si>
     <t>241 minutes</t>
+  </si>
+  <si>
+    <t>10.2 minutes</t>
+  </si>
+  <si>
+    <t>10.4 minutes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1319,14 +1324,14 @@
     </fill>
     <fill>
       <patternFill patternType="none">
-        <fgColor auto="1"/>
-        <bgColor auto="1"/>
+        <fgColor auto="true"/>
+        <bgColor auto="true"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="none">
-        <fgColor auto="1"/>
-        <bgColor auto="1"/>
+        <fgColor auto="true"/>
+        <bgColor auto="true"/>
       </patternFill>
     </fill>
     <fill>
@@ -1337,8 +1342,8 @@
     </fill>
     <fill>
       <patternFill patternType="none">
-        <fgColor auto="1"/>
-        <bgColor auto="1"/>
+        <fgColor auto="true"/>
+        <bgColor auto="true"/>
       </patternFill>
     </fill>
   </fills>
@@ -1353,28 +1358,28 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="22" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="22" fontId="3" fillId="4" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="22" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="22" fontId="3" fillId="4" borderId="0" xfId="1" applyNumberFormat="true"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1"/>
-    <xf numFmtId="22" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="22" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="22" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="22" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true"/>
+    <xf numFmtId="22" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="22" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1387,7 +1392,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2619,13 +2624,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-6600-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="true" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.05"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2639,7 +2644,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>45841.00065982205</v>
       </c>
@@ -2650,7 +2655,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>45841.004577060856</v>
       </c>
@@ -2661,7 +2666,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>45841.00571459865</v>
       </c>
@@ -2672,7 +2677,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>45841.012068188116</v>
       </c>
@@ -2683,7 +2688,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>45841.043206112838</v>
       </c>
@@ -2694,7 +2699,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>45841.048608696517</v>
       </c>
@@ -2705,7 +2710,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>45841.086486173357</v>
       </c>
@@ -2714,6 +2719,89 @@
       </c>
       <c r="C8" t="s">
         <v>376</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>45841.103386854855</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>45841.10568971127</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>45841.11509653821</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>45841.11986864012</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>45841.12310116472</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>45841.130362159514</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>45841.130384143464</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>378</v>
       </c>
     </row>
   </sheetData>

--- a/time_tracker.xlsx
+++ b/time_tracker.xlsx
@@ -2,9 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
-  <workbookPr filterPrivacy="true"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11DCA967-5D77-4096-8FF1-FF515958F3CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13667" firstSheet="98" activeTab="102"/>
+    <workbookView xWindow="3508" yWindow="2383" windowWidth="18851" windowHeight="9765" firstSheet="99" activeTab="103" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2025-03-23" sheetId="2" r:id="rId1"/>
@@ -110,6 +111,7 @@
     <sheet name="2025-07-01" sheetId="102" r:id="rId101"/>
     <sheet name="2025-07-02" sheetId="103" r:id="rId102"/>
     <sheet name="2025-07-03" sheetId="104" r:id="rId103"/>
+    <sheet name="2025-07-04" sheetId="105" r:id="rId104"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -129,7 +131,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5366" uniqueCount="382">
   <si>
     <t>Timestamp</t>
   </si>
@@ -1266,13 +1268,22 @@
   </si>
   <si>
     <t>10.4 minutes</t>
+  </si>
+  <si>
+    <t>Lat/Long System refinement</t>
+  </si>
+  <si>
+    <t>BugFix: Unit not being removed from the server after despawn</t>
+  </si>
+  <si>
+    <t>323.4 minutes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1324,14 +1335,14 @@
     </fill>
     <fill>
       <patternFill patternType="none">
-        <fgColor auto="true"/>
-        <bgColor auto="true"/>
+        <fgColor auto="1"/>
+        <bgColor auto="1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="none">
-        <fgColor auto="true"/>
-        <bgColor auto="true"/>
+        <fgColor auto="1"/>
+        <bgColor auto="1"/>
       </patternFill>
     </fill>
     <fill>
@@ -1342,8 +1353,8 @@
     </fill>
     <fill>
       <patternFill patternType="none">
-        <fgColor auto="true"/>
-        <bgColor auto="true"/>
+        <fgColor auto="1"/>
+        <bgColor auto="1"/>
       </patternFill>
     </fill>
   </fills>
@@ -1358,28 +1369,28 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
-    <xf numFmtId="22" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="22" fontId="3" fillId="4" borderId="0" xfId="1" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="22" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="22" fontId="3" fillId="4" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1"/>
-    <xf numFmtId="22" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true"/>
-    <xf numFmtId="22" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="22" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true"/>
+    <xf numFmtId="22" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="22" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="22" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1392,7 +1403,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2622,15 +2633,15 @@
 
 <file path=xl/worksheets/sheet103.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-6600-000000000000}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2644,7 +2655,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>45841.00065982205</v>
       </c>
@@ -2655,7 +2666,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>45841.004577060856</v>
       </c>
@@ -2666,7 +2677,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>45841.00571459865</v>
       </c>
@@ -2677,7 +2688,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>45841.012068188116</v>
       </c>
@@ -2688,7 +2699,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>45841.043206112838</v>
       </c>
@@ -2699,7 +2710,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>45841.048608696517</v>
       </c>
@@ -2710,7 +2721,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>45841.086486173357</v>
       </c>
@@ -2721,7 +2732,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>45841.103386854855</v>
       </c>
@@ -2732,9 +2743,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>45841.10568971127</v>
+        <v>45841.105689711272</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
@@ -2743,9 +2754,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>45841.11509653821</v>
+        <v>45841.115096538211</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
@@ -2754,9 +2765,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>45841.11986864012</v>
+        <v>45841.119868640119</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
@@ -2768,9 +2779,9 @@
         <v>377</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>45841.12310116472</v>
+        <v>45841.123101164718</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
@@ -2779,7 +2790,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>45841.130362159514</v>
       </c>
@@ -2790,7 +2801,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>45841.130384143464</v>
       </c>
@@ -2802,6 +2813,233 @@
       </c>
       <c r="D15" t="s">
         <v>378</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>45841.75277777778</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>45841.765277777777</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>45841.765277777777</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>45841.772916666669</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>45841.821527777778</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>45841.881249999999</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>45841.885416666664</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>45841.90625</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>45841.90625</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>45841.913888888892</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>45841.915972222225</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>45841.936111111114</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>45841.951388888891</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>45841.989583333336</v>
+      </c>
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" t="s">
+        <v>380</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet104.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FB9263E-88AC-41FE-8F46-2A20B412102B}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>45842.00277777778</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>45842.060416666667</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>45842.060416666667</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>380</v>
+      </c>
+      <c r="D4" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>45842.060416666667</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>380</v>
       </c>
     </row>
   </sheetData>

--- a/time_tracker.xlsx
+++ b/time_tracker.xlsx
@@ -2,10 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF249DCE-2284-421C-B0D0-1500BA0DD315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr filterPrivacy="true"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="104" activeTab="116" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="104" activeTab="116"/>
   </bookViews>
   <sheets>
     <sheet name="2025-03-23" sheetId="2" r:id="rId1"/>
@@ -125,6 +124,7 @@
     <sheet name="2025-07-15" sheetId="116" r:id="rId115"/>
     <sheet name="2025-07-16" sheetId="117" r:id="rId116"/>
     <sheet name="2025-07-17" sheetId="118" r:id="rId117"/>
+    <sheet name="2025-07-18" sheetId="119" r:id="rId121"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -144,7 +144,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5373" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="385">
   <si>
     <t>Timestamp</t>
   </si>
@@ -1296,13 +1296,16 @@
   </si>
   <si>
     <t>4h for documenting and recovering lost time track</t>
+  </si>
+  <si>
+    <t>64.1 minutes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1354,14 +1357,14 @@
     </fill>
     <fill>
       <patternFill patternType="none">
-        <fgColor auto="1"/>
-        <bgColor auto="1"/>
+        <fgColor auto="true"/>
+        <bgColor auto="true"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="none">
-        <fgColor auto="1"/>
-        <bgColor auto="1"/>
+        <fgColor auto="true"/>
+        <bgColor auto="true"/>
       </patternFill>
     </fill>
     <fill>
@@ -1372,8 +1375,8 @@
     </fill>
     <fill>
       <patternFill patternType="none">
-        <fgColor auto="1"/>
-        <bgColor auto="1"/>
+        <fgColor auto="true"/>
+        <bgColor auto="true"/>
       </patternFill>
     </fill>
   </fills>
@@ -1388,28 +1391,28 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="22" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="22" fontId="3" fillId="4" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="22" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="22" fontId="3" fillId="4" borderId="0" xfId="1" applyNumberFormat="true"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1"/>
-    <xf numFmtId="22" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="22" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="22" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="22" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true"/>
+    <xf numFmtId="22" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="22" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1422,7 +1425,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3552,16 +3555,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21F85F80-8655-4196-AED7-D33A966439CC}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="true" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col bestFit="true" customWidth="true" max="1" min="1" width="14.85546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1">
         <v>45855.875787037039</v>
       </c>
@@ -3572,7 +3575,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="1">
         <v>45855.875827899756</v>
       </c>
@@ -3583,7 +3586,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="1">
         <v>45855.876030255102</v>
       </c>
@@ -3594,8 +3597,113 @@
         <v>319</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>45855.889357417575</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>45855.91333426338</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>45855.916782948414</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>45855.97207519008</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>45855.99984370912</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>319</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet119.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>45856.169510753076</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>45856.169543068216</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>319</v>
+      </c>
+    </row>
+  </sheetData>
 </worksheet>
 </file>
 

--- a/time_tracker.xlsx
+++ b/time_tracker.xlsx
@@ -125,6 +125,7 @@
     <sheet name="2025-07-16" sheetId="117" r:id="rId116"/>
     <sheet name="2025-07-17" sheetId="118" r:id="rId117"/>
     <sheet name="2025-07-18" sheetId="119" r:id="rId121"/>
+    <sheet name="2025-07-19" sheetId="120" r:id="rId122"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -144,7 +145,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="389">
   <si>
     <t>Timestamp</t>
   </si>
@@ -1299,6 +1300,18 @@
   </si>
   <si>
     <t>64.1 minutes</t>
+  </si>
+  <si>
+    <t>+ 10 mins for power outage</t>
+  </si>
+  <si>
+    <t>0.2 minutes</t>
+  </si>
+  <si>
+    <t>Documenting (5.20 daily done)</t>
+  </si>
+  <si>
+    <t>235.5 minutes</t>
   </si>
 </sst>
 </file>
@@ -3703,6 +3716,295 @@
         <v>319</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>45856.59527241104</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>45856.61793927133</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>45856.65569621915</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>45856.65700524744</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>45856.71427967952</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>45856.71438963817</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>319</v>
+      </c>
+      <c r="D9" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>45856.71449220228</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>45856.75185852385</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>45856.76236836061</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>45856.76917333839</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>45856.78280469957</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>45856.80741967387</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1">
+        <v>45856.81471712146</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1">
+        <v>45856.83013108846</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1">
+        <v>45856.850899413555</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1">
+        <v>45856.854697638344</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1">
+        <v>45856.86021577083</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1">
+        <v>45856.874500494785</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1">
+        <v>45856.89298930411</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1">
+        <v>45856.89781183446</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1">
+        <v>45856.90676669257</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1">
+        <v>45856.9103644932</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1">
+        <v>45856.92038012145</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1">
+        <v>45856.92451805549</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1">
+        <v>45856.95424276935</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1">
+        <v>45856.96043953058</v>
+      </c>
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" t="s">
+        <v>319</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
@@ -3946,6 +4248,78 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet120.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>45857.00261526478</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>45857.045449364276</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>45857.05441329472</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>387</v>
+      </c>
+      <c r="D4" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>45857.05444361672</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>387</v>
+      </c>
+    </row>
+  </sheetData>
 </worksheet>
 </file>
 

--- a/time_tracker.xlsx
+++ b/time_tracker.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr filterPrivacy="true"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="104" activeTab="116"/>
+    <workbookView xWindow="22545" yWindow="4005" windowWidth="28800" windowHeight="15345" firstSheet="106" activeTab="118"/>
   </bookViews>
   <sheets>
     <sheet name="2025-03-23" sheetId="2" r:id="rId1"/>
@@ -124,8 +124,10 @@
     <sheet name="2025-07-15" sheetId="116" r:id="rId115"/>
     <sheet name="2025-07-16" sheetId="117" r:id="rId116"/>
     <sheet name="2025-07-17" sheetId="118" r:id="rId117"/>
-    <sheet name="2025-07-18" sheetId="119" r:id="rId121"/>
-    <sheet name="2025-07-19" sheetId="120" r:id="rId122"/>
+    <sheet name="2025-07-18" sheetId="119" r:id="rId118"/>
+    <sheet name="2025-07-19" sheetId="120" r:id="rId119"/>
+    <sheet name="2025-07-20" sheetId="121" r:id="rId123"/>
+    <sheet name="2025-07-21" sheetId="122" r:id="rId124"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -145,7 +147,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="398">
   <si>
     <t>Timestamp</t>
   </si>
@@ -1312,6 +1314,33 @@
   </si>
   <si>
     <t>235.5 minutes</t>
+  </si>
+  <si>
+    <t>Installing docker + open-webUI + Ollama</t>
+  </si>
+  <si>
+    <t>8.8 minutes</t>
+  </si>
+  <si>
+    <t>Documenting + configuring ollama / webui</t>
+  </si>
+  <si>
+    <t>132.1 minutes</t>
+  </si>
+  <si>
+    <t>520 daily done</t>
+  </si>
+  <si>
+    <t>175.9 minutes</t>
+  </si>
+  <si>
+    <t>Writing Report</t>
+  </si>
+  <si>
+    <t>Trying to make Open-WebUI work</t>
+  </si>
+  <si>
+    <t>Installing Open-WebUI for AI management</t>
   </si>
 </sst>
 </file>
@@ -3566,18 +3595,18 @@
 
 <file path=xl/worksheets/sheet117.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21F85F80-8655-4196-AED7-D33A966439CC}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col bestFit="true" customWidth="true" max="1" min="1" width="14.85546875"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>45855.875787037039</v>
       </c>
@@ -3588,7 +3617,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>45855.875827899756</v>
       </c>
@@ -3599,7 +3628,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>45855.876030255102</v>
       </c>
@@ -3610,7 +3639,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>45855.889357417575</v>
       </c>
@@ -3621,7 +3650,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>45855.91333426338</v>
       </c>
@@ -3632,7 +3661,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>45855.916782948414</v>
       </c>
@@ -3643,9 +3672,9 @@
         <v>319</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>45855.97207519008</v>
+        <v>45855.972075190082</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
@@ -3654,7 +3683,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>45855.99984370912</v>
       </c>
@@ -3662,6 +3691,347 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
+        <v>319</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet118.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-7500-000000000000}">
+  <dimension ref="A1:D29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>45856.169510753076</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>45856.169543068216</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>45856.595272411039</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>45856.617939271331</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>45856.655696219153</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>45856.657005247442</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>45856.714279679523</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>45856.714389638168</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>319</v>
+      </c>
+      <c r="D9" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>45856.714492202278</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>45856.75185852385</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>45856.762368360607</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>45856.769173338391</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>45856.782804699571</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>45856.807419673867</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>45856.814717121459</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>45856.830131088464</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>45856.850899413555</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>45856.854697638344</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>45856.86021577083</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>45856.874500494785</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>45856.892989304113</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>45856.89781183446</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>45856.906766692569</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>45856.910364493197</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>45856.920380121453</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>45856.924518055494</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>45856.954242769352</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>45856.96043953058</v>
+      </c>
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" t="s">
         <v>319</v>
       </c>
     </row>
@@ -3671,13 +4041,16 @@
 </file>
 
 <file path=xl/worksheets/sheet119.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-7600-000000000000}">
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="true" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3691,67 +4064,67 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>45856.169510753076</v>
+        <v>45857.002615264777</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
         <v>319</v>
       </c>
-      <c r="D2" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="3">
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
-        <v>45856.169543068216</v>
+        <v>45857.045449364276</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
-        <v>45856.59527241104</v>
+        <v>45857.054413294718</v>
       </c>
       <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>387</v>
+      </c>
+      <c r="D4" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1">
+        <v>45857.054443616718</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1">
+        <v>45857.550054333384</v>
+      </c>
+      <c r="B6" t="s">
         <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1">
-        <v>45856.61793927133</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1">
-        <v>45856.65569621915</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
       </c>
       <c r="C6" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
-        <v>45856.65700524744</v>
+        <v>45857.587338868543</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -3760,252 +4133,190 @@
         <v>319</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
-        <v>45856.71427967952</v>
+        <v>45857.604245048991</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1">
-        <v>45856.71438963817</v>
+        <v>45857.647170960103</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
         <v>319</v>
       </c>
-      <c r="D9" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="10">
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1">
-        <v>45856.71449220228</v>
+        <v>45857.647178868465</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:4">
       <c r="A11" s="1">
-        <v>45856.75185852385</v>
+        <v>45857.656139521656</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1">
-        <v>45856.76236836061</v>
+        <v>45857.65614607733</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1">
-        <v>45856.76917333839</v>
+        <v>45857.659422118959</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1">
-        <v>45856.78280469957</v>
+        <v>45857.659435232366</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>389</v>
+      </c>
+      <c r="D14" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1">
-        <v>45856.80741967387</v>
+        <v>45857.659446232959</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1">
-        <v>45856.81471712146</v>
+        <v>45857.660080616326</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1">
-        <v>45856.83013108846</v>
+        <v>45857.666275254989</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>389</v>
+      </c>
+      <c r="D17" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1">
-        <v>45856.850899413555</v>
+        <v>45857.846231023985</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1">
-        <v>45856.854697638344</v>
+        <v>45857.87571867802</v>
       </c>
       <c r="B19" t="s">
         <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1">
-        <v>45856.86021577083</v>
+        <v>45857.875723501704</v>
       </c>
       <c r="B20" t="s">
         <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>319</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1">
-        <v>45856.874500494785</v>
+        <v>45857.92684560576</v>
       </c>
       <c r="B21" t="s">
         <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>319</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1">
-        <v>45856.89298930411</v>
+        <v>45857.92696134645</v>
       </c>
       <c r="B22" t="s">
         <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>319</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1">
-        <v>45856.89781183446</v>
+        <v>45857.92697195658</v>
       </c>
       <c r="B23" t="s">
         <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1">
-        <v>45856.90676669257</v>
-      </c>
-      <c r="B24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1">
-        <v>45856.9103644932</v>
-      </c>
-      <c r="B25" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1">
-        <v>45856.92038012145</v>
-      </c>
-      <c r="B26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1">
-        <v>45856.92451805549</v>
-      </c>
-      <c r="B27" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1">
-        <v>45856.95424276935</v>
-      </c>
-      <c r="B28" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1">
-        <v>45856.96043953058</v>
-      </c>
-      <c r="B29" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" t="s">
-        <v>319</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -4251,7 +4562,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet120.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet121.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
@@ -4274,49 +4585,297 @@
     </row>
     <row r="2">
       <c r="A2" s="1">
-        <v>45857.00261526478</v>
+        <v>45858.008314545805</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>319</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1">
-        <v>45857.045449364276</v>
+        <v>45858.02011663083</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>319</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1">
-        <v>45857.05441329472</v>
+        <v>45858.02334521425</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>387</v>
-      </c>
-      <c r="D4" t="s">
-        <v>388</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1">
-        <v>45857.05444361672</v>
+        <v>45858.053358525736</v>
       </c>
       <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>45858.05337608198</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>393</v>
+      </c>
+      <c r="D6" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>45858.053393180504</v>
+      </c>
+      <c r="B7" t="s">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
-        <v>387</v>
+      <c r="C7" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>45858.381581407004</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>45858.38167187767</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>45858.381678436774</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>45858.440176698285</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>45858.44692438297</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>45858.44694984075</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>45858.447200033865</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>45858.44906905747</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1">
+        <v>45858.831191631005</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1">
+        <v>45858.85279830209</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1">
+        <v>45858.85566308148</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1">
+        <v>45858.910489079746</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1">
+        <v>45858.91228480085</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1">
+        <v>45858.95869162804</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1">
+        <v>45858.962303715656</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>397</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet122.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>45859.014536914634</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>45859.01455061573</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>45859.01458990513</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>397</v>
       </c>
     </row>
   </sheetData>

--- a/time_tracker.xlsx
+++ b/time_tracker.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr filterPrivacy="true"/>
   <bookViews>
-    <workbookView xWindow="22545" yWindow="4005" windowWidth="28800" windowHeight="15345" firstSheet="106" activeTab="118"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="108" activeTab="120"/>
   </bookViews>
   <sheets>
     <sheet name="2025-03-23" sheetId="2" r:id="rId1"/>
@@ -126,8 +126,10 @@
     <sheet name="2025-07-17" sheetId="118" r:id="rId117"/>
     <sheet name="2025-07-18" sheetId="119" r:id="rId118"/>
     <sheet name="2025-07-19" sheetId="120" r:id="rId119"/>
-    <sheet name="2025-07-20" sheetId="121" r:id="rId123"/>
-    <sheet name="2025-07-21" sheetId="122" r:id="rId124"/>
+    <sheet name="2025-07-20" sheetId="121" r:id="rId120"/>
+    <sheet name="2025-07-21" sheetId="122" r:id="rId121"/>
+    <sheet name="2025-07-22" sheetId="123" r:id="rId125"/>
+    <sheet name="2025-07-23" sheetId="124" r:id="rId126"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -147,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="403">
   <si>
     <t>Timestamp</t>
   </si>
@@ -1341,6 +1343,21 @@
   </si>
   <si>
     <t>Installing Open-WebUI for AI management</t>
+  </si>
+  <si>
+    <t>Refining the Document</t>
+  </si>
+  <si>
+    <t>237 minutes</t>
+  </si>
+  <si>
+    <t>Document</t>
+  </si>
+  <si>
+    <t>doc</t>
+  </si>
+  <si>
+    <t>183.6 minutes</t>
   </si>
 </sst>
 </file>
@@ -4042,15 +4059,15 @@
 
 <file path=xl/worksheets/sheet119.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-7600-000000000000}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4064,7 +4081,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>45857.002615264777</v>
       </c>
@@ -4075,7 +4092,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>45857.045449364276</v>
       </c>
@@ -4086,7 +4103,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>45857.054413294718</v>
       </c>
@@ -4100,7 +4117,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>45857.054443616718</v>
       </c>
@@ -4111,7 +4128,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>45857.550054333384</v>
       </c>
@@ -4122,7 +4139,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>45857.587338868543</v>
       </c>
@@ -4133,7 +4150,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>45857.604245048991</v>
       </c>
@@ -4144,7 +4161,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>45857.647170960103</v>
       </c>
@@ -4155,7 +4172,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>45857.647178868465</v>
       </c>
@@ -4166,7 +4183,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>45857.656139521656</v>
       </c>
@@ -4177,7 +4194,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>45857.65614607733</v>
       </c>
@@ -4188,7 +4205,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>45857.659422118959</v>
       </c>
@@ -4199,7 +4216,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>45857.659435232366</v>
       </c>
@@ -4213,7 +4230,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>45857.659446232959</v>
       </c>
@@ -4224,7 +4241,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>45857.660080616326</v>
       </c>
@@ -4235,7 +4252,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>45857.666275254989</v>
       </c>
@@ -4249,7 +4266,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>45857.846231023985</v>
       </c>
@@ -4260,7 +4277,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>45857.87571867802</v>
       </c>
@@ -4271,7 +4288,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>45857.875723501704</v>
       </c>
@@ -4282,9 +4299,9 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>45857.92684560576</v>
+        <v>45857.926845605762</v>
       </c>
       <c r="B21" t="s">
         <v>8</v>
@@ -4293,9 +4310,9 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>45857.92696134645</v>
+        <v>45857.926961346449</v>
       </c>
       <c r="B22" t="s">
         <v>9</v>
@@ -4304,9 +4321,9 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>45857.92697195658</v>
+        <v>45857.926971956578</v>
       </c>
       <c r="B23" t="s">
         <v>8</v>
@@ -4562,7 +4579,523 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet120.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-7700-000000000000}">
+  <dimension ref="A1:D22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>45858.008314545805</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>45858.020116630832</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>45858.023345214249</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>45858.053358525736</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>45858.053376081982</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>393</v>
+      </c>
+      <c r="D6" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>45858.053393180504</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>45858.381581407004</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>45858.381671877672</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>45858.381678436774</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>45858.440176698285</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>45858.446924382974</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>45858.446949840749</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>45858.447200033865</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>45858.449069057468</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>45858.831191631005</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>45858.85279830209</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>45858.855663081478</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>45858.910489079746</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>45858.912284800848</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>45858.958691628039</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>45858.962303715656</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>397</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet121.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-7800-000000000000}">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView tabSelected="true" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
+        <v>45859.014536914634</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>45859.014550615728</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>45859.014589905128</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1">
+        <v>45859.5657576679</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1">
+        <v>45859.587606816662</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1">
+        <v>45859.592526351938</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1">
+        <v>45859.658171219264</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1">
+        <v>45859.658185495478</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1">
+        <v>45859.659671988309</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1">
+        <v>45859.859640514238</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1">
+        <v>45859.876770723502</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1">
+        <v>45859.876886271908</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1">
+        <v>45859.931224261112</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1">
+        <v>45859.931239693986</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1">
+        <v>45859.935012259833</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1">
+        <v>45859.935110263192</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1">
+        <v>45859.935131277743</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1">
+        <v>45859.943884171364</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" t="s">
+        <v>368</v>
+      </c>
+      <c r="D19" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1">
+        <v>45859.955804698424</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1">
+        <v>45859.95773602175</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>400</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet123.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
@@ -4585,243 +5118,163 @@
     </row>
     <row r="2">
       <c r="A2" s="1">
-        <v>45858.008314545805</v>
+        <v>45860.75255630003</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>401</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1">
-        <v>45858.02011663083</v>
+        <v>45860.75829472428</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>401</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1">
-        <v>45858.02334521425</v>
+        <v>45860.83274588836</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1">
-        <v>45858.053358525736</v>
+        <v>45860.840497563135</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>393</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1">
-        <v>45858.05337608198</v>
+        <v>45860.848708016245</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>393</v>
-      </c>
-      <c r="D6" t="s">
-        <v>394</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1">
-        <v>45858.053393180504</v>
+        <v>45860.86905948869</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>393</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1">
-        <v>45858.381581407004</v>
+        <v>45860.87706893566</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>395</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1">
-        <v>45858.38167187767</v>
+        <v>45860.90130523589</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>395</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1">
-        <v>45858.381678436774</v>
+        <v>45860.90887583623</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>395</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1">
-        <v>45858.440176698285</v>
+        <v>45860.913967850065</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>395</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1">
-        <v>45858.44692438297</v>
+        <v>45860.94000315083</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>395</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1">
-        <v>45858.44694984075</v>
+        <v>45860.97193293601</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>395</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1">
-        <v>45858.447200033865</v>
+        <v>45860.97551164184</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>396</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1">
-        <v>45858.44906905747</v>
+        <v>45860.97734188567</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1">
-        <v>45858.831191631005</v>
-      </c>
-      <c r="B16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1">
-        <v>45858.85279830209</v>
-      </c>
-      <c r="B17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1">
-        <v>45858.85566308148</v>
-      </c>
-      <c r="B18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1">
-        <v>45858.910489079746</v>
-      </c>
-      <c r="B19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1">
-        <v>45858.91228480085</v>
-      </c>
-      <c r="B20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1">
-        <v>45858.95869162804</v>
-      </c>
-      <c r="B21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1">
-        <v>45858.962303715656</v>
-      </c>
-      <c r="B22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" t="s">
-        <v>397</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet122.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet124.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
@@ -4844,38 +5297,115 @@
     </row>
     <row r="2">
       <c r="A2" s="1">
-        <v>45859.014536914634</v>
+        <v>45861.00898270379</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>397</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1">
-        <v>45859.01455061573</v>
+        <v>45861.03731236573</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>397</v>
-      </c>
-      <c r="D3" t="s">
-        <v>318</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1">
-        <v>45859.01458990513</v>
+        <v>45861.043494271435</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>397</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>45861.052115222694</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>45861.08304462004</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>45861.08992559757</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>45861.09306699616</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>45861.095464371756</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>45861.09791404048</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>45861.0979402603</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>402</v>
       </c>
     </row>
   </sheetData>

--- a/time_tracker.xlsx
+++ b/time_tracker.xlsx
@@ -130,6 +130,7 @@
     <sheet name="2025-07-21" sheetId="122" r:id="rId121"/>
     <sheet name="2025-07-22" sheetId="123" r:id="rId125"/>
     <sheet name="2025-07-23" sheetId="124" r:id="rId126"/>
+    <sheet name="2025-07-24" sheetId="125" r:id="rId127"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -149,7 +150,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="407">
   <si>
     <t>Timestamp</t>
   </si>
@@ -1358,6 +1359,18 @@
   </si>
   <si>
     <t>183.6 minutes</t>
+  </si>
+  <si>
+    <t>2.5h was done</t>
+  </si>
+  <si>
+    <t>Doc</t>
+  </si>
+  <si>
+    <t>133.4 minutes</t>
+  </si>
+  <si>
+    <t>68.5 minutes</t>
   </si>
 </sst>
 </file>
@@ -5408,6 +5421,301 @@
         <v>402</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>45861.649636822614</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>45861.70311328616</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>45861.70935422317</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>45861.86366064802</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1">
+        <v>45861.89363827371</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1">
+        <v>45861.94580513649</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1">
+        <v>45861.96425921597</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1">
+        <v>45861.9729631114</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1">
+        <v>45861.97494864706</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1">
+        <v>45861.997239553355</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>404</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet125.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>45862.034338303594</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>45862.03984486224</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>45862.045151384526</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>45862.045157749664</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>404</v>
+      </c>
+      <c r="D5" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>45862.04517822226</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>45862.63977510621</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>45862.65882699392</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>45862.66543309315</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>45862.67344447179</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>45862.68502356097</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>45862.70326082773</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>45862.77651623</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>45862.77889026047</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>45862.778914570015</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>406</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>

--- a/time_tracker.xlsx
+++ b/time_tracker.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr filterPrivacy="true"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="108" activeTab="120"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="113" activeTab="125"/>
   </bookViews>
   <sheets>
     <sheet name="2025-03-23" sheetId="2" r:id="rId1"/>
@@ -128,9 +128,11 @@
     <sheet name="2025-07-19" sheetId="120" r:id="rId119"/>
     <sheet name="2025-07-20" sheetId="121" r:id="rId120"/>
     <sheet name="2025-07-21" sheetId="122" r:id="rId121"/>
-    <sheet name="2025-07-22" sheetId="123" r:id="rId125"/>
-    <sheet name="2025-07-23" sheetId="124" r:id="rId126"/>
-    <sheet name="2025-07-24" sheetId="125" r:id="rId127"/>
+    <sheet name="2025-07-22" sheetId="123" r:id="rId122"/>
+    <sheet name="2025-07-23" sheetId="124" r:id="rId123"/>
+    <sheet name="2025-07-24" sheetId="125" r:id="rId124"/>
+    <sheet name="2025-07-25" sheetId="126" r:id="rId125"/>
+    <sheet name="2025-07-26" sheetId="127" r:id="rId126"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -150,7 +152,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="412">
   <si>
     <t>Timestamp</t>
   </si>
@@ -1370,7 +1372,22 @@
     <t>133.4 minutes</t>
   </si>
   <si>
-    <t>68.5 minutes</t>
+    <t>104 minutes</t>
+  </si>
+  <si>
+    <t>197.9 minutes</t>
+  </si>
+  <si>
+    <t>134.2 minutes</t>
+  </si>
+  <si>
+    <t>156.6 minutes</t>
+  </si>
+  <si>
+    <t>17.9 minutes</t>
+  </si>
+  <si>
+    <t>102.4 minutes</t>
   </si>
 </sst>
 </file>
@@ -4855,15 +4872,15 @@
 
 <file path=xl/worksheets/sheet121.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-7800-000000000000}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4877,7 +4894,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>45859.014536914634</v>
       </c>
@@ -4888,7 +4905,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>45859.014550615728</v>
       </c>
@@ -4902,7 +4919,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>45859.014589905128</v>
       </c>
@@ -4913,7 +4930,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>45859.5657576679</v>
       </c>
@@ -4924,7 +4941,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>45859.587606816662</v>
       </c>
@@ -4935,7 +4952,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>45859.592526351938</v>
       </c>
@@ -4946,7 +4963,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>45859.658171219264</v>
       </c>
@@ -4957,7 +4974,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>45859.658185495478</v>
       </c>
@@ -4968,7 +4985,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>45859.659671988309</v>
       </c>
@@ -4979,7 +4996,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>45859.859640514238</v>
       </c>
@@ -4990,7 +5007,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>45859.876770723502</v>
       </c>
@@ -5001,7 +5018,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>45859.876886271908</v>
       </c>
@@ -5012,7 +5029,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>45859.931224261112</v>
       </c>
@@ -5023,7 +5040,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>45859.931239693986</v>
       </c>
@@ -5034,7 +5051,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>45859.935012259833</v>
       </c>
@@ -5045,7 +5062,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>45859.935110263192</v>
       </c>
@@ -5056,7 +5073,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>45859.935131277743</v>
       </c>
@@ -5067,7 +5084,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>45859.943884171364</v>
       </c>
@@ -5081,7 +5098,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>45859.955804698424</v>
       </c>
@@ -5092,15 +5109,196 @@
         <v>400</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>45859.95773602175</v>
+        <v>45859.957736021752</v>
       </c>
       <c r="B21" t="s">
         <v>8</v>
       </c>
       <c r="C21" t="s">
         <v>400</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet122.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-7900-000000000000}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>45860.752556300031</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>45860.758294724277</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>45860.832745888358</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>45860.840497563135</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>45860.848708016245</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>45860.869059488687</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>45860.877068935661</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>45860.901305235893</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>45860.908875836227</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>45860.913967850065</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>45860.940003150827</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>45860.971932936009</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>45860.975511641838</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>45860.977341885671</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -5109,13 +5307,14 @@
 </file>
 
 <file path=xl/worksheets/sheet123.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-7A00-000000000000}">
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5129,53 +5328,53 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>45860.75255630003</v>
+        <v>45861.008982703788</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>45860.75829472428</v>
+        <v>45861.037312365726</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>45860.83274588836</v>
+        <v>45861.043494271435</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>45860.840497563135</v>
+        <v>45861.052115222694</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>45860.848708016245</v>
+        <v>45861.083044620042</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -5184,9 +5383,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>45860.86905948869</v>
+        <v>45861.089925597567</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
@@ -5195,9 +5394,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>45860.87706893566</v>
+        <v>45861.09306699616</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -5206,9 +5405,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>45860.90130523589</v>
+        <v>45861.095464371756</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
@@ -5217,9 +5416,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>45860.90887583623</v>
+        <v>45861.097914040482</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
@@ -5228,73 +5427,149 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>45860.913967850065</v>
+        <v>45861.097940260297</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="12">
+      <c r="D11" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>45860.94000315083</v>
+        <v>45861.649636822614</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>45860.97193293601</v>
+        <v>45861.703113286159</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>45860.97551164184</v>
+        <v>45861.709354223167</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>45860.97734188567</v>
+        <v>45861.863660648021</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>5</v>
+        <v>403</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>45861.893638273708</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>45861.945805136493</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>45861.964259215973</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>45861.972963111402</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>45861.974948647061</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>45861.997239553355</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>404</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet124.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-7B00-000000000000}">
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5308,75 +5583,78 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>45861.00898270379</v>
+        <v>45862.034338303594</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>45861.03731236573</v>
+        <v>45862.039844862244</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>45861.043494271435</v>
+        <v>45862.045151384526</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>45861.052115222694</v>
+        <v>45862.045157749664</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>404</v>
+      </c>
+      <c r="D5" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>45861.08304462004</v>
+        <v>45862.045178222259</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>45861.08992559757</v>
+        <v>45862.63977510621</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>45861.09306699616</v>
+        <v>45862.658826993917</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -5385,9 +5663,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>45861.095464371756</v>
+        <v>45862.665433093149</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
@@ -5396,9 +5674,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>45861.09791404048</v>
+        <v>45862.673444471788</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
@@ -5407,142 +5685,160 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>45861.0979402603</v>
+        <v>45862.685023560967</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
       </c>
-      <c r="D11" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="12">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>45861.649636822614</v>
+        <v>45862.70326082773</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>45861.70311328616</v>
+        <v>45862.776516229998</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>45861.70935422317</v>
+        <v>45862.80263888889</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>45861.86366064802</v>
+        <v>45862.80263888889</v>
       </c>
       <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>45862.819156383986</v>
+      </c>
+      <c r="B16" t="s">
         <v>6</v>
       </c>
-      <c r="C15" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1">
-        <v>45861.89363827371</v>
-      </c>
-      <c r="B16" t="s">
-        <v>8</v>
-      </c>
       <c r="C16" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>45861.94580513649</v>
+        <v>45862.825937250585</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>45861.96425921597</v>
+        <v>45862.832095430756</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>45861.9729631114</v>
+        <v>45862.851351024365</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>45861.97494864706</v>
+        <v>45862.868933969286</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>45861.997239553355</v>
+        <v>45862.898442651582</v>
       </c>
       <c r="B21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>404</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>45862.982242416801</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet125.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-7C00-000000000000}">
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:B26"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5556,81 +5852,391 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>45862.034338303594</v>
+        <v>45863.001906957295</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>45862.03984486224</v>
+        <v>45863.026361047574</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>45862.045151384526</v>
+        <v>45863.034455182766</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>45862.045157749664</v>
+        <v>45863.040936855141</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>404</v>
-      </c>
-      <c r="D5" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>45862.04517822226</v>
+        <v>45863.043729103811</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>45862.63977510621</v>
+        <v>45863.047691488537</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
     </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>45863.096872813287</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>45863.178893834352</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>45863.181293331472</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>45863.21104178753</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>45863.211059239693</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>45863.715756762911</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>45863.736057687172</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>45863.746861315107</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>45863.756375201527</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>45863.762618065412</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>45863.79808006539</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>45863.815990752642</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>45863.824827942233</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>45863.845899892534</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>45863.851162622072</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>45863.862285699804</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>45863.875115740739</v>
+      </c>
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>45863.974283280702</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>45863.987410404996</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet126.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-7D00-000000000000}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView tabSelected="true" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col bestFit="true" customWidth="true" max="1" min="1" width="13.85546875"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
+        <v>45864.000949179695</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>45864.020300062148</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>45864.039026721912</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1">
+        <v>45864.063947641422</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1">
+        <v>45864.070011574076</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1">
+        <v>45864.125254629631</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>409</v>
+      </c>
+    </row>
     <row r="8">
       <c r="A8" s="1">
-        <v>45862.65882699392</v>
+        <v>45864.478019895614</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -5638,10 +6244,10 @@
     </row>
     <row r="9">
       <c r="A9" s="1">
-        <v>45862.66543309315</v>
+        <v>45864.48511249133</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -5649,10 +6255,10 @@
     </row>
     <row r="10">
       <c r="A10" s="1">
-        <v>45862.67344447179</v>
+        <v>45864.487328926596</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -5660,10 +6266,10 @@
     </row>
     <row r="11">
       <c r="A11" s="1">
-        <v>45862.68502356097</v>
+        <v>45864.49270585395</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -5671,21 +6277,24 @@
     </row>
     <row r="12">
       <c r="A12" s="1">
-        <v>45862.70326082773</v>
+        <v>45864.5172490644</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
       </c>
+      <c r="D12" t="s">
+        <v>410</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1">
-        <v>45862.77651623</v>
+        <v>45864.605935121406</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -5693,7 +6302,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1">
-        <v>45862.77889026047</v>
+        <v>45864.63584947285</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
@@ -5704,19 +6313,86 @@
     </row>
     <row r="15">
       <c r="A15" s="1">
-        <v>45862.778914570015</v>
+        <v>45864.654232379995</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
       </c>
-      <c r="D15" t="s">
-        <v>406</v>
+    </row>
+    <row r="16">
+      <c r="A16" s="1">
+        <v>45864.663411395704</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1">
+        <v>45864.66830047543</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1">
+        <v>45864.684071115946</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1">
+        <v>45864.68784252236</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1">
+        <v>45864.70423218337</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1">
+        <v>45864.70425764521</v>
+      </c>
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
+        <v>411</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/time_tracker.xlsx
+++ b/time_tracker.xlsx
@@ -133,6 +133,7 @@
     <sheet name="2025-07-24" sheetId="125" r:id="rId124"/>
     <sheet name="2025-07-25" sheetId="126" r:id="rId125"/>
     <sheet name="2025-07-26" sheetId="127" r:id="rId126"/>
+    <sheet name="2025-07-27" sheetId="128" r:id="rId130"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -152,7 +153,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="414">
   <si>
     <t>Timestamp</t>
   </si>
@@ -1388,6 +1389,12 @@
   </si>
   <si>
     <t>102.4 minutes</t>
+  </si>
+  <si>
+    <t>27 mins was during outage</t>
+  </si>
+  <si>
+    <t>+40 for double time work</t>
   </si>
 </sst>
 </file>
@@ -6391,8 +6398,267 @@
         <v>411</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" s="1">
+        <v>45864.82670090126</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1">
+        <v>45864.831216522485</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1">
+        <v>45864.84386621252</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1">
+        <v>45864.84965093586</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1">
+        <v>45864.85742176902</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1">
+        <v>45864.900473851914</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1">
+        <v>45864.90050934831</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1">
+        <v>45864.900524778684</v>
+      </c>
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1">
+        <v>45864.91166424132</v>
+      </c>
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1">
+        <v>45864.92245302159</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1">
+        <v>45864.93362315725</v>
+      </c>
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1">
+        <v>45864.93595243684</v>
+      </c>
+      <c r="B33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1">
+        <v>45864.96548214187</v>
+      </c>
+      <c r="B34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1">
+        <v>45864.97465517539</v>
+      </c>
+      <c r="B35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1">
+        <v>45864.97722944067</v>
+      </c>
+      <c r="B36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1">
+        <v>45864.98696247009</v>
+      </c>
+      <c r="B37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1">
+        <v>45864.992934305</v>
+      </c>
+      <c r="B38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet128.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>45865.07082762681</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>45865.07878460687</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>45865.091959953905</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>45865.092227900815</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+  </sheetData>
 </worksheet>
 </file>
 

--- a/time_tracker.xlsx
+++ b/time_tracker.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr filterPrivacy="true"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="113" activeTab="125"/>
+    <workbookView xWindow="1695" yWindow="2160" windowWidth="33345" windowHeight="18315" firstSheet="118" activeTab="128"/>
   </bookViews>
   <sheets>
     <sheet name="2025-03-23" sheetId="2" r:id="rId1"/>
@@ -133,7 +133,10 @@
     <sheet name="2025-07-24" sheetId="125" r:id="rId124"/>
     <sheet name="2025-07-25" sheetId="126" r:id="rId125"/>
     <sheet name="2025-07-26" sheetId="127" r:id="rId126"/>
-    <sheet name="2025-07-27" sheetId="128" r:id="rId130"/>
+    <sheet name="2025-07-27" sheetId="128" r:id="rId127"/>
+    <sheet name="2025-07-28" sheetId="129" r:id="rId128"/>
+    <sheet name="2025-07-29" sheetId="130" r:id="rId129"/>
+    <sheet name="2025-07-30" sheetId="131" r:id="rId133"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -153,7 +156,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5983" uniqueCount="419">
   <si>
     <t>Timestamp</t>
   </si>
@@ -1395,6 +1398,21 @@
   </si>
   <si>
     <t>+40 for double time work</t>
+  </si>
+  <si>
+    <t>249.0 minutes</t>
+  </si>
+  <si>
+    <t>59.5 minutes</t>
+  </si>
+  <si>
+    <t>+30</t>
+  </si>
+  <si>
+    <t>229.6 minutes</t>
+  </si>
+  <si>
+    <t>212.0 minutes</t>
   </si>
 </sst>
 </file>
@@ -6147,18 +6165,18 @@
 
 <file path=xl/worksheets/sheet126.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-7D00-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col bestFit="true" customWidth="true" max="1" min="1" width="13.85546875"/>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6172,7 +6190,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>45864.000949179695</v>
       </c>
@@ -6183,7 +6201,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>45864.020300062148</v>
       </c>
@@ -6194,7 +6212,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>45864.039026721912</v>
       </c>
@@ -6205,7 +6223,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>45864.063947641422</v>
       </c>
@@ -6216,7 +6234,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>45864.070011574076</v>
       </c>
@@ -6227,7 +6245,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>45864.125254629631</v>
       </c>
@@ -6238,7 +6256,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>45864.478019895614</v>
       </c>
@@ -6249,9 +6267,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>45864.48511249133</v>
+        <v>45864.485112491333</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
@@ -6260,7 +6278,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>45864.487328926596</v>
       </c>
@@ -6271,9 +6289,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>45864.49270585395</v>
+        <v>45864.492705853947</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
@@ -6282,9 +6300,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>45864.5172490644</v>
+        <v>45864.517249064404</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
@@ -6296,7 +6314,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>45864.605935121406</v>
       </c>
@@ -6307,9 +6325,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>45864.63584947285</v>
+        <v>45864.635849472848</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
@@ -6318,7 +6336,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>45864.654232379995</v>
       </c>
@@ -6329,7 +6347,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>45864.663411395704</v>
       </c>
@@ -6340,7 +6358,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>45864.66830047543</v>
       </c>
@@ -6351,7 +6369,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>45864.684071115946</v>
       </c>
@@ -6362,9 +6380,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>45864.68784252236</v>
+        <v>45864.687842522362</v>
       </c>
       <c r="B19" t="s">
         <v>9</v>
@@ -6373,9 +6391,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>45864.70423218337</v>
+        <v>45864.704232183372</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
@@ -6384,9 +6402,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>45864.70425764521</v>
+        <v>45864.704257645208</v>
       </c>
       <c r="B21" t="s">
         <v>10</v>
@@ -6398,9 +6416,9 @@
         <v>411</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>45864.82670090126</v>
+        <v>45864.826700901263</v>
       </c>
       <c r="B22" t="s">
         <v>6</v>
@@ -6409,7 +6427,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>45864.831216522485</v>
       </c>
@@ -6420,9 +6438,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>45864.84386621252</v>
+        <v>45864.843866212519</v>
       </c>
       <c r="B24" t="s">
         <v>9</v>
@@ -6431,9 +6449,9 @@
         <v>412</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>45864.84965093586</v>
+        <v>45864.849650935859</v>
       </c>
       <c r="B25" t="s">
         <v>8</v>
@@ -6442,9 +6460,9 @@
         <v>412</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>45864.85742176902</v>
+        <v>45864.857421769018</v>
       </c>
       <c r="B26" t="s">
         <v>9</v>
@@ -6453,7 +6471,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>45864.900473851914</v>
       </c>
@@ -6464,9 +6482,9 @@
         <v>413</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>45864.90050934831</v>
+        <v>45864.900509348307</v>
       </c>
       <c r="B28" t="s">
         <v>9</v>
@@ -6475,7 +6493,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>45864.900524778684</v>
       </c>
@@ -6486,9 +6504,9 @@
         <v>413</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>45864.91166424132</v>
+        <v>45864.911664241321</v>
       </c>
       <c r="B30" t="s">
         <v>9</v>
@@ -6497,9 +6515,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>45864.92245302159</v>
+        <v>45864.922453021587</v>
       </c>
       <c r="B31" t="s">
         <v>8</v>
@@ -6508,9 +6526,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>45864.93362315725</v>
+        <v>45864.933623157252</v>
       </c>
       <c r="B32" t="s">
         <v>9</v>
@@ -6519,9 +6537,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>45864.93595243684</v>
+        <v>45864.935952436841</v>
       </c>
       <c r="B33" t="s">
         <v>8</v>
@@ -6530,9 +6548,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>45864.96548214187</v>
+        <v>45864.965482141874</v>
       </c>
       <c r="B34" t="s">
         <v>9</v>
@@ -6541,9 +6559,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>45864.97465517539</v>
+        <v>45864.974655175392</v>
       </c>
       <c r="B35" t="s">
         <v>8</v>
@@ -6552,9 +6570,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>45864.97722944067</v>
+        <v>45864.977229440672</v>
       </c>
       <c r="B36" t="s">
         <v>9</v>
@@ -6563,9 +6581,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>45864.98696247009</v>
+        <v>45864.986962470088</v>
       </c>
       <c r="B37" t="s">
         <v>8</v>
@@ -6574,14 +6592,187 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>45864.992934305</v>
+        <v>45864.992934305003</v>
       </c>
       <c r="B38" t="s">
         <v>9</v>
       </c>
       <c r="C38" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet127.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-7E00-000000000000}">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>45865.070827626812</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>45865.078784606871</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>45865.091959953905</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>45865.092227900815</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>45865.832552981279</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>45865.848488741329</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>45865.851949393502</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>45865.852898848221</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>45865.882082878255</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>45865.897331909597</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>45865.908822083082</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>45865.961630326696</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>45865.974979670187</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6591,13 +6782,14 @@
 </file>
 
 <file path=xl/worksheets/sheet128.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-7F00-000000000000}">
+  <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6611,9 +6803,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>45865.07082762681</v>
+        <v>45866.007809529176</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -6622,9 +6814,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>45865.07878460687</v>
+        <v>45866.019516706554</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -6633,9 +6825,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>45865.091959953905</v>
+        <v>45866.402544493365</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -6644,21 +6836,566 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>45865.092227900815</v>
+        <v>45866.402643621426</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>171</v>
+        <v>414</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>45866.440475130257</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>45866.44128646965</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>45866.447827173281</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>45866.451279527952</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>45866.4529309563</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>45866.453485161204</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>45866.454058267795</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>45866.45929148783</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>45866.471494805221</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>45866.47553030173</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>45866.47803068527</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>45866.505358611284</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>45866.527512160494</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>45866.71326112817</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>45866.714856609513</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>45866.723519614898</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>45866.740400208109</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>45866.751347927595</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>45866.754504567776</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>45866.760794495553</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>45866.796172197362</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>45866.807697853917</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>45866.81660159296</v>
+      </c>
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>45866.823720418266</v>
+      </c>
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>45866.825145189883</v>
+      </c>
+      <c r="B30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>45866.881206156017</v>
+      </c>
+      <c r="B31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>45866.917319182146</v>
+      </c>
+      <c r="B32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>45866.917325159651</v>
+      </c>
+      <c r="B33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>45866.917370689407</v>
+      </c>
+      <c r="B34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>45866.917375701189</v>
+      </c>
+      <c r="B35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>45866.960457102119</v>
+      </c>
+      <c r="B36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>45866.965195146535</v>
+      </c>
+      <c r="B37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>45866.972427973284</v>
+      </c>
+      <c r="B38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet129.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-8000-000000000000}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView tabSelected="true" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
+        <v>45867.130369712577</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>45867.136349262</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>45867.136851387819</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1">
+        <v>45867.756556420347</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1">
+        <v>45867.789247009809</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1">
+        <v>45867.809663481268</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1">
+        <v>45867.924066268417</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1">
+        <v>45867.924084001796</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>45867.925240638695</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>45867.93667331612</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>45867.96995823767</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>45867.97227613601</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>45867.98118121803</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -6736,6 +7473,53 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet131.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>45868.00437605293</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>45868.00608959269</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
 </worksheet>
 </file>
 

--- a/time_tracker.xlsx
+++ b/time_tracker.xlsx
@@ -137,6 +137,8 @@
     <sheet name="2025-07-28" sheetId="129" r:id="rId128"/>
     <sheet name="2025-07-29" sheetId="130" r:id="rId129"/>
     <sheet name="2025-07-30" sheetId="131" r:id="rId133"/>
+    <sheet name="2025-07-31" sheetId="132" r:id="rId134"/>
+    <sheet name="2025-08-01" sheetId="133" r:id="rId135"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -156,7 +158,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5983" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="423">
   <si>
     <t>Timestamp</t>
   </si>
@@ -1413,6 +1415,18 @@
   </si>
   <si>
     <t>212.0 minutes</t>
+  </si>
+  <si>
+    <t>87.0 minutes</t>
+  </si>
+  <si>
+    <t>1h in power outage</t>
+  </si>
+  <si>
+    <t>56.2 minutes</t>
+  </si>
+  <si>
+    <t>98.5 minutes</t>
   </si>
 </sst>
 </file>
@@ -7519,6 +7533,486 @@
         <v>5</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>45868.029680444524</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>45868.029724235406</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>45868.029736617544</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>45868.68412563404</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>45868.693276289894</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>45868.69773115022</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>45868.79586219194</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>45868.79587357461</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>45868.83697349416</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>45868.84091909465</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>45868.96975878833</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>45868.97937125051</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet132.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>45869.13904485325</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>45869.16853983468</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>45869.17225669279</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>45869.17226873584</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>45869.69388996403</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>45869.706829199466</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>45869.706949185886</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>45869.73825937056</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>45869.75094358776</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>45869.7627205929</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>45869.7659765712</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>45869.766377614586</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>45869.7733095217</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>45869.77816754664</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1">
+        <v>45869.77818606052</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1">
+        <v>45869.78544918315</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1">
+        <v>45869.85706285266</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1">
+        <v>45869.924536419545</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1">
+        <v>45869.94812862535</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1">
+        <v>45869.94921022741</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1">
+        <v>45869.9492358783</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1">
+        <v>45869.96214444255</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1">
+        <v>45869.965250347675</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet133.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2">
+        <v>45870.00046639558</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2">
+        <v>45870.00047681589</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2">
+        <v>45870.00048553194</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>

--- a/time_tracker.xlsx
+++ b/time_tracker.xlsx
@@ -139,6 +139,7 @@
     <sheet name="2025-07-30" sheetId="131" r:id="rId133"/>
     <sheet name="2025-07-31" sheetId="132" r:id="rId134"/>
     <sheet name="2025-08-01" sheetId="133" r:id="rId135"/>
+    <sheet name="2025-08-02" sheetId="134" r:id="rId136"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -158,7 +159,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="425">
   <si>
     <t>Timestamp</t>
   </si>
@@ -1427,6 +1428,12 @@
   </si>
   <si>
     <t>98.5 minutes</t>
+  </si>
+  <si>
+    <t>addinc pics to doc and editing it's text</t>
+  </si>
+  <si>
+    <t>255.0 minutes</t>
   </si>
 </sst>
 </file>
@@ -8013,6 +8020,276 @@
         <v>5</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" s="2">
+        <v>45870.49615049116</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2">
+        <v>45870.54378725807</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2">
+        <v>45870.76247655523</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2">
+        <v>45870.76684519009</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2">
+        <v>45870.76972732651</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2">
+        <v>45870.80655602733</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2">
+        <v>45870.8624362313</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2">
+        <v>45870.87574236774</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2">
+        <v>45870.885479635006</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2">
+        <v>45870.89574641992</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2">
+        <v>45870.90782164673</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2">
+        <v>45870.957443173706</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet134.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>45871.00721111396</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>45871.04716596922</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>45871.18006874253</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>45871.18009709936</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>45871.184366588815</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>45871.194512606264</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>45871.19746920588</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>45871.21039320151</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>45871.21040632958</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>45871.21041722164</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>

--- a/time_tracker.xlsx
+++ b/time_tracker.xlsx
@@ -2,9 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
-  <workbookPr filterPrivacy="true"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0428621-7B5C-4957-AB02-E0FD57D3919C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1695" yWindow="2160" windowWidth="33345" windowHeight="18315" firstSheet="118" activeTab="128"/>
+    <workbookView xWindow="1695" yWindow="2160" windowWidth="33345" windowHeight="18315" firstSheet="124" activeTab="134" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2025-03-23" sheetId="2" r:id="rId1"/>
@@ -136,10 +137,12 @@
     <sheet name="2025-07-27" sheetId="128" r:id="rId127"/>
     <sheet name="2025-07-28" sheetId="129" r:id="rId128"/>
     <sheet name="2025-07-29" sheetId="130" r:id="rId129"/>
-    <sheet name="2025-07-30" sheetId="131" r:id="rId133"/>
-    <sheet name="2025-07-31" sheetId="132" r:id="rId134"/>
-    <sheet name="2025-08-01" sheetId="133" r:id="rId135"/>
-    <sheet name="2025-08-02" sheetId="134" r:id="rId136"/>
+    <sheet name="2025-07-30" sheetId="131" r:id="rId130"/>
+    <sheet name="2025-07-31" sheetId="132" r:id="rId131"/>
+    <sheet name="2025-08-01" sheetId="133" r:id="rId132"/>
+    <sheet name="2025-08-02" sheetId="134" r:id="rId133"/>
+    <sheet name="2025-08-03" sheetId="135" r:id="rId134"/>
+    <sheet name="2025-08-04" sheetId="136" r:id="rId135"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -159,7 +162,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6254" uniqueCount="433">
   <si>
     <t>Timestamp</t>
   </si>
@@ -1434,13 +1437,37 @@
   </si>
   <si>
     <t>255.0 minutes</t>
+  </si>
+  <si>
+    <t>making the report more readable</t>
+  </si>
+  <si>
+    <t>meeting with semantic map</t>
+  </si>
+  <si>
+    <t>50 minutes of double work</t>
+  </si>
+  <si>
+    <t>Making the doc more readable</t>
+  </si>
+  <si>
+    <t>229.0 minutes</t>
+  </si>
+  <si>
+    <t>Debugging</t>
+  </si>
+  <si>
+    <t>Unit UI not facing player fixed</t>
+  </si>
+  <si>
+    <t>310.2 minutes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1492,14 +1519,14 @@
     </fill>
     <fill>
       <patternFill patternType="none">
-        <fgColor auto="true"/>
-        <bgColor auto="true"/>
+        <fgColor auto="1"/>
+        <bgColor auto="1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="none">
-        <fgColor auto="true"/>
-        <bgColor auto="true"/>
+        <fgColor auto="1"/>
+        <bgColor auto="1"/>
       </patternFill>
     </fill>
     <fill>
@@ -1510,8 +1537,8 @@
     </fill>
     <fill>
       <patternFill patternType="none">
-        <fgColor auto="true"/>
-        <bgColor auto="true"/>
+        <fgColor auto="1"/>
+        <bgColor auto="1"/>
       </patternFill>
     </fill>
   </fills>
@@ -1526,28 +1553,28 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
-    <xf numFmtId="22" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="22" fontId="3" fillId="4" borderId="0" xfId="1" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="22" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="22" fontId="3" fillId="4" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1"/>
-    <xf numFmtId="22" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true"/>
-    <xf numFmtId="22" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="22" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true"/>
+    <xf numFmtId="22" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="22" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="22" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1560,7 +1587,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -7244,15 +7271,15 @@
 
 <file path=xl/worksheets/sheet129.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-8000-000000000000}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7266,7 +7293,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>45867.130369712577</v>
       </c>
@@ -7277,7 +7304,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>45867.136349262</v>
       </c>
@@ -7288,7 +7315,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>45867.136851387819</v>
       </c>
@@ -7302,7 +7329,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>45867.756556420347</v>
       </c>
@@ -7313,7 +7340,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>45867.789247009809</v>
       </c>
@@ -7324,7 +7351,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>45867.809663481268</v>
       </c>
@@ -7335,7 +7362,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>45867.924066268417</v>
       </c>
@@ -7346,7 +7373,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>45867.924084001796</v>
       </c>
@@ -7360,7 +7387,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>45867.925240638695</v>
       </c>
@@ -7371,9 +7398,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>45867.93667331612</v>
+        <v>45867.936673316122</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
@@ -7382,9 +7409,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>45867.96995823767</v>
+        <v>45867.969958237671</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
@@ -7393,7 +7420,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>45867.97227613601</v>
       </c>
@@ -7404,9 +7431,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>45867.98118121803</v>
+        <v>45867.981181218027</v>
       </c>
       <c r="B14" t="s">
         <v>9</v>
@@ -7497,14 +7524,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet131.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<file path=xl/worksheets/sheet130.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-8100-000000000000}">
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7518,7 +7546,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>45868.00437605293</v>
       </c>
@@ -7529,9 +7557,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>45868.00608959269</v>
+        <v>45868.006089592687</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -7540,7 +7568,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>45868.029680444524</v>
       </c>
@@ -7551,7 +7579,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>45868.029724235406</v>
       </c>
@@ -7565,7 +7593,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>45868.029736617544</v>
       </c>
@@ -7576,9 +7604,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>45868.68412563404</v>
+        <v>45868.684125634041</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -7587,7 +7615,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>45868.693276289894</v>
       </c>
@@ -7598,7 +7626,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>45868.69773115022</v>
       </c>
@@ -7609,9 +7637,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>45868.79586219194</v>
+        <v>45868.795862191939</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
@@ -7620,9 +7648,9 @@
         <v>420</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>45868.79587357461</v>
+        <v>45868.795873574607</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
@@ -7631,9 +7659,9 @@
         <v>420</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>45868.83697349416</v>
+        <v>45868.836973494159</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
@@ -7642,9 +7670,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>45868.84091909465</v>
+        <v>45868.840919094648</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
@@ -7653,9 +7681,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>45868.96975878833</v>
+        <v>45868.969758788327</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
@@ -7664,9 +7692,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>45868.97937125051</v>
+        <v>45868.979371250512</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
@@ -7676,17 +7704,305 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet131.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-8200-000000000000}">
+  <dimension ref="A1:D24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>45869.139044853247</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>45869.168539834682</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>45869.172256692793</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>45869.172268735841</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>45869.69388996403</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>45869.706829199466</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>45869.706949185886</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>45869.738259370562</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>45869.750943587758</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>45869.762720592902</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>45869.765976571201</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>45869.766377614586</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>45869.773309521697</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>45869.778167546639</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>45869.778186060517</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>45869.785449183153</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>45869.857062852658</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>45869.924536419545</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>45869.94812862535</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>45869.949210227409</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>45869.949235878303</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>45869.96214444255</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>45869.965250347675</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet132.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-8300-000000000000}">
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7700,277 +8016,188 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1">
-        <v>45869.13904485325</v>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>45870.000466395577</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1">
-        <v>45869.16853983468</v>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>45870.000476815891</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1">
-        <v>45869.17225669279</v>
+      <c r="D3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>45870.000485531942</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1">
-        <v>45869.17226873584</v>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>45870.496150491163</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1">
-        <v>45869.69388996403</v>
+        <v>423</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>45870.543787258073</v>
       </c>
       <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>45870.762476555232</v>
+      </c>
+      <c r="B7" t="s">
         <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1">
-        <v>45869.706829199466</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1">
-        <v>45869.706949185886</v>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>45870.76684519009</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1">
-        <v>45869.73825937056</v>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>45870.769727326508</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1">
-        <v>45869.75094358776</v>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>45870.806556027332</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1">
-        <v>45869.7627205929</v>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>45870.862436231298</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1">
-        <v>45869.7659765712</v>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>45870.875742367738</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1">
-        <v>45869.766377614586</v>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>45870.885479635006</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1">
-        <v>45869.7733095217</v>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>45870.895746419919</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1">
-        <v>45869.77816754664</v>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>45870.907821646731</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1">
-        <v>45869.77818606052</v>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>45870.957443173706</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1">
-        <v>45869.78544918315</v>
-      </c>
-      <c r="B17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1">
-        <v>45869.85706285266</v>
-      </c>
-      <c r="B18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1">
-        <v>45869.924536419545</v>
-      </c>
-      <c r="B19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1">
-        <v>45869.94812862535</v>
-      </c>
-      <c r="B20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1">
-        <v>45869.94921022741</v>
-      </c>
-      <c r="B21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1">
-        <v>45869.9492358783</v>
-      </c>
-      <c r="B22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1">
-        <v>45869.96214444255</v>
-      </c>
-      <c r="B23" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1">
-        <v>45869.965250347675</v>
-      </c>
-      <c r="B24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" t="s">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet133.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-8400-000000000000}">
+  <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7984,186 +8211,446 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2">
-        <v>45870.00046639558</v>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>45871.00721111396</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="2">
-        <v>45870.00047681589</v>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>45871.047165969219</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2">
-        <v>45870.00048553194</v>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>45871.180068742528</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="2">
-        <v>45870.49615049116</v>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>45871.180097099357</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2">
-        <v>45870.54378725807</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>45871.184366588815</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2">
-        <v>45870.76247655523</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>45871.194512606264</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="2">
-        <v>45870.76684519009</v>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>45871.197469205879</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="2">
-        <v>45870.76972732651</v>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>45871.210393201509</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="2">
-        <v>45870.80655602733</v>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>45871.210406329577</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2">
-        <v>45870.8624362313</v>
+      <c r="D10" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>45871.210417221642</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="2">
-        <v>45870.87574236774</v>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>45871.581801670873</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2">
-        <v>45870.885479635006</v>
+        <v>425</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>45871.583196738509</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2">
-        <v>45870.89574641992</v>
+        <v>425</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>45871.614537205598</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2">
-        <v>45870.90782164673</v>
+        <v>425</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>45871.621437279122</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2">
-        <v>45870.957443173706</v>
+        <v>425</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>45871.74678720138</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>5</v>
+        <v>425</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>45871.753503632164</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>45871.773654674937</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>45871.781986464717</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>45871.784291636126</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>45871.804596801849</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>45871.81026964257</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>45871.829855865639</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>45871.837322884152</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>45871.85296639712</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>45871.86901770789</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>45871.88329240289</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>45871.883400425642</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>45871.91011280808</v>
+      </c>
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>45871.910345840843</v>
+      </c>
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>45871.910450000294</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>45871.914313427005</v>
+      </c>
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>45871.921326739386</v>
+      </c>
+      <c r="B33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>45871.921449618058</v>
+      </c>
+      <c r="B34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>45871.930368207264</v>
+      </c>
+      <c r="B35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>45871.970906210678</v>
+      </c>
+      <c r="B36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>45871.973528315619</v>
+      </c>
+      <c r="B37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>45871.980322495809</v>
+      </c>
+      <c r="B38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>45871.988419520138</v>
+      </c>
+      <c r="B39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" t="s">
+        <v>428</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet134.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-8500-000000000000}">
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:B17"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8177,97 +8664,305 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>45871.00721111396</v>
+        <v>45872.083947486448</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>45872.096725069983</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>45872.097298952474</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>428</v>
+      </c>
+      <c r="D4" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>45872.712036226534</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>45872.75501480839</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>45872.761808983458</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>45872.777048949014</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>45872.807715040784</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>45872.838617623507</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>45872.858777538146</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>45872.876091391154</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>45872.910132277539</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>45872.923286985584</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>45872.958368055559</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>45872.989524316989</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>45872.999299009316</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>430</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet135.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-8600-000000000000}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>45873.008196964045</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>45871.04716596922</v>
+        <v>45873.015036086901</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>45871.18006874253</v>
+        <v>45873.029726862595</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>45871.18009709936</v>
+        <v>45873.050299780196</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>45871.184366588815</v>
+        <v>45873.068435578534</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>45871.194512606264</v>
+        <v>45873.068449467377</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>45871.19746920588</v>
+        <v>45873.079761586792</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>45871.21039320151</v>
+        <v>45873.095871359146</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>45871.21040632958</v>
+        <v>45873.109884844504</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
@@ -8276,21 +8971,11 @@
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1">
-        <v>45871.21041722164</v>
-      </c>
-      <c r="B11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" t="s">
-        <v>5</v>
+        <v>432</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/time_tracker.xlsx
+++ b/time_tracker.xlsx
@@ -2,10 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0428621-7B5C-4957-AB02-E0FD57D3919C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr filterPrivacy="true"/>
   <bookViews>
-    <workbookView xWindow="1695" yWindow="2160" windowWidth="33345" windowHeight="18315" firstSheet="124" activeTab="134" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11730" yWindow="2190" windowWidth="33345" windowHeight="18315" firstSheet="124" activeTab="134"/>
   </bookViews>
   <sheets>
     <sheet name="2025-03-23" sheetId="2" r:id="rId1"/>
@@ -143,6 +142,7 @@
     <sheet name="2025-08-02" sheetId="134" r:id="rId133"/>
     <sheet name="2025-08-03" sheetId="135" r:id="rId134"/>
     <sheet name="2025-08-04" sheetId="136" r:id="rId135"/>
+    <sheet name="2025-08-05" sheetId="137" r:id="rId139"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -162,7 +162,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6254" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="442">
   <si>
     <t>Timestamp</t>
   </si>
@@ -1461,13 +1461,40 @@
   </si>
   <si>
     <t>310.2 minutes</t>
+  </si>
+  <si>
+    <t>Debugging: Unit UI Scale</t>
+  </si>
+  <si>
+    <t>Debugging: Add connection to overarchind server</t>
+  </si>
+  <si>
+    <t>Debugging: Add connection to overarchind server: Done. need testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debugging: </t>
+  </si>
+  <si>
+    <t>Debugging: Netcode Connection turned Async</t>
+  </si>
+  <si>
+    <t>Adding logger to the overarching server and it's subsystems</t>
+  </si>
+  <si>
+    <t>Meeting with chatbot team</t>
+  </si>
+  <si>
+    <t>5.20 was done, timings are messed up a bit</t>
+  </si>
+  <si>
+    <t>91.8 minutes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1519,14 +1546,14 @@
     </fill>
     <fill>
       <patternFill patternType="none">
-        <fgColor auto="1"/>
-        <bgColor auto="1"/>
+        <fgColor auto="true"/>
+        <bgColor auto="true"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="none">
-        <fgColor auto="1"/>
-        <bgColor auto="1"/>
+        <fgColor auto="true"/>
+        <bgColor auto="true"/>
       </patternFill>
     </fill>
     <fill>
@@ -1537,8 +1564,8 @@
     </fill>
     <fill>
       <patternFill patternType="none">
-        <fgColor auto="1"/>
-        <bgColor auto="1"/>
+        <fgColor auto="true"/>
+        <bgColor auto="true"/>
       </patternFill>
     </fill>
   </fills>
@@ -1553,28 +1580,28 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="22" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="22" fontId="3" fillId="4" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="22" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="22" fontId="3" fillId="4" borderId="0" xfId="1" applyNumberFormat="true"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1"/>
-    <xf numFmtId="22" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="22" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="22" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="22" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true"/>
+    <xf numFmtId="22" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="22" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1587,7 +1614,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -8850,15 +8877,18 @@
 
 <file path=xl/worksheets/sheet135.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-8600-000000000000}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="true" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col bestFit="true" customWidth="true" max="1" min="1" width="13.85546875"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8872,7 +8902,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>45873.008196964045</v>
       </c>
@@ -8883,7 +8913,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>45873.015036086901</v>
       </c>
@@ -8894,7 +8924,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>45873.029726862595</v>
       </c>
@@ -8905,7 +8935,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>45873.050299780196</v>
       </c>
@@ -8916,7 +8946,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>45873.068435578534</v>
       </c>
@@ -8927,7 +8957,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>45873.068449467377</v>
       </c>
@@ -8938,7 +8968,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>45873.079761586792</v>
       </c>
@@ -8949,7 +8979,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="1">
         <v>45873.095871359146</v>
       </c>
@@ -8960,7 +8990,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="1">
         <v>45873.109884844504</v>
       </c>
@@ -8974,8 +9004,421 @@
         <v>432</v>
       </c>
     </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1">
+        <v>45873.111203225046</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1">
+        <v>45873.630167838644</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1">
+        <v>45873.637893921092</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1">
+        <v>45873.654935979255</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1">
+        <v>45873.655683273835</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1">
+        <v>45873.657214327999</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>45873.673758694953</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>45873.673890831917</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>45873.676408963089</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>45873.684428262612</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>45873.694204296044</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>45873.707207959407</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>45873.726665908682</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>45873.73305383369</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>45873.734834697731</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>45873.738276055759</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>45873.751738824882</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>45873.75174441695</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>45873.76616301242</v>
+      </c>
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>45873.786355335047</v>
+      </c>
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>45873.789831611917</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>45873.826159156168</v>
+      </c>
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>45873.846909722219</v>
+      </c>
+      <c r="B33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>45873.870080311754</v>
+      </c>
+      <c r="B34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>45873.906550925924</v>
+      </c>
+      <c r="B35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>45873.946250000001</v>
+      </c>
+      <c r="B36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1">
+        <v>45873.9728730562</v>
+      </c>
+      <c r="B37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1">
+        <v>45873.98445330121</v>
+      </c>
+      <c r="B38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1">
+        <v>45873.99261379901</v>
+      </c>
+      <c r="B39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1">
+        <v>45873.99540103074</v>
+      </c>
+      <c r="B40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet137.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>45874.00228702748</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>45874.036544740105</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>45874.0615212034</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>45874.06154589105</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>440</v>
+      </c>
+      <c r="D5" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>45874.061564303054</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>440</v>
+      </c>
+    </row>
+  </sheetData>
 </worksheet>
 </file>
 

--- a/time_tracker.xlsx
+++ b/time_tracker.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr filterPrivacy="true"/>
   <bookViews>
-    <workbookView xWindow="11730" yWindow="2190" windowWidth="33345" windowHeight="18315" firstSheet="124" activeTab="134"/>
+    <workbookView xWindow="4695" yWindow="2535" windowWidth="33345" windowHeight="18315" firstSheet="137" activeTab="147"/>
   </bookViews>
   <sheets>
     <sheet name="2025-03-23" sheetId="2" r:id="rId1"/>
@@ -142,7 +142,21 @@
     <sheet name="2025-08-02" sheetId="134" r:id="rId133"/>
     <sheet name="2025-08-03" sheetId="135" r:id="rId134"/>
     <sheet name="2025-08-04" sheetId="136" r:id="rId135"/>
-    <sheet name="2025-08-05" sheetId="137" r:id="rId139"/>
+    <sheet name="2025-08-05" sheetId="137" r:id="rId136"/>
+    <sheet name="2025-08-06" sheetId="138" r:id="rId137"/>
+    <sheet name="2025-08-07" sheetId="139" r:id="rId138"/>
+    <sheet name="2025-08-08" sheetId="140" r:id="rId139"/>
+    <sheet name="2025-08-09" sheetId="141" r:id="rId140"/>
+    <sheet name="2025-08-10" sheetId="142" r:id="rId141"/>
+    <sheet name="2025-08-11" sheetId="143" r:id="rId142"/>
+    <sheet name="2025-08-12" sheetId="144" r:id="rId143"/>
+    <sheet name="2025-08-13" sheetId="145" r:id="rId144"/>
+    <sheet name="2025-08-14" sheetId="146" r:id="rId145"/>
+    <sheet name="2025-08-15" sheetId="147" r:id="rId146"/>
+    <sheet name="2025-08-16" sheetId="148" r:id="rId147"/>
+    <sheet name="2025-08-17" sheetId="149" r:id="rId148"/>
+    <sheet name="2025-08-18" sheetId="150" r:id="rId152"/>
+    <sheet name="2025-08-19" sheetId="151" r:id="rId153"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -162,7 +176,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="512">
   <si>
     <t>Timestamp</t>
   </si>
@@ -1488,6 +1502,216 @@
   </si>
   <si>
     <t>91.8 minutes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">logger service </t>
+  </si>
+  <si>
+    <t>292.9 minutes</t>
+  </si>
+  <si>
+    <t>Debugging: unit selection</t>
+  </si>
+  <si>
+    <t>Finishing up logger</t>
+  </si>
+  <si>
+    <t>Finishing up logger transition</t>
+  </si>
+  <si>
+    <t>Finished up logger transition</t>
+  </si>
+  <si>
+    <t>Finished up logger transition: netcode + service provider</t>
+  </si>
+  <si>
+    <t>also done for rtc</t>
+  </si>
+  <si>
+    <t>Testing logging system for subsystems</t>
+  </si>
+  <si>
+    <t>webrtc radial UI</t>
+  </si>
+  <si>
+    <t>Debugging: rtc not setting ID</t>
+  </si>
+  <si>
+    <t>Debugging: rtc not setting ID Fixed</t>
+  </si>
+  <si>
+    <t>Debug: server not shutting down stale services</t>
+  </si>
+  <si>
+    <t>adding p2p to radial menu: was left undone</t>
+  </si>
+  <si>
+    <t>Fixed UI clipping through objects</t>
+  </si>
+  <si>
+    <t>lost 30 mins of work because I forgot to press start</t>
+  </si>
+  <si>
+    <t>tracking down why id and ugui are initialized so late</t>
+  </si>
+  <si>
+    <t>tracking down why id and ugui are initialized so late: fixed</t>
+  </si>
+  <si>
+    <t>117.6 minutes</t>
+  </si>
+  <si>
+    <t>Debug: units can spawn on inappropriate places</t>
+  </si>
+  <si>
+    <t>fixed map scale soft locking</t>
+  </si>
+  <si>
+    <t>fixed map scale soft locking Fixed (add individual min amount later)</t>
+  </si>
+  <si>
+    <t>Debugging: Raycaster</t>
+  </si>
+  <si>
+    <t>Debugging: Raycaster Fixed</t>
+  </si>
+  <si>
+    <t>Debugging: fine tuning scale</t>
+  </si>
+  <si>
+    <t>Debug: Unit UI</t>
+  </si>
+  <si>
+    <t>Debug: units not removing</t>
+  </si>
+  <si>
+    <t>5.20 done</t>
+  </si>
+  <si>
+    <t>303.8 minutes</t>
+  </si>
+  <si>
+    <t>Improving clean up for disconnected clients</t>
+  </si>
+  <si>
+    <t>meeting with semantic map team</t>
+  </si>
+  <si>
+    <t>UI indicator fixed</t>
+  </si>
+  <si>
+    <t>Buttonifying Map Offset</t>
+  </si>
+  <si>
+    <t>hours done</t>
+  </si>
+  <si>
+    <t>254.9 minutes</t>
+  </si>
+  <si>
+    <t>14.0 minutes</t>
+  </si>
+  <si>
+    <t>Buttonifying the map offset</t>
+  </si>
+  <si>
+    <t>Commentizing the code base</t>
+  </si>
+  <si>
+    <t>305.7 minutes</t>
+  </si>
+  <si>
+    <t>Commentizing</t>
+  </si>
+  <si>
+    <t>19.0 minutes</t>
+  </si>
+  <si>
+    <t>commentizing the code</t>
+  </si>
+  <si>
+    <t>daily hour done</t>
+  </si>
+  <si>
+    <t>271.5 minutes</t>
+  </si>
+  <si>
+    <t>Commenting</t>
+  </si>
+  <si>
+    <t>201.3 minutes</t>
+  </si>
+  <si>
+    <t>349.2 minutes</t>
+  </si>
+  <si>
+    <t>commenting the code base</t>
+  </si>
+  <si>
+    <t>257.2 minutes</t>
+  </si>
+  <si>
+    <t>117.7 minutes</t>
+  </si>
+  <si>
+    <t>247.2 minutes</t>
+  </si>
+  <si>
+    <t>debugging: movement not properly syncing</t>
+  </si>
+  <si>
+    <t>debugging: movement not properly syncing Fixed</t>
+  </si>
+  <si>
+    <t>debug: call buttons not lighting up as intended</t>
+  </si>
+  <si>
+    <t>debug: call buttons not lighting up as intended : Fixed</t>
+  </si>
+  <si>
+    <t>248.8 minutes</t>
+  </si>
+  <si>
+    <t>Debugging: map movement stackoverflow error</t>
+  </si>
+  <si>
+    <t>Debugging: map movement stackoverflow error Fixed</t>
+  </si>
+  <si>
+    <t>Debugg: leaving player not deleting</t>
+  </si>
+  <si>
+    <t>Debugg: leaving player not deleting Fixed</t>
+  </si>
+  <si>
+    <t>94.2 minutes</t>
+  </si>
+  <si>
+    <t>making read.me + PP</t>
+  </si>
+  <si>
+    <t>57.4 minutes</t>
+  </si>
+  <si>
+    <t>adding UI indicators to control panel</t>
+  </si>
+  <si>
+    <t>300.9 minutes</t>
+  </si>
+  <si>
+    <t>10.5 minutes</t>
+  </si>
+  <si>
+    <t>214.2 minutes</t>
+  </si>
+  <si>
+    <t>ppt</t>
+  </si>
+  <si>
+    <t>meeting with chatbot</t>
+  </si>
+  <si>
+    <t>404.1 minutes</t>
   </si>
 </sst>
 </file>
@@ -8877,18 +9101,18 @@
 
 <file path=xl/worksheets/sheet135.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-8600-000000000000}">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col bestFit="true" customWidth="true" max="1" min="1" width="13.85546875"/>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8902,7 +9126,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>45873.008196964045</v>
       </c>
@@ -8913,7 +9137,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>45873.015036086901</v>
       </c>
@@ -8924,7 +9148,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>45873.029726862595</v>
       </c>
@@ -8935,7 +9159,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>45873.050299780196</v>
       </c>
@@ -8946,7 +9170,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>45873.068435578534</v>
       </c>
@@ -8957,7 +9181,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>45873.068449467377</v>
       </c>
@@ -8968,7 +9192,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>45873.079761586792</v>
       </c>
@@ -8979,7 +9203,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>45873.095871359146</v>
       </c>
@@ -8990,7 +9214,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>45873.109884844504</v>
       </c>
@@ -9004,7 +9228,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>45873.111203225046</v>
       </c>
@@ -9015,7 +9239,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>45873.630167838644</v>
       </c>
@@ -9026,7 +9250,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>45873.637893921092</v>
       </c>
@@ -9037,7 +9261,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>45873.654935979255</v>
       </c>
@@ -9048,7 +9272,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>45873.655683273835</v>
       </c>
@@ -9059,7 +9283,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>45873.657214327999</v>
       </c>
@@ -9070,7 +9294,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>45873.673758694953</v>
       </c>
@@ -9081,7 +9305,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>45873.673890831917</v>
       </c>
@@ -9092,7 +9316,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>45873.676408963089</v>
       </c>
@@ -9103,7 +9327,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>45873.684428262612</v>
       </c>
@@ -9114,7 +9338,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>45873.694204296044</v>
       </c>
@@ -9125,7 +9349,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>45873.707207959407</v>
       </c>
@@ -9136,7 +9360,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>45873.726665908682</v>
       </c>
@@ -9147,7 +9371,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>45873.73305383369</v>
       </c>
@@ -9158,7 +9382,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>45873.734834697731</v>
       </c>
@@ -9169,7 +9393,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>45873.738276055759</v>
       </c>
@@ -9180,7 +9404,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>45873.751738824882</v>
       </c>
@@ -9191,7 +9415,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>45873.75174441695</v>
       </c>
@@ -9202,7 +9426,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>45873.76616301242</v>
       </c>
@@ -9213,7 +9437,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>45873.786355335047</v>
       </c>
@@ -9224,7 +9448,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>45873.789831611917</v>
       </c>
@@ -9235,7 +9459,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>45873.826159156168</v>
       </c>
@@ -9246,7 +9470,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>45873.846909722219</v>
       </c>
@@ -9257,7 +9481,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>45873.870080311754</v>
       </c>
@@ -9268,7 +9492,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>45873.906550925924</v>
       </c>
@@ -9279,7 +9503,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>45873.946250000001</v>
       </c>
@@ -9290,9 +9514,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>45873.9728730562</v>
+        <v>45873.972873056198</v>
       </c>
       <c r="B37" t="s">
         <v>8</v>
@@ -9301,9 +9525,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>45873.98445330121</v>
+        <v>45873.984453301207</v>
       </c>
       <c r="B38" t="s">
         <v>9</v>
@@ -9312,9 +9536,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>45873.99261379901</v>
+        <v>45873.992613799011</v>
       </c>
       <c r="B39" t="s">
         <v>8</v>
@@ -9323,15 +9547,320 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>45873.99540103074</v>
+        <v>45873.995401030741</v>
       </c>
       <c r="B40" t="s">
         <v>9</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet136.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-8700-000000000000}">
+  <dimension ref="A1:D26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>45874.002287027477</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>45874.036544740105</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>45874.061521203403</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>45874.061545891047</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>440</v>
+      </c>
+      <c r="D5" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>45874.061564303054</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>45874.716038079707</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>45874.717756630991</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>45874.790619092229</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>45874.793945864491</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>45874.806814888136</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>45874.81301319132</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>45874.825099225382</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>45874.855785760272</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>45874.868067210475</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>45874.875340346371</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>45874.890098639655</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>45874.91982028629</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>45874.923673291887</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>45874.928938340476</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>45874.933892821478</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>45874.94711291579</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>45874.949589388794</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>45874.960120819771</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>45874.963283820369</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>45874.987609437274</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" t="s">
+        <v>442</v>
       </c>
     </row>
   </sheetData>
@@ -9340,13 +9869,14 @@
 </file>
 
 <file path=xl/worksheets/sheet137.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-8800-000000000000}">
+  <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9360,65 +9890,1272 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>45874.00228702748</v>
+        <v>45875.003896285409</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>45874.036544740105</v>
+        <v>45875.059622165922</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>45874.0615212034</v>
+        <v>45875.083188137083</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>45874.06154589105</v>
+        <v>45875.099040955633</v>
       </c>
       <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>45875.09915631172</v>
+      </c>
+      <c r="B6" t="s">
         <v>10</v>
       </c>
+      <c r="C6" t="s">
+        <v>442</v>
+      </c>
+      <c r="D6" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>45875.099168769739</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>45875.482730873337</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>45875.523055135614</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>45875.644733343142</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>45875.651932613451</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>45875.665726407417</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>45875.671528678256</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>45875.671532531342</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>45875.684373966877</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>45875.688061277935</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>45875.700254173506</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>45875.700273084127</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>45875.700704791154</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>45875.70071000122</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>45875.773434467534</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>45875.774812551674</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>45875.776138168425</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>45875.807637201164</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>45875.818003909466</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>45875.818181376308</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>45875.818186011122</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>45875.829890866531</v>
+      </c>
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>45875.82989723394</v>
+      </c>
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>45875.83466304763</v>
+      </c>
+      <c r="B30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>45875.843751978078</v>
+      </c>
+      <c r="B31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>45875.857868855841</v>
+      </c>
+      <c r="B32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>45875.857872926565</v>
+      </c>
+      <c r="B33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>45875.882627597661</v>
+      </c>
+      <c r="B34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>45875.889136234815</v>
+      </c>
+      <c r="B35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>45875.889808534244</v>
+      </c>
+      <c r="B36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>45875.889810037035</v>
+      </c>
+      <c r="B37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>45875.919135845346</v>
+      </c>
+      <c r="B38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>45875.944252550791</v>
+      </c>
+      <c r="B39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>45875.966886321236</v>
+      </c>
+      <c r="B40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>45875.990408573038</v>
+      </c>
+      <c r="B41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" t="s">
+        <v>454</v>
+      </c>
+      <c r="D41" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>45875.990447109325</v>
+      </c>
+      <c r="B42" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" t="s">
+        <v>454</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet138.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-8900-000000000000}">
+  <dimension ref="A1:D23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>45876.557034869656</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>45876.564890580543</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>45876.564894822426</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>45876.584848921069</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
       <c r="C5" t="s">
-        <v>440</v>
-      </c>
-      <c r="D5" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>45874.061564303054</v>
+        <v>45876.639884987562</v>
       </c>
       <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>45876.66508444037</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>45876.674674335314</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>45876.700190351883</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>45876.741399638602</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>45876.747861057003</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>45876.747868773942</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>45876.761782355432</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>45876.769629629627</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>45876.791365740741</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>45876.880078071299</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>45876.885576914283</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>45876.891387872056</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>45876.90052212913</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>45876.92192837652</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>45876.945359125224</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>45876.990439176974</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>45876.990439562156</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet139.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-8A00-000000000000}">
+  <dimension ref="A1:D47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>45877.001218500147</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>45877.001405226147</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>45877.001414099963</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>45877.004960200458</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>45877.016076137807</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>45877.036302023131</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>45877.123684346894</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>45877.12432015287</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>45877.13512416622</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>45877.146369920476</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>45877.155168335208</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>45877.157391717905</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>45877.160858922158</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>45877.166550090064</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>45877.166623582714</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
+        <v>459</v>
+      </c>
+      <c r="D16" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>45877.166644555517</v>
+      </c>
+      <c r="B17" t="s">
         <v>4</v>
       </c>
-      <c r="C6" t="s">
-        <v>440</v>
+      <c r="C17" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>45877.525077572776</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>45877.532602456013</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>45877.63195638144</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>45877.645860704084</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>45877.664307462037</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>45877.689051676723</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>45877.70073647199</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>45877.717481841253</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>45877.726891951432</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>45877.727075399838</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>45877.727080992045</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>45877.737792798835</v>
+      </c>
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>45877.757237819213</v>
+      </c>
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>45877.779637703963</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>45877.779719689068</v>
+      </c>
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>45877.786161430296</v>
+      </c>
+      <c r="B33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>45877.788312280805</v>
+      </c>
+      <c r="B34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>45877.80266278307</v>
+      </c>
+      <c r="B35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>45877.819921848059</v>
+      </c>
+      <c r="B36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>45877.82106189381</v>
+      </c>
+      <c r="B37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>45877.821074623345</v>
+      </c>
+      <c r="B38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>45877.860578862812</v>
+      </c>
+      <c r="B39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>45877.862959652855</v>
+      </c>
+      <c r="B40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>45877.880509235671</v>
+      </c>
+      <c r="B41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>45877.904346029798</v>
+      </c>
+      <c r="B42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>45877.909996302034</v>
+      </c>
+      <c r="B43" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>45877.924835616708</v>
+      </c>
+      <c r="B44" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>45877.943209068289</v>
+      </c>
+      <c r="B45" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>45877.943215438645</v>
+      </c>
+      <c r="B46" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>45877.96291200148</v>
+      </c>
+      <c r="B47" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" t="s">
+        <v>468</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -9557,6 +11294,3233 @@
       </c>
       <c r="C11" t="s">
         <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet140.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-8B00-000000000000}">
+  <dimension ref="A1:D37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>45878.079608561289</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>469</v>
+      </c>
+      <c r="D2" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>45878.079640440461</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>45878.497615740744</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>45878.521845837</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>45878.523430905581</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>45878.531076174069</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>45878.573683992203</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>45878.575253821546</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>45878.57525459255</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>45878.585453281084</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>45878.6085623576</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>45878.61592771767<